--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -396,7 +396,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -404,11 +404,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sergio Ortega Gil</t>
+          <t>Isabel Rodríguez Godoy</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.3761785115301142</v>
       </c>
     </row>
     <row r="3">
@@ -417,7 +417,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions SL</t>
+          <t>InboundCycle</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -425,11 +425,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Maria Isabel Llanes Agudelo</t>
+          <t>Daniel García Martínez</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.3816524151396708</v>
+        <v>0.3763102827673971</v>
       </c>
     </row>
     <row r="4">
@@ -446,11 +446,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Enrique Anaya Marin</t>
+          <t>Baltasar Torres Garcia</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.3853944067973273</v>
+        <v>0.406922021700526</v>
       </c>
     </row>
     <row r="5">
@@ -467,11 +467,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Francisco Leston Ramos</t>
+          <t>Alfredo Hinarejos Corbeá</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.3483314773547883</v>
+        <v>0.3145198591387565</v>
       </c>
     </row>
     <row r="6">
@@ -480,7 +480,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Atomian</t>
+          <t>C14TORCE</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -488,11 +488,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Verónica Celemín Lominchar</t>
+          <t>Abel Colmenares Napolitano</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.2568080306030585</v>
+        <v>0.2183665833497641</v>
       </c>
     </row>
     <row r="7">
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions</t>
+          <t>Atomian</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -509,11 +509,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
+          <t>Francisco Leston Ramos</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.387425886722793</v>
+        <v>0.2402530733520421</v>
       </c>
     </row>
     <row r="8">
@@ -522,7 +522,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>C14TORCE</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -530,11 +530,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Daniel García Martínez</t>
+          <t>Javier Requejo Melchor</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2258444000186532</v>
+        <v>0.2147268606635241</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -551,11 +551,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mario Quiroga Cuervo</t>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.2380067155369107</v>
+        <v>0.23166247903554</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +564,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -572,7 +572,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Isabel Rodríguez Godoy</t>
+          <t>Thilo Sperber</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -585,7 +585,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -593,11 +593,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Abel Colmenares Napolitano</t>
+          <t>Sofia Jordan</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.1987625491245426</v>
+        <v>0.1975496259559987</v>
       </c>
     </row>
     <row r="12">
@@ -606,7 +606,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>SEAT</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -614,11 +614,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Daniel Herrero Hernando</t>
+          <t>Moisés García Almeida</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.3316128774121265</v>
+        <v>0.2493597386134658</v>
       </c>
     </row>
     <row r="13">
@@ -635,11 +635,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Alfonso Silva Feria</t>
+          <t>Maria Cristina Blanco</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.222763277794282</v>
+        <v>0.1970182048534694</v>
       </c>
     </row>
     <row r="14">
@@ -648,7 +648,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -656,11 +656,11 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Thilo Sperber</t>
+          <t>Patricia Defez Díaz de Sarralde</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.179617168213338</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="15">
@@ -669,7 +669,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -677,11 +677,11 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sofia Jordan</t>
+          <t>Carlos Martínez Crespo</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.1782603569701947</v>
+        <v>0.2474401533514072</v>
       </c>
     </row>
     <row r="16">
@@ -698,11 +698,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Baltasar Torres Garcia</t>
+          <t>Sergio Ortega Gil</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.1673657762329726</v>
+        <v>0.2038684096809353</v>
       </c>
     </row>
     <row r="17">
@@ -719,11 +719,11 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Alfredo Hinarejos Corbeá</t>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.1693378522531012</v>
+        <v>0.1689759926488242</v>
       </c>
     </row>
     <row r="18">
@@ -740,11 +740,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
+          <t>Nerea Aparicio</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.1467383367560077</v>
+        <v>0.1472035351440532</v>
       </c>
     </row>
     <row r="19">
@@ -761,11 +761,11 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Maria Cristina Blanco</t>
+          <t>Rodrigo Otero Montero</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.150096606082996</v>
+        <v>0.1630135985188703</v>
       </c>
     </row>
     <row r="20">
@@ -782,11 +782,11 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Eugenio Ruiz Cepeda</t>
+          <t>Mario Quiroga Cuervo</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.3463253107581219</v>
+        <v>0.449489742783178</v>
       </c>
     </row>
     <row r="21">
@@ -803,11 +803,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Dan Mihai Grigoriciuc</t>
+          <t>Alfonso Silva Feria</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.4266740168893551</v>
+        <v>0.3880134945992159</v>
       </c>
     </row>
     <row r="22">
@@ -824,11 +824,11 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Javier Requejo Melchor</t>
+          <t>Verónica Celemín Lominchar</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.4661337257979153</v>
+        <v>0.5364111542698436</v>
       </c>
     </row>
     <row r="23">
@@ -845,11 +845,11 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Nira Alonso Rodríguez</t>
+          <t>Maria Isabel Llanes Agudelo</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3299230723708768</v>
       </c>
     </row>
     <row r="24">
@@ -866,11 +866,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Nerea Aparicio</t>
+          <t>Nira Alonso Rodríguez</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.2277299991964413</v>
+        <v>0.2240092377397958</v>
       </c>
     </row>
     <row r="25">
@@ -879,7 +879,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions</t>
+          <t>Atomian</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -887,11 +887,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+          <t>Eugenio Ruiz Cepeda</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.2123999406704181</v>
+        <v>0.2135506440329599</v>
       </c>
     </row>
     <row r="26">
@@ -900,7 +900,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Atomian</t>
+          <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -908,11 +908,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
+          <t>Javier Pérez-Chao Rodríguez</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.2493517698850324</v>
+        <v>0.387425886722793</v>
       </c>
     </row>
     <row r="27">
@@ -921,7 +921,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -929,11 +929,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Roberto Muñoz Aragón</t>
+          <t>Dan Mihai Grigoriciuc</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.2176509175625895</v>
+        <v>0.2171292729553324</v>
       </c>
     </row>
     <row r="28">
@@ -942,7 +942,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -950,11 +950,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Rodrigo Otero Montero</t>
+          <t>Roberto Muñoz Aragón</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.2272595996093377</v>
+        <v>0.2176509175625895</v>
       </c>
     </row>
     <row r="29">
@@ -963,7 +963,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Volcanic Internet</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -971,11 +971,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Carlos Martínez Crespo</t>
+          <t>Enrique Anaya Marin</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.2762910041374894</v>
+        <v>0.2094277145385189</v>
       </c>
     </row>
     <row r="30">
@@ -984,7 +984,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>SEAT</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -992,11 +992,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Moisés García Almeida</t>
+          <t>Daniel Herrero Hernando</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.2513216808752189</v>
+        <v>0.3547131518625939</v>
       </c>
     </row>
     <row r="31">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>Volcanic Internet</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1013,11 +1013,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Sergio Ortega Gil</t>
+          <t>Isabel Rodríguez Godoy</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.2187841884486319</v>
+        <v>0.1990353886870121</v>
       </c>
     </row>
     <row r="32">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1034,11 +1034,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Maria Isabel Llanes Agudelo</t>
+          <t>Daniel García Martínez</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1984570517780165</v>
+        <v>0.1841616798210651</v>
       </c>
     </row>
     <row r="33">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1055,11 +1055,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Enrique Anaya Marin</t>
+          <t>Baltasar Torres Garcia</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.1975496259559987</v>
+        <v>0.179128784747792</v>
       </c>
     </row>
     <row r="34">
@@ -1076,11 +1076,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Francisco Leston Ramos</t>
+          <t>Alfredo Hinarejos Corbeá</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.1902821941341109</v>
+        <v>0.1695208471985372</v>
       </c>
     </row>
     <row r="35">
@@ -1097,11 +1097,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Verónica Celemín Lominchar</t>
+          <t>Abel Colmenares Napolitano</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.1853705915528593</v>
+        <v>0.1659768169303276</v>
       </c>
     </row>
     <row r="36">
@@ -1118,11 +1118,11 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
+          <t>Francisco Leston Ramos</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.2200529054866557</v>
+        <v>0.1710079936629479</v>
       </c>
     </row>
     <row r="37">
@@ -1139,11 +1139,11 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Daniel García Martínez</t>
+          <t>Javier Requejo Melchor</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.1473263547743964</v>
+        <v>0.1491122726417953</v>
       </c>
     </row>
     <row r="38">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions SL</t>
+          <t>AKKA</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1160,11 +1160,11 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mario Quiroga Cuervo</t>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.449489742783178</v>
+        <v>0.4449944320643648</v>
       </c>
     </row>
     <row r="39">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1181,11 +1181,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Isabel Rodríguez Godoy</t>
+          <t>Thilo Sperber</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.3510714832006495</v>
+        <v>0.3660254037844386</v>
       </c>
     </row>
     <row r="40">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AKKA</t>
+          <t>InboundCycle</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1202,11 +1202,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Abel Colmenares Napolitano</t>
+          <t>Sofia Jordan</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.4262045560413859</v>
+        <v>0.3735453699999129</v>
       </c>
     </row>
     <row r="41">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>C14TORCE</t>
+          <t>Project Lobster</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1223,11 +1223,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Daniel Herrero Hernando</t>
+          <t>Moisés García Almeida</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.426412966485861</v>
+        <v>0.3636655193545664</v>
       </c>
     </row>
     <row r="42">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Project Lobster</t>
+          <t>C14TORCE</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1244,11 +1244,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Alfonso Silva Feria</t>
+          <t>Maria Cristina Blanco</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.3735774749920213</v>
+        <v>0.2277299991964413</v>
       </c>
     </row>
     <row r="43">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Atomian</t>
+          <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1265,11 +1265,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Thilo Sperber</t>
+          <t>Patricia Defez Díaz de Sarralde</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.2167219128456158</v>
+        <v>0.2052130961576726</v>
       </c>
     </row>
     <row r="44">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions</t>
+          <t>Atomian</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1286,11 +1286,11 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Sofia Jordan</t>
+          <t>Carlos Martínez Crespo</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.2038684096809353</v>
+        <v>0.328283280373176</v>
       </c>
     </row>
     <row r="45">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>Volcanic Internet</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1307,11 +1307,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Baltasar Torres Garcia</t>
+          <t>Sergio Ortega Gil</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.1987625491245426</v>
+        <v>0.2569664507071126</v>
       </c>
     </row>
     <row r="46">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1328,11 +1328,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Alfredo Hinarejos Corbeá</t>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.1984721022902554</v>
+        <v>0.2019040735186649</v>
       </c>
     </row>
     <row r="47">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Volcanic Internet</t>
+          <t>SEAT</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1349,11 +1349,11 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
+          <t>Nerea Aparicio</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.1946829030205005</v>
+        <v>0.1963604054562682</v>
       </c>
     </row>
     <row r="48">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1370,11 +1370,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Maria Cristina Blanco</t>
+          <t>Rodrigo Otero Montero</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1963604054562682</v>
+        <v>0.2272595996093377</v>
       </c>
     </row>
     <row r="49">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1391,11 +1391,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Eugenio Ruiz Cepeda</t>
+          <t>Mario Quiroga Cuervo</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.1856154626682773</v>
+        <v>0.2123999406704181</v>
       </c>
     </row>
     <row r="50">
@@ -1412,11 +1412,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Dan Mihai Grigoriciuc</t>
+          <t>Alfonso Silva Feria</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.2171292729553324</v>
+        <v>0.1996882911515585</v>
       </c>
     </row>
     <row r="51">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1433,11 +1433,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Javier Requejo Melchor</t>
+          <t>Verónica Celemín Lominchar</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.2200739922276217</v>
       </c>
     </row>
     <row r="52">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Exoticca</t>
+          <t>Bluekik</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1454,11 +1454,11 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Nira Alonso Rodríguez</t>
+          <t>Maria Isabel Llanes Agudelo</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.1684344913510188</v>
+        <v>0.180294370773025</v>
       </c>
     </row>
     <row r="53">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Bluekik</t>
+          <t>Exoticca</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1475,11 +1475,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Nerea Aparicio</t>
+          <t>Nira Alonso Rodríguez</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.1695299004119388</v>
+        <v>0.1684344913510188</v>
       </c>
     </row>
     <row r="54">
@@ -1496,11 +1496,11 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+          <t>Eugenio Ruiz Cepeda</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1462777698287902</v>
+        <v>0.1511018818343086</v>
       </c>
     </row>
     <row r="55">
@@ -1517,11 +1517,11 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
+          <t>Javier Pérez-Chao Rodríguez</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.1649610255144721</v>
+        <v>0.2163619091635631</v>
       </c>
     </row>
     <row r="56">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>AKKA</t>
+          <t>InboundCycle</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1538,11 +1538,11 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Roberto Muñoz Aragón</t>
+          <t>Dan Mihai Grigoriciuc</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.430717277360874</v>
+        <v>0.4266740168893551</v>
       </c>
     </row>
     <row r="57">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Project Lobster</t>
+          <t>AKKA</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1559,11 +1559,11 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Rodrigo Otero Montero</t>
+          <t>Roberto Muñoz Aragón</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.3613305887651133</v>
+        <v>0.430717277360874</v>
       </c>
     </row>
     <row r="58">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1580,11 +1580,11 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Carlos Martínez Crespo</t>
+          <t>Enrique Anaya Marin</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.5015528100075709</v>
+        <v>0.387425886722793</v>
       </c>
     </row>
     <row r="59">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions SL</t>
+          <t>C14TORCE</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1601,11 +1601,11 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Moisés García Almeida</t>
+          <t>Daniel Herrero Hernando</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.3463498301839386</v>
+        <v>0.426412966485861</v>
       </c>
     </row>
     <row r="60">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Atomian</t>
+          <t>Project Lobster</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1622,11 +1622,11 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Sergio Ortega Gil</t>
+          <t>Isabel Rodríguez Godoy</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.3013496283140402</v>
+        <v>0.3483314773547883</v>
       </c>
     </row>
     <row r="61">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>C14TORCE</t>
+          <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1643,11 +1643,11 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Maria Isabel Llanes Agudelo</t>
+          <t>Daniel García Martínez</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.2286924714031817</v>
+        <v>0.2123999406704181</v>
       </c>
     </row>
     <row r="62">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions</t>
+          <t>Atomian</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1664,11 +1664,11 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Enrique Anaya Marin</t>
+          <t>Baltasar Torres Garcia</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.2123999406704181</v>
+        <v>0.2135506440329599</v>
       </c>
     </row>
     <row r="63">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Volcanic Internet</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1685,11 +1685,11 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Francisco Leston Ramos</t>
+          <t>Alfredo Hinarejos Corbeá</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.2257927531792018</v>
+        <v>0.2022271903529528</v>
       </c>
     </row>
     <row r="64">
@@ -1706,11 +1706,11 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Verónica Celemín Lominchar</t>
+          <t>Abel Colmenares Napolitano</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.2200739922276217</v>
+        <v>0.1987625491245426</v>
       </c>
     </row>
     <row r="65">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>Volcanic Internet</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1727,11 +1727,11 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
+          <t>Francisco Leston Ramos</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.3483314773547883</v>
+        <v>0.2257927531792018</v>
       </c>
     </row>
     <row r="66">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>SEAT</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1748,11 +1748,11 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Daniel García Martínez</t>
+          <t>Javier Requejo Melchor</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.2022271903529528</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="67">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1769,11 +1769,11 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Mario Quiroga Cuervo</t>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.2123999406704181</v>
+        <v>0.2204812092115424</v>
       </c>
     </row>
     <row r="68">
@@ -1790,11 +1790,11 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Isabel Rodríguez Godoy</t>
+          <t>Thilo Sperber</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.187924095795002</v>
+        <v>0.179617168213338</v>
       </c>
     </row>
     <row r="69">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1811,11 +1811,11 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Abel Colmenares Napolitano</t>
+          <t>Sofia Jordan</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.1815890793180576</v>
+        <v>0.1782603569701947</v>
       </c>
     </row>
     <row r="70">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Exoticca</t>
+          <t>Bluekik</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1832,11 +1832,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Daniel Herrero Hernando</t>
+          <t>Moisés García Almeida</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.2735058013901622</v>
+        <v>0.2151612003824734</v>
       </c>
     </row>
     <row r="71">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Bluekik</t>
+          <t>Exoticca</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1853,11 +1853,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Alfonso Silva Feria</t>
+          <t>Maria Cristina Blanco</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.1863840157607778</v>
+        <v>0.1695208471985372</v>
       </c>
     </row>
     <row r="72">
@@ -1874,11 +1874,11 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Thilo Sperber</t>
+          <t>Patricia Defez Díaz de Sarralde</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.1467383367560077</v>
       </c>
     </row>
     <row r="73">
@@ -1895,11 +1895,11 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Sofia Jordan</t>
+          <t>Carlos Martínez Crespo</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.1413931400904685</v>
+        <v>0.1679314358495421</v>
       </c>
     </row>
     <row r="74">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>AKKA</t>
+          <t>InboundCycle</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1916,11 +1916,11 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Baltasar Torres Garcia</t>
+          <t>Sergio Ortega Gil</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.406922021700526</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Alfredo Hinarejos Corbeá</t>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>AKKA</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1958,11 +1958,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
+          <t>Nerea Aparicio</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.3638990660839067</v>
+        <v>0.3321405664814796</v>
       </c>
     </row>
     <row r="77">
@@ -1979,11 +1979,11 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Maria Cristina Blanco</t>
+          <t>Rodrigo Otero Montero</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.3145198591387565</v>
+        <v>0.3613305887651133</v>
       </c>
     </row>
     <row r="78">
@@ -2000,11 +2000,11 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Eugenio Ruiz Cepeda</t>
+          <t>Mario Quiroga Cuervo</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.2217827369639381</v>
+        <v>0.3090169943749474</v>
       </c>
     </row>
     <row r="79">
@@ -2021,11 +2021,11 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Dan Mihai Grigoriciuc</t>
+          <t>Alfonso Silva Feria</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.2369092993793366</v>
+        <v>0.2568168231494444</v>
       </c>
     </row>
     <row r="80">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -2042,11 +2042,11 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Javier Requejo Melchor</t>
+          <t>Verónica Celemín Lominchar</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.2147268606635241</v>
+        <v>0.2183665833497641</v>
       </c>
     </row>
     <row r="81">
@@ -2063,11 +2063,11 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Nira Alonso Rodríguez</t>
+          <t>Maria Isabel Llanes Agudelo</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.206587118104313</v>
+        <v>0.2204812092115424</v>
       </c>
     </row>
     <row r="82">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Nerea Aparicio</t>
+          <t>Nira Alonso Rodríguez</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -2105,11 +2105,11 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+          <t>Eugenio Ruiz Cepeda</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.1940499650128638</v>
+        <v>0.1996882911515585</v>
       </c>
     </row>
     <row r="84">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -2126,11 +2126,11 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
+          <t>Javier Pérez-Chao Rodríguez</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.23166247903554</v>
+        <v>0.303832434700687</v>
       </c>
     </row>
     <row r="85">
@@ -2147,11 +2147,11 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Roberto Muñoz Aragón</t>
+          <t>Dan Mihai Grigoriciuc</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.1966226691426109</v>
+        <v>0.2164068025100977</v>
       </c>
     </row>
     <row r="86">
@@ -2168,11 +2168,11 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Rodrigo Otero Montero</t>
+          <t>Roberto Muñoz Aragón</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.2151171476005365</v>
+        <v>0.1929272807679017</v>
       </c>
     </row>
     <row r="87">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2189,11 +2189,11 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Carlos Martínez Crespo</t>
+          <t>Enrique Anaya Marin</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.2272595996093377</v>
+        <v>0.208816527736411</v>
       </c>
     </row>
     <row r="88">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Bluekik</t>
+          <t>Exoticca</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -2210,11 +2210,11 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Moisés García Almeida</t>
+          <t>Daniel Herrero Hernando</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.2151612003824734</v>
+        <v>0.2735058013901622</v>
       </c>
     </row>
     <row r="89">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Exoticca</t>
+          <t>Bluekik</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -2231,11 +2231,11 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Sergio Ortega Gil</t>
+          <t>Isabel Rodríguez Godoy</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.2035366959388389</v>
+        <v>0.1770399302822591</v>
       </c>
     </row>
     <row r="90">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Movetia</t>
+          <t>CAPITOLE CONSULTING</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -2252,11 +2252,11 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Maria Isabel Llanes Agudelo</t>
+          <t>Daniel García Martínez</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.1530459377314654</v>
+        <v>0.1473263547743964</v>
       </c>
     </row>
     <row r="91">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CAPITOLE CONSULTING</t>
+          <t>Movetia</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -2273,11 +2273,11 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Enrique Anaya Marin</t>
+          <t>Baltasar Torres Garcia</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.1542663579739793</v>
+        <v>0.1476734449611636</v>
       </c>
     </row>
     <row r="92">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -2294,11 +2294,11 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Francisco Leston Ramos</t>
+          <t>Alfredo Hinarejos Corbeá</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.4193861568941954</v>
+        <v>0.387425886722793</v>
       </c>
     </row>
     <row r="93">
@@ -2315,11 +2315,11 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Verónica Celemín Lominchar</t>
+          <t>Abel Colmenares Napolitano</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.5364111542698436</v>
+        <v>0.4262045560413859</v>
       </c>
     </row>
     <row r="94">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions SL</t>
+          <t>InboundCycle</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -2336,11 +2336,11 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
+          <t>Francisco Leston Ramos</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.4721359549995794</v>
+        <v>0.4193861568941954</v>
       </c>
     </row>
     <row r="95">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Daniel García Martínez</t>
+          <t>Javier Requejo Melchor</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>C14TORCE</t>
+          <t>Atomian</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -2378,11 +2378,11 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Mario Quiroga Cuervo</t>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.3090169943749474</v>
+        <v>0.2493517698850324</v>
       </c>
     </row>
     <row r="97">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>C14TORCE</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -2399,11 +2399,11 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Isabel Rodríguez Godoy</t>
+          <t>Thilo Sperber</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.2176305827856446</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="98">
@@ -2412,7 +2412,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Atomian</t>
+          <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -2420,11 +2420,11 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Abel Colmenares Napolitano</t>
+          <t>Sofia Jordan</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.2062408021419122</v>
+        <v>0.2038684096809353</v>
       </c>
     </row>
     <row r="99">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -2441,11 +2441,11 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Daniel Herrero Hernando</t>
+          <t>Moisés García Almeida</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.3763102827673971</v>
+        <v>0.2513216808752189</v>
       </c>
     </row>
     <row r="100">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>SEAT</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -2462,11 +2462,11 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Alfonso Silva Feria</t>
+          <t>Maria Cristina Blanco</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.207641916886062</v>
+        <v>0.1963604054562682</v>
       </c>
     </row>
     <row r="101">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>Volcanic Internet</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -2483,11 +2483,11 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Thilo Sperber</t>
+          <t>Patricia Defez Díaz de Sarralde</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.193603910635513</v>
+        <v>0.1946829030205005</v>
       </c>
     </row>
     <row r="102">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -2504,11 +2504,11 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Sofia Jordan</t>
+          <t>Carlos Martínez Crespo</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.1918253663634734</v>
+        <v>0.2513216808752189</v>
       </c>
     </row>
     <row r="103">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Volcanic Internet</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -2525,11 +2525,11 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Baltasar Torres Garcia</t>
+          <t>Sergio Ortega Gil</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.1921598984882187</v>
+        <v>0.2187841884486319</v>
       </c>
     </row>
     <row r="104">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -2546,11 +2546,11 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Alfredo Hinarejos Corbeá</t>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1871847275245008</v>
       </c>
     </row>
     <row r="105">
@@ -2567,11 +2567,11 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
+          <t>Nerea Aparicio</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.1809073112342927</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="106">
@@ -2588,11 +2588,11 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Maria Cristina Blanco</t>
+          <t>Rodrigo Otero Montero</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.1695208471985372</v>
+        <v>0.1896942664003862</v>
       </c>
     </row>
     <row r="107">
@@ -2609,11 +2609,11 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Eugenio Ruiz Cepeda</t>
+          <t>Mario Quiroga Cuervo</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.1717768763415363</v>
+        <v>0.1929272807679017</v>
       </c>
     </row>
     <row r="108">
@@ -2630,11 +2630,11 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Dan Mihai Grigoriciuc</t>
+          <t>Alfonso Silva Feria</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.1547967867057836</v>
+        <v>0.1610800718548306</v>
       </c>
     </row>
     <row r="109">
@@ -2651,11 +2651,11 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Javier Requejo Melchor</t>
+          <t>Verónica Celemín Lominchar</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.1491122726417953</v>
+        <v>0.1593941548692679</v>
       </c>
     </row>
     <row r="110">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>AKKA</t>
+          <t>InboundCycle</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -2672,11 +2672,11 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Nira Alonso Rodríguez</t>
+          <t>Maria Isabel Llanes Agudelo</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.3552750833892311</v>
+        <v>0.3884193593065456</v>
       </c>
     </row>
     <row r="111">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions SL</t>
+          <t>AKKA</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -2693,11 +2693,11 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Nerea Aparicio</t>
+          <t>Nira Alonso Rodríguez</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.3761785115301142</v>
+        <v>0.3552750833892311</v>
       </c>
     </row>
     <row r="112">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -2714,11 +2714,11 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+          <t>Eugenio Ruiz Cepeda</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.3548466588893287</v>
+        <v>0.3463253107581219</v>
       </c>
     </row>
     <row r="113">
@@ -2735,11 +2735,11 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
+          <t>Javier Pérez-Chao Rodríguez</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.3483314773547883</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="114">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>C14TORCE</t>
+          <t>Atomian</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -2756,11 +2756,11 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Roberto Muñoz Aragón</t>
+          <t>Dan Mihai Grigoriciuc</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.2296684845121643</v>
+        <v>0.2369092993793366</v>
       </c>
     </row>
     <row r="115">
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Atomian</t>
+          <t>C14TORCE</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -2777,11 +2777,11 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Rodrigo Otero Montero</t>
+          <t>Roberto Muñoz Aragón</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.2513216808752189</v>
+        <v>0.2296684845121643</v>
       </c>
     </row>
     <row r="116">
@@ -2798,11 +2798,11 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Carlos Martínez Crespo</t>
+          <t>Enrique Anaya Marin</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.266676643600682</v>
+        <v>0.2123999406704181</v>
       </c>
     </row>
     <row r="117">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -2819,11 +2819,11 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Moisés García Almeida</t>
+          <t>Daniel Herrero Hernando</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.2493597386134658</v>
+        <v>0.3316128774121265</v>
       </c>
     </row>
     <row r="118">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Volcanic Internet</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -2840,11 +2840,11 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Sergio Ortega Gil</t>
+          <t>Isabel Rodríguez Godoy</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.2569664507071126</v>
+        <v>0.2176305827856446</v>
       </c>
     </row>
     <row r="119">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>Volcanic Internet</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -2861,11 +2861,11 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Maria Isabel Llanes Agudelo</t>
+          <t>Daniel García Martínez</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.2059727496485862</v>
+        <v>0.1967213114754098</v>
       </c>
     </row>
     <row r="120">
@@ -2882,11 +2882,11 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Enrique Anaya Marin</t>
+          <t>Baltasar Torres Garcia</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.208816527736411</v>
+        <v>0.1960703281139104</v>
       </c>
     </row>
     <row r="121">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>SEAT</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -2903,11 +2903,11 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Francisco Leston Ramos</t>
+          <t>Alfredo Hinarejos Corbeá</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.2070129796134778</v>
+        <v>0.1940499650128638</v>
       </c>
     </row>
     <row r="122">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -2924,11 +2924,11 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Verónica Celemín Lominchar</t>
+          <t>Abel Colmenares Napolitano</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.2155146893583885</v>
+        <v>0.1782603569701947</v>
       </c>
     </row>
     <row r="123">
@@ -2945,11 +2945,11 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
+          <t>Francisco Leston Ramos</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.303832434700687</v>
+        <v>0.2038684096809353</v>
       </c>
     </row>
     <row r="124">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Bluekik</t>
+          <t>Exoticca</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -2966,11 +2966,11 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Daniel García Martínez</t>
+          <t>Javier Requejo Melchor</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.1693401075929304</v>
+        <v>0.1815890793180576</v>
       </c>
     </row>
     <row r="125">
@@ -2979,7 +2979,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Exoticca</t>
+          <t>Bluekik</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Mario Quiroga Cuervo</t>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
         </is>
       </c>
       <c r="E125" t="n">
@@ -3008,11 +3008,11 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Isabel Rodríguez Godoy</t>
+          <t>Thilo Sperber</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.1606132537802078</v>
+        <v>0.1481481481481481</v>
       </c>
     </row>
     <row r="127">
@@ -3029,11 +3029,11 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Abel Colmenares Napolitano</t>
+          <t>Sofia Jordan</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.1409834962900199</v>
+        <v>0.1413931400904685</v>
       </c>
     </row>
     <row r="128">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions SL</t>
+          <t>InboundCycle</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -3050,11 +3050,11 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Daniel Herrero Hernando</t>
+          <t>Moisés García Almeida</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.6680455148361276</v>
+        <v>0.357226000917599</v>
       </c>
     </row>
     <row r="129">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>AKKA</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -3071,11 +3071,11 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Alfonso Silva Feria</t>
+          <t>Maria Cristina Blanco</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.3880134945992159</v>
+        <v>0.3967566084765748</v>
       </c>
     </row>
     <row r="130">
@@ -3084,7 +3084,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>AKKA</t>
+          <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -3092,11 +3092,11 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Thilo Sperber</t>
+          <t>Patricia Defez Díaz de Sarralde</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.4006604305289411</v>
+        <v>0.387425886722793</v>
       </c>
     </row>
     <row r="131">
@@ -3113,11 +3113,11 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Sofia Jordan</t>
+          <t>Carlos Martínez Crespo</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.2888324840393138</v>
+        <v>0.3967566084765748</v>
       </c>
     </row>
     <row r="132">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>C14TORCE</t>
+          <t>Atomian</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -3134,11 +3134,11 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Baltasar Torres Garcia</t>
+          <t>Sergio Ortega Gil</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.2183665833497641</v>
+        <v>0.3013496283140402</v>
       </c>
     </row>
     <row r="133">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Atomian</t>
+          <t>C14TORCE</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -3155,11 +3155,11 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Alfredo Hinarejos Corbeá</t>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.2135506440329599</v>
+        <v>0.2240092377397958</v>
       </c>
     </row>
     <row r="134">
@@ -3176,11 +3176,11 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
+          <t>Nerea Aparicio</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.2052130961576726</v>
+        <v>0.2108967220595339</v>
       </c>
     </row>
     <row r="135">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -3197,11 +3197,11 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Maria Cristina Blanco</t>
+          <t>Rodrigo Otero Montero</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.2025519956555797</v>
+        <v>0.2151171476005365</v>
       </c>
     </row>
     <row r="136">
@@ -3210,7 +3210,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -3218,11 +3218,11 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Eugenio Ruiz Cepeda</t>
+          <t>Mario Quiroga Cuervo</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.1996882911515585</v>
+        <v>0.2380067155369107</v>
       </c>
     </row>
     <row r="137">
@@ -3239,11 +3239,11 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Dan Mihai Grigoriciuc</t>
+          <t>Alfonso Silva Feria</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.2164068025100977</v>
+        <v>0.222763277794282</v>
       </c>
     </row>
     <row r="138">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>SEAT</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -3260,11 +3260,11 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Javier Requejo Melchor</t>
+          <t>Verónica Celemín Lominchar</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.1984570517780165</v>
+        <v>0.2079915965134781</v>
       </c>
     </row>
     <row r="139">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -3281,11 +3281,11 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Nira Alonso Rodríguez</t>
+          <t>Maria Isabel Llanes Agudelo</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.1924588518325761</v>
+        <v>0.1975496259559987</v>
       </c>
     </row>
     <row r="140">
@@ -3294,7 +3294,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -3302,11 +3302,11 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Nerea Aparicio</t>
+          <t>Nira Alonso Rodríguez</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.1827439976315568</v>
+        <v>0.1924588518325761</v>
       </c>
     </row>
     <row r="141">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -3323,11 +3323,11 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+          <t>Eugenio Ruiz Cepeda</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.1809073112342927</v>
+        <v>0.1856154626682773</v>
       </c>
     </row>
     <row r="142">
@@ -3344,11 +3344,11 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
+          <t>Javier Pérez-Chao Rodríguez</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.1929272807679017</v>
+        <v>0.3013647414453538</v>
       </c>
     </row>
     <row r="143">
@@ -3365,11 +3365,11 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Roberto Muñoz Aragón</t>
+          <t>Dan Mihai Grigoriciuc</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.1706739027584263</v>
+        <v>0.1809184671038962</v>
       </c>
     </row>
     <row r="144">
@@ -3386,11 +3386,11 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Rodrigo Otero Montero</t>
+          <t>Roberto Muñoz Aragón</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.1684344913510188</v>
+        <v>0.1531783880549343</v>
       </c>
     </row>
     <row r="145">
@@ -3407,11 +3407,11 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Carlos Martínez Crespo</t>
+          <t>Enrique Anaya Marin</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.1679314358495421</v>
+        <v>0.1542663579739793</v>
       </c>
     </row>
     <row r="146">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Project Lobster</t>
+          <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -3428,11 +3428,11 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Moisés García Almeida</t>
+          <t>Daniel Herrero Hernando</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.3636655193545664</v>
+        <v>0.6680455148361276</v>
       </c>
     </row>
     <row r="147">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>AKKA</t>
+          <t>InboundCycle</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -3449,11 +3449,11 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Sergio Ortega Gil</t>
+          <t>Isabel Rodríguez Godoy</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.4497445951541262</v>
+        <v>0.3510714832006495</v>
       </c>
     </row>
     <row r="148">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>AKKA</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -3470,11 +3470,11 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Maria Isabel Llanes Agudelo</t>
+          <t>Daniel García Martínez</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.3884193593065456</v>
+        <v>0.3487326393337196</v>
       </c>
     </row>
     <row r="149">
@@ -3483,7 +3483,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions SL</t>
+          <t>Project Lobster</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -3491,11 +3491,11 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Enrique Anaya Marin</t>
+          <t>Baltasar Torres Garcia</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.387425886722793</v>
+        <v>0.3316128774121265</v>
       </c>
     </row>
     <row r="150">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Atomian</t>
+          <t>C14TORCE</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -3512,11 +3512,11 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Francisco Leston Ramos</t>
+          <t>Alfredo Hinarejos Corbeá</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0.2402530733520421</v>
+        <v>0.2258444000186532</v>
       </c>
     </row>
     <row r="151">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>C14TORCE</t>
+          <t>Atomian</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -3533,11 +3533,11 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Verónica Celemín Lominchar</t>
+          <t>Abel Colmenares Napolitano</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.2337147961180513</v>
+        <v>0.2062408021419122</v>
       </c>
     </row>
     <row r="152">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -3554,11 +3554,11 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
+          <t>Francisco Leston Ramos</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0.3250282160692887</v>
+        <v>0.2204812092115424</v>
       </c>
     </row>
     <row r="153">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -3575,11 +3575,11 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Daniel García Martínez</t>
+          <t>Javier Requejo Melchor</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.2123999406704181</v>
+        <v>0.2022271903529528</v>
       </c>
     </row>
     <row r="154">
@@ -3588,7 +3588,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>Volcanic Internet</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -3596,11 +3596,11 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Mario Quiroga Cuervo</t>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.2380067155369107</v>
+        <v>0.2250226852138899</v>
       </c>
     </row>
     <row r="155">
@@ -3609,7 +3609,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Volcanic Internet</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -3617,11 +3617,11 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Isabel Rodríguez Godoy</t>
+          <t>Thilo Sperber</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.1990353886870121</v>
+        <v>0.193603910635513</v>
       </c>
     </row>
     <row r="156">
@@ -3630,7 +3630,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>SEAT</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -3638,11 +3638,11 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Abel Colmenares Napolitano</t>
+          <t>Sofia Jordan</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.1782603569701947</v>
+        <v>0.1918253663634734</v>
       </c>
     </row>
     <row r="157">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -3659,11 +3659,11 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Daniel Herrero Hernando</t>
+          <t>Moisés García Almeida</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.2730615545523087</v>
+        <v>0.2493597386134658</v>
       </c>
     </row>
     <row r="158">
@@ -3672,7 +3672,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -3680,11 +3680,11 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Alfonso Silva Feria</t>
+          <t>Maria Cristina Blanco</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.1996921297899064</v>
+        <v>0.1827439976315568</v>
       </c>
     </row>
     <row r="159">
@@ -3701,11 +3701,11 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Thilo Sperber</t>
+          <t>Patricia Defez Díaz de Sarralde</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0.179128784747792</v>
+        <v>0.1809073112342927</v>
       </c>
     </row>
     <row r="160">
@@ -3722,11 +3722,11 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Sofia Jordan</t>
+          <t>Carlos Martínez Crespo</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2090834833644092</v>
       </c>
     </row>
     <row r="161">
@@ -3743,11 +3743,11 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Baltasar Torres Garcia</t>
+          <t>Sergio Ortega Gil</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.1476734449611636</v>
+        <v>0.170073658037733</v>
       </c>
     </row>
     <row r="162">
@@ -3764,11 +3764,11 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Alfredo Hinarejos Corbeá</t>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.1695208471985372</v>
+        <v>0.168801570106684</v>
       </c>
     </row>
     <row r="163">
@@ -3785,11 +3785,11 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
+          <t>Nerea Aparicio</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.1457210306293766</v>
+        <v>0.1466355910779797</v>
       </c>
     </row>
     <row r="164">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>AKKA</t>
+          <t>InboundCycle</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -3806,11 +3806,11 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Maria Cristina Blanco</t>
+          <t>Rodrigo Otero Montero</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.3967566084765748</v>
+        <v>0.357226000917599</v>
       </c>
     </row>
     <row r="165">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>AKKA</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -3827,11 +3827,11 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Eugenio Ruiz Cepeda</t>
+          <t>Mario Quiroga Cuervo</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.331802507650613</v>
+        <v>0.3738346727188514</v>
       </c>
     </row>
     <row r="166">
@@ -3848,11 +3848,11 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Dan Mihai Grigoriciuc</t>
+          <t>Alfonso Silva Feria</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.387425886722793</v>
+        <v>0.3735774749920213</v>
       </c>
     </row>
     <row r="167">
@@ -3869,11 +3869,11 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Javier Requejo Melchor</t>
+          <t>Verónica Celemín Lominchar</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.3145198591387565</v>
+        <v>0.3761785115301142</v>
       </c>
     </row>
     <row r="168">
@@ -3882,7 +3882,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>C14TORCE</t>
+          <t>Atomian</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -3890,11 +3890,11 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Nira Alonso Rodríguez</t>
+          <t>Maria Isabel Llanes Agudelo</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.2240092377397958</v>
+        <v>0.233196087591488</v>
       </c>
     </row>
     <row r="169">
@@ -3911,11 +3911,11 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Nerea Aparicio</t>
+          <t>Nira Alonso Rodríguez</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.2108967220595339</v>
+        <v>0.206587118104313</v>
       </c>
     </row>
     <row r="170">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Atomian</t>
+          <t>C14TORCE</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -3932,11 +3932,11 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+          <t>Eugenio Ruiz Cepeda</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.2097918326695614</v>
+        <v>0.2217827369639381</v>
       </c>
     </row>
     <row r="171">
@@ -3945,7 +3945,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Volcanic Internet</t>
+          <t>SEAT</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -3953,11 +3953,11 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
+          <t>Javier Pérez-Chao Rodríguez</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0.2250226852138899</v>
+        <v>0.3483314773547883</v>
       </c>
     </row>
     <row r="172">
@@ -3966,7 +3966,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -3974,11 +3974,11 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Roberto Muñoz Aragón</t>
+          <t>Dan Mihai Grigoriciuc</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0.205629773242875</v>
+        <v>0.2120208536062147</v>
       </c>
     </row>
     <row r="173">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -3995,11 +3995,11 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Rodrigo Otero Montero</t>
+          <t>Roberto Muñoz Aragón</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.2147268606635241</v>
+        <v>0.205629773242875</v>
       </c>
     </row>
     <row r="174">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>Volcanic Internet</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -4016,11 +4016,11 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Carlos Martínez Crespo</t>
+          <t>Enrique Anaya Marin</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0.2513216808752189</v>
+        <v>0.2029512951668332</v>
       </c>
     </row>
     <row r="175">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -4037,11 +4037,11 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Moisés García Almeida</t>
+          <t>Daniel Herrero Hernando</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0.2493597386134658</v>
+        <v>0.2730615545523087</v>
       </c>
     </row>
     <row r="176">
@@ -4050,7 +4050,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -4058,11 +4058,11 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Sergio Ortega Gil</t>
+          <t>Isabel Rodríguez Godoy</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0.2171292729553324</v>
+        <v>0.1876127897984334</v>
       </c>
     </row>
     <row r="177">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -4079,11 +4079,11 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Maria Isabel Llanes Agudelo</t>
+          <t>Daniel García Martínez</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0.184770408111084</v>
+        <v>0.1809073112342927</v>
       </c>
     </row>
     <row r="178">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Exoticca</t>
+          <t>Bluekik</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -4100,11 +4100,11 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Enrique Anaya Marin</t>
+          <t>Baltasar Torres Garcia</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>0.1863594591107266</v>
+        <v>0.1673657762329726</v>
       </c>
     </row>
     <row r="179">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Movetia</t>
+          <t>Exoticca</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -4121,11 +4121,11 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Francisco Leston Ramos</t>
+          <t>Alfredo Hinarejos Corbeá</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0.1710079936629479</v>
+        <v>0.1693378522531012</v>
       </c>
     </row>
     <row r="180">
@@ -4134,7 +4134,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Bluekik</t>
+          <t>Movetia</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -4142,11 +4142,11 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Verónica Celemín Lominchar</t>
+          <t>Abel Colmenares Napolitano</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>0.1856154626682773</v>
+        <v>0.141910532477298</v>
       </c>
     </row>
     <row r="181">
@@ -4163,11 +4163,11 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
+          <t>Francisco Leston Ramos</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.2163619091635631</v>
+        <v>0.1708406863826754</v>
       </c>
     </row>
     <row r="182">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions SL</t>
+          <t>AKKA</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -4184,11 +4184,11 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Daniel García Martínez</t>
+          <t>Javier Requejo Melchor</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0.387425886722793</v>
+        <v>0.4661337257979153</v>
       </c>
     </row>
     <row r="183">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>AKKA</t>
+          <t>InboundCycle</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -4205,11 +4205,11 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Mario Quiroga Cuervo</t>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0.3738346727188514</v>
+        <v>0.4445054266553392</v>
       </c>
     </row>
     <row r="184">
@@ -4226,11 +4226,11 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Isabel Rodríguez Godoy</t>
+          <t>Thilo Sperber</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0.3483314773547883</v>
+        <v>0.3405424265831667</v>
       </c>
     </row>
     <row r="185">
@@ -4239,7 +4239,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -4247,11 +4247,11 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Abel Colmenares Napolitano</t>
+          <t>Sofia Jordan</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.3483314773547883</v>
+        <v>0.3761785115301142</v>
       </c>
     </row>
     <row r="186">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>C14TORCE</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -4268,11 +4268,11 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Daniel Herrero Hernando</t>
+          <t>Moisés García Almeida</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.3547131518625939</v>
+        <v>0.29776689442793</v>
       </c>
     </row>
     <row r="187">
@@ -4281,7 +4281,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Atomian</t>
+          <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -4289,11 +4289,11 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Alfonso Silva Feria</t>
+          <t>Maria Cristina Blanco</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>0.2568168231494444</v>
+        <v>0.2123999406704181</v>
       </c>
     </row>
     <row r="188">
@@ -4302,7 +4302,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>C14TORCE</t>
+          <t>Atomian</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -4310,11 +4310,11 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Thilo Sperber</t>
+          <t>Patricia Defez Díaz de Sarralde</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2032067328931847</v>
       </c>
     </row>
     <row r="189">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>Volcanic Internet</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -4331,11 +4331,11 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Sofia Jordan</t>
+          <t>Carlos Martínez Crespo</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>0.1975496259559987</v>
+        <v>0.2762910041374894</v>
       </c>
     </row>
     <row r="190">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -4352,11 +4352,11 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Baltasar Torres Garcia</t>
+          <t>Sergio Ortega Gil</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>0.2108967220595339</v>
+        <v>0.2519789467852133</v>
       </c>
     </row>
     <row r="191">
@@ -4365,7 +4365,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Volcanic Internet</t>
+          <t>SEAT</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -4373,11 +4373,11 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Alfredo Hinarejos Corbeá</t>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>0.1958392643381069</v>
+        <v>0.1940499650128638</v>
       </c>
     </row>
     <row r="192">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -4394,11 +4394,11 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
+          <t>Nerea Aparicio</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.1882022182558627</v>
+        <v>0.2035366959388389</v>
       </c>
     </row>
     <row r="193">
@@ -4407,7 +4407,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -4415,11 +4415,11 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Maria Cristina Blanco</t>
+          <t>Rodrigo Otero Montero</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>0.1827439976315568</v>
+        <v>0.2053642966101924</v>
       </c>
     </row>
     <row r="194">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -4436,11 +4436,11 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Eugenio Ruiz Cepeda</t>
+          <t>Mario Quiroga Cuervo</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>0.1809073112342927</v>
+        <v>0.1987625491245426</v>
       </c>
     </row>
     <row r="195">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Exoticca</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -4457,11 +4457,11 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Dan Mihai Grigoriciuc</t>
+          <t>Alfonso Silva Feria</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>0.1813637156725836</v>
+        <v>0.1996921297899064</v>
       </c>
     </row>
     <row r="196">
@@ -4470,7 +4470,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>Bluekik</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -4478,11 +4478,11 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Javier Requejo Melchor</t>
+          <t>Verónica Celemín Lominchar</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0.1963604054562682</v>
+        <v>0.1856154626682773</v>
       </c>
     </row>
     <row r="197">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Bluekik</t>
+          <t>Exoticca</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -4499,11 +4499,11 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Nira Alonso Rodríguez</t>
+          <t>Maria Isabel Llanes Agudelo</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0.1680831684349207</v>
+        <v>0.1712412388965722</v>
       </c>
     </row>
     <row r="198">
@@ -4520,11 +4520,11 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Nerea Aparicio</t>
+          <t>Nira Alonso Rodríguez</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0.1472035351440532</v>
+        <v>0.1486277286819583</v>
       </c>
     </row>
     <row r="199">
@@ -4541,11 +4541,11 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+          <t>Eugenio Ruiz Cepeda</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0.145270479072296</v>
+        <v>0.1469832759521987</v>
       </c>
     </row>
   </sheetData>
@@ -4570,14 +4570,14 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Bit Genoma Digital Solutions SL</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>InboundCycle</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions SL</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>AKKA</t>
@@ -4590,52 +4590,52 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>C14TORCE</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Atomian</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ONEBOX</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Farmaconnect</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>C14TORCE</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>The Hotels Network</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>SEAT</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>ONEBOX</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Volcanic Internet</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Visyon (Estudio Bay SL)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Norwegian</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Volcanic Internet</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Farmaconnect</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -4665,92 +4665,92 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Isabel Rodríguez Godoy</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Daniel García Martínez</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Baltasar Torres Garcia</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Alfredo Hinarejos Corbeá</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Abel Colmenares Napolitano</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Francisco Leston Ramos</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Javier Requejo Melchor</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Thilo Sperber</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Sofia Jordan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Moisés García Almeida</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Maria Cristina Blanco</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Patricia Defez Díaz de Sarralde</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Carlos Martínez Crespo</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>Sergio Ortega Gil</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Maria Isabel Llanes Agudelo</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Enrique Anaya Marin</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Francisco Leston Ramos</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Verónica Celemín Lominchar</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Daniel García Martínez</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Mario Quiroga Cuervo</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Isabel Rodríguez Godoy</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Abel Colmenares Napolitano</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Daniel Herrero Hernando</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Alfonso Silva Feria</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Thilo Sperber</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Sofia Jordan</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Baltasar Torres Garcia</t>
-        </is>
-      </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Alfredo Hinarejos Corbeá</t>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
+          <t>Nerea Aparicio</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Maria Cristina Blanco</t>
+          <t>Rodrigo Otero Montero</t>
         </is>
       </c>
     </row>
@@ -4760,92 +4760,92 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Mario Quiroga Cuervo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Alfonso Silva Feria</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Verónica Celemín Lominchar</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Maria Isabel Llanes Agudelo</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Nira Alonso Rodríguez</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Eugenio Ruiz Cepeda</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Roberto Muñoz Aragón</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Daniel García Martínez</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Javier Pérez-Chao Rodríguez</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Enrique Anaya Marin</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Daniel Herrero Hernando</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Isabel Rodríguez Godoy</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Baltasar Torres Garcia</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>Dan Mihai Grigoriciuc</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Eugenio Ruiz Cepeda</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Alfredo Hinarejos Corbeá</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Abel Colmenares Napolitano</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Francisco Leston Ramos</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>Javier Requejo Melchor</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Nira Alonso Rodríguez</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Nerea Aparicio</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Moisés García Almeida</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Maria Isabel Llanes Agudelo</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Roberto Muñoz Aragón</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Enrique Anaya Marin</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Carlos Martínez Crespo</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Rodrigo Otero Montero</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Sergio Ortega Gil</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Francisco Leston Ramos</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Verónica Celemín Lominchar</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Daniel García Martínez</t>
         </is>
       </c>
     </row>
@@ -4855,92 +4855,92 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Isabel Rodríguez Godoy</t>
+          <t>Thilo Sperber</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Sofia Jordan</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Moisés García Almeida</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Maria Cristina Blanco</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Carlos Martínez Crespo</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Verónica Celemín Lominchar</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Rodrigo Otero Montero</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Patricia Defez Díaz de Sarralde</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Nerea Aparicio</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Sergio Ortega Gil</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>Mario Quiroga Cuervo</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Abel Colmenares Napolitano</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Alfonso Silva Feria</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Thilo Sperber</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Sofia Jordan</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Daniel Herrero Hernando</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Baltasar Torres Garcia</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Maria Cristina Blanco</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Alfredo Hinarejos Corbeá</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Dan Mihai Grigoriciuc</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Maria Isabel Llanes Agudelo</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Nira Alonso Rodríguez</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
         <is>
           <t>Eugenio Ruiz Cepeda</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Javier Requejo Melchor</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Nerea Aparicio</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Nira Alonso Rodríguez</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
-        </is>
-      </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
+          <t>Javier Pérez-Chao Rodríguez</t>
         </is>
       </c>
     </row>
@@ -4950,92 +4950,92 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Enrique Anaya Marin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Dan Mihai Grigoriciuc</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Roberto Muñoz Aragón</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Isabel Rodríguez Godoy</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Daniel Herrero Hernando</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Baltasar Torres Garcia</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Abel Colmenares Napolitano</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Thilo Sperber</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Daniel García Martínez</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Alfredo Hinarejos Corbeá</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Javier Requejo Melchor</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Francisco Leston Ramos</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Sofia Jordan</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Moisés García Almeida</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Maria Cristina Blanco</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Patricia Defez Díaz de Sarralde</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
           <t>Carlos Martínez Crespo</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Moisés García Almeida</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Roberto Muñoz Aragón</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Rodrigo Otero Montero</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Sergio Ortega Gil</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Enrique Anaya Marin</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Maria Isabel Llanes Agudelo</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Daniel García Martínez</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Verónica Celemín Lominchar</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Abel Colmenares Napolitano</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Francisco Leston Ramos</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Isabel Rodríguez Godoy</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Mario Quiroga Cuervo</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Alfonso Silva Feria</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Daniel Herrero Hernando</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Thilo Sperber</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>Sofia Jordan</t>
         </is>
       </c>
     </row>
@@ -5045,92 +5045,92 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Alfredo Hinarejos Corbeá</t>
+          <t>Sergio Ortega Gil</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>Nerea Aparicio</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Rodrigo Otero Montero</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mario Quiroga Cuervo</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Alfonso Silva Feria</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Enrique Anaya Marin</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Verónica Celemín Lominchar</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Maria Isabel Llanes Agudelo</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Nira Alonso Rodríguez</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Eugenio Ruiz Cepeda</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Dan Mihai Grigoriciuc</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Javier Pérez-Chao Rodríguez</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Roberto Muñoz Aragón</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Isabel Rodríguez Godoy</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Daniel Herrero Hernando</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
           <t>Baltasar Torres Garcia</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Maria Cristina Blanco</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Dan Mihai Grigoriciuc</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Nira Alonso Rodríguez</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Eugenio Ruiz Cepeda</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Nerea Aparicio</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Javier Requejo Melchor</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Rodrigo Otero Montero</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Roberto Muñoz Aragón</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Carlos Martínez Crespo</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Moisés García Almeida</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Sergio Ortega Gil</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Maria Isabel Llanes Agudelo</t>
-        </is>
-      </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Enrique Anaya Marin</t>
+          <t>Daniel García Martínez</t>
         </is>
       </c>
     </row>
@@ -5140,92 +5140,92 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Alfredo Hinarejos Corbeá</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Francisco Leston Ramos</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>Abel Colmenares Napolitano</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Javier Requejo Melchor</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Thilo Sperber</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Carlos Martínez Crespo</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Sofia Jordan</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Moisés García Almeida</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Maria Cristina Blanco</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Patricia Defez Díaz de Sarralde</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Sergio Ortega Gil</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Nerea Aparicio</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Mario Quiroga Cuervo</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Rodrigo Otero Montero</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Alfonso Silva Feria</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>Verónica Celemín Lominchar</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Daniel García Martínez</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Abel Colmenares Napolitano</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Daniel Herrero Hernando</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Mario Quiroga Cuervo</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Isabel Rodríguez Godoy</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Sofia Jordan</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Thilo Sperber</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Baltasar Torres Garcia</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Alfonso Silva Feria</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Alfredo Hinarejos Corbeá</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Eugenio Ruiz Cepeda</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Maria Cristina Blanco</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Dan Mihai Grigoriciuc</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Javier Requejo Melchor</t>
         </is>
       </c>
     </row>
@@ -5235,12 +5235,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+          <t>Eugenio Ruiz Cepeda</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nerea Aparicio</t>
+          <t>Maria Isabel Llanes Agudelo</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -5250,77 +5250,77 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Javier Pérez-Chao Rodríguez</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Roberto Muñoz Aragón</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Dan Mihai Grigoriciuc</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Baltasar Torres Garcia</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Abel Colmenares Napolitano</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Enrique Anaya Marin</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Isabel Rodríguez Godoy</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Alfredo Hinarejos Corbeá</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Daniel García Martínez</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Francisco Leston Ramos</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Daniel Herrero Hernando</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
           <t>Jaime Jacobo Rodríguez del Valle</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Rodrigo Otero Montero</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Carlos Martínez Crespo</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Roberto Muñoz Aragón</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Maria Isabel Llanes Agudelo</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Moisés García Almeida</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Enrique Anaya Marin</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Verónica Celemín Lominchar</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Sergio Ortega Gil</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Francisco Leston Ramos</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Daniel García Martínez</t>
-        </is>
-      </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Mario Quiroga Cuervo</t>
+          <t>Javier Requejo Melchor</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Isabel Rodríguez Godoy</t>
+          <t>Thilo Sperber</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Abel Colmenares Napolitano</t>
+          <t>Sofia Jordan</t>
         </is>
       </c>
     </row>
@@ -5330,92 +5330,92 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Patricia Defez Díaz de Sarralde</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Moisés García Almeida</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Maria Cristina Blanco</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Carlos Martínez Crespo</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Sergio Ortega Gil</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Nira Alonso Rodríguez</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Eugenio Ruiz Cepeda</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Nerea Aparicio</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Mario Quiroga Cuervo</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Verónica Celemín Lominchar</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
           <t>Alfonso Silva Feria</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Daniel Herrero Hernando</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Thilo Sperber</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Sofia Jordan</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Alfredo Hinarejos Corbeá</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Baltasar Torres Garcia</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Maria Cristina Blanco</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Eugenio Ruiz Cepeda</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Nira Alonso Rodríguez</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Maria Isabel Llanes Agudelo</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Rodrigo Otero Montero</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>Dan Mihai Grigoriciuc</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Javier Requejo Melchor</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Nerea Aparicio</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Javier Pérez-Chao Rodríguez</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
         <is>
           <t>Roberto Muñoz Aragón</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Rodrigo Otero Montero</t>
-        </is>
-      </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>Carlos Martínez Crespo</t>
+          <t>Enrique Anaya Marin</t>
         </is>
       </c>
     </row>
@@ -5425,92 +5425,92 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Maria Isabel Llanes Agudelo</t>
+          <t>Daniel Herrero Hernando</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Enrique Anaya Marin</t>
+          <t>Isabel Rodríguez Godoy</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>Daniel García Martínez</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Baltasar Torres Garcia</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Alfredo Hinarejos Corbeá</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Abel Colmenares Napolitano</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Thilo Sperber</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Maria Cristina Blanco</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Francisco Leston Ramos</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Javier Requejo Melchor</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Sofia Jordan</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Moisés García Almeida</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Patricia Defez Díaz de Sarralde</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Carlos Martínez Crespo</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
           <t>Sergio Ortega Gil</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Moisés García Almeida</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Francisco Leston Ramos</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Daniel García Martínez</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Verónica Celemín Lominchar</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Mario Quiroga Cuervo</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Daniel Herrero Hernando</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Thilo Sperber</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Isabel Rodríguez Godoy</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Abel Colmenares Napolitano</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Alfonso Silva Feria</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Alfredo Hinarejos Corbeá</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Sofia Jordan</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Baltasar Torres Garcia</t>
-        </is>
-      </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
+          <t>Nerea Aparicio</t>
         </is>
       </c>
     </row>
@@ -5520,92 +5520,92 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Alfonso Silva Feria</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Rodrigo Otero Montero</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Mario Quiroga Cuervo</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Verónica Celemín Lominchar</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>Eugenio Ruiz Cepeda</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Maria Isabel Llanes Agudelo</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Daniel Herrero Hernando</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>Dan Mihai Grigoriciuc</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Maria Cristina Blanco</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Javier Requejo Melchor</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Nerea Aparicio</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>Nira Alonso Rodríguez</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>Roberto Muñoz Aragón</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Rodrigo Otero Montero</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Maria Isabel Llanes Agudelo</t>
-        </is>
-      </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Sergio Ortega Gil</t>
+          <t>Javier Pérez-Chao Rodríguez</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
+          <t>Enrique Anaya Marin</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Carlos Martínez Crespo</t>
+          <t>Isabel Rodríguez Godoy</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Moisés García Almeida</t>
+          <t>Daniel García Martínez</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Verónica Celemín Lominchar</t>
+          <t>Baltasar Torres Garcia</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Enrique Anaya Marin</t>
+          <t>Alfredo Hinarejos Corbeá</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
+          <t>Abel Colmenares Napolitano</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
           <t>Francisco Leston Ramos</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
         </is>
       </c>
     </row>
@@ -5615,92 +5615,92 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Abel Colmenares Napolitano</t>
+          <t>Sofia Jordan</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Daniel García Martínez</t>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>Javier Requejo Melchor</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Thilo Sperber</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Moisés García Almeida</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Patricia Defez Díaz de Sarralde</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Rodrigo Otero Montero</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Sergio Ortega Gil</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Maria Cristina Blanco</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Nerea Aparicio</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Carlos Martínez Crespo</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Alfonso Silva Feria</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
           <t>Mario Quiroga Cuervo</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Isabel Rodríguez Godoy</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Alfonso Silva Feria</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Baltasar Torres Garcia</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Thilo Sperber</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Sofia Jordan</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Daniel Herrero Hernando</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Javier Requejo Melchor</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Alfredo Hinarejos Corbeá</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Maria Cristina Blanco</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Verónica Celemín Lominchar</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Maria Isabel Llanes Agudelo</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Nira Alonso Rodríguez</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>Eugenio Ruiz Cepeda</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Nira Alonso Rodríguez</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Dan Mihai Grigoriciuc</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Nerea Aparicio</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
         </is>
       </c>
     </row>
@@ -5726,147 +5726,147 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Isabel Rodríguez Godoy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Daniel García Martínez</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Baltasar Torres Garcia</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Alfredo Hinarejos Corbeá</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Abel Colmenares Napolitano</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Francisco Leston Ramos</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Javier Requejo Melchor</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Thilo Sperber</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Sofia Jordan</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Moisés García Almeida</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Maria Cristina Blanco</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Patricia Defez Díaz de Sarralde</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Carlos Martínez Crespo</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>Sergio Ortega Gil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Nerea Aparicio</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Rodrigo Otero Montero</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Mario Quiroga Cuervo</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Alfonso Silva Feria</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Verónica Celemín Lominchar</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Maria Isabel Llanes Agudelo</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Nira Alonso Rodríguez</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Eugenio Ruiz Cepeda</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Javier Pérez-Chao Rodríguez</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Dan Mihai Grigoriciuc</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Roberto Muñoz Aragón</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Enrique Anaya Marin</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Francisco Leston Ramos</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Verónica Celemín Lominchar</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Daniel García Martínez</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Mario Quiroga Cuervo</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Isabel Rodríguez Godoy</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Abel Colmenares Napolitano</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Daniel Herrero Hernando</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Alfonso Silva Feria</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Thilo Sperber</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Sofia Jordan</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Baltasar Torres Garcia</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Alfredo Hinarejos Corbeá</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Maria Cristina Blanco</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Eugenio Ruiz Cepeda</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Dan Mihai Grigoriciuc</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Javier Requejo Melchor</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Nira Alonso Rodríguez</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Nerea Aparicio</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Roberto Muñoz Aragón</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Rodrigo Otero Montero</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Carlos Martínez Crespo</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Moisés García Almeida</t>
         </is>
       </c>
     </row>
@@ -5876,14 +5876,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Bit Genoma Digital Solutions SL</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>InboundCycle</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions SL</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>AKKA</t>
@@ -5896,52 +5896,52 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>C14TORCE</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>Atomian</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>ONEBOX</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Farmaconnect</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>C14TORCE</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>The Hotels Network</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>SEAT</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>ONEBOX</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Volcanic Internet</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Visyon (Estudio Bay SL)</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>Norwegian</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Volcanic Internet</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Farmaconnect</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -5982,17 +5982,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Volcanic Internet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Farmaconnect</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Visyon (Estudio Bay SL)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>SEAT</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Norwegian</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -6053,32 +6053,32 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
+          <t>Atomian</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
           <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>Atomian</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
+          <t>Norwegian</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
           <t>ONEBOX</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>Farmaconnect</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Volcanic Internet</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>SEAT</t>
         </is>
       </c>
     </row>
@@ -6095,82 +6095,82 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
+          <t>AKKA</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>InboundCycle</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>AKKA</t>
-        </is>
-      </c>
       <c r="L4" t="inlineStr">
         <is>
+          <t>Project Lobster</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
           <t>C14TORCE</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Project Lobster</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr">
         <is>
+          <t>Bit Genoma Digital Solutions</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>Atomian</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
+          <t>Volcanic Internet</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
           <t>The Hotels Network</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Farmaconnect</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Visyon (Estudio Bay SL)</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Norwegian</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>ONEBOX</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Volcanic Internet</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>SEAT</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Farmaconnect</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Norwegian</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>Visyon (Estudio Bay SL)</t>
-        </is>
-      </c>
       <c r="W4" t="inlineStr">
         <is>
+          <t>Bluekik</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
           <t>Exoticca</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>Bluekik</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -6194,62 +6194,62 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Project Lobster</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Bit Genoma Digital Solutions</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Atomian</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>C14TORCE</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>The Hotels Network</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ONEBOX</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Volcanic Internet</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>ONEBOX</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>SEAT</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>The Hotels Network</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>Norwegian</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Farmaconnect</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Farmaconnect</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Norwegian</t>
-        </is>
-      </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>Bluekik</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
           <t>Exoticca</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Bluekik</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -6275,22 +6275,22 @@
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr">
         <is>
+          <t>InboundCycle</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
           <t>AKKA</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>Project Lobster</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions SL</t>
+          <t>C14TORCE</t>
         </is>
       </c>
     </row>
@@ -6300,17 +6300,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Exoticca</t>
+          <t>Bluekik</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>CAPITOLE CONSULTING</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Movetia</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CAPITOLE CONSULTING</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -6326,19 +6326,19 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
+          <t>InboundCycle</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Bit Genoma Digital Solutions SL</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
           <t>AKKA</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions SL</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>InboundCycle</t>
-        </is>
-      </c>
       <c r="S6" t="inlineStr">
         <is>
           <t>Project Lobster</t>
@@ -6356,47 +6356,47 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
+          <t>Farmaconnect</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Bit Genoma Digital Solutions</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>The Hotels Network</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>Visyon (Estudio Bay SL)</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>Volcanic Internet</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Norwegian</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
           <t>ONEBOX</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>The Hotels Network</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>SEAT</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>Farmaconnect</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>Volcanic Internet</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>Norwegian</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Visyon (Estudio Bay SL)</t>
-        </is>
-      </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>Bluekik</t>
+          <t>Exoticca</t>
         </is>
       </c>
     </row>
@@ -6409,19 +6409,19 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Bit Genoma Digital Solutions SL</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>AKKA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>InboundCycle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>AKKA</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions SL</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>Project Lobster</t>
@@ -6429,47 +6429,47 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>Atomian</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>C14TORCE</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Bit Genoma Digital Solutions</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>The Hotels Network</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Atomian</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions</t>
-        </is>
-      </c>
       <c r="M7" t="inlineStr">
         <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Volcanic Internet</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>Farmaconnect</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Visyon (Estudio Bay SL)</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>ONEBOX</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>SEAT</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Volcanic Internet</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -6512,14 +6512,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>The Hotels Network</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Volcanic Internet</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>The Hotels Network</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>ONEBOX</t>
@@ -6527,14 +6527,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>Farmaconnect</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Norwegian</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>Visyon (Estudio Bay SL)</t>
@@ -6542,12 +6542,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>Exoticca</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>Bluekik</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Exoticca</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -6573,19 +6573,19 @@
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr">
         <is>
+          <t>InboundCycle</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
           <t>AKKA</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>InboundCycle</t>
-        </is>
-      </c>
       <c r="Z8" t="inlineStr">
         <is>
           <t>Project Lobster</t>
@@ -6593,14 +6593,14 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
+          <t>Atomian</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
           <t>C14TORCE</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>Atomian</t>
-        </is>
-      </c>
       <c r="AC8" t="inlineStr">
         <is>
           <t>Bit Genoma Digital Solutions</t>
@@ -6608,7 +6608,7 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>Norwegian</t>
         </is>
       </c>
     </row>
@@ -6628,19 +6628,19 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
+          <t>InboundCycle</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>AKKA</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>InboundCycle</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>AKKA</t>
-        </is>
-      </c>
       <c r="O9" t="inlineStr">
         <is>
           <t>Project Lobster</t>
@@ -6648,14 +6648,14 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
+          <t>Atomian</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
           <t>C14TORCE</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Atomian</t>
-        </is>
-      </c>
       <c r="R9" t="inlineStr">
         <is>
           <t>Bit Genoma Digital Solutions</t>
@@ -6663,37 +6663,37 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
+          <t>Norwegian</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
           <t>The Hotels Network</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Volcanic Internet</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
         <is>
           <t>SEAT</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>Volcanic Internet</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Visyon (Estudio Bay SL)</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>ONEBOX</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>Farmaconnect</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>ONEBOX</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>Visyon (Estudio Bay SL)</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>Norwegian</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -6724,62 +6724,62 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>InboundCycle</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>AKKA</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>InboundCycle</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions SL</t>
+          <t>Project Lobster</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>C14TORCE</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>Atomian</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>C14TORCE</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>Bit Genoma Digital Solutions</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>The Hotels Network</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>Volcanic Internet</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ONEBOX</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>SEAT</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Volcanic Internet</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Visyon (Estudio Bay SL)</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>Farmaconnect</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>ONEBOX</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -6820,7 +6820,7 @@
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>Project Lobster</t>
+          <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
     </row>
@@ -6830,27 +6830,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Visyon (Estudio Bay SL)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Norwegian</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ONEBOX</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>Bluekik</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Exoticca</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Movetia</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Bluekik</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -6871,14 +6871,14 @@
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr">
         <is>
+          <t>InboundCycle</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
           <t>AKKA</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>InboundCycle</t>
-        </is>
-      </c>
       <c r="U11" t="inlineStr">
         <is>
           <t>Bit Genoma Digital Solutions SL</t>
@@ -6891,42 +6891,42 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
+          <t>Atomian</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Bit Genoma Digital Solutions</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
           <t>C14TORCE</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>Atomian</t>
-        </is>
-      </c>
       <c r="Z11" t="inlineStr">
         <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>Farmaconnect</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>The Hotels Network</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
           <t>Volcanic Internet</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>The Hotels Network</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>SEAT</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Farmaconnect</t>
-        </is>
-      </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>ONEBOX</t>
         </is>
       </c>
     </row>
@@ -6942,82 +6942,82 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
+          <t>AKKA</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>InboundCycle</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Project Lobster</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>AKKA</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Project Lobster</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>InboundCycle</t>
-        </is>
-      </c>
       <c r="L12" t="inlineStr">
         <is>
+          <t>C14TORCE</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Bit Genoma Digital Solutions</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Atomian</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Volcanic Internet</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Farmaconnect</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
           <t>SEAT</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Atomian</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>C14TORCE</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>The Hotels Network</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Volcanic Internet</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>ONEBOX</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Farmaconnect</t>
-        </is>
-      </c>
       <c r="T12" t="inlineStr">
         <is>
+          <t>Norwegian</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
           <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Bluekik</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
         <is>
           <t>Exoticca</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>Norwegian</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>Bluekik</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -396,7 +396,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions SL</t>
+          <t>InboundCycle</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -404,11 +404,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Isabel Rodríguez Godoy</t>
+          <t>Maria Isabel Llanes Agudelo</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.3761785115301142</v>
+        <v>0.3884193593065456</v>
       </c>
     </row>
     <row r="3">
@@ -417,7 +417,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -425,11 +425,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Daniel García Martínez</t>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.3763102827673971</v>
+        <v>0.387425886722793</v>
       </c>
     </row>
     <row r="4">
@@ -446,11 +446,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Baltasar Torres Garcia</t>
+          <t>Sofia Jordan</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.406922021700526</v>
+        <v>0.3846424969804047</v>
       </c>
     </row>
     <row r="5">
@@ -467,11 +467,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Alfredo Hinarejos Corbeá</t>
+          <t>Rodrigo Otero Montero</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.3145198591387565</v>
+        <v>0.3613305887651133</v>
       </c>
     </row>
     <row r="6">
@@ -488,11 +488,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Abel Colmenares Napolitano</t>
+          <t>Moisés García Almeida</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.2183665833497641</v>
+        <v>0.29776689442793</v>
       </c>
     </row>
     <row r="7">
@@ -509,11 +509,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Francisco Leston Ramos</t>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.2402530733520421</v>
+        <v>0.2493517698850324</v>
       </c>
     </row>
     <row r="8">
@@ -522,7 +522,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -530,11 +530,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Javier Requejo Melchor</t>
+          <t>Isabel Rodríguez Godoy</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2147268606635241</v>
+        <v>0.2176305827856446</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>Volcanic Internet</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -551,11 +551,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
+          <t>Carlos Martínez Crespo</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.23166247903554</v>
+        <v>0.2762910041374894</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +564,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -572,11 +572,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Thilo Sperber</t>
+          <t>Javier Requejo Melchor</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.2094277145385189</v>
+        <v>0.2147268606635241</v>
       </c>
     </row>
     <row r="11">
@@ -585,7 +585,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -593,11 +593,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sofia Jordan</t>
+          <t>Dan Mihai Grigoriciuc</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.1975496259559987</v>
+        <v>0.2171292729553324</v>
       </c>
     </row>
     <row r="12">
@@ -606,7 +606,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -614,11 +614,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Moisés García Almeida</t>
+          <t>Roberto Muñoz Aragón</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.2493597386134658</v>
+        <v>0.2171292729553324</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Volcanic Internet</t>
+          <t>SEAT</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -635,11 +635,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Maria Cristina Blanco</t>
+          <t>Alfredo Hinarejos Corbeá</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.1970182048534694</v>
+        <v>0.1940499650128638</v>
       </c>
     </row>
     <row r="14">
@@ -669,7 +669,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -677,11 +677,11 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Carlos Martínez Crespo</t>
+          <t>Thilo Sperber</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.2474401533514072</v>
+        <v>0.179617168213338</v>
       </c>
     </row>
     <row r="16">
@@ -698,11 +698,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sergio Ortega Gil</t>
+          <t>Verónica Celemín Lominchar</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2038684096809353</v>
+        <v>0.1856154626682773</v>
       </c>
     </row>
     <row r="17">
@@ -719,11 +719,11 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+          <t>Sergio Ortega Gil</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.1689759926488242</v>
+        <v>0.2035366959388389</v>
       </c>
     </row>
     <row r="18">
@@ -740,11 +740,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Nerea Aparicio</t>
+          <t>Abel Colmenares Napolitano</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.1472035351440532</v>
+        <v>0.141910532477298</v>
       </c>
     </row>
     <row r="19">
@@ -761,11 +761,11 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Rodrigo Otero Montero</t>
+          <t>Nerea Aparicio</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.1630135985188703</v>
+        <v>0.1466355910779797</v>
       </c>
     </row>
     <row r="20">
@@ -774,7 +774,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions SL</t>
+          <t>InboundCycle</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -782,11 +782,11 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mario Quiroga Cuervo</t>
+          <t>Francisco Leston Ramos</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.449489742783178</v>
+        <v>0.4193861568941954</v>
       </c>
     </row>
     <row r="21">
@@ -795,7 +795,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -803,11 +803,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Alfonso Silva Feria</t>
+          <t>Daniel García Martínez</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.3880134945992159</v>
+        <v>0.387425886722793</v>
       </c>
     </row>
     <row r="22">
@@ -816,7 +816,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AKKA</t>
+          <t>Project Lobster</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -824,11 +824,11 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Verónica Celemín Lominchar</t>
+          <t>Alfonso Silva Feria</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.5364111542698436</v>
+        <v>0.3735774749920213</v>
       </c>
     </row>
     <row r="23">
@@ -837,7 +837,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Project Lobster</t>
+          <t>C14TORCE</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -845,11 +845,11 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Maria Isabel Llanes Agudelo</t>
+          <t>Daniel Herrero Hernando</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.3299230723708768</v>
+        <v>0.426412966485861</v>
       </c>
     </row>
     <row r="24">
@@ -858,7 +858,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>C14TORCE</t>
+          <t>AKKA</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -866,11 +866,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Nira Alonso Rodríguez</t>
+          <t>Maria Cristina Blanco</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.2240092377397958</v>
+        <v>0.3967566084765748</v>
       </c>
     </row>
     <row r="25">
@@ -879,7 +879,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Atomian</t>
+          <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -887,11 +887,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Eugenio Ruiz Cepeda</t>
+          <t>Mario Quiroga Cuervo</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.2135506440329599</v>
+        <v>0.303832434700687</v>
       </c>
     </row>
     <row r="26">
@@ -900,7 +900,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions</t>
+          <t>Atomian</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -908,11 +908,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
+          <t>Enrique Anaya Marin</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.387425886722793</v>
+        <v>0.2204812092115424</v>
       </c>
     </row>
     <row r="27">
@@ -921,7 +921,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -929,11 +929,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Dan Mihai Grigoriciuc</t>
+          <t>Nira Alonso Rodríguez</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.2171292729553324</v>
+        <v>0.2035366959388389</v>
       </c>
     </row>
     <row r="28">
@@ -950,11 +950,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Roberto Muñoz Aragón</t>
+          <t>Baltasar Torres Garcia</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.2176509175625895</v>
+        <v>0.1960703281139104</v>
       </c>
     </row>
     <row r="29">
@@ -963,7 +963,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>SEAT</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -971,11 +971,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Enrique Anaya Marin</t>
+          <t>Eugenio Ruiz Cepeda</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.2094277145385189</v>
+        <v>0.1996882911515585</v>
       </c>
     </row>
     <row r="30">
@@ -984,7 +984,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -992,11 +992,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Daniel Herrero Hernando</t>
+          <t>Javier Pérez-Chao Rodríguez</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.3547131518625939</v>
+        <v>0.303832434700687</v>
       </c>
     </row>
     <row r="31">
@@ -1013,11 +1013,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Isabel Rodríguez Godoy</t>
+          <t>Maria Isabel Llanes Agudelo</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.1990353886870121</v>
+        <v>0.2075983416319047</v>
       </c>
     </row>
     <row r="32">
@@ -1034,11 +1034,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Daniel García Martínez</t>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1841616798210651</v>
+        <v>0.1815890793180576</v>
       </c>
     </row>
     <row r="33">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1055,11 +1055,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Baltasar Torres Garcia</t>
+          <t>Sofia Jordan</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.179128784747792</v>
+        <v>0.1827439976315568</v>
       </c>
     </row>
     <row r="34">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Bluekik</t>
+          <t>Exoticca</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1076,11 +1076,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Alfredo Hinarejos Corbeá</t>
+          <t>Rodrigo Otero Montero</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.1695208471985372</v>
+        <v>0.1896942664003862</v>
       </c>
     </row>
     <row r="35">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Exoticca</t>
+          <t>Bluekik</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1097,11 +1097,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Abel Colmenares Napolitano</t>
+          <t>Moisés García Almeida</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.1659768169303276</v>
+        <v>0.2151612003824734</v>
       </c>
     </row>
     <row r="36">
@@ -1118,11 +1118,11 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Francisco Leston Ramos</t>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.1710079936629479</v>
+        <v>0.1708198098498349</v>
       </c>
     </row>
     <row r="37">
@@ -1139,11 +1139,11 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Javier Requejo Melchor</t>
+          <t>Isabel Rodríguez Godoy</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.1491122726417953</v>
+        <v>0.1598647329038672</v>
       </c>
     </row>
     <row r="38">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AKKA</t>
+          <t>InboundCycle</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1160,11 +1160,11 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
+          <t>Carlos Martínez Crespo</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.4449944320643648</v>
+        <v>0.5015528100075709</v>
       </c>
     </row>
     <row r="39">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions SL</t>
+          <t>AKKA</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1181,11 +1181,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Thilo Sperber</t>
+          <t>Javier Requejo Melchor</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.3660254037844386</v>
+        <v>0.4661337257979153</v>
       </c>
     </row>
     <row r="40">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1202,11 +1202,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Sofia Jordan</t>
+          <t>Dan Mihai Grigoriciuc</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.3735453699999129</v>
+        <v>0.387425886722793</v>
       </c>
     </row>
     <row r="41">
@@ -1223,11 +1223,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Moisés García Almeida</t>
+          <t>Roberto Muñoz Aragón</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.3636655193545664</v>
+        <v>0.3405424265831667</v>
       </c>
     </row>
     <row r="42">
@@ -1244,11 +1244,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Maria Cristina Blanco</t>
+          <t>Alfredo Hinarejos Corbeá</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.2277299991964413</v>
+        <v>0.2258444000186532</v>
       </c>
     </row>
     <row r="43">
@@ -1286,11 +1286,11 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Carlos Martínez Crespo</t>
+          <t>Thilo Sperber</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.328283280373176</v>
+        <v>0.2167219128456158</v>
       </c>
     </row>
     <row r="45">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Volcanic Internet</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1307,11 +1307,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Sergio Ortega Gil</t>
+          <t>Verónica Celemín Lominchar</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.2569664507071126</v>
+        <v>0.2200739922276217</v>
       </c>
     </row>
     <row r="46">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>Volcanic Internet</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1328,11 +1328,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+          <t>Sergio Ortega Gil</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.2019040735186649</v>
+        <v>0.2569664507071126</v>
       </c>
     </row>
     <row r="47">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1349,11 +1349,11 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Nerea Aparicio</t>
+          <t>Abel Colmenares Napolitano</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.1963604054562682</v>
+        <v>0.1987625491245426</v>
       </c>
     </row>
     <row r="48">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>SEAT</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1370,11 +1370,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Rodrigo Otero Montero</t>
+          <t>Nerea Aparicio</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.2272595996093377</v>
+        <v>0.1963604054562682</v>
       </c>
     </row>
     <row r="49">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1391,11 +1391,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Mario Quiroga Cuervo</t>
+          <t>Francisco Leston Ramos</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.2123999406704181</v>
+        <v>0.2070129796134778</v>
       </c>
     </row>
     <row r="50">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1412,11 +1412,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Alfonso Silva Feria</t>
+          <t>Daniel García Martínez</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1996882911515585</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="51">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1433,11 +1433,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Verónica Celemín Lominchar</t>
+          <t>Alfonso Silva Feria</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.2200739922276217</v>
+        <v>0.1996882911515585</v>
       </c>
     </row>
     <row r="52">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Bluekik</t>
+          <t>Exoticca</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1454,11 +1454,11 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Maria Isabel Llanes Agudelo</t>
+          <t>Daniel Herrero Hernando</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.180294370773025</v>
+        <v>0.2735058013901622</v>
       </c>
     </row>
     <row r="53">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Exoticca</t>
+          <t>Bluekik</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1475,11 +1475,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Nira Alonso Rodríguez</t>
+          <t>Maria Cristina Blanco</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.1684344913510188</v>
+        <v>0.1695208471985372</v>
       </c>
     </row>
     <row r="54">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Movetia</t>
+          <t>CAPITOLE CONSULTING</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1496,11 +1496,11 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Eugenio Ruiz Cepeda</t>
+          <t>Mario Quiroga Cuervo</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1511018818343086</v>
+        <v>0.1684344913510188</v>
       </c>
     </row>
     <row r="55">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CAPITOLE CONSULTING</t>
+          <t>Movetia</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1517,11 +1517,11 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
+          <t>Enrique Anaya Marin</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.2163619091635631</v>
+        <v>0.1601526128622927</v>
       </c>
     </row>
     <row r="56">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>AKKA</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1538,11 +1538,11 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Dan Mihai Grigoriciuc</t>
+          <t>Nira Alonso Rodríguez</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.4266740168893551</v>
+        <v>0.3552750833892311</v>
       </c>
     </row>
     <row r="57">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>AKKA</t>
+          <t>InboundCycle</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1559,11 +1559,11 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Roberto Muñoz Aragón</t>
+          <t>Baltasar Torres Garcia</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.430717277360874</v>
+        <v>0.3761785115301142</v>
       </c>
     </row>
     <row r="58">
@@ -1580,11 +1580,11 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Enrique Anaya Marin</t>
+          <t>Eugenio Ruiz Cepeda</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.387425886722793</v>
+        <v>0.3463253107581219</v>
       </c>
     </row>
     <row r="59">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>C14TORCE</t>
+          <t>Project Lobster</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1601,11 +1601,11 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Daniel Herrero Hernando</t>
+          <t>Javier Pérez-Chao Rodríguez</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.426412966485861</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="60">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Project Lobster</t>
+          <t>Atomian</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1622,11 +1622,11 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Isabel Rodríguez Godoy</t>
+          <t>Maria Isabel Llanes Agudelo</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.3483314773547883</v>
+        <v>0.233196087591488</v>
       </c>
     </row>
     <row r="61">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions</t>
+          <t>C14TORCE</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1643,11 +1643,11 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Daniel García Martínez</t>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.2123999406704181</v>
+        <v>0.2240092377397958</v>
       </c>
     </row>
     <row r="62">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Atomian</t>
+          <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1664,11 +1664,11 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Baltasar Torres Garcia</t>
+          <t>Sofia Jordan</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.2135506440329599</v>
+        <v>0.2038684096809353</v>
       </c>
     </row>
     <row r="63">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1685,11 +1685,11 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Alfredo Hinarejos Corbeá</t>
+          <t>Rodrigo Otero Montero</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.2022271903529528</v>
+        <v>0.2272595996093377</v>
       </c>
     </row>
     <row r="64">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1706,11 +1706,11 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Abel Colmenares Napolitano</t>
+          <t>Moisés García Almeida</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.1987625491245426</v>
+        <v>0.2513216808752189</v>
       </c>
     </row>
     <row r="65">
@@ -1727,11 +1727,11 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Francisco Leston Ramos</t>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.2257927531792018</v>
+        <v>0.2250226852138899</v>
       </c>
     </row>
     <row r="66">
@@ -1748,11 +1748,11 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Javier Requejo Melchor</t>
+          <t>Isabel Rodríguez Godoy</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.2</v>
+        <v>0.2094277145385189</v>
       </c>
     </row>
     <row r="67">
@@ -1769,11 +1769,11 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
+          <t>Carlos Martínez Crespo</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.2204812092115424</v>
+        <v>0.2474401533514072</v>
       </c>
     </row>
     <row r="68">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -1790,11 +1790,11 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Thilo Sperber</t>
+          <t>Javier Requejo Melchor</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.179617168213338</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="69">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1811,11 +1811,11 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Sofia Jordan</t>
+          <t>Dan Mihai Grigoriciuc</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.1782603569701947</v>
+        <v>0.2060024771958242</v>
       </c>
     </row>
     <row r="70">
@@ -1832,11 +1832,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Moisés García Almeida</t>
+          <t>Roberto Muñoz Aragón</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.2151612003824734</v>
+        <v>0.1706739027584263</v>
       </c>
     </row>
     <row r="71">
@@ -1853,11 +1853,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Maria Cristina Blanco</t>
+          <t>Alfredo Hinarejos Corbeá</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.1695208471985372</v>
+        <v>0.1693378522531012</v>
       </c>
     </row>
     <row r="72">
@@ -1895,11 +1895,11 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Carlos Martínez Crespo</t>
+          <t>Thilo Sperber</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.1679314358495421</v>
+        <v>0.1453757675112302</v>
       </c>
     </row>
     <row r="74">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>AKKA</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1916,11 +1916,11 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Sergio Ortega Gil</t>
+          <t>Verónica Celemín Lominchar</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>0.5364111542698436</v>
       </c>
     </row>
     <row r="75">
@@ -1929,7 +1929,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions SL</t>
+          <t>InboundCycle</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1937,11 +1937,11 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+          <t>Sergio Ortega Gil</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.387425886722793</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>AKKA</t>
+          <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1958,11 +1958,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Nerea Aparicio</t>
+          <t>Abel Colmenares Napolitano</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.3321405664814796</v>
+        <v>0.3483314773547883</v>
       </c>
     </row>
     <row r="77">
@@ -1979,11 +1979,11 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Rodrigo Otero Montero</t>
+          <t>Nerea Aparicio</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.3613305887651133</v>
+        <v>0.3145198591387565</v>
       </c>
     </row>
     <row r="78">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>C14TORCE</t>
+          <t>Atomian</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -2000,11 +2000,11 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Mario Quiroga Cuervo</t>
+          <t>Francisco Leston Ramos</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.3090169943749474</v>
+        <v>0.2402530733520421</v>
       </c>
     </row>
     <row r="79">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Atomian</t>
+          <t>C14TORCE</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -2021,11 +2021,11 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Alfonso Silva Feria</t>
+          <t>Daniel García Martínez</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.2568168231494444</v>
+        <v>0.2258444000186532</v>
       </c>
     </row>
     <row r="80">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>Volcanic Internet</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -2042,11 +2042,11 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Verónica Celemín Lominchar</t>
+          <t>Alfonso Silva Feria</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.2183665833497641</v>
+        <v>0.222763277794282</v>
       </c>
     </row>
     <row r="81">
@@ -2063,11 +2063,11 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Maria Isabel Llanes Agudelo</t>
+          <t>Daniel Herrero Hernando</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.2204812092115424</v>
+        <v>0.3763102827673971</v>
       </c>
     </row>
     <row r="82">
@@ -2084,11 +2084,11 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Nira Alonso Rodríguez</t>
+          <t>Maria Cristina Blanco</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.2035366959388389</v>
+        <v>0.2025519956555797</v>
       </c>
     </row>
     <row r="83">
@@ -2105,11 +2105,11 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Eugenio Ruiz Cepeda</t>
+          <t>Mario Quiroga Cuervo</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.1996882911515585</v>
+        <v>0.2380067155369107</v>
       </c>
     </row>
     <row r="84">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -2126,11 +2126,11 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
+          <t>Enrique Anaya Marin</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.303832434700687</v>
+        <v>0.208816527736411</v>
       </c>
     </row>
     <row r="85">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Volcanic Internet</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -2147,11 +2147,11 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Dan Mihai Grigoriciuc</t>
+          <t>Nira Alonso Rodríguez</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.2164068025100977</v>
+        <v>0.1815890793180576</v>
       </c>
     </row>
     <row r="86">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -2168,11 +2168,11 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Roberto Muñoz Aragón</t>
+          <t>Baltasar Torres Garcia</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.1929272807679017</v>
+        <v>0.179128784747792</v>
       </c>
     </row>
     <row r="87">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2189,11 +2189,11 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Enrique Anaya Marin</t>
+          <t>Eugenio Ruiz Cepeda</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.208816527736411</v>
+        <v>0.1789104018777049</v>
       </c>
     </row>
     <row r="88">
@@ -2210,11 +2210,11 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Daniel Herrero Hernando</t>
+          <t>Javier Pérez-Chao Rodríguez</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.2735058013901622</v>
+        <v>0.3013647414453538</v>
       </c>
     </row>
     <row r="89">
@@ -2231,11 +2231,11 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Isabel Rodríguez Godoy</t>
+          <t>Maria Isabel Llanes Agudelo</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.1770399302822591</v>
+        <v>0.180294370773025</v>
       </c>
     </row>
     <row r="90">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CAPITOLE CONSULTING</t>
+          <t>Movetia</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -2252,11 +2252,11 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Daniel García Martínez</t>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.1473263547743964</v>
+        <v>0.1462777698287902</v>
       </c>
     </row>
     <row r="91">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Movetia</t>
+          <t>CAPITOLE CONSULTING</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -2273,11 +2273,11 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Baltasar Torres Garcia</t>
+          <t>Sofia Jordan</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.1476734449611636</v>
+        <v>0.1413931400904685</v>
       </c>
     </row>
     <row r="92">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions SL</t>
+          <t>InboundCycle</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -2294,11 +2294,11 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Alfredo Hinarejos Corbeá</t>
+          <t>Rodrigo Otero Montero</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.387425886722793</v>
+        <v>0.357226000917599</v>
       </c>
     </row>
     <row r="93">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>AKKA</t>
+          <t>Project Lobster</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -2315,11 +2315,11 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Abel Colmenares Napolitano</t>
+          <t>Moisés García Almeida</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.4262045560413859</v>
+        <v>0.3636655193545664</v>
       </c>
     </row>
     <row r="94">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>AKKA</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -2336,11 +2336,11 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Francisco Leston Ramos</t>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.4193861568941954</v>
+        <v>0.4449944320643648</v>
       </c>
     </row>
     <row r="95">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Project Lobster</t>
+          <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -2357,11 +2357,11 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Javier Requejo Melchor</t>
+          <t>Isabel Rodríguez Godoy</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.3145198591387565</v>
+        <v>0.3761785115301142</v>
       </c>
     </row>
     <row r="96">
@@ -2378,11 +2378,11 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
+          <t>Carlos Martínez Crespo</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.2493517698850324</v>
+        <v>0.328283280373176</v>
       </c>
     </row>
     <row r="97">
@@ -2399,11 +2399,11 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Thilo Sperber</t>
+          <t>Javier Requejo Melchor</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2258444000186532</v>
       </c>
     </row>
     <row r="98">
@@ -2412,7 +2412,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions</t>
+          <t>Volcanic Internet</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -2420,11 +2420,11 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Sofia Jordan</t>
+          <t>Dan Mihai Grigoriciuc</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.2038684096809353</v>
+        <v>0.2164068025100977</v>
       </c>
     </row>
     <row r="99">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -2441,11 +2441,11 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Moisés García Almeida</t>
+          <t>Roberto Muñoz Aragón</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.2513216808752189</v>
+        <v>0.2176509175625895</v>
       </c>
     </row>
     <row r="100">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -2462,11 +2462,11 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Maria Cristina Blanco</t>
+          <t>Alfredo Hinarejos Corbeá</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.1963604054562682</v>
+        <v>0.2123999406704181</v>
       </c>
     </row>
     <row r="101">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Volcanic Internet</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.1946829030205005</v>
+        <v>0.2022271903529528</v>
       </c>
     </row>
     <row r="102">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>SEAT</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -2504,11 +2504,11 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Carlos Martínez Crespo</t>
+          <t>Thilo Sperber</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.2513216808752189</v>
+        <v>0.1929272807679017</v>
       </c>
     </row>
     <row r="103">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -2525,11 +2525,11 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Sergio Ortega Gil</t>
+          <t>Verónica Celemín Lominchar</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.2187841884486319</v>
+        <v>0.2183665833497641</v>
       </c>
     </row>
     <row r="104">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -2546,11 +2546,11 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+          <t>Sergio Ortega Gil</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.1871847275245008</v>
+        <v>0.2187841884486319</v>
       </c>
     </row>
     <row r="105">
@@ -2567,11 +2567,11 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Nerea Aparicio</t>
+          <t>Abel Colmenares Napolitano</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1815890793180576</v>
       </c>
     </row>
     <row r="106">
@@ -2588,11 +2588,11 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Rodrigo Otero Montero</t>
+          <t>Nerea Aparicio</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.1896942664003862</v>
+        <v>0.1698910252263591</v>
       </c>
     </row>
     <row r="107">
@@ -2609,11 +2609,11 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Mario Quiroga Cuervo</t>
+          <t>Francisco Leston Ramos</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.1929272807679017</v>
+        <v>0.1902821941341109</v>
       </c>
     </row>
     <row r="108">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Movetia</t>
+          <t>CAPITOLE CONSULTING</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -2630,11 +2630,11 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Alfonso Silva Feria</t>
+          <t>Daniel García Martínez</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.1610800718548306</v>
+        <v>0.1473263547743964</v>
       </c>
     </row>
     <row r="109">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CAPITOLE CONSULTING</t>
+          <t>Movetia</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -2651,11 +2651,11 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Verónica Celemín Lominchar</t>
+          <t>Alfonso Silva Feria</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.1593941548692679</v>
+        <v>0.1610800718548306</v>
       </c>
     </row>
     <row r="110">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -2672,11 +2672,11 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Maria Isabel Llanes Agudelo</t>
+          <t>Daniel Herrero Hernando</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.3884193593065456</v>
+        <v>0.6680455148361276</v>
       </c>
     </row>
     <row r="111">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>AKKA</t>
+          <t>InboundCycle</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -2693,11 +2693,11 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Nira Alonso Rodríguez</t>
+          <t>Maria Cristina Blanco</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.3552750833892311</v>
+        <v>0.387425886722793</v>
       </c>
     </row>
     <row r="112">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions SL</t>
+          <t>AKKA</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -2714,11 +2714,11 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Eugenio Ruiz Cepeda</t>
+          <t>Mario Quiroga Cuervo</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.3463253107581219</v>
+        <v>0.3738346727188514</v>
       </c>
     </row>
     <row r="113">
@@ -2735,11 +2735,11 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
+          <t>Enrique Anaya Marin</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.4</v>
+        <v>0.3145198591387565</v>
       </c>
     </row>
     <row r="114">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Atomian</t>
+          <t>C14TORCE</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -2756,11 +2756,11 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Dan Mihai Grigoriciuc</t>
+          <t>Nira Alonso Rodríguez</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.2369092993793366</v>
+        <v>0.2240092377397958</v>
       </c>
     </row>
     <row r="115">
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>C14TORCE</t>
+          <t>Atomian</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -2777,11 +2777,11 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Roberto Muñoz Aragón</t>
+          <t>Baltasar Torres Garcia</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.2296684845121643</v>
+        <v>0.2135506440329599</v>
       </c>
     </row>
     <row r="116">
@@ -2790,7 +2790,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -2798,11 +2798,11 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Enrique Anaya Marin</t>
+          <t>Eugenio Ruiz Cepeda</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.2123999406704181</v>
+        <v>0.2094277145385189</v>
       </c>
     </row>
     <row r="117">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -2819,11 +2819,11 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Daniel Herrero Hernando</t>
+          <t>Javier Pérez-Chao Rodríguez</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.3316128774121265</v>
+        <v>0.387425886722793</v>
       </c>
     </row>
     <row r="118">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>SEAT</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -2840,11 +2840,11 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Isabel Rodríguez Godoy</t>
+          <t>Maria Isabel Llanes Agudelo</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.2176305827856446</v>
+        <v>0.1984570517780165</v>
       </c>
     </row>
     <row r="119">
@@ -2861,11 +2861,11 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Daniel García Martínez</t>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.1967213114754098</v>
+        <v>0.1935483870967742</v>
       </c>
     </row>
     <row r="120">
@@ -2882,11 +2882,11 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Baltasar Torres Garcia</t>
+          <t>Sofia Jordan</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.1960703281139104</v>
+        <v>0.1937812369654421</v>
       </c>
     </row>
     <row r="121">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -2903,11 +2903,11 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Alfredo Hinarejos Corbeá</t>
+          <t>Rodrigo Otero Montero</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.1940499650128638</v>
+        <v>0.2151171476005365</v>
       </c>
     </row>
     <row r="122">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -2924,11 +2924,11 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Abel Colmenares Napolitano</t>
+          <t>Moisés García Almeida</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.1782603569701947</v>
+        <v>0.2493597386134658</v>
       </c>
     </row>
     <row r="123">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -2945,11 +2945,11 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Francisco Leston Ramos</t>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.2038684096809353</v>
+        <v>0.23166247903554</v>
       </c>
     </row>
     <row r="124">
@@ -2966,11 +2966,11 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Javier Requejo Melchor</t>
+          <t>Isabel Rodríguez Godoy</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.1815890793180576</v>
+        <v>0.1774551061436083</v>
       </c>
     </row>
     <row r="125">
@@ -2987,11 +2987,11 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
+          <t>Carlos Martínez Crespo</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.1929272807679017</v>
+        <v>0.207676798580154</v>
       </c>
     </row>
     <row r="126">
@@ -3008,11 +3008,11 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Thilo Sperber</t>
+          <t>Javier Requejo Melchor</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.1542512877373016</v>
       </c>
     </row>
     <row r="127">
@@ -3029,11 +3029,11 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Sofia Jordan</t>
+          <t>Dan Mihai Grigoriciuc</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.1413931400904685</v>
+        <v>0.1485207293561145</v>
       </c>
     </row>
     <row r="128">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>AKKA</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -3050,11 +3050,11 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Moisés García Almeida</t>
+          <t>Roberto Muñoz Aragón</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.357226000917599</v>
+        <v>0.430717277360874</v>
       </c>
     </row>
     <row r="129">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>AKKA</t>
+          <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -3071,11 +3071,11 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Maria Cristina Blanco</t>
+          <t>Alfredo Hinarejos Corbeá</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.3967566084765748</v>
+        <v>0.387425886722793</v>
       </c>
     </row>
     <row r="130">
@@ -3084,7 +3084,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions SL</t>
+          <t>InboundCycle</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.387425886722793</v>
+        <v>0.3638990660839067</v>
       </c>
     </row>
     <row r="131">
@@ -3113,11 +3113,11 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Carlos Martínez Crespo</t>
+          <t>Thilo Sperber</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.3967566084765748</v>
+        <v>0.3405424265831667</v>
       </c>
     </row>
     <row r="132">
@@ -3134,11 +3134,11 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Sergio Ortega Gil</t>
+          <t>Verónica Celemín Lominchar</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.3013496283140402</v>
+        <v>0.2568080306030585</v>
       </c>
     </row>
     <row r="133">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>C14TORCE</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -3155,11 +3155,11 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+          <t>Sergio Ortega Gil</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.2240092377397958</v>
+        <v>0.2519789467852133</v>
       </c>
     </row>
     <row r="134">
@@ -3168,7 +3168,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions</t>
+          <t>C14TORCE</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -3176,11 +3176,11 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Nerea Aparicio</t>
+          <t>Abel Colmenares Napolitano</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.2108967220595339</v>
+        <v>0.2183665833497641</v>
       </c>
     </row>
     <row r="135">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -3197,11 +3197,11 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Rodrigo Otero Montero</t>
+          <t>Nerea Aparicio</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.2151171476005365</v>
+        <v>0.2108967220595339</v>
       </c>
     </row>
     <row r="136">
@@ -3210,7 +3210,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>Volcanic Internet</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -3218,11 +3218,11 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Mario Quiroga Cuervo</t>
+          <t>Francisco Leston Ramos</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.2380067155369107</v>
+        <v>0.2257927531792018</v>
       </c>
     </row>
     <row r="137">
@@ -3231,7 +3231,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Volcanic Internet</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -3239,11 +3239,11 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Alfonso Silva Feria</t>
+          <t>Daniel García Martínez</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.222763277794282</v>
+        <v>0.2022271903529528</v>
       </c>
     </row>
     <row r="138">
@@ -3260,11 +3260,11 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Verónica Celemín Lominchar</t>
+          <t>Alfonso Silva Feria</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.2079915965134781</v>
+        <v>0.2045413040037515</v>
       </c>
     </row>
     <row r="139">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -3281,11 +3281,11 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Maria Isabel Llanes Agudelo</t>
+          <t>Daniel Herrero Hernando</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.1975496259559987</v>
+        <v>0.3316128774121265</v>
       </c>
     </row>
     <row r="140">
@@ -3302,11 +3302,11 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Nira Alonso Rodríguez</t>
+          <t>Maria Cristina Blanco</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.1924588518325761</v>
+        <v>0.1949095659630591</v>
       </c>
     </row>
     <row r="141">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -3323,11 +3323,11 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Eugenio Ruiz Cepeda</t>
+          <t>Mario Quiroga Cuervo</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.1856154626682773</v>
+        <v>0.2123999406704181</v>
       </c>
     </row>
     <row r="142">
@@ -3344,11 +3344,11 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
+          <t>Enrique Anaya Marin</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.3013647414453538</v>
+        <v>0.1863594591107266</v>
       </c>
     </row>
     <row r="143">
@@ -3365,11 +3365,11 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Dan Mihai Grigoriciuc</t>
+          <t>Nira Alonso Rodríguez</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.1809184671038962</v>
+        <v>0.1680831684349207</v>
       </c>
     </row>
     <row r="144">
@@ -3386,11 +3386,11 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Roberto Muñoz Aragón</t>
+          <t>Baltasar Torres Garcia</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.1531783880549343</v>
+        <v>0.1476734449611636</v>
       </c>
     </row>
     <row r="145">
@@ -3407,11 +3407,11 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Enrique Anaya Marin</t>
+          <t>Eugenio Ruiz Cepeda</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.1542663579739793</v>
+        <v>0.1469832759521987</v>
       </c>
     </row>
     <row r="146">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions SL</t>
+          <t>InboundCycle</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -3428,11 +3428,11 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Daniel Herrero Hernando</t>
+          <t>Javier Pérez-Chao Rodríguez</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.6680455148361276</v>
+        <v>0.5729490168751576</v>
       </c>
     </row>
     <row r="147">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -3449,11 +3449,11 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Isabel Rodríguez Godoy</t>
+          <t>Maria Isabel Llanes Agudelo</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.3510714832006495</v>
+        <v>0.3816524151396708</v>
       </c>
     </row>
     <row r="148">
@@ -3470,11 +3470,11 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Daniel García Martínez</t>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.3487326393337196</v>
+        <v>0.3255201716616444</v>
       </c>
     </row>
     <row r="149">
@@ -3491,11 +3491,11 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Baltasar Torres Garcia</t>
+          <t>Sofia Jordan</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.3316128774121265</v>
+        <v>0.2888324840393138</v>
       </c>
     </row>
     <row r="150">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>C14TORCE</t>
+          <t>Atomian</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -3512,11 +3512,11 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Alfredo Hinarejos Corbeá</t>
+          <t>Rodrigo Otero Montero</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0.2258444000186532</v>
+        <v>0.2513216808752189</v>
       </c>
     </row>
     <row r="151">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Atomian</t>
+          <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -3533,11 +3533,11 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Abel Colmenares Napolitano</t>
+          <t>Moisés García Almeida</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.2062408021419122</v>
+        <v>0.2547093771114228</v>
       </c>
     </row>
     <row r="152">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions</t>
+          <t>C14TORCE</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -3554,11 +3554,11 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Francisco Leston Ramos</t>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0.2204812092115424</v>
+        <v>0.2402530733520421</v>
       </c>
     </row>
     <row r="153">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>Volcanic Internet</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -3575,11 +3575,11 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Javier Requejo Melchor</t>
+          <t>Isabel Rodríguez Godoy</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.2022271903529528</v>
+        <v>0.1990353886870121</v>
       </c>
     </row>
     <row r="154">
@@ -3588,7 +3588,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Volcanic Internet</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -3596,11 +3596,11 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
+          <t>Carlos Martínez Crespo</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.2250226852138899</v>
+        <v>0.2513216808752189</v>
       </c>
     </row>
     <row r="155">
@@ -3609,7 +3609,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -3617,11 +3617,11 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Thilo Sperber</t>
+          <t>Javier Requejo Melchor</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.193603910635513</v>
+        <v>0.2022271903529528</v>
       </c>
     </row>
     <row r="156">
@@ -3638,11 +3638,11 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Sofia Jordan</t>
+          <t>Dan Mihai Grigoriciuc</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.1918253663634734</v>
+        <v>0.2012628451930092</v>
       </c>
     </row>
     <row r="157">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -3659,11 +3659,11 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Moisés García Almeida</t>
+          <t>Roberto Muñoz Aragón</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.2493597386134658</v>
+        <v>0.1929272807679017</v>
       </c>
     </row>
     <row r="158">
@@ -3672,7 +3672,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -3680,11 +3680,11 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Maria Cristina Blanco</t>
+          <t>Alfredo Hinarejos Corbeá</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.1827439976315568</v>
+        <v>0.1984721022902554</v>
       </c>
     </row>
     <row r="159">
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>Exoticca</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -3705,7 +3705,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0.1809073112342927</v>
+        <v>0.1691577362637454</v>
       </c>
     </row>
     <row r="160">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Exoticca</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -3722,11 +3722,11 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Carlos Martínez Crespo</t>
+          <t>Thilo Sperber</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.2090834833644092</v>
+        <v>0.179128784747792</v>
       </c>
     </row>
     <row r="161">
@@ -3743,11 +3743,11 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Sergio Ortega Gil</t>
+          <t>Verónica Celemín Lominchar</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.170073658037733</v>
+        <v>0.1693378522531012</v>
       </c>
     </row>
     <row r="162">
@@ -3764,11 +3764,11 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+          <t>Sergio Ortega Gil</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.168801570106684</v>
+        <v>0.2038684096809353</v>
       </c>
     </row>
     <row r="163">
@@ -3785,11 +3785,11 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Nerea Aparicio</t>
+          <t>Abel Colmenares Napolitano</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.1466355910779797</v>
+        <v>0.1409834962900199</v>
       </c>
     </row>
     <row r="164">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -3806,11 +3806,11 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Rodrigo Otero Montero</t>
+          <t>Nerea Aparicio</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.357226000917599</v>
+        <v>0.3761785115301142</v>
       </c>
     </row>
     <row r="165">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>AKKA</t>
+          <t>Project Lobster</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -3827,11 +3827,11 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Mario Quiroga Cuervo</t>
+          <t>Francisco Leston Ramos</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.3738346727188514</v>
+        <v>0.3483314773547883</v>
       </c>
     </row>
     <row r="166">
@@ -3840,7 +3840,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions SL</t>
+          <t>InboundCycle</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -3848,11 +3848,11 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Alfonso Silva Feria</t>
+          <t>Daniel García Martínez</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.3735774749920213</v>
+        <v>0.3763102827673971</v>
       </c>
     </row>
     <row r="167">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Project Lobster</t>
+          <t>AKKA</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -3869,11 +3869,11 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Verónica Celemín Lominchar</t>
+          <t>Alfonso Silva Feria</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.3761785115301142</v>
+        <v>0.3395082810929926</v>
       </c>
     </row>
     <row r="168">
@@ -3882,7 +3882,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Atomian</t>
+          <t>SEAT</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -3890,11 +3890,11 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Maria Isabel Llanes Agudelo</t>
+          <t>Daniel Herrero Hernando</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.233196087591488</v>
+        <v>0.3547131518625939</v>
       </c>
     </row>
     <row r="169">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions</t>
+          <t>C14TORCE</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -3911,11 +3911,11 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Nira Alonso Rodríguez</t>
+          <t>Maria Cristina Blanco</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.206587118104313</v>
+        <v>0.2277299991964413</v>
       </c>
     </row>
     <row r="170">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>C14TORCE</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -3932,11 +3932,11 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Eugenio Ruiz Cepeda</t>
+          <t>Mario Quiroga Cuervo</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.2217827369639381</v>
+        <v>0.2380067155369107</v>
       </c>
     </row>
     <row r="171">
@@ -3945,7 +3945,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -3953,11 +3953,11 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
+          <t>Enrique Anaya Marin</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0.3483314773547883</v>
+        <v>0.2123999406704181</v>
       </c>
     </row>
     <row r="172">
@@ -3966,7 +3966,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>Atomian</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -3974,11 +3974,11 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Dan Mihai Grigoriciuc</t>
+          <t>Nira Alonso Rodríguez</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0.2120208536062147</v>
+        <v>0.2147219967338948</v>
       </c>
     </row>
     <row r="173">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>Volcanic Internet</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -3995,11 +3995,11 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Roberto Muñoz Aragón</t>
+          <t>Baltasar Torres Garcia</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.205629773242875</v>
+        <v>0.1921598984882187</v>
       </c>
     </row>
     <row r="174">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Volcanic Internet</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -4016,11 +4016,11 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Enrique Anaya Marin</t>
+          <t>Eugenio Ruiz Cepeda</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0.2029512951668332</v>
+        <v>0.191636968872713</v>
       </c>
     </row>
     <row r="175">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>Bluekik</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -4037,11 +4037,11 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Daniel Herrero Hernando</t>
+          <t>Javier Pérez-Chao Rodríguez</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0.2730615545523087</v>
+        <v>0.2989939069707144</v>
       </c>
     </row>
     <row r="176">
@@ -4058,11 +4058,11 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Isabel Rodríguez Godoy</t>
+          <t>Maria Isabel Llanes Agudelo</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0.1876127897984334</v>
+        <v>0.1975496259559987</v>
       </c>
     </row>
     <row r="177">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Daniel García Martínez</t>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
         </is>
       </c>
       <c r="E177" t="n">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Bluekik</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -4100,11 +4100,11 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Baltasar Torres Garcia</t>
+          <t>Sofia Jordan</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>0.1673657762329726</v>
+        <v>0.1789104018777049</v>
       </c>
     </row>
     <row r="179">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Exoticca</t>
+          <t>Movetia</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -4121,11 +4121,11 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Alfredo Hinarejos Corbeá</t>
+          <t>Rodrigo Otero Montero</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0.1693378522531012</v>
+        <v>0.1684344913510188</v>
       </c>
     </row>
     <row r="180">
@@ -4134,7 +4134,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Movetia</t>
+          <t>Exoticca</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -4142,11 +4142,11 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Abel Colmenares Napolitano</t>
+          <t>Moisés García Almeida</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>0.141910532477298</v>
+        <v>0.1960811809392768</v>
       </c>
     </row>
     <row r="181">
@@ -4163,11 +4163,11 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Francisco Leston Ramos</t>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.1708406863826754</v>
+        <v>0.1649610255144721</v>
       </c>
     </row>
     <row r="182">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>AKKA</t>
+          <t>InboundCycle</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -4184,11 +4184,11 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Javier Requejo Melchor</t>
+          <t>Isabel Rodríguez Godoy</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0.4661337257979153</v>
+        <v>0.3510714832006495</v>
       </c>
     </row>
     <row r="183">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -4205,11 +4205,11 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
+          <t>Carlos Martínez Crespo</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0.4445054266553392</v>
+        <v>0.4661337257979153</v>
       </c>
     </row>
     <row r="184">
@@ -4226,11 +4226,11 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Thilo Sperber</t>
+          <t>Javier Requejo Melchor</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0.3405424265831667</v>
+        <v>0.3145198591387565</v>
       </c>
     </row>
     <row r="185">
@@ -4239,7 +4239,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions SL</t>
+          <t>AKKA</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -4247,11 +4247,11 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Sofia Jordan</t>
+          <t>Dan Mihai Grigoriciuc</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.3761785115301142</v>
+        <v>0.3743509852559168</v>
       </c>
     </row>
     <row r="186">
@@ -4268,11 +4268,11 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Moisés García Almeida</t>
+          <t>Roberto Muñoz Aragón</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.29776689442793</v>
+        <v>0.2296684845121643</v>
       </c>
     </row>
     <row r="187">
@@ -4281,7 +4281,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions</t>
+          <t>Atomian</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -4289,11 +4289,11 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Maria Cristina Blanco</t>
+          <t>Alfredo Hinarejos Corbeá</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>0.2123999406704181</v>
+        <v>0.2135506440329599</v>
       </c>
     </row>
     <row r="188">
@@ -4302,7 +4302,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Atomian</t>
+          <t>Volcanic Internet</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -4314,7 +4314,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0.2032067328931847</v>
+        <v>0.1946829030205005</v>
       </c>
     </row>
     <row r="189">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Volcanic Internet</t>
+          <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -4331,11 +4331,11 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Carlos Martínez Crespo</t>
+          <t>Thilo Sperber</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>0.2762910041374894</v>
+        <v>0.2094277145385189</v>
       </c>
     </row>
     <row r="190">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -4352,11 +4352,11 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Sergio Ortega Gil</t>
+          <t>Verónica Celemín Lominchar</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>0.2519789467852133</v>
+        <v>0.2155146893583885</v>
       </c>
     </row>
     <row r="191">
@@ -4365,7 +4365,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -4373,11 +4373,11 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+          <t>Sergio Ortega Gil</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>0.1940499650128638</v>
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="192">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -4394,11 +4394,11 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Nerea Aparicio</t>
+          <t>Abel Colmenares Napolitano</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.2035366959388389</v>
+        <v>0.1987625491245426</v>
       </c>
     </row>
     <row r="193">
@@ -4407,7 +4407,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -4415,11 +4415,11 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Rodrigo Otero Montero</t>
+          <t>Nerea Aparicio</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>0.2053642966101924</v>
+        <v>0.1834484227875728</v>
       </c>
     </row>
     <row r="194">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>SEAT</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -4436,11 +4436,11 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Mario Quiroga Cuervo</t>
+          <t>Francisco Leston Ramos</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>0.1987625491245426</v>
+        <v>0.2171292729553324</v>
       </c>
     </row>
     <row r="195">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>Bluekik</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -4457,11 +4457,11 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Alfonso Silva Feria</t>
+          <t>Daniel García Martínez</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>0.1996921297899064</v>
+        <v>0.1693401075929304</v>
       </c>
     </row>
     <row r="196">
@@ -4470,7 +4470,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Bluekik</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -4478,11 +4478,11 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Verónica Celemín Lominchar</t>
+          <t>Alfonso Silva Feria</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0.1856154626682773</v>
+        <v>0.1996921297899064</v>
       </c>
     </row>
     <row r="197">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Exoticca</t>
+          <t>CAPITOLE CONSULTING</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -4499,11 +4499,11 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Maria Isabel Llanes Agudelo</t>
+          <t>Daniel Herrero Hernando</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0.1712412388965722</v>
+        <v>0.2439436138885489</v>
       </c>
     </row>
     <row r="198">
@@ -4512,7 +4512,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Movetia</t>
+          <t>Exoticca</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -4520,11 +4520,11 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Nira Alonso Rodríguez</t>
+          <t>Maria Cristina Blanco</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0.1486277286819583</v>
+        <v>0.1695208471985372</v>
       </c>
     </row>
     <row r="199">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>CAPITOLE CONSULTING</t>
+          <t>Movetia</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -4541,11 +4541,11 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Eugenio Ruiz Cepeda</t>
+          <t>Mario Quiroga Cuervo</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0.1469832759521987</v>
+        <v>0.1606132537802078</v>
       </c>
     </row>
   </sheetData>
@@ -4570,14 +4570,14 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>InboundCycle</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>InboundCycle</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>AKKA</t>
@@ -4600,42 +4600,42 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>The Hotels Network</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Volcanic Internet</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>ONEBOX</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Norwegian</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Bit Genoma Digital Solutions</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Visyon (Estudio Bay SL)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Farmaconnect</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>The Hotels Network</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>SEAT</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Volcanic Internet</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Visyon (Estudio Bay SL)</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Norwegian</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -4665,92 +4665,92 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Maria Isabel Llanes Agudelo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Sofia Jordan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Rodrigo Otero Montero</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Moisés García Almeida</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>Isabel Rodríguez Godoy</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Daniel García Martínez</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Baltasar Torres Garcia</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Carlos Martínez Crespo</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Javier Requejo Melchor</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Dan Mihai Grigoriciuc</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Roberto Muñoz Aragón</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>Alfredo Hinarejos Corbeá</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Patricia Defez Díaz de Sarralde</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Thilo Sperber</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Verónica Celemín Lominchar</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Sergio Ortega Gil</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
         <is>
           <t>Abel Colmenares Napolitano</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Francisco Leston Ramos</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Javier Requejo Melchor</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Thilo Sperber</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Sofia Jordan</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Moisés García Almeida</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Maria Cristina Blanco</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Carlos Martínez Crespo</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Sergio Ortega Gil</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>Nerea Aparicio</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Rodrigo Otero Montero</t>
         </is>
       </c>
     </row>
@@ -4760,92 +4760,92 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Francisco Leston Ramos</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Daniel García Martínez</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Maria Cristina Blanco</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Alfonso Silva Feria</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Daniel Herrero Hernando</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Enrique Anaya Marin</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nira Alonso Rodríguez</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Maria Isabel Llanes Agudelo</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Baltasar Torres Garcia</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Sofia Jordan</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>Mario Quiroga Cuervo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Alfonso Silva Feria</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Verónica Celemín Lominchar</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Maria Isabel Llanes Agudelo</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Nira Alonso Rodríguez</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>Eugenio Ruiz Cepeda</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Roberto Muñoz Aragón</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Daniel García Martínez</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>Javier Pérez-Chao Rodríguez</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Enrique Anaya Marin</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Daniel Herrero Hernando</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Moisés García Almeida</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Rodrigo Otero Montero</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>Isabel Rodríguez Godoy</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Baltasar Torres Garcia</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Dan Mihai Grigoriciuc</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Alfredo Hinarejos Corbeá</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Abel Colmenares Napolitano</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Francisco Leston Ramos</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Javier Requejo Melchor</t>
         </is>
       </c>
     </row>
@@ -4855,92 +4855,92 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Carlos Martínez Crespo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Dan Mihai Grigoriciuc</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Javier Requejo Melchor</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Roberto Muñoz Aragón</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Alfredo Hinarejos Corbeá</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Thilo Sperber</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Sofia Jordan</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Moisés García Almeida</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Abel Colmenares Napolitano</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Sergio Ortega Gil</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Verónica Celemín Lominchar</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Alfonso Silva Feria</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Patricia Defez Díaz de Sarralde</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Nerea Aparicio</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Daniel García Martínez</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Francisco Leston Ramos</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>Maria Cristina Blanco</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Carlos Martínez Crespo</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Verónica Celemín Lominchar</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Rodrigo Otero Montero</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Nerea Aparicio</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Sergio Ortega Gil</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Daniel Herrero Hernando</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Enrique Anaya Marin</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>Mario Quiroga Cuervo</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Alfonso Silva Feria</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Maria Isabel Llanes Agudelo</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Nira Alonso Rodríguez</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Eugenio Ruiz Cepeda</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
         </is>
       </c>
     </row>
@@ -4950,92 +4950,92 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Enrique Anaya Marin</t>
+          <t>Baltasar Torres Garcia</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Eugenio Ruiz Cepeda</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Nira Alonso Rodríguez</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Javier Pérez-Chao Rodríguez</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Maria Isabel Llanes Agudelo</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Moisés García Almeida</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>Dan Mihai Grigoriciuc</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Carlos Martínez Crespo</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Sofia Jordan</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Isabel Rodríguez Godoy</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Javier Requejo Melchor</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Rodrigo Otero Montero</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>Roberto Muñoz Aragón</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Isabel Rodríguez Godoy</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Daniel Herrero Hernando</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Baltasar Torres Garcia</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Abel Colmenares Napolitano</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Alfredo Hinarejos Corbeá</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Patricia Defez Díaz de Sarralde</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>Thilo Sperber</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Daniel García Martínez</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Alfredo Hinarejos Corbeá</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Javier Requejo Melchor</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Francisco Leston Ramos</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Sofia Jordan</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Moisés García Almeida</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Maria Cristina Blanco</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>Carlos Martínez Crespo</t>
         </is>
       </c>
     </row>
@@ -5045,92 +5045,92 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Sergio Ortega Gil</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Abel Colmenares Napolitano</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Verónica Celemín Lominchar</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Nerea Aparicio</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Daniel García Martínez</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Francisco Leston Ramos</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Maria Cristina Blanco</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Alfonso Silva Feria</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Enrique Anaya Marin</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Eugenio Ruiz Cepeda</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Daniel Herrero Hernando</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Mario Quiroga Cuervo</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Baltasar Torres Garcia</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Nira Alonso Rodríguez</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Maria Isabel Llanes Agudelo</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Javier Pérez-Chao Rodríguez</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
           <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Sergio Ortega Gil</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Nerea Aparicio</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Rodrigo Otero Montero</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Mario Quiroga Cuervo</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Alfonso Silva Feria</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Enrique Anaya Marin</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Verónica Celemín Lominchar</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Maria Isabel Llanes Agudelo</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Nira Alonso Rodríguez</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Eugenio Ruiz Cepeda</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Dan Mihai Grigoriciuc</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Roberto Muñoz Aragón</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Isabel Rodríguez Godoy</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Daniel Herrero Hernando</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Baltasar Torres Garcia</t>
-        </is>
-      </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Daniel García Martínez</t>
+          <t>Sofia Jordan</t>
         </is>
       </c>
     </row>
@@ -5140,84 +5140,84 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Rodrigo Otero Montero</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Isabel Rodríguez Godoy</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Moisés García Almeida</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Javier Requejo Melchor</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Carlos Martínez Crespo</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Patricia Defez Díaz de Sarralde</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Dan Mihai Grigoriciuc</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Roberto Muñoz Aragón</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Abel Colmenares Napolitano</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>Alfredo Hinarejos Corbeá</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Thilo Sperber</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Sergio Ortega Gil</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Verónica Celemín Lominchar</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>Francisco Leston Ramos</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Abel Colmenares Napolitano</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Javier Requejo Melchor</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Thilo Sperber</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Carlos Martínez Crespo</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Sofia Jordan</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Moisés García Almeida</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Maria Cristina Blanco</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Sergio Ortega Gil</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>Nerea Aparicio</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Mario Quiroga Cuervo</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Rodrigo Otero Montero</t>
-        </is>
-      </c>
       <c r="R7" t="inlineStr">
         <is>
           <t>Alfonso Silva Feria</t>
@@ -5225,7 +5225,7 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Verónica Celemín Lominchar</t>
+          <t>Daniel García Martínez</t>
         </is>
       </c>
     </row>
@@ -5235,92 +5235,92 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Maria Cristina Blanco</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Daniel Herrero Hernando</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Mario Quiroga Cuervo</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Enrique Anaya Marin</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nira Alonso Rodríguez</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Baltasar Torres Garcia</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>Eugenio Ruiz Cepeda</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Sofia Jordan</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Rodrigo Otero Montero</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Javier Pérez-Chao Rodríguez</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>Maria Isabel Llanes Agudelo</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Nira Alonso Rodríguez</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Roberto Muñoz Aragón</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Moisés García Almeida</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Carlos Martínez Crespo</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Isabel Rodríguez Godoy</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Javier Requejo Melchor</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>Dan Mihai Grigoriciuc</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Baltasar Torres Garcia</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Abel Colmenares Napolitano</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Enrique Anaya Marin</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Isabel Rodríguez Godoy</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Alfredo Hinarejos Corbeá</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Daniel García Martínez</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Francisco Leston Ramos</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Daniel Herrero Hernando</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Javier Requejo Melchor</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Thilo Sperber</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Sofia Jordan</t>
         </is>
       </c>
     </row>
@@ -5335,87 +5335,87 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Moisés García Almeida</t>
+          <t>Alfredo Hinarejos Corbeá</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>Roberto Muñoz Aragón</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Thilo Sperber</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Abel Colmenares Napolitano</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Verónica Celemín Lominchar</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Daniel García Martínez</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Francisco Leston Ramos</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>Maria Cristina Blanco</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Carlos Martínez Crespo</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Daniel Herrero Hernando</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Nerea Aparicio</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Alfonso Silva Feria</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Mario Quiroga Cuervo</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>Sergio Ortega Gil</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>Nira Alonso Rodríguez</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Enrique Anaya Marin</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Baltasar Torres Garcia</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>Eugenio Ruiz Cepeda</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Nerea Aparicio</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Mario Quiroga Cuervo</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Verónica Celemín Lominchar</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Alfonso Silva Feria</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Maria Isabel Llanes Agudelo</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Rodrigo Otero Montero</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Dan Mihai Grigoriciuc</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Roberto Muñoz Aragón</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Enrique Anaya Marin</t>
         </is>
       </c>
     </row>
@@ -5425,92 +5425,92 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Daniel Herrero Hernando</t>
+          <t>Javier Pérez-Chao Rodríguez</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>Maria Isabel Llanes Agudelo</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sofia Jordan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Rodrigo Otero Montero</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Javier Requejo Melchor</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>Isabel Rodríguez Godoy</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Daniel García Martínez</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Baltasar Torres Garcia</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>Alfredo Hinarejos Corbeá</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Roberto Muñoz Aragón</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Moisés García Almeida</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Dan Mihai Grigoriciuc</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Thilo Sperber</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Carlos Martínez Crespo</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Sergio Ortega Gil</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Patricia Defez Díaz de Sarralde</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Verónica Celemín Lominchar</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>Abel Colmenares Napolitano</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Thilo Sperber</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Maria Cristina Blanco</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Francisco Leston Ramos</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Javier Requejo Melchor</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Sofia Jordan</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Moisés García Almeida</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Carlos Martínez Crespo</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Sergio Ortega Gil</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>Nerea Aparicio</t>
         </is>
       </c>
     </row>
@@ -5520,92 +5520,92 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Daniel García Martínez</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Nerea Aparicio</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>Alfonso Silva Feria</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Francisco Leston Ramos</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Maria Cristina Blanco</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Nira Alonso Rodríguez</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Mario Quiroga Cuervo</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Baltasar Torres Garcia</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Eugenio Ruiz Cepeda</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Enrique Anaya Marin</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Daniel Herrero Hernando</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Maria Isabel Llanes Agudelo</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Sofia Jordan</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Javier Pérez-Chao Rodríguez</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Moisés García Almeida</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
         <is>
           <t>Rodrigo Otero Montero</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Mario Quiroga Cuervo</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Verónica Celemín Lominchar</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Eugenio Ruiz Cepeda</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Maria Isabel Llanes Agudelo</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Daniel Herrero Hernando</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Dan Mihai Grigoriciuc</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Nira Alonso Rodríguez</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Roberto Muñoz Aragón</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Enrique Anaya Marin</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Isabel Rodríguez Godoy</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Daniel García Martínez</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Baltasar Torres Garcia</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Alfredo Hinarejos Corbeá</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Abel Colmenares Napolitano</t>
-        </is>
-      </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>Francisco Leston Ramos</t>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
         </is>
       </c>
     </row>
@@ -5615,92 +5615,92 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sofia Jordan</t>
+          <t>Isabel Rodríguez Godoy</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
+          <t>Carlos Martínez Crespo</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>Dan Mihai Grigoriciuc</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Javier Requejo Melchor</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Roberto Muñoz Aragón</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Alfredo Hinarejos Corbeá</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Sergio Ortega Gil</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Patricia Defez Díaz de Sarralde</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Abel Colmenares Napolitano</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Verónica Celemín Lominchar</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>Thilo Sperber</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Moisés García Almeida</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Rodrigo Otero Montero</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Sergio Ortega Gil</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Francisco Leston Ramos</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Alfonso Silva Feria</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Nerea Aparicio</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Daniel García Martínez</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>Maria Cristina Blanco</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Nerea Aparicio</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Carlos Martínez Crespo</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Alfonso Silva Feria</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>Mario Quiroga Cuervo</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Verónica Celemín Lominchar</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Maria Isabel Llanes Agudelo</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Nira Alonso Rodríguez</t>
-        </is>
-      </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>Eugenio Ruiz Cepeda</t>
+          <t>Daniel Herrero Hernando</t>
         </is>
       </c>
     </row>
@@ -5726,147 +5726,147 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Maria Isabel Llanes Agudelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Sofia Jordan</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Rodrigo Otero Montero</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Moisés García Almeida</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Isabel Rodríguez Godoy</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Carlos Martínez Crespo</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Javier Requejo Melchor</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Dan Mihai Grigoriciuc</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Roberto Muñoz Aragón</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Alfredo Hinarejos Corbeá</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Patricia Defez Díaz de Sarralde</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Thilo Sperber</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Verónica Celemín Lominchar</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Sergio Ortega Gil</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Abel Colmenares Napolitano</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Nerea Aparicio</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Francisco Leston Ramos</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Daniel García Martínez</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Alfonso Silva Feria</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Daniel Herrero Hernando</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Maria Cristina Blanco</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Mario Quiroga Cuervo</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Enrique Anaya Marin</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Nira Alonso Rodríguez</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Baltasar Torres Garcia</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Alfredo Hinarejos Corbeá</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Abel Colmenares Napolitano</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Francisco Leston Ramos</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Javier Requejo Melchor</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Thilo Sperber</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Sofia Jordan</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Moisés García Almeida</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Maria Cristina Blanco</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Carlos Martínez Crespo</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Sergio Ortega Gil</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Nerea Aparicio</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Rodrigo Otero Montero</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Mario Quiroga Cuervo</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Alfonso Silva Feria</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Verónica Celemín Lominchar</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Maria Isabel Llanes Agudelo</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Nira Alonso Rodríguez</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Eugenio Ruiz Cepeda</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Javier Pérez-Chao Rodríguez</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Dan Mihai Grigoriciuc</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Roberto Muñoz Aragón</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Enrique Anaya Marin</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Daniel Herrero Hernando</t>
         </is>
       </c>
     </row>
@@ -5876,14 +5876,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>InboundCycle</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>InboundCycle</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>AKKA</t>
@@ -5906,42 +5906,42 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>The Hotels Network</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Volcanic Internet</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>ONEBOX</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Norwegian</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Bit Genoma Digital Solutions</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Visyon (Estudio Bay SL)</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>Farmaconnect</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>The Hotels Network</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>SEAT</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Volcanic Internet</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Visyon (Estudio Bay SL)</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Norwegian</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -5992,17 +5992,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Exoticca</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Bluekik</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Exoticca</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -6028,42 +6028,42 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
+          <t>InboundCycle</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
           <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>InboundCycle</t>
-        </is>
-      </c>
       <c r="V3" t="inlineStr">
         <is>
+          <t>Project Lobster</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>C14TORCE</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
           <t>AKKA</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>Project Lobster</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>C14TORCE</t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
+          <t>Bit Genoma Digital Solutions</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
           <t>Atomian</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -6073,12 +6073,12 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>SEAT</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
     </row>
@@ -6095,19 +6095,19 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
+          <t>InboundCycle</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>AKKA</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>InboundCycle</t>
-        </is>
-      </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>Project Lobster</t>
@@ -6130,57 +6130,57 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
+          <t>ONEBOX</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
           <t>Volcanic Internet</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>The Hotels Network</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>SEAT</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>Farmaconnect</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>Norwegian</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>ONEBOX</t>
-        </is>
-      </c>
       <c r="W4" t="inlineStr">
         <is>
+          <t>Exoticca</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
           <t>Bluekik</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>Exoticca</t>
-        </is>
-      </c>
       <c r="Y4" t="inlineStr">
         <is>
+          <t>CAPITOLE CONSULTING</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
           <t>Movetia</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>CAPITOLE CONSULTING</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr"/>
@@ -6194,52 +6194,52 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Project Lobster</t>
+          <t>Atomian</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>C14TORCE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Atomian</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Farmaconnect</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>The Hotels Network</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Volcanic Internet</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Norwegian</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Visyon (Estudio Bay SL)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>ONEBOX</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Volcanic Internet</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>SEAT</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Norwegian</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Farmaconnect</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -6275,14 +6275,14 @@
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr">
         <is>
+          <t>AKKA</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
           <t>InboundCycle</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>AKKA</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
           <t>Bit Genoma Digital Solutions SL</t>
@@ -6290,7 +6290,7 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>C14TORCE</t>
+          <t>Project Lobster</t>
         </is>
       </c>
     </row>
@@ -6305,12 +6305,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Movetia</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>CAPITOLE CONSULTING</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Movetia</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -6326,19 +6326,19 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
+          <t>AKKA</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
           <t>InboundCycle</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>AKKA</t>
-        </is>
-      </c>
       <c r="S6" t="inlineStr">
         <is>
           <t>Project Lobster</t>
@@ -6346,52 +6346,52 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
+          <t>Atomian</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
           <t>C14TORCE</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>Atomian</t>
-        </is>
-      </c>
       <c r="V6" t="inlineStr">
         <is>
+          <t>Volcanic Internet</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Bit Genoma Digital Solutions</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>The Hotels Network</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>ONEBOX</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
           <t>Farmaconnect</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>The Hotels Network</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>SEAT</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>Volcanic Internet</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>Norwegian</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>ONEBOX</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -6409,24 +6409,24 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
+          <t>InboundCycle</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Project Lobster</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>AKKA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>AKKA</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>InboundCycle</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Project Lobster</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>Atomian</t>
@@ -6439,39 +6439,39 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
+          <t>Volcanic Internet</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>ONEBOX</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
           <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>The Hotels Network</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>SEAT</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Volcanic Internet</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>Farmaconnect</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>ONEBOX</t>
-        </is>
-      </c>
       <c r="R7" t="inlineStr">
         <is>
           <t>Norwegian</t>
@@ -6489,12 +6489,12 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
+          <t>CAPITOLE CONSULTING</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
           <t>Movetia</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>CAPITOLE CONSULTING</t>
         </is>
       </c>
       <c r="W7" t="inlineStr"/>
@@ -6512,7 +6512,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>SEAT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -6527,17 +6527,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>Visyon (Estudio Bay SL)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Farmaconnect</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -6573,19 +6573,19 @@
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr">
         <is>
+          <t>Bit Genoma Digital Solutions SL</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
           <t>InboundCycle</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>AKKA</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions SL</t>
-        </is>
-      </c>
       <c r="Z8" t="inlineStr">
         <is>
           <t>Project Lobster</t>
@@ -6593,22 +6593,22 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
+          <t>C14TORCE</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
           <t>Atomian</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>C14TORCE</t>
-        </is>
-      </c>
       <c r="AC8" t="inlineStr">
         <is>
+          <t>The Hotels Network</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
           <t>Bit Genoma Digital Solutions</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>Norwegian</t>
         </is>
       </c>
     </row>
@@ -6628,19 +6628,19 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
+          <t>AKKA</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Bit Genoma Digital Solutions SL</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>InboundCycle</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>AKKA</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions SL</t>
-        </is>
-      </c>
       <c r="O9" t="inlineStr">
         <is>
           <t>Project Lobster</t>
@@ -6653,47 +6653,47 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
+          <t>Farmaconnect</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
           <t>C14TORCE</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Volcanic Internet</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>The Hotels Network</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
         <is>
           <t>Norwegian</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>The Hotels Network</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>Volcanic Internet</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>SEAT</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>ONEBOX</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>Visyon (Estudio Bay SL)</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>ONEBOX</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -6724,7 +6724,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -6739,57 +6739,57 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Atomian</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bit Genoma Digital Solutions</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>C14TORCE</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Atomian</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>Volcanic Internet</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Farmaconnect</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>The Hotels Network</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Volcanic Internet</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Norwegian</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>ONEBOX</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>SEAT</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Exoticca</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>Visyon (Estudio Bay SL)</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Farmaconnect</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Norwegian</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Exoticca</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -6820,7 +6820,7 @@
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions SL</t>
+          <t>InboundCycle</t>
         </is>
       </c>
     </row>
@@ -6840,17 +6840,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Bluekik</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>Movetia</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>Exoticca</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Movetia</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -6871,62 +6871,62 @@
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr">
         <is>
+          <t>Bit Genoma Digital Solutions SL</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Project Lobster</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
           <t>InboundCycle</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>AKKA</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions SL</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>Project Lobster</t>
-        </is>
-      </c>
       <c r="W11" t="inlineStr">
         <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>C14TORCE</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>The Hotels Network</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>Bit Genoma Digital Solutions</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
           <t>Atomian</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>C14TORCE</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>SEAT</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>Farmaconnect</t>
-        </is>
-      </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>Volcanic Internet</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Volcanic Internet</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>Bluekik</t>
         </is>
       </c>
     </row>
@@ -6942,24 +6942,24 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
+          <t>InboundCycle</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Bit Genoma Digital Solutions SL</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Project Lobster</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>AKKA</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>InboundCycle</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Project Lobster</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions SL</t>
-        </is>
-      </c>
       <c r="L12" t="inlineStr">
         <is>
           <t>C14TORCE</t>
@@ -6967,67 +6967,67 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
+          <t>Atomian</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Volcanic Internet</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
           <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Atomian</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Volcanic Internet</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
+          <t>Norwegian</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>The Hotels Network</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>ONEBOX</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>Farmaconnect</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>SEAT</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>The Hotels Network</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>ONEBOX</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>Norwegian</t>
-        </is>
-      </c>
       <c r="U12" t="inlineStr">
         <is>
+          <t>Bluekik</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
           <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>Bluekik</t>
-        </is>
-      </c>
       <c r="W12" t="inlineStr">
         <is>
+          <t>CAPITOLE CONSULTING</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
           <t>Exoticca</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>Movetia</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>CAPITOLE CONSULTING</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr"/>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -396,7 +396,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -404,11 +404,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Maria Isabel Llanes Agudelo</t>
+          <t>Enrique Anaya Marin</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.3884193593065456</v>
+        <v>0.387425886722793</v>
       </c>
     </row>
     <row r="3">
@@ -417,7 +417,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions SL</t>
+          <t>InboundCycle</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -429,7 +429,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.387425886722793</v>
+        <v>0.3548466588893287</v>
       </c>
     </row>
     <row r="4">
@@ -446,11 +446,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sofia Jordan</t>
+          <t>Dan Mihai Grigoriciuc</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.3846424969804047</v>
+        <v>0.3743509852559168</v>
       </c>
     </row>
     <row r="5">
@@ -467,11 +467,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Rodrigo Otero Montero</t>
+          <t>Eugenio Ruiz Cepeda</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.3613305887651133</v>
+        <v>0.3316128774121265</v>
       </c>
     </row>
     <row r="6">
@@ -488,11 +488,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Moisés García Almeida</t>
+          <t>Javier Requejo Melchor</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.29776689442793</v>
+        <v>0.2258444000186532</v>
       </c>
     </row>
     <row r="7">
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Atomian</t>
+          <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -509,11 +509,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
+          <t>Sofia Jordan</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.2493517698850324</v>
+        <v>0.2038684096809353</v>
       </c>
     </row>
     <row r="8">
@@ -522,7 +522,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>Atomian</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -530,11 +530,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Isabel Rodríguez Godoy</t>
+          <t>Carlos Martínez Crespo</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2176305827856446</v>
+        <v>0.328283280373176</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Volcanic Internet</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -551,11 +551,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Carlos Martínez Crespo</t>
+          <t>Daniel García Martínez</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.2762910041374894</v>
+        <v>0.2022271903529528</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +564,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>SEAT</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -572,11 +572,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Javier Requejo Melchor</t>
+          <t>Isabel Rodríguez Godoy</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.2147268606635241</v>
+        <v>0.2094277145385189</v>
       </c>
     </row>
     <row r="11">
@@ -585,7 +585,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>Volcanic Internet</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -593,11 +593,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Dan Mihai Grigoriciuc</t>
+          <t>Alfonso Silva Feria</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.2171292729553324</v>
+        <v>0.222763277794282</v>
       </c>
     </row>
     <row r="12">
@@ -606,7 +606,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -614,11 +614,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Roberto Muñoz Aragón</t>
+          <t>Rodrigo Otero Montero</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.2171292729553324</v>
+        <v>0.2272595996093377</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -635,11 +635,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Alfredo Hinarejos Corbeá</t>
+          <t>Sergio Ortega Gil</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.1940499650128638</v>
+        <v>0.2187841884486319</v>
       </c>
     </row>
     <row r="14">
@@ -648,7 +648,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -656,11 +656,11 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
+          <t>Mario Quiroga Cuervo</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.2120628652009712</v>
       </c>
     </row>
     <row r="15">
@@ -669,7 +669,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -677,11 +677,11 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Thilo Sperber</t>
+          <t>Daniel Herrero Hernando</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.179617168213338</v>
+        <v>0.3316128774121265</v>
       </c>
     </row>
     <row r="16">
@@ -690,7 +690,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bluekik</t>
+          <t>Exoticca</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -698,11 +698,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Verónica Celemín Lominchar</t>
+          <t>Thilo Sperber</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.1856154626682773</v>
+        <v>0.1670539040975775</v>
       </c>
     </row>
     <row r="17">
@@ -711,7 +711,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Exoticca</t>
+          <t>Bluekik</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -719,11 +719,11 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sergio Ortega Gil</t>
+          <t>Baltasar Torres Garcia</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.2035366959388389</v>
+        <v>0.1673657762329726</v>
       </c>
     </row>
     <row r="18">
@@ -732,7 +732,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Movetia</t>
+          <t>CAPITOLE CONSULTING</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -740,11 +740,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Abel Colmenares Napolitano</t>
+          <t>Maria Cristina Blanco</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.141910532477298</v>
+        <v>0.150096606082996</v>
       </c>
     </row>
     <row r="19">
@@ -753,7 +753,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CAPITOLE CONSULTING</t>
+          <t>Movetia</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -761,11 +761,11 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Nerea Aparicio</t>
+          <t>Verónica Celemín Lominchar</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.1466355910779797</v>
+        <v>0.1693378522531012</v>
       </c>
     </row>
     <row r="20">
@@ -774,7 +774,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -782,11 +782,11 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Francisco Leston Ramos</t>
+          <t>Patricia Defez Díaz de Sarralde</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.4193861568941954</v>
+        <v>0.387425886722793</v>
       </c>
     </row>
     <row r="21">
@@ -795,7 +795,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions SL</t>
+          <t>InboundCycle</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -803,11 +803,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Daniel García Martínez</t>
+          <t>Javier Pérez-Chao Rodríguez</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.387425886722793</v>
+        <v>0.5729490168751576</v>
       </c>
     </row>
     <row r="22">
@@ -824,11 +824,11 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Alfonso Silva Feria</t>
+          <t>Francisco Leston Ramos</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.3735774749920213</v>
+        <v>0.3483314773547883</v>
       </c>
     </row>
     <row r="23">
@@ -837,7 +837,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>C14TORCE</t>
+          <t>AKKA</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -845,11 +845,11 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Daniel Herrero Hernando</t>
+          <t>Abel Colmenares Napolitano</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.426412966485861</v>
+        <v>0.4262045560413859</v>
       </c>
     </row>
     <row r="24">
@@ -858,7 +858,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AKKA</t>
+          <t>C14TORCE</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -866,11 +866,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Maria Cristina Blanco</t>
+          <t>Moisés García Almeida</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.3967566084765748</v>
+        <v>0.29776689442793</v>
       </c>
     </row>
     <row r="25">
@@ -879,7 +879,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions</t>
+          <t>Atomian</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -887,11 +887,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mario Quiroga Cuervo</t>
+          <t>Nira Alonso Rodríguez</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.303832434700687</v>
+        <v>0.2147219967338948</v>
       </c>
     </row>
     <row r="26">
@@ -900,7 +900,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Atomian</t>
+          <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -908,7 +908,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Enrique Anaya Marin</t>
+          <t>Maria Isabel Llanes Agudelo</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -921,7 +921,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -929,11 +929,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Nira Alonso Rodríguez</t>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.2035366959388389</v>
+        <v>0.23166247903554</v>
       </c>
     </row>
     <row r="28">
@@ -942,7 +942,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -950,11 +950,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Baltasar Torres Garcia</t>
+          <t>Nerea Aparicio</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1960703281139104</v>
+        <v>0.2035366959388389</v>
       </c>
     </row>
     <row r="29">
@@ -963,7 +963,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -971,11 +971,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Eugenio Ruiz Cepeda</t>
+          <t>Alfredo Hinarejos Corbeá</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.1996882911515585</v>
+        <v>0.1984721022902554</v>
       </c>
     </row>
     <row r="30">
@@ -984,7 +984,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>SEAT</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -992,11 +992,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
+          <t>Roberto Muñoz Aragón</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.303832434700687</v>
+        <v>0.1975496259559987</v>
       </c>
     </row>
     <row r="31">
@@ -1013,11 +1013,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Maria Isabel Llanes Agudelo</t>
+          <t>Enrique Anaya Marin</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.2075983416319047</v>
+        <v>0.2029512951668332</v>
       </c>
     </row>
     <row r="32">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1038,7 +1038,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1815890793180576</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="33">
@@ -1055,11 +1055,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Sofia Jordan</t>
+          <t>Dan Mihai Grigoriciuc</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.1827439976315568</v>
+        <v>0.2171292729553324</v>
       </c>
     </row>
     <row r="34">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Exoticca</t>
+          <t>Bluekik</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1076,11 +1076,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Rodrigo Otero Montero</t>
+          <t>Eugenio Ruiz Cepeda</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.1896942664003862</v>
+        <v>0.1717768763415363</v>
       </c>
     </row>
     <row r="35">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Bluekik</t>
+          <t>Exoticca</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1097,11 +1097,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Moisés García Almeida</t>
+          <t>Javier Requejo Melchor</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.2151612003824734</v>
+        <v>0.1815890793180576</v>
       </c>
     </row>
     <row r="36">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Movetia</t>
+          <t>CAPITOLE CONSULTING</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1118,11 +1118,11 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
+          <t>Sofia Jordan</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.1708198098498349</v>
+        <v>0.1413931400904685</v>
       </c>
     </row>
     <row r="37">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CAPITOLE CONSULTING</t>
+          <t>Movetia</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1139,11 +1139,11 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Isabel Rodríguez Godoy</t>
+          <t>Carlos Martínez Crespo</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.1598647329038672</v>
+        <v>0.1706345994035849</v>
       </c>
     </row>
     <row r="38">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1160,11 +1160,11 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Carlos Martínez Crespo</t>
+          <t>Daniel García Martínez</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.5015528100075709</v>
+        <v>0.387425886722793</v>
       </c>
     </row>
     <row r="39">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AKKA</t>
+          <t>InboundCycle</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1181,11 +1181,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Javier Requejo Melchor</t>
+          <t>Isabel Rodríguez Godoy</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.4661337257979153</v>
+        <v>0.3510714832006495</v>
       </c>
     </row>
     <row r="40">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions SL</t>
+          <t>Project Lobster</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1202,11 +1202,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Dan Mihai Grigoriciuc</t>
+          <t>Alfonso Silva Feria</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.387425886722793</v>
+        <v>0.3735774749920213</v>
       </c>
     </row>
     <row r="41">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Project Lobster</t>
+          <t>AKKA</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1223,11 +1223,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Roberto Muñoz Aragón</t>
+          <t>Rodrigo Otero Montero</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.3405424265831667</v>
+        <v>0.3555706931646764</v>
       </c>
     </row>
     <row r="42">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>C14TORCE</t>
+          <t>Atomian</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1244,11 +1244,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Alfredo Hinarejos Corbeá</t>
+          <t>Sergio Ortega Gil</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.2258444000186532</v>
+        <v>0.3013496283140402</v>
       </c>
     </row>
     <row r="43">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions</t>
+          <t>C14TORCE</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1265,11 +1265,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
+          <t>Mario Quiroga Cuervo</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.2052130961576726</v>
+        <v>0.3090169943749474</v>
       </c>
     </row>
     <row r="44">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Atomian</t>
+          <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1286,11 +1286,11 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Thilo Sperber</t>
+          <t>Daniel Herrero Hernando</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.2167219128456158</v>
+        <v>0.3763102827673971</v>
       </c>
     </row>
     <row r="45">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1307,11 +1307,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Verónica Celemín Lominchar</t>
+          <t>Thilo Sperber</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.2200739922276217</v>
+        <v>0.1994469392380653</v>
       </c>
     </row>
     <row r="46">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Volcanic Internet</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1328,11 +1328,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sergio Ortega Gil</t>
+          <t>Baltasar Torres Garcia</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.2569664507071126</v>
+        <v>0.1960703281139104</v>
       </c>
     </row>
     <row r="47">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>Volcanic Internet</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1349,11 +1349,11 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Abel Colmenares Napolitano</t>
+          <t>Maria Cristina Blanco</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.1987625491245426</v>
+        <v>0.1970182048534694</v>
       </c>
     </row>
     <row r="48">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1370,11 +1370,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Nerea Aparicio</t>
+          <t>Verónica Celemín Lominchar</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1963604054562682</v>
+        <v>0.2183665833497641</v>
       </c>
     </row>
     <row r="49">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>SEAT</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1391,11 +1391,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Francisco Leston Ramos</t>
+          <t>Patricia Defez Díaz de Sarralde</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.2070129796134778</v>
+        <v>0.1940499650128638</v>
       </c>
     </row>
     <row r="50">
@@ -1412,11 +1412,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Daniel García Martínez</t>
+          <t>Javier Pérez-Chao Rodríguez</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.303832434700687</v>
       </c>
     </row>
     <row r="51">
@@ -1433,11 +1433,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Alfonso Silva Feria</t>
+          <t>Francisco Leston Ramos</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.1996882911515585</v>
+        <v>0.1975496259559987</v>
       </c>
     </row>
     <row r="52">
@@ -1454,11 +1454,11 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Daniel Herrero Hernando</t>
+          <t>Abel Colmenares Napolitano</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.2735058013901622</v>
+        <v>0.1659768169303276</v>
       </c>
     </row>
     <row r="53">
@@ -1475,11 +1475,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Maria Cristina Blanco</t>
+          <t>Moisés García Almeida</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.1695208471985372</v>
+        <v>0.2151612003824734</v>
       </c>
     </row>
     <row r="54">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CAPITOLE CONSULTING</t>
+          <t>Movetia</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1496,11 +1496,11 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Mario Quiroga Cuervo</t>
+          <t>Nira Alonso Rodríguez</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1684344913510188</v>
+        <v>0.1486277286819583</v>
       </c>
     </row>
     <row r="55">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Movetia</t>
+          <t>CAPITOLE CONSULTING</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1517,11 +1517,11 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Enrique Anaya Marin</t>
+          <t>Maria Isabel Llanes Agudelo</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.1601526128622927</v>
+        <v>0.1512432028130244</v>
       </c>
     </row>
     <row r="56">
@@ -1538,11 +1538,11 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Nira Alonso Rodríguez</t>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.3552750833892311</v>
+        <v>0.4449944320643648</v>
       </c>
     </row>
     <row r="57">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Baltasar Torres Garcia</t>
+          <t>Nerea Aparicio</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions SL</t>
+          <t>InboundCycle</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1580,11 +1580,11 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Eugenio Ruiz Cepeda</t>
+          <t>Alfredo Hinarejos Corbeá</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.3463253107581219</v>
+        <v>0.387425886722793</v>
       </c>
     </row>
     <row r="59">
@@ -1601,11 +1601,11 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
+          <t>Roberto Muñoz Aragón</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.4</v>
+        <v>0.3405424265831667</v>
       </c>
     </row>
     <row r="60">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Atomian</t>
+          <t>C14TORCE</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1622,11 +1622,11 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Maria Isabel Llanes Agudelo</t>
+          <t>Enrique Anaya Marin</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.233196087591488</v>
+        <v>0.2277299991964413</v>
       </c>
     </row>
     <row r="61">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>C14TORCE</t>
+          <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.2240092377397958</v>
+        <v>0.2123999406704181</v>
       </c>
     </row>
     <row r="62">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions</t>
+          <t>Atomian</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1664,11 +1664,11 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Sofia Jordan</t>
+          <t>Dan Mihai Grigoriciuc</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.2038684096809353</v>
+        <v>0.2369092993793366</v>
       </c>
     </row>
     <row r="63">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1685,11 +1685,11 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Rodrigo Otero Montero</t>
+          <t>Eugenio Ruiz Cepeda</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.2272595996093377</v>
+        <v>0.2094277145385189</v>
       </c>
     </row>
     <row r="64">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1706,11 +1706,11 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Moisés García Almeida</t>
+          <t>Javier Requejo Melchor</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.2513216808752189</v>
+        <v>0.2147268606635241</v>
       </c>
     </row>
     <row r="65">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Volcanic Internet</t>
+          <t>SEAT</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1727,11 +1727,11 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
+          <t>Sofia Jordan</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.2250226852138899</v>
+        <v>0.1918253663634734</v>
       </c>
     </row>
     <row r="66">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>Volcanic Internet</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1748,11 +1748,11 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Isabel Rodríguez Godoy</t>
+          <t>Carlos Martínez Crespo</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.2094277145385189</v>
+        <v>0.2762910041374894</v>
       </c>
     </row>
     <row r="67">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1769,11 +1769,11 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Carlos Martínez Crespo</t>
+          <t>Daniel García Martínez</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.2474401533514072</v>
+        <v>0.1841616798210651</v>
       </c>
     </row>
     <row r="68">
@@ -1790,11 +1790,11 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Javier Requejo Melchor</t>
+          <t>Isabel Rodríguez Godoy</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1876127897984334</v>
       </c>
     </row>
     <row r="69">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1811,11 +1811,11 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Dan Mihai Grigoriciuc</t>
+          <t>Alfonso Silva Feria</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.2060024771958242</v>
+        <v>0.1996882911515585</v>
       </c>
     </row>
     <row r="70">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Bluekik</t>
+          <t>Exoticca</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1832,11 +1832,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Roberto Muñoz Aragón</t>
+          <t>Rodrigo Otero Montero</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.1706739027584263</v>
+        <v>0.1896942664003862</v>
       </c>
     </row>
     <row r="71">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Exoticca</t>
+          <t>Bluekik</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1853,11 +1853,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Alfredo Hinarejos Corbeá</t>
+          <t>Sergio Ortega Gil</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.1693378522531012</v>
+        <v>0.2038684096809353</v>
       </c>
     </row>
     <row r="72">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Movetia</t>
+          <t>CAPITOLE CONSULTING</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -1874,11 +1874,11 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
+          <t>Mario Quiroga Cuervo</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.1467383367560077</v>
+        <v>0.1684344913510188</v>
       </c>
     </row>
     <row r="73">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CAPITOLE CONSULTING</t>
+          <t>Movetia</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1895,11 +1895,11 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Thilo Sperber</t>
+          <t>Daniel Herrero Hernando</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.1453757675112302</v>
+        <v>0.2402812472759925</v>
       </c>
     </row>
     <row r="74">
@@ -1916,11 +1916,11 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Verónica Celemín Lominchar</t>
+          <t>Thilo Sperber</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.5364111542698436</v>
+        <v>0.4006604305289411</v>
       </c>
     </row>
     <row r="75">
@@ -1937,11 +1937,11 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Sergio Ortega Gil</t>
+          <t>Baltasar Torres Garcia</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>0.3761785115301142</v>
       </c>
     </row>
     <row r="76">
@@ -1958,11 +1958,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Abel Colmenares Napolitano</t>
+          <t>Maria Cristina Blanco</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.3483314773547883</v>
+        <v>0.387425886722793</v>
       </c>
     </row>
     <row r="77">
@@ -1979,11 +1979,11 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Nerea Aparicio</t>
+          <t>Verónica Celemín Lominchar</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.3145198591387565</v>
+        <v>0.3761785115301142</v>
       </c>
     </row>
     <row r="78">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Atomian</t>
+          <t>C14TORCE</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -2000,11 +2000,11 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Francisco Leston Ramos</t>
+          <t>Patricia Defez Díaz de Sarralde</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.2402530733520421</v>
+        <v>0.2258444000186532</v>
       </c>
     </row>
     <row r="79">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>C14TORCE</t>
+          <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -2021,11 +2021,11 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Daniel García Martínez</t>
+          <t>Javier Pérez-Chao Rodríguez</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.2258444000186532</v>
+        <v>0.387425886722793</v>
       </c>
     </row>
     <row r="80">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Volcanic Internet</t>
+          <t>Atomian</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -2042,11 +2042,11 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Alfonso Silva Feria</t>
+          <t>Francisco Leston Ramos</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.222763277794282</v>
+        <v>0.2402530733520421</v>
       </c>
     </row>
     <row r="81">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -2063,11 +2063,11 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Daniel Herrero Hernando</t>
+          <t>Abel Colmenares Napolitano</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.3763102827673971</v>
+        <v>0.1987625491245426</v>
       </c>
     </row>
     <row r="82">
@@ -2084,11 +2084,11 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Maria Cristina Blanco</t>
+          <t>Moisés García Almeida</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.2025519956555797</v>
+        <v>0.2513216808752189</v>
       </c>
     </row>
     <row r="83">
@@ -2105,11 +2105,11 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Mario Quiroga Cuervo</t>
+          <t>Nira Alonso Rodríguez</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.2380067155369107</v>
+        <v>0.1951941016011038</v>
       </c>
     </row>
     <row r="84">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>Volcanic Internet</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -2126,11 +2126,11 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Enrique Anaya Marin</t>
+          <t>Maria Isabel Llanes Agudelo</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.208816527736411</v>
+        <v>0.2075983416319047</v>
       </c>
     </row>
     <row r="85">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -2147,11 +2147,11 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Nira Alonso Rodríguez</t>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.1815890793180576</v>
+        <v>0.2204812092115424</v>
       </c>
     </row>
     <row r="86">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -2168,11 +2168,11 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Baltasar Torres Garcia</t>
+          <t>Nerea Aparicio</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.179128784747792</v>
+        <v>0.1834484227875728</v>
       </c>
     </row>
     <row r="87">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2189,11 +2189,11 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Eugenio Ruiz Cepeda</t>
+          <t>Alfredo Hinarejos Corbeá</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.1789104018777049</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="88">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Exoticca</t>
+          <t>Bluekik</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -2210,11 +2210,11 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
+          <t>Roberto Muñoz Aragón</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.3013647414453538</v>
+        <v>0.1706739027584263</v>
       </c>
     </row>
     <row r="89">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Bluekik</t>
+          <t>Exoticca</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -2231,11 +2231,11 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Maria Isabel Llanes Agudelo</t>
+          <t>Enrique Anaya Marin</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.180294370773025</v>
+        <v>0.1863594591107266</v>
       </c>
     </row>
     <row r="90">
@@ -2273,11 +2273,11 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Sofia Jordan</t>
+          <t>Dan Mihai Grigoriciuc</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.1413931400904685</v>
+        <v>0.1485207293561145</v>
       </c>
     </row>
     <row r="92">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -2294,11 +2294,11 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Rodrigo Otero Montero</t>
+          <t>Eugenio Ruiz Cepeda</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.357226000917599</v>
+        <v>0.3463253107581219</v>
       </c>
     </row>
     <row r="93">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Project Lobster</t>
+          <t>AKKA</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -2315,11 +2315,11 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Moisés García Almeida</t>
+          <t>Javier Requejo Melchor</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.3636655193545664</v>
+        <v>0.4661337257979153</v>
       </c>
     </row>
     <row r="94">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>AKKA</t>
+          <t>InboundCycle</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -2336,11 +2336,11 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
+          <t>Sofia Jordan</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.4449944320643648</v>
+        <v>0.3735453699999129</v>
       </c>
     </row>
     <row r="95">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions SL</t>
+          <t>Project Lobster</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -2357,11 +2357,11 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Isabel Rodríguez Godoy</t>
+          <t>Carlos Martínez Crespo</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.3761785115301142</v>
+        <v>0.3967566084765748</v>
       </c>
     </row>
     <row r="96">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Atomian</t>
+          <t>C14TORCE</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -2378,11 +2378,11 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Carlos Martínez Crespo</t>
+          <t>Daniel García Martínez</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.328283280373176</v>
+        <v>0.2258444000186532</v>
       </c>
     </row>
     <row r="97">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>C14TORCE</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -2399,11 +2399,11 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Javier Requejo Melchor</t>
+          <t>Isabel Rodríguez Godoy</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.2258444000186532</v>
+        <v>0.2176305827856446</v>
       </c>
     </row>
     <row r="98">
@@ -2412,7 +2412,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Volcanic Internet</t>
+          <t>Atomian</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -2420,11 +2420,11 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Dan Mihai Grigoriciuc</t>
+          <t>Alfonso Silva Feria</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.2164068025100977</v>
+        <v>0.2568168231494444</v>
       </c>
     </row>
     <row r="99">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -2441,11 +2441,11 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Roberto Muñoz Aragón</t>
+          <t>Rodrigo Otero Montero</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.2176509175625895</v>
+        <v>0.2151171476005365</v>
       </c>
     </row>
     <row r="100">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions</t>
+          <t>Volcanic Internet</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -2462,11 +2462,11 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Alfredo Hinarejos Corbeá</t>
+          <t>Sergio Ortega Gil</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.2123999406704181</v>
+        <v>0.2569664507071126</v>
       </c>
     </row>
     <row r="101">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -2483,11 +2483,11 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
+          <t>Mario Quiroga Cuervo</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.2022271903529528</v>
+        <v>0.303832434700687</v>
       </c>
     </row>
     <row r="102">
@@ -2504,11 +2504,11 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Thilo Sperber</t>
+          <t>Daniel Herrero Hernando</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.1929272807679017</v>
+        <v>0.3547131518625939</v>
       </c>
     </row>
     <row r="103">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -2525,11 +2525,11 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Verónica Celemín Lominchar</t>
+          <t>Thilo Sperber</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.2183665833497641</v>
+        <v>0.193603910635513</v>
       </c>
     </row>
     <row r="104">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -2546,11 +2546,11 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Sergio Ortega Gil</t>
+          <t>Baltasar Torres Garcia</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.2187841884486319</v>
+        <v>0.179128784747792</v>
       </c>
     </row>
     <row r="105">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -2567,11 +2567,11 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Abel Colmenares Napolitano</t>
+          <t>Maria Cristina Blanco</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.1815890793180576</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="106">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Exoticca</t>
+          <t>Bluekik</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -2588,11 +2588,11 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Nerea Aparicio</t>
+          <t>Verónica Celemín Lominchar</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.1698910252263591</v>
+        <v>0.1856154626682773</v>
       </c>
     </row>
     <row r="107">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Bluekik</t>
+          <t>Exoticca</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -2609,11 +2609,11 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Francisco Leston Ramos</t>
+          <t>Patricia Defez Díaz de Sarralde</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.1902821941341109</v>
+        <v>0.1691577362637454</v>
       </c>
     </row>
     <row r="108">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CAPITOLE CONSULTING</t>
+          <t>Movetia</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -2630,11 +2630,11 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Daniel García Martínez</t>
+          <t>Javier Pérez-Chao Rodríguez</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.1473263547743964</v>
+        <v>0.2200529054866557</v>
       </c>
     </row>
     <row r="109">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Movetia</t>
+          <t>CAPITOLE CONSULTING</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -2651,11 +2651,11 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Alfonso Silva Feria</t>
+          <t>Francisco Leston Ramos</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.1610800718548306</v>
+        <v>0.1708406863826754</v>
       </c>
     </row>
     <row r="110">
@@ -2672,11 +2672,11 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Daniel Herrero Hernando</t>
+          <t>Abel Colmenares Napolitano</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.6680455148361276</v>
+        <v>0.3483314773547883</v>
       </c>
     </row>
     <row r="111">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>Project Lobster</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -2693,11 +2693,11 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Maria Cristina Blanco</t>
+          <t>Moisés García Almeida</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.387425886722793</v>
+        <v>0.3636655193545664</v>
       </c>
     </row>
     <row r="112">
@@ -2714,11 +2714,11 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Mario Quiroga Cuervo</t>
+          <t>Nira Alonso Rodríguez</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.3738346727188514</v>
+        <v>0.3552750833892311</v>
       </c>
     </row>
     <row r="113">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Project Lobster</t>
+          <t>InboundCycle</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -2735,11 +2735,11 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Enrique Anaya Marin</t>
+          <t>Maria Isabel Llanes Agudelo</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.3145198591387565</v>
+        <v>0.3884193593065456</v>
       </c>
     </row>
     <row r="114">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>C14TORCE</t>
+          <t>Atomian</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -2756,11 +2756,11 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Nira Alonso Rodríguez</t>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.2240092377397958</v>
+        <v>0.2493517698850324</v>
       </c>
     </row>
     <row r="115">
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Atomian</t>
+          <t>C14TORCE</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -2777,11 +2777,11 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Baltasar Torres Garcia</t>
+          <t>Nerea Aparicio</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.2135506440329599</v>
+        <v>0.2277299991964413</v>
       </c>
     </row>
     <row r="116">
@@ -2790,7 +2790,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -2798,11 +2798,11 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Eugenio Ruiz Cepeda</t>
+          <t>Alfredo Hinarejos Corbeá</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.2094277145385189</v>
+        <v>0.2123999406704181</v>
       </c>
     </row>
     <row r="117">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -2819,11 +2819,11 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
+          <t>Roberto Muñoz Aragón</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.387425886722793</v>
+        <v>0.2176509175625895</v>
       </c>
     </row>
     <row r="118">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -2840,11 +2840,11 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Maria Isabel Llanes Agudelo</t>
+          <t>Enrique Anaya Marin</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.1984570517780165</v>
+        <v>0.2094277145385189</v>
       </c>
     </row>
     <row r="119">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Volcanic Internet</t>
+          <t>SEAT</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -2865,7 +2865,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.1940499650128638</v>
       </c>
     </row>
     <row r="120">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>Volcanic Internet</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -2882,11 +2882,11 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Sofia Jordan</t>
+          <t>Dan Mihai Grigoriciuc</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.1937812369654421</v>
+        <v>0.2164068025100977</v>
       </c>
     </row>
     <row r="121">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -2903,11 +2903,11 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Rodrigo Otero Montero</t>
+          <t>Eugenio Ruiz Cepeda</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.2151171476005365</v>
+        <v>0.1856154626682773</v>
       </c>
     </row>
     <row r="122">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -2924,11 +2924,11 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Moisés García Almeida</t>
+          <t>Javier Requejo Melchor</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.2493597386134658</v>
+        <v>0.1963604054562682</v>
       </c>
     </row>
     <row r="123">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -2945,11 +2945,11 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
+          <t>Sofia Jordan</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.23166247903554</v>
+        <v>0.1782603569701947</v>
       </c>
     </row>
     <row r="124">
@@ -2966,11 +2966,11 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Isabel Rodríguez Godoy</t>
+          <t>Carlos Martínez Crespo</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.1774551061436083</v>
+        <v>0.2090834833644092</v>
       </c>
     </row>
     <row r="125">
@@ -2987,11 +2987,11 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Carlos Martínez Crespo</t>
+          <t>Daniel García Martínez</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.207676798580154</v>
+        <v>0.1693401075929304</v>
       </c>
     </row>
     <row r="126">
@@ -3008,11 +3008,11 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Javier Requejo Melchor</t>
+          <t>Isabel Rodríguez Godoy</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.1542512877373016</v>
+        <v>0.1606132537802078</v>
       </c>
     </row>
     <row r="127">
@@ -3029,11 +3029,11 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Dan Mihai Grigoriciuc</t>
+          <t>Alfonso Silva Feria</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.1485207293561145</v>
+        <v>0.1563571447125721</v>
       </c>
     </row>
     <row r="128">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>AKKA</t>
+          <t>Project Lobster</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -3050,11 +3050,11 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Roberto Muñoz Aragón</t>
+          <t>Rodrigo Otero Montero</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.430717277360874</v>
+        <v>0.3613305887651133</v>
       </c>
     </row>
     <row r="129">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions SL</t>
+          <t>InboundCycle</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -3071,11 +3071,11 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Alfredo Hinarejos Corbeá</t>
+          <t>Sergio Ortega Gil</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.387425886722793</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -3084,7 +3084,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -3092,11 +3092,11 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
+          <t>Mario Quiroga Cuervo</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.3638990660839067</v>
+        <v>0.449489742783178</v>
       </c>
     </row>
     <row r="131">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Project Lobster</t>
+          <t>C14TORCE</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -3113,11 +3113,11 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Thilo Sperber</t>
+          <t>Daniel Herrero Hernando</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.3405424265831667</v>
+        <v>0.426412966485861</v>
       </c>
     </row>
     <row r="132">
@@ -3134,11 +3134,11 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Verónica Celemín Lominchar</t>
+          <t>Thilo Sperber</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.2568080306030585</v>
+        <v>0.2167219128456158</v>
       </c>
     </row>
     <row r="133">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>AKKA</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -3155,11 +3155,11 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Sergio Ortega Gil</t>
+          <t>Baltasar Torres Garcia</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.2519789467852133</v>
+        <v>0.406922021700526</v>
       </c>
     </row>
     <row r="134">
@@ -3168,7 +3168,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>C14TORCE</t>
+          <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -3176,11 +3176,11 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Abel Colmenares Napolitano</t>
+          <t>Maria Cristina Blanco</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.2183665833497641</v>
+        <v>0.2123999406704181</v>
       </c>
     </row>
     <row r="135">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -3197,11 +3197,11 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Nerea Aparicio</t>
+          <t>Verónica Celemín Lominchar</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.2108967220595339</v>
+        <v>0.2200739922276217</v>
       </c>
     </row>
     <row r="136">
@@ -3210,7 +3210,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Volcanic Internet</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -3218,11 +3218,11 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Francisco Leston Ramos</t>
+          <t>Patricia Defez Díaz de Sarralde</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.2257927531792018</v>
+        <v>0.2022271903529528</v>
       </c>
     </row>
     <row r="137">
@@ -3231,7 +3231,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>SEAT</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -3239,11 +3239,11 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Daniel García Martínez</t>
+          <t>Javier Pérez-Chao Rodríguez</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.2022271903529528</v>
+        <v>0.3483314773547883</v>
       </c>
     </row>
     <row r="138">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>Volcanic Internet</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -3260,11 +3260,11 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Alfonso Silva Feria</t>
+          <t>Francisco Leston Ramos</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.2045413040037515</v>
+        <v>0.2257927531792018</v>
       </c>
     </row>
     <row r="139">
@@ -3281,11 +3281,11 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Daniel Herrero Hernando</t>
+          <t>Abel Colmenares Napolitano</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.3316128774121265</v>
+        <v>0.1815890793180576</v>
       </c>
     </row>
     <row r="140">
@@ -3294,7 +3294,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -3302,11 +3302,11 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Maria Cristina Blanco</t>
+          <t>Moisés García Almeida</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.1949095659630591</v>
+        <v>0.2493597386134658</v>
       </c>
     </row>
     <row r="141">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -3323,11 +3323,11 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Mario Quiroga Cuervo</t>
+          <t>Nira Alonso Rodríguez</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.2123999406704181</v>
+        <v>0.1815890793180576</v>
       </c>
     </row>
     <row r="142">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Exoticca</t>
+          <t>Bluekik</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -3344,11 +3344,11 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Enrique Anaya Marin</t>
+          <t>Maria Isabel Llanes Agudelo</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.1863594591107266</v>
+        <v>0.180294370773025</v>
       </c>
     </row>
     <row r="143">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Bluekik</t>
+          <t>Exoticca</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -3365,11 +3365,11 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Nira Alonso Rodríguez</t>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.1680831684349207</v>
+        <v>0.1929272807679017</v>
       </c>
     </row>
     <row r="144">
@@ -3386,11 +3386,11 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Baltasar Torres Garcia</t>
+          <t>Nerea Aparicio</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.1476734449611636</v>
+        <v>0.1472035351440532</v>
       </c>
     </row>
     <row r="145">
@@ -3407,11 +3407,11 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Eugenio Ruiz Cepeda</t>
+          <t>Alfredo Hinarejos Corbeá</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.1469832759521987</v>
+        <v>0.1502211048223348</v>
       </c>
     </row>
     <row r="146">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>AKKA</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -3428,11 +3428,11 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
+          <t>Roberto Muñoz Aragón</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.5729490168751576</v>
+        <v>0.430717277360874</v>
       </c>
     </row>
     <row r="147">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions SL</t>
+          <t>InboundCycle</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -3449,11 +3449,11 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Maria Isabel Llanes Agudelo</t>
+          <t>Enrique Anaya Marin</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.3816524151396708</v>
+        <v>0.3638990660839067</v>
       </c>
     </row>
     <row r="148">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>AKKA</t>
+          <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -3474,7 +3474,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.3255201716616444</v>
+        <v>0.387425886722793</v>
       </c>
     </row>
     <row r="149">
@@ -3491,11 +3491,11 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Sofia Jordan</t>
+          <t>Dan Mihai Grigoriciuc</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.2888324840393138</v>
+        <v>0.3145198591387565</v>
       </c>
     </row>
     <row r="150">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Atomian</t>
+          <t>C14TORCE</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -3512,11 +3512,11 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Rodrigo Otero Montero</t>
+          <t>Eugenio Ruiz Cepeda</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0.2513216808752189</v>
+        <v>0.2217827369639381</v>
       </c>
     </row>
     <row r="151">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions</t>
+          <t>Atomian</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -3533,11 +3533,11 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Moisés García Almeida</t>
+          <t>Javier Requejo Melchor</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.2547093771114228</v>
+        <v>0.217951580934891</v>
       </c>
     </row>
     <row r="152">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>C14TORCE</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -3554,11 +3554,11 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
+          <t>Sofia Jordan</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0.2402530733520421</v>
+        <v>0.1975496259559987</v>
       </c>
     </row>
     <row r="153">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Volcanic Internet</t>
+          <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -3575,11 +3575,11 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Isabel Rodríguez Godoy</t>
+          <t>Carlos Martínez Crespo</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.1990353886870121</v>
+        <v>0.266676643600682</v>
       </c>
     </row>
     <row r="154">
@@ -3588,7 +3588,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>Volcanic Internet</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -3596,11 +3596,11 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Carlos Martínez Crespo</t>
+          <t>Daniel García Martínez</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.2513216808752189</v>
+        <v>0.1967213114754098</v>
       </c>
     </row>
     <row r="155">
@@ -3609,7 +3609,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -3617,11 +3617,11 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Javier Requejo Melchor</t>
+          <t>Isabel Rodríguez Godoy</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.2022271903529528</v>
+        <v>0.187924095795002</v>
       </c>
     </row>
     <row r="156">
@@ -3638,11 +3638,11 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Dan Mihai Grigoriciuc</t>
+          <t>Alfonso Silva Feria</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.2012628451930092</v>
+        <v>0.2045413040037515</v>
       </c>
     </row>
     <row r="157">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -3659,11 +3659,11 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Roberto Muñoz Aragón</t>
+          <t>Rodrigo Otero Montero</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.1929272807679017</v>
+        <v>0.2053642966101924</v>
       </c>
     </row>
     <row r="158">
@@ -3672,7 +3672,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -3680,11 +3680,11 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Alfredo Hinarejos Corbeá</t>
+          <t>Sergio Ortega Gil</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.1984721022902554</v>
+        <v>0.2171292729553324</v>
       </c>
     </row>
     <row r="159">
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Exoticca</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -3701,11 +3701,11 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
+          <t>Mario Quiroga Cuervo</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0.1691577362637454</v>
+        <v>0.2123999406704181</v>
       </c>
     </row>
     <row r="160">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>Exoticca</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -3722,11 +3722,11 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Thilo Sperber</t>
+          <t>Daniel Herrero Hernando</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.179128784747792</v>
+        <v>0.2735058013901622</v>
       </c>
     </row>
     <row r="161">
@@ -3735,7 +3735,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Movetia</t>
+          <t>Bluekik</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -3743,11 +3743,11 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Verónica Celemín Lominchar</t>
+          <t>Thilo Sperber</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.1693378522531012</v>
+        <v>0.1668814434273034</v>
       </c>
     </row>
     <row r="162">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Bluekik</t>
+          <t>Movetia</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -3764,11 +3764,11 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Sergio Ortega Gil</t>
+          <t>Baltasar Torres Garcia</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.2038684096809353</v>
+        <v>0.1476734449611636</v>
       </c>
     </row>
     <row r="163">
@@ -3785,11 +3785,11 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Abel Colmenares Napolitano</t>
+          <t>Nira Alonso Rodríguez</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.1409834962900199</v>
+        <v>0.145270479072296</v>
       </c>
     </row>
     <row r="164">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions SL</t>
+          <t>AKKA</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -3806,11 +3806,11 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Nerea Aparicio</t>
+          <t>Maria Cristina Blanco</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.3761785115301142</v>
+        <v>0.3967566084765748</v>
       </c>
     </row>
     <row r="165">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Project Lobster</t>
+          <t>InboundCycle</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -3827,11 +3827,11 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Francisco Leston Ramos</t>
+          <t>Verónica Celemín Lominchar</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.3483314773547883</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="166">
@@ -3840,7 +3840,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>Project Lobster</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -3848,11 +3848,11 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Daniel García Martínez</t>
+          <t>Patricia Defez Díaz de Sarralde</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.3763102827673971</v>
+        <v>0.3145198591387565</v>
       </c>
     </row>
     <row r="167">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>AKKA</t>
+          <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -3869,11 +3869,11 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Alfonso Silva Feria</t>
+          <t>Javier Pérez-Chao Rodríguez</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.3395082810929926</v>
+        <v>0.4721359549995794</v>
       </c>
     </row>
     <row r="168">
@@ -3882,7 +3882,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>C14TORCE</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -3890,11 +3890,11 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Daniel Herrero Hernando</t>
+          <t>Francisco Leston Ramos</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.3547131518625939</v>
+        <v>0.2380067155369107</v>
       </c>
     </row>
     <row r="169">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>C14TORCE</t>
+          <t>Atomian</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -3911,11 +3911,11 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Maria Cristina Blanco</t>
+          <t>Abel Colmenares Napolitano</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.2277299991964413</v>
+        <v>0.2062408021419122</v>
       </c>
     </row>
     <row r="170">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -3932,11 +3932,11 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Mario Quiroga Cuervo</t>
+          <t>Moisés García Almeida</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.2380067155369107</v>
+        <v>0.2547093771114228</v>
       </c>
     </row>
     <row r="171">
@@ -3945,7 +3945,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -3953,11 +3953,11 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Enrique Anaya Marin</t>
+          <t>Maria Isabel Llanes Agudelo</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0.2123999406704181</v>
+        <v>0.2059727496485862</v>
       </c>
     </row>
     <row r="172">
@@ -3966,7 +3966,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Atomian</t>
+          <t>Volcanic Internet</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -3974,11 +3974,11 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Nira Alonso Rodríguez</t>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0.2147219967338948</v>
+        <v>0.2250226852138899</v>
       </c>
     </row>
     <row r="173">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Volcanic Internet</t>
+          <t>SEAT</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -3995,11 +3995,11 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Baltasar Torres Garcia</t>
+          <t>Nerea Aparicio</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.1921598984882187</v>
+        <v>0.1963604054562682</v>
       </c>
     </row>
     <row r="174">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -4016,11 +4016,11 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Eugenio Ruiz Cepeda</t>
+          <t>Alfredo Hinarejos Corbeá</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0.191636968872713</v>
+        <v>0.1863563902639859</v>
       </c>
     </row>
     <row r="175">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Bluekik</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -4037,11 +4037,11 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
+          <t>Roberto Muñoz Aragón</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0.2989939069707144</v>
+        <v>0.1929272807679017</v>
       </c>
     </row>
     <row r="176">
@@ -4050,7 +4050,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -4058,11 +4058,11 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Maria Isabel Llanes Agudelo</t>
+          <t>Enrique Anaya Marin</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0.1975496259559987</v>
+        <v>0.208816527736411</v>
       </c>
     </row>
     <row r="177">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>Exoticca</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -4083,7 +4083,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0.1809073112342927</v>
+        <v>0.1689759926488242</v>
       </c>
     </row>
     <row r="178">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -4100,11 +4100,11 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Sofia Jordan</t>
+          <t>Dan Mihai Grigoriciuc</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>0.1789104018777049</v>
+        <v>0.1918253663634734</v>
       </c>
     </row>
     <row r="179">
@@ -4121,11 +4121,11 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Rodrigo Otero Montero</t>
+          <t>Eugenio Ruiz Cepeda</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0.1684344913510188</v>
+        <v>0.1511018818343086</v>
       </c>
     </row>
     <row r="180">
@@ -4134,7 +4134,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Exoticca</t>
+          <t>Bluekik</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -4142,11 +4142,11 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Moisés García Almeida</t>
+          <t>Javier Requejo Melchor</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>0.1960811809392768</v>
+        <v>0.1733193566475737</v>
       </c>
     </row>
     <row r="181">
@@ -4163,11 +4163,11 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
+          <t>Thilo Sperber</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.1649610255144721</v>
+        <v>0.1453757675112302</v>
       </c>
     </row>
     <row r="182">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>AKKA</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -4184,11 +4184,11 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Isabel Rodríguez Godoy</t>
+          <t>Sofia Jordan</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0.3510714832006495</v>
+        <v>0.3846424969804047</v>
       </c>
     </row>
     <row r="183">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions SL</t>
+          <t>InboundCycle</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -4209,7 +4209,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0.4661337257979153</v>
+        <v>0.5015528100075709</v>
       </c>
     </row>
     <row r="184">
@@ -4226,7 +4226,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Javier Requejo Melchor</t>
+          <t>Daniel García Martínez</t>
         </is>
       </c>
       <c r="E184" t="n">
@@ -4239,7 +4239,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>AKKA</t>
+          <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -4247,11 +4247,11 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Dan Mihai Grigoriciuc</t>
+          <t>Isabel Rodríguez Godoy</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.3743509852559168</v>
+        <v>0.3761785115301142</v>
       </c>
     </row>
     <row r="186">
@@ -4268,11 +4268,11 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Roberto Muñoz Aragón</t>
+          <t>Alfonso Silva Feria</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.2296684845121643</v>
+        <v>0.2306645261671939</v>
       </c>
     </row>
     <row r="187">
@@ -4289,11 +4289,11 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Alfredo Hinarejos Corbeá</t>
+          <t>Rodrigo Otero Montero</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>0.2135506440329599</v>
+        <v>0.2513216808752189</v>
       </c>
     </row>
     <row r="188">
@@ -4302,7 +4302,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Volcanic Internet</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -4310,11 +4310,11 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
+          <t>Sergio Ortega Gil</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0.1946829030205005</v>
+        <v>0.2519789467852133</v>
       </c>
     </row>
     <row r="189">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -4331,11 +4331,11 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Thilo Sperber</t>
+          <t>Mario Quiroga Cuervo</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>0.2094277145385189</v>
+        <v>0.2380067155369107</v>
       </c>
     </row>
     <row r="190">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -4352,11 +4352,11 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Verónica Celemín Lominchar</t>
+          <t>Daniel Herrero Hernando</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>0.2155146893583885</v>
+        <v>0.2730615545523087</v>
       </c>
     </row>
     <row r="191">
@@ -4365,7 +4365,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -4373,11 +4373,11 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Sergio Ortega Gil</t>
+          <t>Baltasar Torres Garcia</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.2108967220595339</v>
       </c>
     </row>
     <row r="192">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>SEAT</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -4394,11 +4394,11 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Abel Colmenares Napolitano</t>
+          <t>Maria Cristina Blanco</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.1987625491245426</v>
+        <v>0.1963604054562682</v>
       </c>
     </row>
     <row r="193">
@@ -4407,7 +4407,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>Volcanic Internet</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -4415,11 +4415,11 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Nerea Aparicio</t>
+          <t>Verónica Celemín Lominchar</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>0.1834484227875728</v>
+        <v>0.2164068025100977</v>
       </c>
     </row>
     <row r="194">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -4436,11 +4436,11 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Francisco Leston Ramos</t>
+          <t>Patricia Defez Díaz de Sarralde</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>0.2171292729553324</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="195">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Bluekik</t>
+          <t>Exoticca</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -4457,11 +4457,11 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Daniel García Martínez</t>
+          <t>Javier Pérez-Chao Rodríguez</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>0.1693401075929304</v>
+        <v>0.3013647414453538</v>
       </c>
     </row>
     <row r="196">
@@ -4470,7 +4470,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>Bluekik</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -4478,11 +4478,11 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Alfonso Silva Feria</t>
+          <t>Francisco Leston Ramos</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0.1996921297899064</v>
+        <v>0.1902821941341109</v>
       </c>
     </row>
     <row r="197">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>CAPITOLE CONSULTING</t>
+          <t>Movetia</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -4499,11 +4499,11 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Daniel Herrero Hernando</t>
+          <t>Abel Colmenares Napolitano</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0.2439436138885489</v>
+        <v>0.141910532477298</v>
       </c>
     </row>
     <row r="198">
@@ -4512,7 +4512,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Exoticca</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -4520,11 +4520,11 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Maria Cristina Blanco</t>
+          <t>Moisés García Almeida</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0.1695208471985372</v>
+        <v>0.2025519956555797</v>
       </c>
     </row>
     <row r="199">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Movetia</t>
+          <t>CAPITOLE CONSULTING</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -4541,11 +4541,11 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Mario Quiroga Cuervo</t>
+          <t>Eugenio Ruiz Cepeda</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0.1606132537802078</v>
+        <v>0.1469832759521987</v>
       </c>
     </row>
   </sheetData>
@@ -4570,14 +4570,14 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Bit Genoma Digital Solutions SL</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>InboundCycle</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions SL</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>AKKA</t>
@@ -4595,67 +4595,67 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Bit Genoma Digital Solutions</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Atomian</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>The Hotels Network</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Volcanic Internet</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Farmaconnect</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Visyon (Estudio Bay SL)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>ONEBOX</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Norwegian</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>SEAT</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Visyon (Estudio Bay SL)</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Farmaconnect</t>
-        </is>
-      </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Exoticca</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Bluekik</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Exoticca</t>
-        </is>
-      </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
+          <t>CAPITOLE CONSULTING</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>Movetia</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>CAPITOLE CONSULTING</t>
         </is>
       </c>
     </row>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maria Isabel Llanes Agudelo</t>
+          <t>Enrique Anaya Marin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4675,82 +4675,82 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Dan Mihai Grigoriciuc</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Eugenio Ruiz Cepeda</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Javier Requejo Melchor</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>Sofia Jordan</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Carlos Martínez Crespo</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Daniel García Martínez</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Isabel Rodríguez Godoy</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Alfonso Silva Feria</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>Rodrigo Otero Montero</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Moisés García Almeida</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Isabel Rodríguez Godoy</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Carlos Martínez Crespo</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Javier Requejo Melchor</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Dan Mihai Grigoriciuc</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Roberto Muñoz Aragón</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Alfredo Hinarejos Corbeá</t>
+          <t>Sergio Ortega Gil</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
+          <t>Mario Quiroga Cuervo</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
+          <t>Daniel Herrero Hernando</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>Thilo Sperber</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Baltasar Torres Garcia</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Maria Cristina Blanco</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>Verónica Celemín Lominchar</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Sergio Ortega Gil</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Abel Colmenares Napolitano</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Nerea Aparicio</t>
         </is>
       </c>
     </row>
@@ -4760,92 +4760,92 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Patricia Defez Díaz de Sarralde</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Javier Pérez-Chao Rodríguez</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Abel Colmenares Napolitano</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Francisco Leston Ramos</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Daniel García Martínez</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Maria Cristina Blanco</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Alfonso Silva Feria</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Daniel Herrero Hernando</t>
+          <t>Moisés García Almeida</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>Maria Isabel Llanes Agudelo</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nira Alonso Rodríguez</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Nerea Aparicio</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Roberto Muñoz Aragón</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>Enrique Anaya Marin</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Nira Alonso Rodríguez</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Maria Isabel Llanes Agudelo</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Baltasar Torres Garcia</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Alfredo Hinarejos Corbeá</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Dan Mihai Grigoriciuc</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Javier Requejo Melchor</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Eugenio Ruiz Cepeda</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
         <is>
           <t>Sofia Jordan</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Mario Quiroga Cuervo</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Eugenio Ruiz Cepeda</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Moisés García Almeida</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Rodrigo Otero Montero</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
-        </is>
-      </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Isabel Rodríguez Godoy</t>
+          <t>Carlos Martínez Crespo</t>
         </is>
       </c>
     </row>
@@ -4855,92 +4855,92 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carlos Martínez Crespo</t>
+          <t>Daniel García Martínez</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dan Mihai Grigoriciuc</t>
+          <t>Isabel Rodríguez Godoy</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Javier Requejo Melchor</t>
+          <t>Rodrigo Otero Montero</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Roberto Muñoz Aragón</t>
+          <t>Alfonso Silva Feria</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Alfredo Hinarejos Corbeá</t>
+          <t>Mario Quiroga Cuervo</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>Daniel Herrero Hernando</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sergio Ortega Gil</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>Thilo Sperber</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Patricia Defez Díaz de Sarralde</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Maria Cristina Blanco</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Verónica Celemín Lominchar</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Javier Pérez-Chao Rodríguez</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Baltasar Torres Garcia</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Francisco Leston Ramos</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>Abel Colmenares Napolitano</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Sergio Ortega Gil</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Verónica Celemín Lominchar</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Alfonso Silva Feria</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Nerea Aparicio</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Daniel García Martínez</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Francisco Leston Ramos</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Maria Cristina Blanco</t>
-        </is>
-      </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Daniel Herrero Hernando</t>
+          <t>Moisés García Almeida</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Enrique Anaya Marin</t>
+          <t>Maria Isabel Llanes Agudelo</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Mario Quiroga Cuervo</t>
+          <t>Nira Alonso Rodríguez</t>
         </is>
       </c>
     </row>
@@ -4950,47 +4950,47 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Baltasar Torres Garcia</t>
+          <t>Nerea Aparicio</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Alfredo Hinarejos Corbeá</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Roberto Muñoz Aragón</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Enrique Anaya Marin</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dan Mihai Grigoriciuc</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>Eugenio Ruiz Cepeda</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Nira Alonso Rodríguez</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Maria Isabel Llanes Agudelo</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Moisés García Almeida</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
-        </is>
-      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Dan Mihai Grigoriciuc</t>
+          <t>Sofia Jordan</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -5000,7 +5000,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Sofia Jordan</t>
+          <t>Daniel García Martínez</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -5015,27 +5015,27 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
+          <t>Alfonso Silva Feria</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
           <t>Rodrigo Otero Montero</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Roberto Muñoz Aragón</t>
-        </is>
-      </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Alfredo Hinarejos Corbeá</t>
+          <t>Sergio Ortega Gil</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
+          <t>Mario Quiroga Cuervo</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Thilo Sperber</t>
+          <t>Daniel Herrero Hernando</t>
         </is>
       </c>
     </row>
@@ -5045,92 +5045,92 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sergio Ortega Gil</t>
+          <t>Maria Cristina Blanco</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Baltasar Torres Garcia</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Thilo Sperber</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Verónica Celemín Lominchar</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Patricia Defez Díaz de Sarralde</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Javier Pérez-Chao Rodríguez</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Francisco Leston Ramos</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Moisés García Almeida</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Nira Alonso Rodríguez</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Maria Isabel Llanes Agudelo</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Nerea Aparicio</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Alfredo Hinarejos Corbeá</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>Abel Colmenares Napolitano</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Verónica Celemín Lominchar</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Nerea Aparicio</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Daniel García Martínez</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Francisco Leston Ramos</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Maria Cristina Blanco</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Alfonso Silva Feria</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>Enrique Anaya Marin</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Eugenio Ruiz Cepeda</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Daniel Herrero Hernando</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Mario Quiroga Cuervo</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Baltasar Torres Garcia</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Nira Alonso Rodríguez</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Maria Isabel Llanes Agudelo</t>
-        </is>
-      </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
+          <t>Roberto Muñoz Aragón</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
+          <t>Dan Mihai Grigoriciuc</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Sofia Jordan</t>
         </is>
       </c>
     </row>
@@ -5140,92 +5140,92 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Eugenio Ruiz Cepeda</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Sofia Jordan</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Javier Requejo Melchor</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Carlos Martínez Crespo</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Daniel García Martínez</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Mario Quiroga Cuervo</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Alfonso Silva Feria</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Isabel Rodríguez Godoy</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Daniel Herrero Hernando</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Sergio Ortega Gil</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Baltasar Torres Garcia</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Maria Cristina Blanco</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Thilo Sperber</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>Rodrigo Otero Montero</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Isabel Rodríguez Godoy</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Moisés García Almeida</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Javier Requejo Melchor</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Carlos Martínez Crespo</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>Patricia Defez Díaz de Sarralde</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Dan Mihai Grigoriciuc</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Roberto Muñoz Aragón</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Abel Colmenares Napolitano</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Alfredo Hinarejos Corbeá</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Thilo Sperber</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Sergio Ortega Gil</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>Verónica Celemín Lominchar</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>Francisco Leston Ramos</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Nerea Aparicio</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Alfonso Silva Feria</t>
-        </is>
-      </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Daniel García Martínez</t>
+          <t>Javier Pérez-Chao Rodríguez</t>
         </is>
       </c>
     </row>
@@ -5235,72 +5235,72 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maria Cristina Blanco</t>
+          <t>Abel Colmenares Napolitano</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Daniel Herrero Hernando</t>
+          <t>Maria Isabel Llanes Agudelo</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mario Quiroga Cuervo</t>
+          <t>Nira Alonso Rodríguez</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Moisés García Almeida</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nerea Aparicio</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Alfredo Hinarejos Corbeá</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>Enrique Anaya Marin</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Nira Alonso Rodríguez</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Baltasar Torres Garcia</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Dan Mihai Grigoriciuc</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>Eugenio Ruiz Cepeda</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>Sofia Jordan</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Rodrigo Otero Montero</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Maria Isabel Llanes Agudelo</t>
-        </is>
-      </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Moisés García Almeida</t>
+          <t>Roberto Muñoz Aragón</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
+          <t>Javier Requejo Melchor</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -5310,17 +5310,17 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
+          <t>Daniel García Martínez</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Alfonso Silva Feria</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>Isabel Rodríguez Godoy</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Javier Requejo Melchor</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Dan Mihai Grigoriciuc</t>
         </is>
       </c>
     </row>
@@ -5330,92 +5330,92 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Mario Quiroga Cuervo</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Sergio Ortega Gil</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Baltasar Torres Garcia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Rodrigo Otero Montero</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Daniel Herrero Hernando</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Maria Cristina Blanco</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Thilo Sperber</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>Patricia Defez Díaz de Sarralde</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Javier Pérez-Chao Rodríguez</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Francisco Leston Ramos</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Nira Alonso Rodríguez</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Moisés García Almeida</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Verónica Celemín Lominchar</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Abel Colmenares Napolitano</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Maria Isabel Llanes Agudelo</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
         <is>
           <t>Alfredo Hinarejos Corbeá</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Roberto Muñoz Aragón</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Thilo Sperber</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Abel Colmenares Napolitano</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Verónica Celemín Lominchar</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Daniel García Martínez</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Francisco Leston Ramos</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Maria Cristina Blanco</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Daniel Herrero Hernando</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>Nerea Aparicio</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Alfonso Silva Feria</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Mario Quiroga Cuervo</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Sergio Ortega Gil</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Nira Alonso Rodríguez</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Enrique Anaya Marin</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Baltasar Torres Garcia</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Eugenio Ruiz Cepeda</t>
         </is>
       </c>
     </row>
@@ -5425,92 +5425,92 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Maria Isabel Llanes Agudelo</t>
+          <t>Enrique Anaya Marin</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+          <t>Roberto Muñoz Aragón</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Dan Mihai Grigoriciuc</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Eugenio Ruiz Cepeda</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Carlos Martínez Crespo</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Javier Requejo Melchor</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>Sofia Jordan</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Alfonso Silva Feria</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Daniel García Martínez</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Isabel Rodríguez Godoy</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Mario Quiroga Cuervo</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>Rodrigo Otero Montero</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Javier Requejo Melchor</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Isabel Rodríguez Godoy</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Alfredo Hinarejos Corbeá</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Roberto Muñoz Aragón</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Moisés García Almeida</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Dan Mihai Grigoriciuc</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Sergio Ortega Gil</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Daniel Herrero Hernando</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>Thilo Sperber</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Carlos Martínez Crespo</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Sergio Ortega Gil</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
-        </is>
-      </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Verónica Celemín Lominchar</t>
+          <t>Nira Alonso Rodríguez</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>Abel Colmenares Napolitano</t>
+          <t>Baltasar Torres Garcia</t>
         </is>
       </c>
     </row>
@@ -5520,92 +5520,92 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Daniel García Martínez</t>
+          <t>Javier Pérez-Chao Rodríguez</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>Verónica Celemín Lominchar</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Maria Cristina Blanco</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Patricia Defez Díaz de Sarralde</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Francisco Leston Ramos</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Moisés García Almeida</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Abel Colmenares Napolitano</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Maria Isabel Llanes Agudelo</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>Nerea Aparicio</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Alfonso Silva Feria</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Francisco Leston Ramos</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Maria Cristina Blanco</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Nira Alonso Rodríguez</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Mario Quiroga Cuervo</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Baltasar Torres Garcia</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Alfredo Hinarejos Corbeá</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Dan Mihai Grigoriciuc</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Enrique Anaya Marin</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Roberto Muñoz Aragón</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Javier Requejo Melchor</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Thilo Sperber</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>Eugenio Ruiz Cepeda</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Enrique Anaya Marin</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Daniel Herrero Hernando</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Maria Isabel Llanes Agudelo</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Sofia Jordan</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Moisés García Almeida</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Rodrigo Otero Montero</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
         </is>
       </c>
     </row>
@@ -5625,82 +5625,82 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Dan Mihai Grigoriciuc</t>
+          <t>Sofia Jordan</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Javier Requejo Melchor</t>
+          <t>Daniel García Martínez</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Roberto Muñoz Aragón</t>
+          <t>Alfonso Silva Feria</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alfredo Hinarejos Corbeá</t>
+          <t>Baltasar Torres Garcia</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>Rodrigo Otero Montero</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Mario Quiroga Cuervo</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Maria Cristina Blanco</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Verónica Celemín Lominchar</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>Sergio Ortega Gil</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>Patricia Defez Díaz de Sarralde</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Daniel Herrero Hernando</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Moisés García Almeida</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Javier Pérez-Chao Rodríguez</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Francisco Leston Ramos</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Eugenio Ruiz Cepeda</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>Abel Colmenares Napolitano</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Verónica Celemín Lominchar</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Thilo Sperber</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Francisco Leston Ramos</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Alfonso Silva Feria</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Nerea Aparicio</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Daniel García Martínez</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Maria Cristina Blanco</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Mario Quiroga Cuervo</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Daniel Herrero Hernando</t>
         </is>
       </c>
     </row>
@@ -5726,147 +5726,147 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Enrique Anaya Marin</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dan Mihai Grigoriciuc</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Eugenio Ruiz Cepeda</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Javier Requejo Melchor</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Sofia Jordan</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Carlos Martínez Crespo</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Daniel García Martínez</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Isabel Rodríguez Godoy</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Alfonso Silva Feria</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rodrigo Otero Montero</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Sergio Ortega Gil</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Mario Quiroga Cuervo</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Daniel Herrero Hernando</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Thilo Sperber</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Baltasar Torres Garcia</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Maria Cristina Blanco</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Verónica Celemín Lominchar</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Patricia Defez Díaz de Sarralde</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Javier Pérez-Chao Rodríguez</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Francisco Leston Ramos</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Abel Colmenares Napolitano</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Moisés García Almeida</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Nira Alonso Rodríguez</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
           <t>Maria Isabel Llanes Agudelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Sofia Jordan</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Rodrigo Otero Montero</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Moisés García Almeida</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Jaime Jacobo Rodríguez del Valle</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Isabel Rodríguez Godoy</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Carlos Martínez Crespo</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Javier Requejo Melchor</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Dan Mihai Grigoriciuc</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Nerea Aparicio</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Alfredo Hinarejos Corbeá</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Roberto Muñoz Aragón</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Alfredo Hinarejos Corbeá</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Thilo Sperber</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Verónica Celemín Lominchar</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Sergio Ortega Gil</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Abel Colmenares Napolitano</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Nerea Aparicio</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Francisco Leston Ramos</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Daniel García Martínez</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Alfonso Silva Feria</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Daniel Herrero Hernando</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Maria Cristina Blanco</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Mario Quiroga Cuervo</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Enrique Anaya Marin</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Nira Alonso Rodríguez</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Baltasar Torres Garcia</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Eugenio Ruiz Cepeda</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
         </is>
       </c>
     </row>
@@ -5876,14 +5876,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Bit Genoma Digital Solutions SL</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>InboundCycle</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions SL</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>AKKA</t>
@@ -5901,67 +5901,67 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>Bit Genoma Digital Solutions</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>Atomian</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>The Hotels Network</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Volcanic Internet</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Farmaconnect</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Visyon (Estudio Bay SL)</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>ONEBOX</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Norwegian</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>SEAT</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Visyon (Estudio Bay SL)</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Farmaconnect</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
+          <t>Exoticca</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
           <t>Bluekik</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Exoticca</t>
-        </is>
-      </c>
       <c r="R2" t="inlineStr">
         <is>
+          <t>CAPITOLE CONSULTING</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
           <t>Movetia</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>CAPITOLE CONSULTING</t>
         </is>
       </c>
       <c r="T2" t="inlineStr"/>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5997,22 +5997,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Bluekik</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Exoticca</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Bluekik</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>CAPITOLE CONSULTING</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>Movetia</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>CAPITOLE CONSULTING</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -6028,14 +6028,14 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
+          <t>Bit Genoma Digital Solutions SL</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
           <t>InboundCycle</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions SL</t>
-        </is>
-      </c>
       <c r="V3" t="inlineStr">
         <is>
           <t>Project Lobster</t>
@@ -6043,42 +6043,42 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
+          <t>AKKA</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
           <t>C14TORCE</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>AKKA</t>
-        </is>
-      </c>
       <c r="Y3" t="inlineStr">
         <is>
+          <t>Atomian</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
           <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>Atomian</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
+          <t>Farmaconnect</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
           <t>The Hotels Network</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>ONEBOX</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>SEAT</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
     </row>
@@ -6095,64 +6095,64 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
+          <t>Bit Genoma Digital Solutions SL</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>InboundCycle</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Project Lobster</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>AKKA</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions SL</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Project Lobster</t>
-        </is>
-      </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>Atomian</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>C14TORCE</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Atomian</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
+          <t>The Hotels Network</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
           <t>ONEBOX</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>Volcanic Internet</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>The Hotels Network</t>
-        </is>
-      </c>
       <c r="S4" t="inlineStr">
         <is>
+          <t>Farmaconnect</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
           <t>SEAT</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Farmaconnect</t>
-        </is>
-      </c>
       <c r="U4" t="inlineStr">
         <is>
           <t>Visyon (Estudio Bay SL)</t>
@@ -6175,12 +6175,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
+          <t>Movetia</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
           <t>CAPITOLE CONSULTING</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>Movetia</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr"/>
@@ -6194,72 +6194,72 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>C14TORCE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Bit Genoma Digital Solutions</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Atomian</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>C14TORCE</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>The Hotels Network</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ONEBOX</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Volcanic Internet</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>Farmaconnect</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>The Hotels Network</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Volcanic Internet</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>SEAT</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Visyon (Estudio Bay SL)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Norwegian</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Visyon (Estudio Bay SL)</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>ONEBOX</t>
-        </is>
-      </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>Exoticca</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
           <t>Bluekik</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Exoticca</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>CAPITOLE CONSULTING</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
           <t>Movetia</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>CAPITOLE CONSULTING</t>
         </is>
       </c>
       <c r="P5" t="inlineStr"/>
@@ -6280,12 +6280,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
+          <t>Bit Genoma Digital Solutions SL</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
           <t>InboundCycle</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -6300,7 +6300,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bluekik</t>
+          <t>Exoticca</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -6346,57 +6346,57 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
+          <t>C14TORCE</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Bit Genoma Digital Solutions</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
           <t>Atomian</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>C14TORCE</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>ONEBOX</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>The Hotels Network</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>Volcanic Internet</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>The Hotels Network</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>SEAT</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>ONEBOX</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
+          <t>Norwegian</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
           <t>Farmaconnect</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Norwegian</t>
-        </is>
-      </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>Exoticca</t>
+          <t>Bluekik</t>
         </is>
       </c>
     </row>
@@ -6409,92 +6409,92 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Bit Genoma Digital Solutions SL</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>AKKA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>InboundCycle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Project Lobster</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>AKKA</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions SL</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>C14TORCE</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>The Hotels Network</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>Atomian</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>C14TORCE</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Norwegian</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>Volcanic Internet</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Bit Genoma Digital Solutions</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>ONEBOX</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>The Hotels Network</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>SEAT</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>Farmaconnect</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Norwegian</t>
-        </is>
-      </c>
       <c r="S7" t="inlineStr">
         <is>
+          <t>Bluekik</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
           <t>Exoticca</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>Bluekik</t>
-        </is>
-      </c>
       <c r="U7" t="inlineStr">
         <is>
+          <t>Movetia</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
           <t>CAPITOLE CONSULTING</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>Movetia</t>
         </is>
       </c>
       <c r="W7" t="inlineStr"/>
@@ -6512,32 +6512,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>The Hotels Network</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>SEAT</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Volcanic Internet</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ONEBOX</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Farmaconnect</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>Norwegian</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Visyon (Estudio Bay SL)</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -6578,37 +6578,37 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
+          <t>Project Lobster</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>AKKA</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
           <t>InboundCycle</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>AKKA</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>Project Lobster</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
+          <t>Atomian</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
           <t>C14TORCE</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>Atomian</t>
-        </is>
-      </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions</t>
+          <t>ONEBOX</t>
         </is>
       </c>
     </row>
@@ -6628,82 +6628,82 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
+          <t>Project Lobster</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>InboundCycle</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Bit Genoma Digital Solutions SL</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>C14TORCE</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Atomian</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
           <t>AKKA</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions SL</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>InboundCycle</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Project Lobster</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Atomian</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Bit Genoma Digital Solutions</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>ONEBOX</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>The Hotels Network</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Volcanic Internet</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Norwegian</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Visyon (Estudio Bay SL)</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>Farmaconnect</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>C14TORCE</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>Volcanic Internet</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>The Hotels Network</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>SEAT</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>Norwegian</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>ONEBOX</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>Visyon (Estudio Bay SL)</t>
-        </is>
-      </c>
       <c r="Z9" t="inlineStr">
         <is>
+          <t>Bluekik</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
           <t>Exoticca</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>Bluekik</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -6724,14 +6724,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>InboundCycle</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>AKKA</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>Project Lobster</t>
@@ -6739,34 +6739,34 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>C14TORCE</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>Atomian</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>The Hotels Network</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>C14TORCE</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>Volcanic Internet</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>Farmaconnect</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>The Hotels Network</t>
-        </is>
-      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>SEAT</t>
@@ -6774,53 +6774,53 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
+          <t>ONEBOX</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
           <t>Norwegian</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>ONEBOX</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>Visyon (Estudio Bay SL)</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>Exoticca</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Visyon (Estudio Bay SL)</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
+          <t>Bluekik</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
           <t>Movetia</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Bluekik</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>CAPITOLE CONSULTING</t>
-        </is>
-      </c>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>CAPITOLE CONSULTING</t>
+        </is>
+      </c>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>AKKA</t>
         </is>
       </c>
     </row>
@@ -6830,19 +6830,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>ONEBOX</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Exoticca</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Norwegian</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Farmaconnect</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>Movetia</t>
@@ -6850,14 +6850,10 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Exoticca</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>CAPITOLE CONSULTING</t>
-        </is>
-      </c>
+          <t>Bluekik</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -6866,67 +6862,71 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>CAPITOLE CONSULTING</t>
+        </is>
+      </c>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>AKKA</t>
+        </is>
+      </c>
       <c r="S11" t="inlineStr">
         <is>
+          <t>InboundCycle</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Project Lobster</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
           <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>Project Lobster</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>InboundCycle</t>
-        </is>
-      </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>AKKA</t>
+          <t>C14TORCE</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
+          <t>Atomian</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Bit Genoma Digital Solutions</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>The Hotels Network</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>Volcanic Internet</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
           <t>SEAT</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>C14TORCE</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>The Hotels Network</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>Atomian</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>Volcanic Internet</t>
-        </is>
-      </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>Bluekik</t>
+          <t>Norwegian</t>
         </is>
       </c>
     </row>
@@ -6937,9 +6937,17 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>CAPITOLE CONSULTING</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>AKKA</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>InboundCycle</t>
@@ -6947,89 +6955,81 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>Project Lobster</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Project Lobster</t>
-        </is>
-      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>AKKA</t>
+          <t>C14TORCE</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>C14TORCE</t>
+          <t>Atomian</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Atomian</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
+          <t>The Hotels Network</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>ONEBOX</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Bit Genoma Digital Solutions</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>Volcanic Internet</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Visyon (Estudio Bay SL)</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Exoticca</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Bluekik</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Movetia</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
         <is>
           <t>Norwegian</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>The Hotels Network</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>ONEBOX</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Farmaconnect</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>SEAT</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>Bluekik</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>Visyon (Estudio Bay SL)</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>CAPITOLE CONSULTING</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>Exoticca</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>Movetia</t>
-        </is>
-      </c>
+      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -409,7 +409,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3">
@@ -430,7 +430,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.35</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.36</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="5">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="6">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.23</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="7">
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="8">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.26</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="9">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.3</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="10">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="11">
@@ -586,7 +586,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>SEAT</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="12">
@@ -607,7 +607,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13">
@@ -628,7 +628,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="14">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="15">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="16">
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="17">
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="18">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="19">
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.54</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="21">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.35</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="23">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.35</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.23</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="25">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="26">
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="27">
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.2</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="28">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.22</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="29">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="30">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.19</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="31">
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="32">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="33">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>Bluekik</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="34">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Exoticca</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="35">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Bluekik</t>
+          <t>Exoticca</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="36">
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="37">
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="39">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.38</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="40">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.33</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="41">
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.31</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="42">
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.23</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="43">
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.23</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="44">
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.38</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="45">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="46">
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.28</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="47">
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="48">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.23</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="49">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.22</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="50">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.19</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="51">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Exoticca</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.3</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="52">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>Exoticca</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="53">
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="54">
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="55">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="56">
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.38</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="57">
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.39</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="58">
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.39</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="59">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="60">
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.23</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="61">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>Atomian</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="62">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Atomian</t>
+          <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.26</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="63">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.21</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="64">
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="65">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.23</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="66">
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="67">
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.21</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="68">
@@ -1795,7 +1795,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="69">
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="70">
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="71">
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="72">
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="73">
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.24</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="74">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.4</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="75">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.5</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="76">
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.39</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="77">
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.36</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="78">
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.26</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="79">
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="80">
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.39</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="81">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Volcanic Internet</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.23</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="82">
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="83">
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="84">
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="85">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>Volcanic Internet</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="86">
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="87">
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="88">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Exoticca</t>
+          <t>Bluekik</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="89">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Bluekik</t>
+          <t>Exoticca</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="90">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="91">
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="92">
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.36</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="93">
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.38</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="94">
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.42</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="95">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="96">
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.31</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="97">
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.21</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="98">
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="99">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.21</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="100">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="101">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="102">
@@ -2509,7 +2509,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="103">
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="104">
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="105">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.19</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="106">
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.19</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="107">
@@ -2614,7 +2614,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.19</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="108">
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="109">
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="110">
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.44</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="111">
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.39</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="112">
@@ -2719,7 +2719,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="113">
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.34</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="114">
@@ -2761,7 +2761,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.22</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="115">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.26</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="116">
@@ -2803,7 +2803,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.21</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="117">
@@ -2824,7 +2824,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="118">
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="119">
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="120">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Bluekik</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.22</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="121">
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.19</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="122">
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="123">
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="124">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>Exoticca</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.22</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="125">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Exoticca</t>
+          <t>Bluekik</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="126">
@@ -3013,7 +3013,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="127">
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="128">
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.47</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="129">
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.39</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="130">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.39</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="131">
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.43</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="132">
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.34</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="133">
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="134">
@@ -3181,7 +3181,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="135">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.22</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="136">
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="137">
@@ -3232,7 +3232,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="138">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.35</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="139">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.22</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="140">
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="141">
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="142">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Exoticca</t>
+          <t>Bluekik</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -3349,7 +3349,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="143">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Bluekik</t>
+          <t>Exoticca</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -3370,7 +3370,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="144">
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="145">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="146">
@@ -3433,7 +3433,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.41</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="147">
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.39</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="148">
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="149">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.36</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="150">
@@ -3517,7 +3517,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0.22</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="151">
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.21</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="152">
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="153">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.3</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="154">
@@ -3601,7 +3601,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="155">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="156">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -3643,7 +3643,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.18</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="157">
@@ -3652,7 +3652,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="158">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.21</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="159">
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="160">
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.27</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="161">
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="162">
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="163">
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="164">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>AKKA</t>
+          <t>InboundCycle</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.36</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="165">
@@ -3820,7 +3820,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>Project Lobster</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.4</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="166">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Project Lobster</t>
+          <t>AKKA</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.3</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="167">
@@ -3874,7 +3874,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.47</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="168">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="169">
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.21</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="170">
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="171">
@@ -3958,7 +3958,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0.21</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="172">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Volcanic Internet</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="173">
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="174">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>Volcanic Internet</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="175">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="176">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>SEAT</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0.18</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="177">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -4084,7 +4084,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="178">
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="179">
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="180">
@@ -4147,7 +4147,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="181">
@@ -4168,7 +4168,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="182">
@@ -4210,7 +4210,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0.37</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="184">
@@ -4231,7 +4231,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0.39</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="185">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.31</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="186">
@@ -4273,7 +4273,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.23</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="187">
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>0.22</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="188">
@@ -4315,7 +4315,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0.22</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="189">
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>0.29</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="190">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Volcanic Internet</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="191">
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="192">
@@ -4387,7 +4387,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>SEAT</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -4399,7 +4399,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.21</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="193">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>Volcanic Internet</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="194">
@@ -4441,7 +4441,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>0.22</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="195">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="196">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Bluekik</t>
+          <t>Exoticca</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0.3</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="197">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Exoticca</t>
+          <t>Bluekik</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -4504,7 +4504,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="198">
@@ -4525,7 +4525,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="199">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="200">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0.43</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="201">
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0.38</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="202">
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>0.37</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="203">
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.39</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="204">
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="205">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>0.21</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="206">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Atomian</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C206" t="n">
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="207">
@@ -4702,7 +4702,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>Atomian</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -4714,7 +4714,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>0.25</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="208">
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="209">
@@ -4756,7 +4756,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="210">
@@ -4777,7 +4777,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>0.21</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="211">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -4798,7 +4798,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>0.22</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="212">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -4819,7 +4819,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>0.21</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="213">
@@ -4840,7 +4840,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0.19</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="214">
@@ -4861,7 +4861,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="215">
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="216">
@@ -4903,7 +4903,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="217">
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="218">
@@ -4945,7 +4945,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="219">
@@ -4966,7 +4966,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="220">
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="221">
@@ -5008,7 +5008,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>0.37</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="222">
@@ -5029,7 +5029,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="223">
@@ -5050,7 +5050,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0.23</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="224">
@@ -5059,7 +5059,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="225">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>Bluekik</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>0.33</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="226">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>Volcanic Internet</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -5113,7 +5113,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>0.23</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="227">
@@ -5122,7 +5122,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Volcanic Internet</t>
+          <t>SEAT</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -5134,7 +5134,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="228">
@@ -5143,7 +5143,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -5155,7 +5155,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>0.19</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="229">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="230">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -5197,7 +5197,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="231">
@@ -5218,7 +5218,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="232">
@@ -5239,7 +5239,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="233">
@@ -5248,7 +5248,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Bluekik</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C233" t="n">
@@ -5260,7 +5260,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="234">
@@ -5281,7 +5281,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="235">
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="236">
@@ -5323,7 +5323,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>0.35</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="237">
@@ -5344,7 +5344,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="238">
@@ -5365,7 +5365,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="239">
@@ -5386,7 +5386,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>0.35</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="240">
@@ -5407,7 +5407,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="241">
@@ -5428,7 +5428,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="242">
@@ -5449,7 +5449,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>0.21</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="243">
@@ -5470,7 +5470,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>0.21</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="244">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>Volcanic Internet</t>
         </is>
       </c>
       <c r="C244" t="n">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="245">
@@ -5500,7 +5500,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C245" t="n">
@@ -5512,7 +5512,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="246">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C246" t="n">
@@ -5533,7 +5533,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="247">
@@ -5554,7 +5554,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>0.27</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="248">
@@ -5563,7 +5563,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Bluekik</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="C248" t="n">
@@ -5575,7 +5575,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="249">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>0.23</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="250">
@@ -5617,7 +5617,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="251">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Volcanic Internet</t>
+          <t>Bluekik</t>
         </is>
       </c>
       <c r="C251" t="n">
@@ -5638,7 +5638,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="252">
@@ -5659,7 +5659,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="253">
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -5701,7 +5701,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="255">
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>0.44</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="256">
@@ -5743,7 +5743,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="257">
@@ -5764,7 +5764,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>0.38</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="258">
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>0.23</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="259">
@@ -5794,7 +5794,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
       <c r="C259" t="n">
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>0.2</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="260">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C260" t="n">
@@ -5827,7 +5827,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>0.22</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="261">
@@ -5848,7 +5848,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="262">
@@ -5869,7 +5869,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>0.19</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="263">
@@ -5878,7 +5878,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C263" t="n">
@@ -5890,7 +5890,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="264">
@@ -5911,7 +5911,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>0.19</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="265">
@@ -5920,7 +5920,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>SEAT</t>
         </is>
       </c>
       <c r="C265" t="n">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>0.2</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="266">
@@ -5953,7 +5953,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="267">
@@ -5962,7 +5962,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="C267" t="n">
@@ -5974,7 +5974,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="268">
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>0.19</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="269">
@@ -6004,7 +6004,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Exoticca</t>
+          <t>Movetia</t>
         </is>
       </c>
       <c r="C269" t="n">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>CAPITOLE CONSULTING</t>
+          <t>Exoticca</t>
         </is>
       </c>
       <c r="C270" t="n">
@@ -6037,7 +6037,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>0.17</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="271">
@@ -6046,7 +6046,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Movetia</t>
+          <t>CAPITOLE CONSULTING</t>
         </is>
       </c>
       <c r="C271" t="n">
@@ -6054,11 +6054,11 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+          <t>Daniel García Martínez</t>
         </is>
       </c>
       <c r="E271" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="272">
@@ -6067,7 +6067,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>AKKA</t>
+          <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
       <c r="C272" t="n">
@@ -6075,11 +6075,11 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Daniel García Martínez</t>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
         </is>
       </c>
       <c r="E272" t="n">
-        <v>0.35</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="273">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions SL</t>
+          <t>InboundCycle</t>
         </is>
       </c>
       <c r="C273" t="n">
@@ -6100,7 +6100,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>0.39</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="274">
@@ -6109,7 +6109,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>AKKA</t>
         </is>
       </c>
       <c r="C274" t="n">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0.36</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="275">
@@ -6142,7 +6142,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="276">
@@ -6163,7 +6163,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>0.27</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="277">
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>0.22</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="278">
@@ -6205,7 +6205,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>0.27</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="279">
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>0.24</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="280">
@@ -6235,7 +6235,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>SEAT</t>
         </is>
       </c>
       <c r="C280" t="n">
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="281">
@@ -6268,7 +6268,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="282">
@@ -6289,7 +6289,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="283">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C283" t="n">
@@ -6310,7 +6310,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>0.3</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="284">
@@ -6331,7 +6331,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>0.22</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="285">
@@ -6340,7 +6340,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="C285" t="n">
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="286">
@@ -6373,7 +6373,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="287">
@@ -6382,7 +6382,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Bluekik</t>
+          <t>Movetia</t>
         </is>
       </c>
       <c r="C287" t="n">
@@ -6394,7 +6394,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="288">
@@ -6403,7 +6403,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Movetia</t>
+          <t>Bluekik</t>
         </is>
       </c>
       <c r="C288" t="n">
@@ -6415,7 +6415,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="289">
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="290">
@@ -6457,7 +6457,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>0.38</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="291">
@@ -6466,7 +6466,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
       <c r="C291" t="n">
@@ -6478,7 +6478,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>0.38</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="292">
@@ -6487,7 +6487,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Project Lobster</t>
+          <t>InboundCycle</t>
         </is>
       </c>
       <c r="C292" t="n">
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>0.31</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="293">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>C14TORCE</t>
+          <t>Project Lobster</t>
         </is>
       </c>
       <c r="C293" t="n">
@@ -6520,7 +6520,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>0.22</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="294">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions</t>
+          <t>C14TORCE</t>
         </is>
       </c>
       <c r="C294" t="n">
@@ -6541,7 +6541,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>0.25</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="295">
@@ -6550,7 +6550,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Bit Genoma Digital Solutions SL</t>
+          <t>Atomian</t>
         </is>
       </c>
       <c r="C295" t="n">
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="296">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Atomian</t>
+          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="C296" t="n">
@@ -6583,7 +6583,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>0.21</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="297">
@@ -6592,7 +6592,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>The Hotels Network</t>
+          <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
       <c r="C297" t="n">
@@ -6604,7 +6604,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>0.21</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="298">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="C298" t="n">
@@ -6625,7 +6625,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>0.21</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="299">
@@ -6634,7 +6634,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Volcanic Internet</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="C299" t="n">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>0.2</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="300">
@@ -6667,7 +6667,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="301">
@@ -6676,7 +6676,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>Volcanic Internet</t>
         </is>
       </c>
       <c r="C301" t="n">
@@ -6688,7 +6688,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>0.18</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="302">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Visyon (Estudio Bay SL)</t>
+          <t>Movetia</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -6709,7 +6709,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="303">
@@ -6730,7 +6730,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="304">
@@ -6739,7 +6739,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Farmaconnect</t>
+          <t>ONEBOX</t>
         </is>
       </c>
       <c r="C304" t="n">
@@ -6751,7 +6751,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>0.19</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="305">
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>0.25</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="306">
@@ -6781,7 +6781,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Movetia</t>
+          <t>CAPITOLE CONSULTING</t>
         </is>
       </c>
       <c r="C306" t="n">
@@ -6793,7 +6793,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="307">
@@ -6802,7 +6802,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>CAPITOLE CONSULTING</t>
+          <t>Farmaconnect</t>
         </is>
       </c>
       <c r="C307" t="n">
@@ -6810,11 +6810,11 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Carlos Martínez Crespo</t>
+          <t>Dan Mihai Grigoriciuc</t>
         </is>
       </c>
       <c r="E307" t="n">
-        <v>0.17</v>
+        <v>0.39</v>
       </c>
     </row>
   </sheetData>
@@ -6884,17 +6884,17 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>ONEBOX</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Farmaconnect</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>SEAT</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -7074,37 +7074,37 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
+          <t>Baltasar Torres Garcia</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>Alfredo Hinarejos Corbeá</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>Maria Cristina Blanco</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Baltasar Torres Garcia</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>Eugenio Ruiz Cepeda</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Nira Alonso Rodríguez</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Nerea Aparicio</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
           <t>Moisés García Almeida</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Eugenio Ruiz Cepeda</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Nira Alonso Rodríguez</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Nerea Aparicio</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -7169,32 +7169,32 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
+          <t>Abel Colmenares Napolitano</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>Verónica Celemín Lominchar</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>Rodrigo Otero Montero</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Abel Colmenares Napolitano</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr">
         <is>
+          <t>Javier Pérez-Chao Rodríguez</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Dan Mihai Grigoriciuc</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
           <t>Jaime Jacobo Rodríguez del Valle</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Dan Mihai Grigoriciuc</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -7244,37 +7244,37 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>Eugenio Ruiz Cepeda</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Francisco Leston Ramos</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>Moisés García Almeida</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Francisco Leston Ramos</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>Nira Alonso Rodríguez</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Eugenio Ruiz Cepeda</t>
-        </is>
-      </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>Nerea Aparicio</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>Mario Quiroga Cuervo</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>Sergio Ortega Gil</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Nerea Aparicio</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -7344,34 +7344,34 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>Sofia Jordan</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Javier Pérez-Chao Rodríguez</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Patricia Defez Díaz de Sarralde</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Isabel Rodríguez Godoy</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Roberto Muñoz Aragón</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
           <t>Jaime Jacobo Rodríguez del Valle</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Roberto Muñoz Aragón</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Sofia Jordan</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Isabel Rodríguez Godoy</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr">
         <is>
           <t>Alfredo Hinarejos Corbeá</t>
@@ -7384,12 +7384,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
+          <t>Maria Cristina Blanco</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
           <t>Baltasar Torres Garcia</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Maria Cristina Blanco</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -7449,22 +7449,22 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>Javier Requejo Melchor</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Daniel Herrero Hernando</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>Enrique Anaya Marin</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Javier Requejo Melchor</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>Thilo Sperber</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Daniel Herrero Hernando</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -7549,37 +7549,37 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
+          <t>Eugenio Ruiz Cepeda</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>Nira Alonso Rodríguez</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>Nerea Aparicio</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Eugenio Ruiz Cepeda</t>
-        </is>
-      </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>Moisés García Almeida</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Francisco Leston Ramos</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
           <t>Sergio Ortega Gil</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Francisco Leston Ramos</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>Mario Quiroga Cuervo</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Moisés García Almeida</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -7634,29 +7634,29 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>Abel Colmenares Napolitano</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>Jaime Jacobo Rodríguez del Valle</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Abel Colmenares Napolitano</t>
-        </is>
-      </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>Javier Pérez-Chao Rodríguez</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>Patricia Defez Díaz de Sarralde</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>Verónica Celemín Lominchar</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr">
         <is>
           <t>Isabel Rodríguez Godoy</t>
@@ -7669,12 +7669,12 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
+          <t>Sofia Jordan</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
           <t>Roberto Muñoz Aragón</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Sofia Jordan</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -7739,27 +7739,27 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
+          <t>Francisco Leston Ramos</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Javier Requejo Melchor</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Thilo Sperber</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>Enrique Anaya Marin</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Francisco Leston Ramos</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Thilo Sperber</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Javier Requejo Melchor</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -7789,24 +7789,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Abel Colmenares Napolitano</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Javier Pérez-Chao Rodríguez</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>Rodrigo Otero Montero</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Verónica Celemín Lominchar</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Abel Colmenares Napolitano</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>Isabel Rodríguez Godoy</t>
@@ -7819,42 +7819,42 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>Alfredo Hinarejos Corbeá</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Patricia Defez Díaz de Sarralde</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Roberto Muñoz Aragón</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Maria Cristina Blanco</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>Sofia Jordan</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Patricia Defez Díaz de Sarralde</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Roberto Muñoz Aragón</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Alfonso Silva Feria</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>Baltasar Torres Garcia</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Alfonso Silva Feria</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Alfredo Hinarejos Corbeá</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>Eugenio Ruiz Cepeda</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Maria Cristina Blanco</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -7914,34 +7914,34 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>Rodrigo Otero Montero</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Maria Isabel Llanes Agudelo</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Daniel Herrero Hernando</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Dan Mihai Grigoriciuc</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>Thilo Sperber</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Maria Isabel Llanes Agudelo</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Daniel Herrero Hernando</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Dan Mihai Grigoriciuc</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>Carlos Martínez Crespo</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Rodrigo Otero Montero</t>
-        </is>
-      </c>
       <c r="N12" t="inlineStr">
         <is>
           <t>Abel Colmenares Napolitano</t>
@@ -7954,12 +7954,12 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
+          <t>Javier Pérez-Chao Rodríguez</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
           <t>Jaime Jacobo Rodríguez del Valle</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -8004,47 +8004,47 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>Moisés García Almeida</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Nerea Aparicio</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Maria Cristina Blanco</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>Eugenio Ruiz Cepeda</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Nerea Aparicio</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Maria Cristina Blanco</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Moisés García Almeida</t>
-        </is>
-      </c>
       <c r="K13" t="inlineStr">
         <is>
+          <t>Nira Alonso Rodríguez</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
           <t>Daniel García Martínez</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>Francisco Leston Ramos</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Nira Alonso Rodríguez</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr">
         <is>
+          <t>Sergio Ortega Gil</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
           <t>Mario Quiroga Cuervo</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Sergio Ortega Gil</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -8104,52 +8104,52 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>Jaime Jacobo Rodríguez del Valle</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Isabel Rodríguez Godoy</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Abel Colmenares Napolitano</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
           <t>Patricia Defez Díaz de Sarralde</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Abel Colmenares Napolitano</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Baltasar Torres Garcia</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Sofia Jordan</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Alfonso Silva Feria</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Roberto Muñoz Aragón</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Alfredo Hinarejos Corbeá</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>Javier Pérez-Chao Rodríguez</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Isabel Rodríguez Godoy</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Jaime Jacobo Rodríguez del Valle</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Roberto Muñoz Aragón</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Alfonso Silva Feria</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Sofia Jordan</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Alfredo Hinarejos Corbeá</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>Baltasar Torres Garcia</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -8199,52 +8199,52 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>Javier Requejo Melchor</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Enrique Anaya Marin</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Mario Quiroga Cuervo</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Daniel Herrero Hernando</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Maria Isabel Llanes Agudelo</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Carlos Martínez Crespo</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Thilo Sperber</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Dan Mihai Grigoriciuc</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
           <t>Rodrigo Otero Montero</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Javier Requejo Melchor</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Daniel Herrero Hernando</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Enrique Anaya Marin</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Mario Quiroga Cuervo</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Carlos Martínez Crespo</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Maria Isabel Llanes Agudelo</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Dan Mihai Grigoriciuc</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>Thilo Sperber</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -8299,57 +8299,57 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>Sofia Jordan</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>Alfonso Silva Feria</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Sofia Jordan</t>
-        </is>
-      </c>
       <c r="K16" t="inlineStr">
         <is>
+          <t>Moisés García Almeida</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Maria Cristina Blanco</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Eugenio Ruiz Cepeda</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Nira Alonso Rodríguez</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
           <t>Nerea Aparicio</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Eugenio Ruiz Cepeda</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>Maria Cristina Blanco</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Nira Alonso Rodríguez</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>Moisés García Almeida</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
         <is>
+          <t>Mario Quiroga Cuervo</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Francisco Leston Ramos</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
           <t>Sergio Ortega Gil</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>Francisco Leston Ramos</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
-        </is>
-      </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Mario Quiroga Cuervo</t>
+          <t>Daniel García Martínez</t>
         </is>
       </c>
     </row>
@@ -8359,19 +8359,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Daniel García Martínez</t>
+          <t>Enrique Anaya Marin</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>Javier Requejo Melchor</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Enrique Anaya Marin</t>
-        </is>
-      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>Maria Isabel Llanes Agudelo</t>
@@ -8399,29 +8399,29 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
+          <t>Javier Pérez-Chao Rodríguez</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
           <t>Rodrigo Otero Montero</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>Abel Colmenares Napolitano</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>Daniel Herrero Hernando</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>Patricia Defez Díaz de Sarralde</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>Javier Pérez-Chao Rodríguez</t>
-        </is>
-      </c>
       <c r="O17" t="inlineStr">
         <is>
           <t>Jaime Jacobo Rodríguez del Valle</t>
@@ -8434,12 +8434,12 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
+          <t>Sofia Jordan</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
           <t>Roberto Muñoz Aragón</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>Sofia Jordan</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -8459,87 +8459,87 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>Baltasar Torres Garcia</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Maria Cristina Blanco</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Eugenio Ruiz Cepeda</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Moisés García Almeida</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Nira Alonso Rodríguez</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Baltasar Torres Garcia</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Maria Cristina Blanco</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Eugenio Ruiz Cepeda</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Francisco Leston Ramos</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>Nerea Aparicio</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Daniel García Martínez</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Maria Isabel Llanes Agudelo</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Dan Mihai Grigoriciuc</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>Mario Quiroga Cuervo</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Moisés García Almeida</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Francisco Leston Ramos</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>Sergio Ortega Gil</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Maria Isabel Llanes Agudelo</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>Daniel García Martínez</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Enrique Anaya Marin</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Daniel Herrero Hernando</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
         <is>
           <t>Javier Requejo Melchor</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Eduardo Lores Hernández </t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>Enrique Anaya Marin</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Daniel Herrero Hernando</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>Thilo Sperber</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>Carlos Martínez Crespo</t>
         </is>
       </c>
     </row>
@@ -8760,17 +8760,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>ONEBOX</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>Farmaconnect</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>SEAT</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -8826,22 +8826,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Visyon (Estudio Bay SL)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Bluekik</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Norwegian</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Visyon (Estudio Bay SL)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Exoticca</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Bluekik</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -8999,12 +8999,12 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
+          <t>Visyon (Estudio Bay SL)</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
           <t>Exoticca</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -9038,17 +9038,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Atomian</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Bit Genoma Digital Solutions</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>The Hotels Network</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Atomian</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -9139,7 +9139,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bluekik</t>
+          <t>Exoticca</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -9200,29 +9200,29 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
+          <t>Farmaconnect</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>The Hotels Network</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>ONEBOX</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
           <t>Volcanic Internet</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>The Hotels Network</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>SEAT</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>ONEBOX</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>Farmaconnect</t>
-        </is>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
           <t>Norwegian</t>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>Exoticca</t>
+          <t>Bluekik</t>
         </is>
       </c>
     </row>
@@ -9283,12 +9283,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>The Hotels Network</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
           <t>ONEBOX</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>The Hotels Network</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -9361,32 +9361,32 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>Visyon (Estudio Bay SL)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ONEBOX</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Farmaconnect</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Norwegian</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Exoticca</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>Bluekik</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ONEBOX</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Farmaconnect</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Norwegian</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Visyon (Estudio Bay SL)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Exoticca</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -9512,19 +9512,19 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
+          <t>Bit Genoma Digital Solutions</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
           <t>The Hotels Network</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>SEAT</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions</t>
-        </is>
-      </c>
       <c r="X9" t="inlineStr">
         <is>
           <t>ONEBOX</t>
@@ -9537,12 +9537,12 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
+          <t>Bluekik</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
           <t>Exoticca</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>Bluekik</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -9608,17 +9608,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
+          <t>ONEBOX</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t>Farmaconnect</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>Norwegian</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>ONEBOX</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -9669,12 +9669,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Norwegian</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -9710,19 +9710,19 @@
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr">
         <is>
+          <t>InboundCycle</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Project Lobster</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
           <t>AKKA</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>InboundCycle</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>Project Lobster</t>
-        </is>
-      </c>
       <c r="V11" t="inlineStr">
         <is>
           <t>Bit Genoma Digital Solutions SL</t>
@@ -9750,22 +9750,22 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
+          <t>ONEBOX</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Farmaconnect</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
           <t>Volcanic Internet</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>Farmaconnect</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>SEAT</t>
-        </is>
-      </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>ONEBOX</t>
+          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
     </row>
@@ -9821,24 +9821,24 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
+          <t>ONEBOX</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Farmaconnect</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>Volcanic Internet</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Farmaconnect</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>ONEBOX</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>SEAT</t>
-        </is>
-      </c>
       <c r="T12" t="inlineStr">
         <is>
           <t>Norwegian</t>
@@ -9851,12 +9851,12 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
+          <t>Exoticca</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
           <t>Bluekik</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>Exoticca</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
@@ -9886,14 +9886,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>The Hotels Network</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>Atomian</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>The Hotels Network</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>SEAT</t>
@@ -9911,12 +9911,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>Visyon (Estudio Bay SL)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>Norwegian</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -10038,52 +10038,52 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
+          <t>The Hotels Network</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Bluekik</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Volcanic Internet</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
           <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>The Hotels Network</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>Norwegian</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
         <is>
           <t>Farmaconnect</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>Volcanic Internet</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Visyon (Estudio Bay SL)</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Exoticca</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
         <is>
           <t>ONEBOX</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>SEAT</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>Norwegian</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>Visyon (Estudio Bay SL)</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Exoticca</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>Bluekik</t>
         </is>
       </c>
     </row>
@@ -10135,42 +10135,42 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
+          <t>Volcanic Internet</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
           <t>The Hotels Network</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>Farmaconnect</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>ONEBOX</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
         <is>
           <t>Norwegian</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>ONEBOX</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Visyon (Estudio Bay SL)</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Exoticca</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>Bluekik</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>Visyon (Estudio Bay SL)</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>Exoticca</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Volcanic Internet</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -10199,29 +10199,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>ONEBOX</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Farmaconnect</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>SEAT</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Farmaconnect</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Visyon (Estudio Bay SL)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Norwegian</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Visyon (Estudio Bay SL)</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>ONEBOX</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
           <t>Bluekik</t>
@@ -10229,20 +10229,20 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
+          <t>Movetia</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>Exoticca</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>CAPITOLE CONSULTING</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Movetia</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
@@ -10280,12 +10280,12 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
+          <t>Bit Genoma Digital Solutions</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
           <t>The Hotels Network</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -10311,22 +10311,22 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Bit Genoma Digital Solutions SL</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>InboundCycle</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>AKKA</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions SL</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>InboundCycle</t>
-        </is>
-      </c>
       <c r="N17" t="inlineStr">
         <is>
           <t>Project Lobster</t>
@@ -10354,34 +10354,34 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Volcanic Internet</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>ONEBOX</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
           <t>The Hotels Network</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>Volcanic Internet</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>ONEBOX</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Norwegian</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
         <is>
           <t>Visyon (Estudio Bay SL)</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>Norwegian</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>SEAT</t>
-        </is>
-      </c>
       <c r="Y17" t="inlineStr">
         <is>
           <t>Exoticca</t>
@@ -10389,12 +10389,12 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
+          <t>Movetia</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
           <t>Bluekik</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>Movetia</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -10411,85 +10411,85 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>InboundCycle</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>Project Lobster</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>C14TORCE</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Atomian</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>The Hotels Network</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>Bit Genoma Digital Solutions</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Bit Genoma Digital Solutions SL</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Atomian</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>The Hotels Network</t>
-        </is>
-      </c>
       <c r="H18" t="inlineStr">
         <is>
+          <t>Norwegian</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Visyon (Estudio Bay SL)</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>SEAT</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Volcanic Internet</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Movetia</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Exoticca</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
           <t>ONEBOX</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Volcanic Internet</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>SEAT</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Norwegian</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Visyon (Estudio Bay SL)</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>Exoticca</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Bluekik</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>CAPITOLE CONSULTING</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>Farmaconnect</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Bluekik</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>Movetia</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>CAPITOLE CONSULTING</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
@@ -10507,7 +10507,7 @@
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>InboundCycle</t>
+          <t>Bit Genoma Digital Solutions SL</t>
         </is>
       </c>
     </row>
@@ -10629,58 +10629,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="D2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L2" t="n">
         <v>0.2</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="N2" t="n">
         <v>0.39</v>
       </c>
-      <c r="K2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="P2" t="n">
         <v>0.39</v>
       </c>
-      <c r="N2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.21</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="R2" t="n">
-        <v>0.31</v>
+        <v>0.64</v>
       </c>
       <c r="S2" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="3">
@@ -10690,58 +10690,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="C3" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="D3" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.21</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="M3" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q3" t="n">
         <v>0.34</v>
       </c>
-      <c r="J3" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.2</v>
-      </c>
       <c r="R3" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="S3" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="4">
@@ -10751,58 +10751,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="D4" t="n">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
       <c r="E4" t="n">
-        <v>0.23</v>
+        <v>0.45</v>
       </c>
       <c r="F4" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G4" t="n">
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3</v>
+        <v>0.61</v>
       </c>
       <c r="I4" t="n">
-        <v>0.33</v>
+        <v>0.66</v>
       </c>
       <c r="J4" t="n">
-        <v>0.35</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2</v>
+        <v>0.36</v>
       </c>
       <c r="L4" t="n">
-        <v>0.22</v>
+        <v>0.4</v>
       </c>
       <c r="M4" t="n">
-        <v>0.36</v>
+        <v>0.71</v>
       </c>
       <c r="N4" t="n">
-        <v>0.25</v>
+        <v>0.52</v>
       </c>
       <c r="O4" t="n">
-        <v>0.19</v>
+        <v>0.31</v>
       </c>
       <c r="P4" t="n">
-        <v>0.26</v>
+        <v>0.53</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
       <c r="R4" t="n">
-        <v>0.36</v>
+        <v>0.71</v>
       </c>
       <c r="S4" t="n">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="5">
@@ -10812,58 +10812,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="C5" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2</v>
+        <v>0.36</v>
       </c>
       <c r="E5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L5" t="n">
         <v>0.19</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.17</v>
-      </c>
       <c r="M5" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q5" t="n">
         <v>0.33</v>
       </c>
-      <c r="N5" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.2</v>
-      </c>
       <c r="R5" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="S5" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="6">
@@ -10873,58 +10873,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L6" t="n">
         <v>0.2</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="Q6" t="n">
         <v>0.33</v>
       </c>
-      <c r="J6" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.2</v>
-      </c>
       <c r="R6" t="n">
-        <v>0.31</v>
+        <v>0.64</v>
       </c>
       <c r="S6" t="n">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="7">
@@ -10934,58 +10934,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="C7" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="D7" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.21</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.17</v>
-      </c>
       <c r="G7" t="n">
-        <v>0.21</v>
+        <v>0.37</v>
       </c>
       <c r="H7" t="n">
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
       <c r="I7" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="K7" t="n">
         <v>0.34</v>
       </c>
-      <c r="J7" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.2</v>
-      </c>
       <c r="L7" t="n">
-        <v>0.19</v>
+        <v>0.3</v>
       </c>
       <c r="M7" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="N7" t="n">
         <v>0.42</v>
       </c>
-      <c r="N7" t="n">
-        <v>0.22</v>
-      </c>
       <c r="O7" t="n">
-        <v>0.19</v>
+        <v>0.3</v>
       </c>
       <c r="P7" t="n">
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
       <c r="R7" t="n">
-        <v>0.35</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="8">
@@ -10995,58 +10995,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2</v>
+        <v>0.36</v>
       </c>
       <c r="D8" t="n">
-        <v>0.24</v>
+        <v>0.47</v>
       </c>
       <c r="E8" t="n">
-        <v>0.26</v>
+        <v>0.53</v>
       </c>
       <c r="F8" t="n">
         <v>0.16</v>
       </c>
       <c r="G8" t="n">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
       <c r="H8" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I8" t="n">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="J8" t="n">
-        <v>0.39</v>
+        <v>0.74</v>
       </c>
       <c r="K8" t="n">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2</v>
+        <v>0.36</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.23</v>
+        <v>0.45</v>
       </c>
       <c r="O8" t="n">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3</v>
+        <v>0.62</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="S8" t="n">
-        <v>0.22</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="9">
@@ -11056,58 +11056,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="C9" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F9" t="n">
         <v>0.19</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.17</v>
-      </c>
       <c r="G9" t="n">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="H9" t="n">
-        <v>0.31</v>
+        <v>0.63</v>
       </c>
       <c r="I9" t="n">
-        <v>0.37</v>
+        <v>0.73</v>
       </c>
       <c r="J9" t="n">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
       <c r="L9" t="n">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
       <c r="M9" t="n">
-        <v>0.37</v>
+        <v>0.73</v>
       </c>
       <c r="N9" t="n">
-        <v>0.3</v>
+        <v>0.63</v>
       </c>
       <c r="O9" t="n">
-        <v>0.21</v>
+        <v>0.39</v>
       </c>
       <c r="P9" t="n">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
       <c r="R9" t="n">
-        <v>0.31</v>
+        <v>0.64</v>
       </c>
       <c r="S9" t="n">
-        <v>0.21</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="10">
@@ -11117,58 +11117,58 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="C10" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="D10" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L10" t="n">
         <v>0.2</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="M10" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="N10" t="n">
         <v>0.39</v>
       </c>
-      <c r="K10" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.21</v>
-      </c>
       <c r="O10" t="n">
-        <v>0.19</v>
+        <v>0.31</v>
       </c>
       <c r="P10" t="n">
-        <v>0.21</v>
+        <v>0.39</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="R10" t="n">
-        <v>0.31</v>
+        <v>0.64</v>
       </c>
       <c r="S10" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="11">
@@ -11178,58 +11178,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="E11" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L11" t="n">
         <v>0.19</v>
       </c>
-      <c r="F11" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="M11" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N11" t="n">
         <v>0.39</v>
       </c>
-      <c r="K11" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.21</v>
-      </c>
       <c r="O11" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
       <c r="P11" t="n">
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
       <c r="R11" t="n">
-        <v>0.31</v>
+        <v>0.63</v>
       </c>
       <c r="S11" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="12">
@@ -11239,58 +11239,58 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="F12" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
       <c r="H12" t="n">
-        <v>0.23</v>
+        <v>0.44</v>
       </c>
       <c r="I12" t="n">
-        <v>0.47</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J12" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="N12" t="n">
         <v>0.39</v>
       </c>
-      <c r="K12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.21</v>
-      </c>
       <c r="O12" t="n">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="P12" t="n">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="R12" t="n">
-        <v>0.31</v>
+        <v>0.64</v>
       </c>
       <c r="S12" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="13">
@@ -11300,58 +11300,58 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="C13" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
       <c r="D13" t="n">
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2</v>
+        <v>0.36</v>
       </c>
       <c r="F13" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
       <c r="H13" t="n">
-        <v>0.23</v>
+        <v>0.45</v>
       </c>
       <c r="I13" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="N13" t="n">
         <v>0.39</v>
       </c>
-      <c r="J13" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.21</v>
-      </c>
       <c r="O13" t="n">
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
       <c r="P13" t="n">
-        <v>0.22</v>
+        <v>0.42</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
       <c r="R13" t="n">
-        <v>0.31</v>
+        <v>0.64</v>
       </c>
       <c r="S13" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="14">
@@ -11361,58 +11361,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="D14" t="n">
-        <v>0.21</v>
+        <v>0.37</v>
       </c>
       <c r="E14" t="n">
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
       <c r="F14" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="G14" t="n">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
       <c r="H14" t="n">
-        <v>0.23</v>
+        <v>0.45</v>
       </c>
       <c r="I14" t="n">
-        <v>0.31</v>
+        <v>0.64</v>
       </c>
       <c r="J14" t="n">
-        <v>0.38</v>
+        <v>0.73</v>
       </c>
       <c r="K14" t="n">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
       <c r="L14" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="M14" t="n">
-        <v>0.39</v>
+        <v>0.74</v>
       </c>
       <c r="N14" t="n">
-        <v>0.22</v>
+        <v>0.42</v>
       </c>
       <c r="O14" t="n">
-        <v>0.18</v>
+        <v>0.28</v>
       </c>
       <c r="P14" t="n">
-        <v>0.23</v>
+        <v>0.46</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
       <c r="R14" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="S14" t="n">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="15">
@@ -11422,58 +11422,58 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
       <c r="C15" t="n">
-        <v>0.27</v>
+        <v>0.57</v>
       </c>
       <c r="D15" t="n">
-        <v>0.29</v>
+        <v>0.61</v>
       </c>
       <c r="E15" t="n">
-        <v>0.26</v>
+        <v>0.54</v>
       </c>
       <c r="F15" t="n">
-        <v>0.24</v>
+        <v>0.49</v>
       </c>
       <c r="G15" t="n">
-        <v>0.27</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0.43</v>
+        <v>0.78</v>
       </c>
       <c r="I15" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="J15" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.67</v>
       </c>
-      <c r="K15" t="n">
-        <v>0.33</v>
-      </c>
       <c r="L15" t="n">
-        <v>0.25</v>
+        <v>0.52</v>
       </c>
       <c r="M15" t="n">
-        <v>0.37</v>
+        <v>0.73</v>
       </c>
       <c r="N15" t="n">
-        <v>0.38</v>
+        <v>0.73</v>
       </c>
       <c r="O15" t="n">
-        <v>0.27</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P15" t="n">
-        <v>0.26</v>
+        <v>0.54</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="R15" t="n">
-        <v>0.39</v>
+        <v>0.74</v>
       </c>
       <c r="S15" t="n">
-        <v>0.26</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="16">
@@ -11483,58 +11483,58 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="C16" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
       <c r="E16" t="n">
-        <v>0.19</v>
+        <v>0.31</v>
       </c>
       <c r="F16" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="G16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L16" t="n">
         <v>0.18</v>
       </c>
-      <c r="H16" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.17</v>
-      </c>
       <c r="M16" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
       <c r="O16" t="n">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
       <c r="P16" t="n">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
       <c r="R16" t="n">
-        <v>0.34</v>
+        <v>0.68</v>
       </c>
       <c r="S16" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17">
@@ -11544,58 +11544,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="C17" t="n">
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
       <c r="D17" t="n">
-        <v>0.23</v>
+        <v>0.47</v>
       </c>
       <c r="E17" t="n">
-        <v>0.28</v>
+        <v>0.57</v>
       </c>
       <c r="F17" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="G17" t="n">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
       <c r="H17" t="n">
-        <v>0.26</v>
+        <v>0.54</v>
       </c>
       <c r="I17" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="J17" t="n">
-        <v>0.47</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L17" t="n">
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5</v>
+        <v>0.84</v>
       </c>
       <c r="N17" t="n">
-        <v>0.27</v>
+        <v>0.55</v>
       </c>
       <c r="O17" t="n">
-        <v>0.23</v>
+        <v>0.44</v>
       </c>
       <c r="P17" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.22</v>
+        <v>0.43</v>
       </c>
       <c r="R17" t="n">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="S17" t="n">
-        <v>0.23</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="18">
@@ -11605,58 +11605,58 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="C18" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="E18" t="n">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
       <c r="F18" t="n">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="G18" t="n">
-        <v>0.21</v>
+        <v>0.39</v>
       </c>
       <c r="H18" t="n">
-        <v>0.23</v>
+        <v>0.44</v>
       </c>
       <c r="I18" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="O18" t="n">
         <v>0.37</v>
       </c>
-      <c r="J18" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0.21</v>
-      </c>
       <c r="P18" t="n">
-        <v>0.24</v>
+        <v>0.47</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="R18" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="S18" t="n">
         <v>0.31</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.19</v>
       </c>
     </row>
     <row r="19">
@@ -11666,58 +11666,58 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="C19" t="n">
-        <v>0.19</v>
+        <v>0.3</v>
       </c>
       <c r="D19" t="n">
-        <v>0.21</v>
+        <v>0.39</v>
       </c>
       <c r="E19" t="n">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="F19" t="n">
         <v>0.16</v>
       </c>
       <c r="G19" t="n">
-        <v>0.23</v>
+        <v>0.44</v>
       </c>
       <c r="H19" t="n">
-        <v>0.23</v>
+        <v>0.46</v>
       </c>
       <c r="I19" t="n">
-        <v>0.36</v>
+        <v>0.7</v>
       </c>
       <c r="J19" t="n">
-        <v>0.34</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.22</v>
+        <v>0.4</v>
       </c>
       <c r="L19" t="n">
-        <v>0.19</v>
+        <v>0.3</v>
       </c>
       <c r="M19" t="n">
-        <v>0.36</v>
+        <v>0.71</v>
       </c>
       <c r="N19" t="n">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="O19" t="n">
-        <v>0.21</v>
+        <v>0.37</v>
       </c>
       <c r="P19" t="n">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="R19" t="n">
-        <v>0.36</v>
+        <v>0.71</v>
       </c>
       <c r="S19" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="20">
@@ -11727,58 +11727,58 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="C20" t="n">
-        <v>0.19</v>
+        <v>0.28</v>
       </c>
       <c r="D20" t="n">
-        <v>0.21</v>
+        <v>0.39</v>
       </c>
       <c r="E20" t="n">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
       <c r="F20" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="G20" t="n">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
       <c r="H20" t="n">
-        <v>0.23</v>
+        <v>0.46</v>
       </c>
       <c r="I20" t="n">
-        <v>0.54</v>
+        <v>0.86</v>
       </c>
       <c r="J20" t="n">
-        <v>0.35</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.22</v>
+        <v>0.4</v>
       </c>
       <c r="L20" t="n">
-        <v>0.19</v>
+        <v>0.28</v>
       </c>
       <c r="M20" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N20" t="n">
         <v>0.4</v>
       </c>
-      <c r="N20" t="n">
-        <v>0.21</v>
-      </c>
       <c r="O20" t="n">
-        <v>0.22</v>
+        <v>0.42</v>
       </c>
       <c r="P20" t="n">
-        <v>0.26</v>
+        <v>0.53</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
       <c r="R20" t="n">
-        <v>0.38</v>
+        <v>0.73</v>
       </c>
       <c r="S20" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="21">
@@ -11788,58 +11788,58 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="C21" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
       <c r="E21" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
       <c r="F21" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L21" t="n">
         <v>0.18</v>
       </c>
-      <c r="H21" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="J21" t="n">
+      <c r="M21" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="N21" t="n">
         <v>0.35</v>
       </c>
-      <c r="K21" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.2</v>
-      </c>
       <c r="O21" t="n">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
       <c r="P21" t="n">
-        <v>0.21</v>
+        <v>0.37</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.19</v>
+        <v>0.31</v>
       </c>
       <c r="R21" t="n">
-        <v>0.3</v>
+        <v>0.62</v>
       </c>
       <c r="S21" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="22">
@@ -11849,58 +11849,58 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.22</v>
+        <v>0.42</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3</v>
+        <v>0.62</v>
       </c>
       <c r="D22" t="n">
-        <v>0.33</v>
+        <v>0.66</v>
       </c>
       <c r="E22" t="n">
-        <v>0.29</v>
+        <v>0.6</v>
       </c>
       <c r="F22" t="n">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
       <c r="G22" t="n">
-        <v>0.28</v>
+        <v>0.59</v>
       </c>
       <c r="H22" t="n">
-        <v>0.37</v>
+        <v>0.72</v>
       </c>
       <c r="I22" t="n">
-        <v>0.37</v>
+        <v>0.73</v>
       </c>
       <c r="J22" t="n">
-        <v>0.47</v>
+        <v>0.82</v>
       </c>
       <c r="K22" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3</v>
+        <v>0.62</v>
       </c>
       <c r="M22" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="N22" t="n">
-        <v>0.39</v>
+        <v>0.74</v>
       </c>
       <c r="O22" t="n">
-        <v>0.23</v>
+        <v>0.45</v>
       </c>
       <c r="P22" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.35</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R22" t="n">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="S22" t="n">
-        <v>0.3</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="23">
@@ -11910,58 +11910,58 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F23" t="n">
         <v>0.17</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.16</v>
-      </c>
       <c r="G23" t="n">
-        <v>0.23</v>
+        <v>0.46</v>
       </c>
       <c r="H23" t="n">
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
       <c r="I23" t="n">
-        <v>0.44</v>
+        <v>0.8</v>
       </c>
       <c r="J23" t="n">
-        <v>0.38</v>
+        <v>0.73</v>
       </c>
       <c r="K23" t="n">
-        <v>0.22</v>
+        <v>0.42</v>
       </c>
       <c r="L23" t="n">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
       <c r="M23" t="n">
-        <v>0.44</v>
+        <v>0.8</v>
       </c>
       <c r="N23" t="n">
-        <v>0.22</v>
+        <v>0.42</v>
       </c>
       <c r="O23" t="n">
-        <v>0.21</v>
+        <v>0.39</v>
       </c>
       <c r="P23" t="n">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.22</v>
+        <v>0.42</v>
       </c>
       <c r="R23" t="n">
-        <v>0.35</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="24">
@@ -11971,58 +11971,58 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="C24" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="E24" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L24" t="n">
         <v>0.19</v>
       </c>
-      <c r="F24" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.17</v>
-      </c>
       <c r="M24" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="P24" t="n">
         <v>0.36</v>
       </c>
-      <c r="N24" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0.2</v>
-      </c>
       <c r="Q24" t="n">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
       <c r="R24" t="n">
-        <v>0.31</v>
+        <v>0.64</v>
       </c>
       <c r="S24" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="25">
@@ -12032,58 +12032,58 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="C25" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="D25" t="n">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
       <c r="F25" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="G25" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
       <c r="H25" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L25" t="n">
         <v>0.24</v>
       </c>
-      <c r="I25" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="J25" t="n">
+      <c r="M25" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="Q25" t="n">
         <v>0.38</v>
       </c>
-      <c r="K25" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.21</v>
-      </c>
       <c r="R25" t="n">
-        <v>0.35</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="S25" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="26">
@@ -12093,58 +12093,58 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="C26" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="D26" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="L26" t="n">
         <v>0.21</v>
       </c>
-      <c r="E26" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.17</v>
-      </c>
       <c r="M26" t="n">
-        <v>0.36</v>
+        <v>0.71</v>
       </c>
       <c r="N26" t="n">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
       <c r="O26" t="n">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
       <c r="P26" t="n">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
       <c r="R26" t="n">
-        <v>0.34</v>
+        <v>0.68</v>
       </c>
       <c r="S26" t="n">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="27">
@@ -12154,58 +12154,58 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
       <c r="E27" t="n">
-        <v>0.19</v>
+        <v>0.3</v>
       </c>
       <c r="F27" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="G27" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="L27" t="n">
         <v>0.18</v>
       </c>
-      <c r="H27" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.17</v>
-      </c>
       <c r="M27" t="n">
-        <v>0.37</v>
+        <v>0.73</v>
       </c>
       <c r="N27" t="n">
-        <v>0.2</v>
+        <v>0.36</v>
       </c>
       <c r="O27" t="n">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
       <c r="P27" t="n">
-        <v>0.2</v>
+        <v>0.36</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.19</v>
+        <v>0.31</v>
       </c>
       <c r="R27" t="n">
-        <v>0.29</v>
+        <v>0.6</v>
       </c>
       <c r="S27" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="28">
@@ -12215,58 +12215,58 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="C28" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="D28" t="n">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="E28" t="n">
-        <v>0.22</v>
+        <v>0.43</v>
       </c>
       <c r="F28" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="G28" t="n">
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
       <c r="H28" t="n">
-        <v>0.23</v>
+        <v>0.45</v>
       </c>
       <c r="I28" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.34</v>
       </c>
-      <c r="J28" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.2</v>
-      </c>
       <c r="L28" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
       <c r="M28" t="n">
-        <v>0.39</v>
+        <v>0.74</v>
       </c>
       <c r="N28" t="n">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
       <c r="O28" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
       <c r="P28" t="n">
-        <v>0.26</v>
+        <v>0.53</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.2</v>
+        <v>0.36</v>
       </c>
       <c r="R28" t="n">
-        <v>0.37</v>
+        <v>0.73</v>
       </c>
       <c r="S28" t="n">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="29">
@@ -12276,58 +12276,58 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="D29" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L29" t="n">
         <v>0.2</v>
       </c>
-      <c r="E29" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="J29" t="n">
+      <c r="M29" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="N29" t="n">
         <v>0.39</v>
       </c>
-      <c r="K29" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0.21</v>
-      </c>
       <c r="O29" t="n">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
       <c r="P29" t="n">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
       <c r="R29" t="n">
-        <v>0.31</v>
+        <v>0.64</v>
       </c>
       <c r="S29" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="30">
@@ -12337,58 +12337,58 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="C30" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
       <c r="E30" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="L30" t="n">
         <v>0.19</v>
       </c>
-      <c r="F30" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.17</v>
-      </c>
       <c r="M30" t="n">
-        <v>0.38</v>
+        <v>0.73</v>
       </c>
       <c r="N30" t="n">
-        <v>0.21</v>
+        <v>0.39</v>
       </c>
       <c r="O30" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="P30" t="n">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.19</v>
+        <v>0.3</v>
       </c>
       <c r="R30" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="S30" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -397,7 +397,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -405,7 +405,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -418,7 +418,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -426,7 +426,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -439,7 +439,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -447,7 +447,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -460,7 +460,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -468,7 +468,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -489,7 +489,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -510,7 +510,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -523,7 +523,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -531,11 +531,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -544,7 +544,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -552,11 +552,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10">
@@ -573,7 +573,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -594,7 +594,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -607,7 +607,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -615,11 +615,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.58</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="13">
@@ -628,7 +628,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -636,7 +636,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -649,7 +649,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -657,11 +657,11 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="15">
@@ -670,7 +670,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -678,11 +678,11 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -691,7 +691,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -699,7 +699,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -712,7 +712,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -720,7 +720,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -733,7 +733,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -741,7 +741,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -754,7 +754,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -762,7 +762,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -775,7 +775,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -783,7 +783,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -796,7 +796,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -804,7 +804,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -817,7 +817,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -825,7 +825,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -838,7 +838,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -846,11 +846,11 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="24">
@@ -859,7 +859,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -867,11 +867,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.91</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="25">
@@ -880,7 +880,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -888,11 +888,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="26">
@@ -901,7 +901,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -909,11 +909,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.91</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="27">
@@ -922,7 +922,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -930,7 +930,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -951,7 +951,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -972,7 +972,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -985,7 +985,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -993,7 +993,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1077,11 +1077,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1098,11 +1098,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="36">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1203,11 +1203,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1224,11 +1224,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="42">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1266,11 +1266,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1287,11 +1287,11 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="45">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1308,11 +1308,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -1447,19 +1447,19 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="53">
@@ -1468,15 +1468,15 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1581,11 +1581,11 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1602,11 +1602,11 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="60">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1623,11 +1623,11 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.58</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="61">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1644,11 +1644,11 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="62">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1665,11 +1665,11 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="63">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1686,11 +1686,11 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1728,11 +1728,11 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="66">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -1783,19 +1783,19 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="69">
@@ -1804,19 +1804,19 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1825,19 +1825,19 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="71">
@@ -1846,19 +1846,19 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="74">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="76">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.58</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="77">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="78">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.58</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="79">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="82">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="85">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2161,19 +2161,19 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="87">
@@ -2182,19 +2182,19 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2203,19 +2203,19 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="89">
@@ -2224,19 +2224,19 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -2308,7 +2308,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -2316,11 +2316,11 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="94">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -2337,11 +2337,11 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -2358,11 +2358,11 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="96">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -2379,11 +2379,11 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -2400,11 +2400,11 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="98">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -2442,11 +2442,11 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="100">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -2539,19 +2539,19 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="105">
@@ -2560,19 +2560,19 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -2581,19 +2581,19 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="107">
@@ -2602,19 +2602,19 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -2673,11 +2673,11 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -2694,11 +2694,11 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="112">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -2715,11 +2715,11 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -2736,11 +2736,11 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="114">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -2757,11 +2757,11 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.58</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="115">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -2778,11 +2778,11 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="116">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -2820,11 +2820,11 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="118">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E119" t="n">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -2883,11 +2883,11 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.91</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="121">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -2904,11 +2904,11 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -2917,19 +2917,19 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="123">
@@ -2938,19 +2938,19 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -2959,19 +2959,19 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="125">
@@ -2980,19 +2980,19 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -3030,11 +3030,11 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="128">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -3093,11 +3093,11 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -3114,11 +3114,11 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="132">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -3135,11 +3135,11 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -3156,11 +3156,11 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="134">
@@ -3169,7 +3169,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -3177,11 +3177,11 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.58</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="135">
@@ -3190,7 +3190,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -3219,7 +3219,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -3282,7 +3282,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E139" t="n">
@@ -3295,11 +3295,11 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="141">
@@ -3316,11 +3316,11 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -3337,11 +3337,11 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="143">
@@ -3358,11 +3358,11 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -3379,7 +3379,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -3408,11 +3408,11 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="146">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -3429,7 +3429,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -3471,11 +3471,11 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E149" t="n">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E150" t="n">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -3534,11 +3534,11 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="152">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -3568,7 +3568,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E153" t="n">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -3597,7 +3597,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E155" t="n">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -3639,11 +3639,11 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -3652,7 +3652,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -3660,11 +3660,11 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="158">
@@ -3673,19 +3673,19 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="159">
@@ -3694,19 +3694,19 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E160" t="n">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E161" t="n">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -3765,7 +3765,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E162" t="n">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -3786,7 +3786,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E163" t="n">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -3807,11 +3807,11 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -3820,7 +3820,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E165" t="n">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -3849,11 +3849,11 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.58</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="167">
@@ -3862,7 +3862,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -3870,11 +3870,11 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="168">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -3891,11 +3891,11 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.58</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="169">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -3912,11 +3912,11 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -3925,7 +3925,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -3933,7 +3933,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E170" t="n">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -3954,7 +3954,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E171" t="n">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -3975,7 +3975,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E172" t="n">
@@ -3988,7 +3988,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E173" t="n">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E174" t="n">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E175" t="n">
@@ -4051,19 +4051,19 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="177">
@@ -4072,19 +4072,19 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E178" t="n">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E179" t="n">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E180" t="n">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E181" t="n">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E182" t="n">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E183" t="n">
@@ -4219,7 +4219,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -4227,7 +4227,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E184" t="n">
@@ -4240,7 +4240,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -4248,11 +4248,11 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -4269,7 +4269,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E186" t="n">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E187" t="n">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E188" t="n">
@@ -4324,7 +4324,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -4332,7 +4332,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E189" t="n">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -4353,11 +4353,11 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -4374,11 +4374,11 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="192">
@@ -4387,19 +4387,19 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -4408,19 +4408,19 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="194">
@@ -4429,7 +4429,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E194" t="n">
@@ -4450,7 +4450,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -4458,7 +4458,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -4479,11 +4479,11 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="197">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -4500,11 +4500,11 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E198" t="n">
@@ -4542,7 +4542,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E199" t="n">
@@ -4555,7 +4555,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -4563,11 +4563,11 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -4576,7 +4576,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -4584,11 +4584,11 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="202">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E202" t="n">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E203" t="n">
@@ -4639,7 +4639,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E204" t="n">
@@ -4660,7 +4660,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E205" t="n">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C206" t="n">
@@ -4689,11 +4689,11 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="207">
@@ -4702,7 +4702,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -4710,11 +4710,11 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -4731,7 +4731,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E208" t="n">
@@ -4752,7 +4752,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E209" t="n">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E210" t="n">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -4794,7 +4794,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E211" t="n">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -4815,7 +4815,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E212" t="n">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -4836,11 +4836,11 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="214">
@@ -4849,7 +4849,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -4857,11 +4857,11 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="215">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -4878,11 +4878,11 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E216" t="n">
@@ -4920,7 +4920,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E217" t="n">
@@ -4933,7 +4933,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -4941,11 +4941,11 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -4954,7 +4954,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -4962,11 +4962,11 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="220">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -4983,7 +4983,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E220" t="n">
@@ -4996,7 +4996,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E221" t="n">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -5025,7 +5025,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E222" t="n">
@@ -5038,7 +5038,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -5046,7 +5046,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E223" t="n">
@@ -5059,7 +5059,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -5122,7 +5122,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -5143,7 +5143,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -5155,7 +5155,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="230">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -5197,7 +5197,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -5206,7 +5206,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -5218,7 +5218,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="232">
@@ -5227,7 +5227,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C232" t="n">
@@ -5239,7 +5239,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="233">
@@ -5248,7 +5248,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C233" t="n">
@@ -5260,7 +5260,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="234">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C234" t="n">
@@ -5290,7 +5290,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C235" t="n">
@@ -5311,7 +5311,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C236" t="n">
@@ -5332,7 +5332,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C237" t="n">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C238" t="n">
@@ -5374,7 +5374,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C239" t="n">
@@ -5395,7 +5395,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C240" t="n">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C241" t="n">
@@ -5453,24 +5453,24 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Company 02</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Company 06</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Company 18</t>
@@ -5483,62 +5483,62 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Company 01</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Company 03</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Company 11</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Company 07</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Company 09</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Company 15</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Company 17</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Company 11</t>
         </is>
       </c>
     </row>
@@ -5548,82 +5548,82 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>student 13</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>student 14</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>student 15</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>student 16</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>student 10</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -5635,92 +5635,92 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>student 13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>student 15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>student 16</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
           <t>student 17</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>student 01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>student 02</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>student 08</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>student 11</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>student 12</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>student 15</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>student 16</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>student 13</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>student 14</t>
         </is>
       </c>
     </row>
@@ -5730,84 +5730,92 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>student 13</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>student 16</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>student 15</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>student 05</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>student 06</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>student 16</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>student 15</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>student 04</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>student 08</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>student 07</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>student 12</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>student 11</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>student 10</t>
         </is>
       </c>
     </row>
@@ -5817,86 +5825,94 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>student 13</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>student 15</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>student 16</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>student 04</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>student 03</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
         <is>
           <t>student 09</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>student 10</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>student 12</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>student 11</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>student 13</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>student 14</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -5904,92 +5920,92 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>student 16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>student 15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>student 14</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>student 13</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
         <is>
           <t>student 12</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>student 11</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>student 15</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>student 16</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>student 06</t>
         </is>
       </c>
     </row>
@@ -5999,92 +6015,92 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>student 01</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>student 02</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>student 13</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>student 07</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>student 10</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>student 11</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>student 12</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>student 13</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>student 14</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
       <c r="R7" t="inlineStr">
         <is>
+          <t>student 15</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>student 16</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>student 15</t>
         </is>
       </c>
     </row>
@@ -6094,92 +6110,92 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>student 12</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>student 11</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>student 16</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>student 15</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>student 13</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>student 14</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>student 18</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>student 15</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>student 16</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>student 05</t>
         </is>
       </c>
     </row>
@@ -6189,92 +6205,92 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>student 15</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>student 16</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>student 13</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
           <t>student 18</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>student 17</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>student 13</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>student 14</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>student 16</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>student 15</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>student 12</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>student 11</t>
         </is>
       </c>
     </row>
@@ -6284,92 +6300,84 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>student 16</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>student 15</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>student 16</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>student 13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>student 17</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>student 18</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>student 01</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
         <is>
           <t>student 05</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>student 06</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>student 10</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>student 09</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>student 14</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>student 13</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>student 11</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>student 12</t>
         </is>
       </c>
     </row>
@@ -6379,92 +6387,92 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>student 13</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
           <t>student 11</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>student 12</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>student 14</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>student 13</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>student 16</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>student 15</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>student 07</t>
         </is>
       </c>
     </row>
@@ -6474,94 +6482,78 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>student 16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>student 15</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>student 13</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
           <t>student 02</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>student 01</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>student 12</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>student 11</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>student 14</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>student 13</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>student 15</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>student 16</t>
-        </is>
-      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -6569,76 +6561,84 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>student 15</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>student 16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>student 06</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
         <is>
           <t>student 11</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>student 12</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>student 16</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>student 15</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>student 14</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>student 13</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>student 03</t>
         </is>
       </c>
     </row>
@@ -6648,76 +6648,76 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>student 03</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>student 02</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>student 01</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>student 05</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>student 06</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
         <is>
           <t>student 12</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>student 11</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>student 15</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>student 16</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
           <t>student 14</t>
@@ -6735,92 +6735,92 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>student 15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>student 16</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>student 15</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>student 05</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>student 13</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>student 14</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>student 13</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>student 11</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>student 12</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>student 09</t>
         </is>
       </c>
     </row>
@@ -6846,92 +6846,92 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>student 13</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>student 14</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>student 15</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>student 16</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>student 17</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>student 18</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>student 11</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>student 12</t>
         </is>
       </c>
     </row>
@@ -6941,24 +6941,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Company 02</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Company 06</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>Company 18</t>
@@ -6971,52 +6971,52 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
           <t>Company 01</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Company 03</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Company 11</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>Company 07</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>Company 09</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Company 15</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Company 17</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
@@ -7028,92 +7028,92 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Company 13</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Company 11</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>Company 15</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Company 17</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>Company 02</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Company 04</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>Company 12</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Company 03</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Company 07</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Company 09</t>
         </is>
       </c>
     </row>
@@ -7121,86 +7121,94 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Company 03</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Company 11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Company 15</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>Company 08</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>Company 16</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>Company 14</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>Company 12</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>Company 01</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Company 02</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Company 09</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Company 07</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Company 11</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Company 17</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Company 15</t>
         </is>
       </c>
     </row>
@@ -7210,84 +7218,92 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Company 11</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>Company 15</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Company 17</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>Company 08</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>Company 10</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>Company 16</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Company 02</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Company 03</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>Company 18</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Company 09</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>Company 07</t>
         </is>
       </c>
     </row>
@@ -7297,92 +7313,92 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Company 11</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Company 15</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
           <t>Company 06</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>Company 02</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Company 07</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Company 09</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Company 03</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Company 11</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Company 17</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Company 15</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>Company 14</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>Company 16</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Company 10</t>
         </is>
       </c>
     </row>
@@ -7392,92 +7408,92 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>Company 07</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>Company 09</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>Company 11</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>Company 13</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>Company 15</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Company 17</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>Company 02</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Company 03</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Company 05</t>
         </is>
       </c>
     </row>
@@ -7487,92 +7503,92 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Company 10</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Company 08</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Company 16</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Company 14</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>Company 12</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>Company 05</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>Company 03</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>Company 07</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Company 09</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>Company 11</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>Company 15</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Company 17</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Company 02</t>
         </is>
       </c>
     </row>
@@ -7582,92 +7598,92 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>Company 03</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>Company 05</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Company 11</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Company 15</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>Company 17</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Company 15</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Company 02</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Company 07</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Company 09</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Company 11</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Company 13</t>
         </is>
       </c>
     </row>
@@ -7677,92 +7693,84 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Company 15</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>Company 17</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Company 15</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
         <is>
           <t>Company 02</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>Company 06</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>Company 10</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>Company 08</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>Company 18</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>Company 04</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Company 03</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Company 09</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Company 07</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>Company 11</t>
         </is>
       </c>
     </row>
@@ -7772,14 +7780,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Company 08</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>Company 14</t>
@@ -7802,52 +7810,52 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>Company 03</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
       <c r="L11" t="inlineStr">
         <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
           <t>Company 09</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Company 07</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr">
         <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
           <t>Company 11</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
+          <t>Company 15</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
           <t>Company 17</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Company 15</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -7877,82 +7885,66 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>Company 11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Company 13</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Company 11</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Company 15</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
           <t>Company 02</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
         <is>
           <t>Company 10</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>Company 08</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
         <is>
           <t>Company 16</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>Company 04</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>Company 18</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
       <c r="R12" t="inlineStr">
         <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>Company 05</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Company 03</t>
         </is>
       </c>
     </row>
@@ -7962,12 +7954,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -7982,12 +7974,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -8002,36 +7994,44 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>Company 11</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 14</t>
         </is>
       </c>
     </row>
@@ -8041,84 +8041,84 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
           <t>Company 07</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Company 09</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Company 15</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>Company 08</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>Company 10</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Company 02</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Company 03</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>Company 01</t>
         </is>
       </c>
     </row>
@@ -8128,92 +8128,92 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>Company 05</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>Company 03</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Company 11</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Company 15</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>Company 06</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Company 02</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>Company 10</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>Company 08</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Company 07</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Company 09</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Company 11</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>Company 15</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Company 17</t>
         </is>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -397,7 +397,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -418,7 +418,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -439,7 +439,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -460,7 +460,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -481,7 +481,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -502,7 +502,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="9">
@@ -544,7 +544,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -565,7 +565,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -586,7 +586,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="12">
@@ -607,7 +607,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.91</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="13">
@@ -628,7 +628,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -649,7 +649,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -691,7 +691,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -712,7 +712,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -733,19 +733,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="19">
@@ -754,19 +754,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -783,7 +783,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -804,7 +804,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -817,7 +817,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -825,7 +825,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -838,7 +838,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -846,11 +846,11 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24">
@@ -859,7 +859,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -867,11 +867,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.58</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="25">
@@ -880,7 +880,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -888,11 +888,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="26">
@@ -901,7 +901,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -909,11 +909,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.58</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="27">
@@ -922,7 +922,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -930,7 +930,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -943,7 +943,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -951,11 +951,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -964,7 +964,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -972,11 +972,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="30">
@@ -985,7 +985,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -993,7 +993,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1077,11 +1077,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="35">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1098,11 +1098,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1111,19 +1111,19 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="37">
@@ -1132,19 +1132,19 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1245,11 +1245,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1266,11 +1266,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="44">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1287,11 +1287,11 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.58</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="45">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1308,11 +1308,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="46">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1329,11 +1329,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.58</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="47">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1455,11 +1455,11 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.91</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="53">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1476,11 +1476,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1489,19 +1489,19 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="55">
@@ -1510,19 +1510,19 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1623,11 +1623,11 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1665,11 +1665,11 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.58</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="63">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1728,11 +1728,11 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -1867,19 +1867,19 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="73">
@@ -1888,15 +1888,15 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="80">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="84">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -2182,7 +2182,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -2245,19 +2245,19 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="91">
@@ -2266,19 +2266,19 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -2308,7 +2308,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -2358,11 +2358,11 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="96">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -2379,11 +2379,11 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="97">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -2442,11 +2442,11 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -2547,11 +2547,11 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -2568,11 +2568,11 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="106">
@@ -2581,11 +2581,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -2602,11 +2602,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="108">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -2673,11 +2673,11 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="111">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -2694,11 +2694,11 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -2715,11 +2715,11 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="113">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -2757,11 +2757,11 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -2820,11 +2820,11 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E119" t="n">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -2917,11 +2917,11 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -2938,11 +2938,11 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="124">
@@ -2959,11 +2959,11 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -2980,11 +2980,11 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="126">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="128">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="131">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="132">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="133">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -3169,7 +3169,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -3181,7 +3181,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.91</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="135">
@@ -3190,7 +3190,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -3211,7 +3211,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -3232,7 +3232,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -3295,19 +3295,19 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -3316,19 +3316,19 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="142">
@@ -3337,19 +3337,19 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -3358,19 +3358,19 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="144">
@@ -3379,7 +3379,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -3408,11 +3408,11 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="146">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -3429,7 +3429,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -3471,11 +3471,11 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="149">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -3492,11 +3492,11 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -3513,11 +3513,11 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0.58</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="151">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -3534,11 +3534,11 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -3568,7 +3568,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E153" t="n">
@@ -3597,7 +3597,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E155" t="n">
@@ -3631,15 +3631,15 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E156" t="n">
@@ -3652,15 +3652,15 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E157" t="n">
@@ -3673,19 +3673,19 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -3694,19 +3694,19 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="160">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E160" t="n">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -3744,11 +3744,11 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="162">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -3765,11 +3765,11 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="163">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -3786,11 +3786,11 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="164">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -3807,11 +3807,11 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="165">
@@ -3820,7 +3820,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -3828,11 +3828,11 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -3849,11 +3849,11 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.91</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="167">
@@ -3862,7 +3862,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -3870,11 +3870,11 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -3891,11 +3891,11 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.91</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="169">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -3912,7 +3912,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E169" t="n">
@@ -3925,7 +3925,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -3933,7 +3933,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E170" t="n">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -3954,7 +3954,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E171" t="n">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -3975,11 +3975,11 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -3988,7 +3988,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -3996,11 +3996,11 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="174">
@@ -4009,19 +4009,19 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -4030,19 +4030,19 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="176">
@@ -4051,19 +4051,19 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -4072,19 +4072,19 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="178">
@@ -4093,7 +4093,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E178" t="n">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E179" t="n">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E180" t="n">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -4164,11 +4164,11 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="182">
@@ -4177,7 +4177,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E182" t="n">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -4206,11 +4206,11 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -4227,7 +4227,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E184" t="n">
@@ -4248,7 +4248,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E185" t="n">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -4269,7 +4269,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E186" t="n">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E187" t="n">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E188" t="n">
@@ -4332,7 +4332,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E189" t="n">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -4353,11 +4353,11 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="191">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -4374,11 +4374,11 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E192" t="n">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E193" t="n">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E194" t="n">
@@ -4458,7 +4458,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -4479,11 +4479,11 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -4500,11 +4500,11 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="198">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E198" t="n">
@@ -4534,7 +4534,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -4542,11 +4542,11 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -4555,7 +4555,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -4563,11 +4563,11 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="201">
@@ -4576,7 +4576,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -4584,11 +4584,11 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -4597,7 +4597,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -4605,11 +4605,11 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -4618,7 +4618,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -4626,11 +4626,11 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="204">
@@ -4639,7 +4639,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E204" t="n">
@@ -4660,7 +4660,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E205" t="n">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C206" t="n">
@@ -4689,7 +4689,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E206" t="n">
@@ -4702,7 +4702,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E207" t="n">
@@ -4723,7 +4723,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C208" t="n">
@@ -4731,7 +4731,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E208" t="n">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -4752,7 +4752,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E209" t="n">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E210" t="n">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -4794,7 +4794,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E211" t="n">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -4815,7 +4815,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E212" t="n">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E213" t="n">
@@ -4849,7 +4849,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -4857,7 +4857,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E214" t="n">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -4878,11 +4878,11 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="216">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E216" t="n">
@@ -4920,7 +4920,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E217" t="n">
@@ -4933,7 +4933,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -4941,11 +4941,11 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="219">
@@ -4954,7 +4954,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -4962,7 +4962,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E219" t="n">
@@ -4983,7 +4983,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E220" t="n">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E221" t="n">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -5025,7 +5025,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E222" t="n">
@@ -5038,7 +5038,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -5046,7 +5046,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E223" t="n">
@@ -5059,19 +5059,19 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="225">
@@ -5080,19 +5080,19 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E226" t="n">
@@ -5122,7 +5122,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -5130,7 +5130,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E227" t="n">
@@ -5143,7 +5143,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E228" t="n">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -5172,11 +5172,11 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="230">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -5193,7 +5193,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E230" t="n">
@@ -5206,7 +5206,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -5214,11 +5214,11 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="232">
@@ -5235,7 +5235,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E232" t="n">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E233" t="n">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C234" t="n">
@@ -5277,7 +5277,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E234" t="n">
@@ -5290,7 +5290,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C235" t="n">
@@ -5298,7 +5298,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E235" t="n">
@@ -5311,7 +5311,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C236" t="n">
@@ -5319,7 +5319,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E236" t="n">
@@ -5332,7 +5332,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C237" t="n">
@@ -5340,7 +5340,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E237" t="n">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C238" t="n">
@@ -5361,11 +5361,11 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -5374,7 +5374,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C239" t="n">
@@ -5382,11 +5382,11 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E239" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="240">
@@ -5395,7 +5395,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C240" t="n">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E240" t="n">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C241" t="n">
@@ -5424,7 +5424,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E241" t="n">
@@ -5453,82 +5453,82 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Company 08</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Company 02</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Company 18</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Company 03</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Company 11</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Company 07</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Company 09</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -5626,8 +5626,16 @@
           <t>student 16</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>student 18</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -5635,92 +5643,92 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>student 15</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>student 16</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>student 13</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
           <t>student 11</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>student 12</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>student 14</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>student 13</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>student 15</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>student 16</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>student 08</t>
         </is>
       </c>
     </row>
@@ -5730,92 +5738,92 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>student 13</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
           <t>student 14</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>student 13</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>student 12</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>student 11</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>student 16</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>student 15</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>student 07</t>
         </is>
       </c>
     </row>
@@ -5825,92 +5833,92 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>student 13</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>student 14</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>student 11</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>student 12</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>student 15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>student 16</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>student 18</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>student 17</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>student 15</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>student 16</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>student 01</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>student 02</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>student 04</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>student 03</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>student 07</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>student 10</t>
         </is>
       </c>
     </row>
@@ -5920,92 +5928,92 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>student 06</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>student 05</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>student 13</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>student 15</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>student 16</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>student 15</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>student 14</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>student 13</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>student 12</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>student 11</t>
         </is>
       </c>
     </row>
@@ -6025,84 +6033,68 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>student 13</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>student 15</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>student 16</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>student 18</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>student 17</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>student 03</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>student 13</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>student 14</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>student 11</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>student 12</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>student 15</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>student 16</t>
-        </is>
-      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -6110,92 +6102,84 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>student 16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>student 15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>student 04</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>student 02</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>student 01</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>student 08</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>student 12</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>student 11</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>student 16</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>student 15</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>student 14</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>student 13</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>student 18</t>
         </is>
       </c>
     </row>
@@ -6205,92 +6189,92 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>student 16</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>student 15</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>student 03</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>student 04</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>student 01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>student 07</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>student 08</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>student 11</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>student 12</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>student 15</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>student 16</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>student 13</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>student 14</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>student 17</t>
         </is>
       </c>
     </row>
@@ -6300,86 +6284,86 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>student 16</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>student 15</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>student 13</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>student 14</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -6387,92 +6371,92 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>student 13</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>student 16</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>student 15</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>student 02</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>student 01</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>student 06</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>student 07</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>student 08</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>student 14</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>student 13</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>student 11</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>student 12</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>student 16</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>student 15</t>
         </is>
       </c>
     </row>
@@ -6482,78 +6466,94 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>student 12</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>student 11</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>student 13</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
         <is>
           <t>student 16</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>student 15</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>student 13</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>student 14</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>student 17</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -6561,84 +6561,84 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>student 05</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 13</t>
         </is>
       </c>
     </row>
@@ -6648,84 +6648,92 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>student 13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>student 16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>student 15</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>student 17</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>student 18</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>student 04</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
         <is>
           <t>student 09</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>student 10</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>student 12</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>student 11</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>student 14</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>student 13</t>
         </is>
       </c>
     </row>
@@ -6735,92 +6743,84 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>student 13</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>student 15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>student 16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>student 18</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>student 17</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>student 15</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>student 16</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>student 01</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>student 02</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>student 04</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>student 03</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>student 06</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>student 05</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>student 12</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>student 11</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>student 10</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>student 09</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>student 13</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>student 14</t>
         </is>
       </c>
     </row>
@@ -6941,86 +6941,94 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Company 08</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Company 02</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>Company 18</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
           <t>Company 03</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
           <t>Company 11</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Company 07</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Company 09</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Company 15</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -7028,92 +7036,92 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>Company 07</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Company 09</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Company 11</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Company 15</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>Company 05</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Company 03</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Company 11</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Company 17</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Company 15</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
         <is>
           <t>Company 14</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>Company 16</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Company 02</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Company 12</t>
         </is>
       </c>
     </row>
@@ -7123,92 +7131,92 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>Company 05</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>Company 03</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>Company 07</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>Company 09</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>Company 11</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>Company 15</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>Company 17</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>Company 06</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Company 02</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Company 01</t>
         </is>
       </c>
     </row>
@@ -7218,92 +7226,92 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Company 03</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Company 11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Company 15</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
           <t>Company 01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Company 09</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Company 07</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Company 11</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Company 17</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Company 15</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Company 02</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>Company 18</t>
         </is>
       </c>
     </row>
@@ -7313,92 +7321,92 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Company 04</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>Company 12</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>Company 07</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Company 09</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>Company 11</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>Company 13</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>Company 15</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Company 17</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Company 03</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>Company 06</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>Company 02</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Company 16</t>
         </is>
       </c>
     </row>
@@ -7408,92 +7416,76 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Company 11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>Company 14</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>Company 16</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>Company 18</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Company 07</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Company 09</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Company 11</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>Company 03</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>Company 05</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Company 17</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Company 15</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Company 02</t>
         </is>
       </c>
     </row>
@@ -7503,92 +7495,84 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Company 06</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Company 02</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Company 11</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Company 15</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>Company 10</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>Company 16</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>Company 14</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Company 03</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Company 09</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Company 07</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Company 11</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Company 17</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Company 15</t>
         </is>
       </c>
     </row>
@@ -7598,92 +7582,92 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Company 11</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Company 15</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
           <t>Company 02</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>Company 06</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>Company 08</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Company 03</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Company 07</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Company 09</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Company 11</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Company 15</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Company 17</t>
         </is>
       </c>
     </row>
@@ -7693,86 +7677,86 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
           <t>Company 01</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Company 03</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Company 11</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>Company 07</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>Company 09</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Company 15</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Company 17</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Company 02</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -7780,92 +7764,92 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Company 11</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Company 15</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
           <t>Company 10</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>Company 04</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>Company 12</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Company 03</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Company 07</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Company 09</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Company 11</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Company 15</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Company 17</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Company 02</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>Company 06</t>
         </is>
       </c>
     </row>
@@ -7875,76 +7859,92 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
           <t>Company 09</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Company 07</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>Company 11</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>Company 13</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Company 02</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 17</t>
         </is>
       </c>
     </row>
@@ -7954,84 +7954,84 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>Company 12</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Company 01</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>Company 04</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Company 02</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>Company 09</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>Company 07</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Company 11</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Company 15</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>Company 17</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Company 15</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr">
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>Company 08</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>Company 10</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Company 14</t>
         </is>
       </c>
     </row>
@@ -8041,84 +8041,92 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Company 11</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Company 15</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
           <t>Company 16</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Company 02</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Company 03</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>Company 18</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Company 09</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Company 07</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Company 15</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Company 17</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>Company 10</t>
         </is>
       </c>
     </row>
@@ -8128,92 +8136,84 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Company 15</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
           <t>Company 18</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>Company 04</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Company 03</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Company 09</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Company 07</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Company 11</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Company 17</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Company 15</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Company 02</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Company 08</t>
         </is>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -405,7 +405,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -426,7 +426,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -447,7 +447,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -468,7 +468,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -489,7 +489,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -510,7 +510,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -523,7 +523,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -531,7 +531,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -544,7 +544,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -552,11 +552,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -565,7 +565,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -573,7 +573,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -586,7 +586,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -594,11 +594,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -607,7 +607,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -615,7 +615,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -628,7 +628,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -636,7 +636,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -649,7 +649,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -657,7 +657,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -678,7 +678,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -691,7 +691,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -699,7 +699,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -712,7 +712,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -720,7 +720,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -733,7 +733,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -741,11 +741,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.58</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="19">
@@ -754,7 +754,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -762,11 +762,11 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20">
@@ -783,7 +783,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -804,7 +804,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -825,7 +825,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -846,7 +846,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -859,7 +859,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -867,11 +867,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -880,7 +880,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -888,11 +888,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="26">
@@ -901,7 +901,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -909,11 +909,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -922,7 +922,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -930,11 +930,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="28">
@@ -943,7 +943,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -951,11 +951,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="29">
@@ -964,7 +964,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -972,11 +972,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="30">
@@ -993,7 +993,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1287,11 +1287,11 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1308,11 +1308,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="46">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1749,11 +1749,11 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1770,11 +1770,11 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="68">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -1867,19 +1867,19 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1888,15 +1888,15 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="77">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="79">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -2182,7 +2182,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -2245,11 +2245,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -2266,11 +2266,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="92">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -2308,7 +2308,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -2337,11 +2337,11 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="95">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -2358,11 +2358,11 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -2421,11 +2421,11 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -2442,11 +2442,11 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="100">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -2547,11 +2547,11 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="105">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -2568,11 +2568,11 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -2673,11 +2673,11 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -2694,11 +2694,11 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="112">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -2715,11 +2715,11 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.91</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="113">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -2736,11 +2736,11 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="114">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -2757,11 +2757,11 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="115">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -2778,11 +2778,11 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -2820,7 +2820,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -2841,11 +2841,11 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -2862,11 +2862,11 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="120">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E125" t="n">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -3030,11 +3030,11 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="128">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -3051,11 +3051,11 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="129">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E130" t="n">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -3114,11 +3114,11 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -3156,11 +3156,11 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="134">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -3211,7 +3211,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -3219,7 +3219,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -3232,7 +3232,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -3282,7 +3282,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E139" t="n">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -3324,7 +3324,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -3345,7 +3345,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E145" t="n">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -3429,7 +3429,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -3492,11 +3492,11 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="150">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -3513,11 +3513,11 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0.91</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="151">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -3568,7 +3568,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E153" t="n">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -3597,7 +3597,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E155" t="n">
@@ -3631,19 +3631,19 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="157">
@@ -3652,19 +3652,19 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -3702,7 +3702,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E159" t="n">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E160" t="n">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -3744,11 +3744,11 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="162">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -3765,11 +3765,11 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -3786,11 +3786,11 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="164">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -3807,11 +3807,11 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.58</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="165">
@@ -3820,7 +3820,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -3828,11 +3828,11 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="166">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -3849,11 +3849,11 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.58</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="167">
@@ -3862,7 +3862,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -3870,7 +3870,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E167" t="n">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E168" t="n">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -3912,7 +3912,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E169" t="n">
@@ -3925,7 +3925,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -3933,7 +3933,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E170" t="n">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -3954,7 +3954,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E171" t="n">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -3975,11 +3975,11 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="173">
@@ -3988,7 +3988,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -3996,11 +3996,11 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -4009,19 +4009,19 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="175">
@@ -4030,19 +4030,19 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E176" t="n">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E177" t="n">
@@ -4093,7 +4093,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E178" t="n">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E179" t="n">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E180" t="n">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E181" t="n">
@@ -4177,7 +4177,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -4185,11 +4185,11 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0.91</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="183">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -4206,11 +4206,11 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="184">
@@ -4219,7 +4219,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -4227,7 +4227,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E184" t="n">
@@ -4240,7 +4240,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -4248,7 +4248,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E185" t="n">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -4269,7 +4269,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E186" t="n">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E187" t="n">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E188" t="n">
@@ -4324,7 +4324,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -4332,7 +4332,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E189" t="n">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -4353,7 +4353,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E190" t="n">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -4374,7 +4374,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E191" t="n">
@@ -4387,15 +4387,15 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E192" t="n">
@@ -4408,15 +4408,15 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E193" t="n">
@@ -4429,7 +4429,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -4450,7 +4450,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -4525,7 +4525,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -4534,7 +4534,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="200">
@@ -4555,7 +4555,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -4576,7 +4576,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="202">
@@ -4597,7 +4597,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="203">
@@ -4618,7 +4618,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -4639,7 +4639,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>0.58</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="205">
@@ -4660,7 +4660,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C206" t="n">
@@ -4702,7 +4702,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -4723,19 +4723,19 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="209">
@@ -4744,19 +4744,19 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E210" t="n">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -4794,7 +4794,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E211" t="n">
@@ -4815,7 +4815,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E212" t="n">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E213" t="n">
@@ -4857,7 +4857,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E214" t="n">
@@ -4878,7 +4878,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E215" t="n">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E216" t="n">
@@ -4920,7 +4920,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E217" t="n">
@@ -4933,7 +4933,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -4941,7 +4941,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E218" t="n">
@@ -4954,7 +4954,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -4962,11 +4962,11 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -4983,7 +4983,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E220" t="n">
@@ -4996,7 +4996,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E221" t="n">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -5025,11 +5025,11 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -5038,7 +5038,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -5046,11 +5046,11 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="224">
@@ -5059,19 +5059,19 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -5080,19 +5080,19 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="226">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E226" t="n">
@@ -5122,7 +5122,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -5130,7 +5130,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E227" t="n">
@@ -5143,7 +5143,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E228" t="n">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E229" t="n">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -5193,11 +5193,11 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="231">
@@ -5206,7 +5206,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -5214,11 +5214,11 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="232">
@@ -5235,7 +5235,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E232" t="n">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E233" t="n">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C234" t="n">
@@ -5277,7 +5277,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E234" t="n">
@@ -5290,7 +5290,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C235" t="n">
@@ -5298,7 +5298,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E235" t="n">
@@ -5311,7 +5311,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C236" t="n">
@@ -5319,7 +5319,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E236" t="n">
@@ -5332,7 +5332,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C237" t="n">
@@ -5340,7 +5340,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E237" t="n">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C238" t="n">
@@ -5361,11 +5361,11 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="239">
@@ -5374,7 +5374,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C239" t="n">
@@ -5382,11 +5382,11 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E239" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -5395,7 +5395,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C240" t="n">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E240" t="n">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C241" t="n">
@@ -5424,7 +5424,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E241" t="n">
@@ -5483,62 +5483,62 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Company 11</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Company 15</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>Company 04</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Company 18</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Company 03</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Company 09</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Company 07</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Company 11</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Company 17</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Company 15</t>
         </is>
       </c>
     </row>
@@ -5548,92 +5548,92 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>student 13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>student 15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>student 16</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>student 01</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>student 02</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>student 03</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>student 04</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>student 05</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>student 06</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>student 07</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>student 08</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>student 09</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>student 10</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>student 11</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>student 12</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>student 13</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>student 14</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>student 15</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>student 16</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>student 18</t>
         </is>
       </c>
     </row>
@@ -5643,92 +5643,92 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>student 13</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>student 16</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
           <t>student 15</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>student 16</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>student 04</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>student 03</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>student 13</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>student 14</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>student 12</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>student 11</t>
         </is>
       </c>
     </row>
@@ -5738,92 +5738,92 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>student 13</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>student 15</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>student 16</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
           <t>student 18</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>student 08</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>student 07</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>student 12</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>student 11</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>student 13</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>student 14</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>student 16</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>student 15</t>
         </is>
       </c>
     </row>
@@ -5833,92 +5833,84 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
           <t>student 11</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>student 12</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
         <is>
           <t>student 13</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>student 14</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>student 15</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>student 16</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>student 09</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>student 07</t>
         </is>
       </c>
     </row>
@@ -5928,92 +5920,92 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>student 15</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>student 16</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>student 17</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>student 13</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>student 02</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>student 14</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>student 13</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>student 12</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>student 11</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>student 15</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>student 16</t>
         </is>
       </c>
     </row>
@@ -6023,78 +6015,86 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>student 05</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>student 04</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -6102,84 +6102,84 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>student 13</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>student 15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>student 16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
           <t>student 06</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>student 16</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>student 15</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>student 17</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>student 11</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>student 12</t>
         </is>
       </c>
     </row>
@@ -6189,92 +6189,92 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>student 13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>student 16</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>student 15</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
         <is>
           <t>student 17</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>student 18</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>student 11</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>student 12</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>student 13</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>student 14</t>
         </is>
       </c>
     </row>
@@ -6284,86 +6284,94 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>student 16</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>student 15</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>student 04</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>student 13</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>student 02</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>student 01</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>student 12</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>student 11</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>student 16</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>student 15</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>student 14</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>student 13</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -6371,92 +6379,92 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
           <t>student 13</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>student 14</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>student 12</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>student 11</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>student 15</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>student 16</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>student 15</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>student 05</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>student 06</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>student 08</t>
         </is>
       </c>
     </row>
@@ -6466,92 +6474,92 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>student 13</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
           <t>student 02</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>student 06</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>student 05</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>student 08</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>student 07</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>student 12</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>student 11</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>student 14</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>student 13</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>student 16</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>student 15</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>student 17</t>
         </is>
       </c>
     </row>
@@ -6561,84 +6569,84 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>student 03</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>student 10</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>student 09</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 05</t>
         </is>
       </c>
     </row>
@@ -6648,92 +6656,76 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>student 12</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>student 11</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>student 14</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>student 13</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>student 15</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>student 16</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>student 15</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>student 10</t>
         </is>
       </c>
     </row>
@@ -6743,84 +6735,92 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
           <t>student 14</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>student 13</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>student 16</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
         <is>
           <t>student 15</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>student 16</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
         <is>
           <t>student 07</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>student 08</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>student 09</t>
         </is>
       </c>
     </row>
@@ -6846,92 +6846,92 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>student 13</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>student 15</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>student 16</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>student 01</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>student 02</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>student 03</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>student 04</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>student 05</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>student 06</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>student 07</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>student 08</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>student 09</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>student 10</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>student 11</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>student 12</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>student 13</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>student 14</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>student 15</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>student 16</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>student 18</t>
         </is>
       </c>
     </row>
@@ -6971,62 +6971,62 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Company 11</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Company 15</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
           <t>Company 04</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>Company 18</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Company 03</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Company 09</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Company 07</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Company 11</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Company 17</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Company 15</t>
         </is>
       </c>
     </row>
@@ -7036,92 +7036,92 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Company 11</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Company 15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
           <t>Company 04</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Company 12</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>Company 07</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>Company 09</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Company 11</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Company 15</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Company 17</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Company 03</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Company 02</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Company 16</t>
         </is>
       </c>
     </row>
@@ -7131,92 +7131,92 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Company 11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Company 15</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
           <t>Company 10</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>Company 14</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Company 16</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>Company 04</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>Company 12</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>Company 01</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Company 03</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Company 07</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Company 09</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Company 11</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Company 15</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Company 17</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Company 02</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Company 06</t>
         </is>
       </c>
     </row>
@@ -7226,92 +7226,84 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Company 15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
           <t>Company 05</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Company 03</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Company 07</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Company 09</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Company 11</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Company 15</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Company 17</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>Company 04</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Company 02</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>Company 01</t>
         </is>
       </c>
     </row>
@@ -7321,92 +7313,92 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Company 15</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>Company 14</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Company 16</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>Company 18</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>Company 08</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>Company 07</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>Company 09</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>Company 11</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>Company 13</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Company 03</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Company 17</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Company 15</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Company 02</t>
         </is>
       </c>
     </row>
@@ -7416,76 +7408,84 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Company 15</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
           <t>Company 09</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>Company 07</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>Company 11</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Company 02</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Company 03</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Company 05</t>
         </is>
       </c>
     </row>
@@ -7493,86 +7493,86 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>Company 12</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Company 02</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>Company 09</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Company 07</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Company 11</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Company 15</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>Company 17</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Company 15</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Company 14</t>
         </is>
       </c>
     </row>
@@ -7582,92 +7582,92 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>Company 18</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>Company 01</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>Company 12</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Company 03</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>Company 09</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>Company 07</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Company 11</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>Company 13</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Company 11</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>Company 17</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>Company 15</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Company 02</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Company 08</t>
         </is>
       </c>
     </row>
@@ -7677,86 +7677,94 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Company 11</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Company 15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>Company 08</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Company 02</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>Company 18</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>Company 04</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>Company 14</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>Company 03</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Company 11</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>Company 07</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Company 09</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -7774,82 +7782,82 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Company 11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Company 15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
           <t>Company 05</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>Company 03</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Company 11</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Company 17</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Company 15</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Company 02</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>Company 12</t>
         </is>
       </c>
     </row>
@@ -7859,92 +7867,92 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Company 02</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Company 11</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Company 15</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
           <t>Company 14</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>Company 16</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Company 03</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Company 07</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Company 09</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Company 11</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Company 15</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Company 17</t>
         </is>
       </c>
     </row>
@@ -7954,84 +7962,84 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Company 11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
           <t>Company 16</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Company 02</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>Company 03</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>Company 05</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Company 09</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Company 07</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Company 15</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Company 17</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Company 10</t>
         </is>
       </c>
     </row>
@@ -8041,94 +8049,78 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>Company 03</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>Company 05</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>Company 09</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>Company 07</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>Company 11</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>Company 13</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Company 17</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Company 15</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
         <is>
           <t>Company 02</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -8136,84 +8128,92 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Company 11</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Company 15</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
           <t>Company 01</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>Company 12</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Company 03</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Company 07</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Company 09</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Company 15</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Company 17</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Company 02</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Company 04</t>
         </is>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -397,7 +397,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -405,7 +405,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -418,7 +418,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -426,7 +426,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -439,7 +439,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -447,7 +447,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -460,7 +460,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -468,7 +468,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -481,7 +481,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -489,7 +489,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -502,7 +502,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -510,7 +510,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -531,7 +531,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -552,7 +552,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -565,7 +565,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -573,7 +573,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -586,7 +586,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -594,7 +594,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -607,7 +607,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -615,11 +615,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -628,7 +628,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -636,11 +636,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="14">
@@ -649,7 +649,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -657,7 +657,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -678,7 +678,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -699,7 +699,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -720,7 +720,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -733,19 +733,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -754,15 +754,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -775,7 +775,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -783,7 +783,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -796,7 +796,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -804,7 +804,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -817,7 +817,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -825,7 +825,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -838,7 +838,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -846,7 +846,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -859,7 +859,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -867,11 +867,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="25">
@@ -880,7 +880,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -888,11 +888,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="26">
@@ -901,7 +901,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -909,11 +909,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="27">
@@ -922,7 +922,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -930,11 +930,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="28">
@@ -943,7 +943,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -951,7 +951,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -964,7 +964,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -972,11 +972,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -985,7 +985,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -993,7 +993,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1111,19 +1111,19 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1132,19 +1132,19 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="38">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="43">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="45">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.91</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="47">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1489,19 +1489,19 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1510,19 +1510,19 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="56">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1644,11 +1644,11 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="62">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1749,11 +1749,11 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="67">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1770,11 +1770,11 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1917,7 +1917,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1959,11 +1959,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1980,11 +1980,11 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="78">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -2001,11 +2001,11 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -2022,11 +2022,11 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="80">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -2043,11 +2043,11 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="81">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -2064,11 +2064,11 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -2085,11 +2085,11 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.58</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="83">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -2182,7 +2182,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2190,7 +2190,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -2203,19 +2203,19 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -2224,19 +2224,19 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="90">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -2308,7 +2308,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -2316,11 +2316,11 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="94">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -2337,11 +2337,11 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -2358,11 +2358,11 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="96">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -2379,11 +2379,11 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.91</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="97">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -2400,11 +2400,11 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="98">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -2421,11 +2421,11 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="99">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -2442,11 +2442,11 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -2568,7 +2568,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -2673,11 +2673,11 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="111">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -2694,11 +2694,11 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -2715,11 +2715,11 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.58</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="113">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -2736,11 +2736,11 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="114">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -2757,11 +2757,11 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -2778,11 +2778,11 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="116">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -2820,7 +2820,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -2841,11 +2841,11 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="119">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -2862,11 +2862,11 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -2917,7 +2917,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -3013,7 +3013,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="127">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.91</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="129">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -3169,7 +3169,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -3181,7 +3181,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -3190,7 +3190,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="136">
@@ -3211,19 +3211,19 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -3232,19 +3232,19 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="138">
@@ -3253,19 +3253,19 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -3274,19 +3274,19 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="140">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -3349,7 +3349,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="143">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -3379,7 +3379,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="145">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -3433,7 +3433,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="147">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="148">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -3568,7 +3568,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -3589,19 +3589,19 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -3610,19 +3610,19 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="156">
@@ -3631,19 +3631,19 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -3652,19 +3652,19 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="158">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="160">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="161">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="162">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="163">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.91</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="165">
@@ -3820,7 +3820,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -3862,7 +3862,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -3874,7 +3874,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="168">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -3925,11 +3925,11 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -3946,11 +3946,11 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="172">
@@ -3967,11 +3967,11 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -3988,11 +3988,11 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="174">
@@ -4009,11 +4009,11 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -4030,11 +4030,11 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="176">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -4059,11 +4059,11 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="177">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -4080,11 +4080,11 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="178">
@@ -4093,7 +4093,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -4101,11 +4101,11 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="179">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -4122,11 +4122,11 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -4143,11 +4143,11 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="181">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -4164,11 +4164,11 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -4177,7 +4177,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E182" t="n">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -4206,11 +4206,11 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -4219,7 +4219,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -4227,7 +4227,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E184" t="n">
@@ -4240,7 +4240,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -4248,7 +4248,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E185" t="n">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -4269,11 +4269,11 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -4290,11 +4290,11 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="188">
@@ -4303,19 +4303,19 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -4324,19 +4324,19 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="190">
@@ -4345,19 +4345,19 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -4366,19 +4366,19 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="192">
@@ -4387,15 +4387,15 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E192" t="n">
@@ -4408,19 +4408,19 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="194">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E194" t="n">
@@ -4458,7 +4458,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -4479,11 +4479,11 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="197">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -4500,11 +4500,11 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="198">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -4521,11 +4521,11 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="199">
@@ -4534,7 +4534,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -4542,11 +4542,11 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -4555,7 +4555,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -4563,11 +4563,11 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="201">
@@ -4576,7 +4576,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -4584,11 +4584,11 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E202" t="n">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E203" t="n">
@@ -4639,7 +4639,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -4647,11 +4647,11 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>0.91</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="205">
@@ -4660,7 +4660,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E205" t="n">
@@ -4681,19 +4681,19 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 06</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -4702,19 +4702,19 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 02</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="208">
@@ -4723,19 +4723,19 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -4744,19 +4744,19 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="210">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E210" t="n">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -4794,7 +4794,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E211" t="n">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -4815,11 +4815,11 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="213">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -4836,11 +4836,11 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -4849,7 +4849,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -4857,11 +4857,11 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>0.91</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="215">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -4878,11 +4878,11 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -4891,7 +4891,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E216" t="n">
@@ -4912,7 +4912,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -4920,7 +4920,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E217" t="n">
@@ -4933,7 +4933,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -4941,7 +4941,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E218" t="n">
@@ -4954,7 +4954,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -4962,7 +4962,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E219" t="n">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -4983,7 +4983,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E220" t="n">
@@ -4996,7 +4996,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E221" t="n">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Company 06</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -5025,11 +5025,11 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="223">
@@ -5038,7 +5038,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Company 02</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -5046,7 +5046,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E223" t="n">
@@ -5067,7 +5067,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>student 01</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="E224" t="n">
@@ -5088,7 +5088,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>student 02</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="E225" t="n">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Company 10</t>
+          <t>Company 14</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>student 03</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E226" t="n">
@@ -5122,7 +5122,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Company 08</t>
+          <t>Company 16</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -5130,7 +5130,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>student 04</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="E227" t="n">
@@ -5143,7 +5143,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 04</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -5151,11 +5151,11 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>student 05</t>
+          <t>student 01</t>
         </is>
       </c>
       <c r="E228" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="229">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 18</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>student 06</t>
+          <t>student 02</t>
         </is>
       </c>
       <c r="E229" t="n">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 12</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -5193,7 +5193,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>student 07</t>
+          <t>student 03</t>
         </is>
       </c>
       <c r="E230" t="n">
@@ -5206,7 +5206,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 01</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -5214,11 +5214,11 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>student 08</t>
+          <t>student 04</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -5227,7 +5227,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Company 01</t>
+          <t>Company 10</t>
         </is>
       </c>
       <c r="C232" t="n">
@@ -5235,11 +5235,11 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 05</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -5248,7 +5248,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Company 12</t>
+          <t>Company 08</t>
         </is>
       </c>
       <c r="C233" t="n">
@@ -5256,11 +5256,11 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 06</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="234">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 07</t>
         </is>
       </c>
       <c r="C234" t="n">
@@ -5277,7 +5277,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>student 11</t>
+          <t>student 07</t>
         </is>
       </c>
       <c r="E234" t="n">
@@ -5290,7 +5290,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 09</t>
         </is>
       </c>
       <c r="C235" t="n">
@@ -5298,7 +5298,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>student 12</t>
+          <t>student 08</t>
         </is>
       </c>
       <c r="E235" t="n">
@@ -5311,7 +5311,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Company 09</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="C236" t="n">
@@ -5319,7 +5319,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 09</t>
         </is>
       </c>
       <c r="E236" t="n">
@@ -5332,7 +5332,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Company 07</t>
+          <t>Company 13</t>
         </is>
       </c>
       <c r="C237" t="n">
@@ -5340,7 +5340,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="E237" t="n">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Company 13</t>
+          <t>Company 15</t>
         </is>
       </c>
       <c r="C238" t="n">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 11</t>
         </is>
       </c>
       <c r="E238" t="n">
@@ -5374,7 +5374,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Company 11</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="C239" t="n">
@@ -5382,7 +5382,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="E239" t="n">
@@ -5395,7 +5395,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Company 17</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="C240" t="n">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>student 17</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="E240" t="n">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Company 15</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="C241" t="n">
@@ -5424,7 +5424,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>student 18</t>
+          <t>student 14</t>
         </is>
       </c>
       <c r="E241" t="n">
@@ -5453,34 +5453,34 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Company 06</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Company 02</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Company 12</t>
@@ -5493,52 +5493,52 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Company 05</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Company 03</t>
-        </is>
-      </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Company 07</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Company 09</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Company 15</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Company 11</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Company 15</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Company 17</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Company 18</t>
         </is>
       </c>
     </row>
@@ -5548,94 +5548,86 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>student 11</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>student 12</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>student 13</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>student 14</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>student 15</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>student 16</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -5643,92 +5635,92 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>student 13</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
           <t>student 17</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>student 14</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>student 13</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>student 11</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>student 12</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>student 15</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>student 16</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>student 15</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>student 03</t>
         </is>
       </c>
     </row>
@@ -5758,72 +5750,72 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>student 06</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>student 05</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>student 12</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>student 11</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>student 15</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>student 16</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
         <is>
           <t>student 13</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>student 14</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>student 15</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>student 16</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>student 07</t>
         </is>
       </c>
     </row>
@@ -5843,74 +5835,82 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>student 13</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
           <t>student 18</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>student 12</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>student 11</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>student 13</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>student 14</t>
-        </is>
-      </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>student 10</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>student 09</t>
+          <t>student 15</t>
         </is>
       </c>
     </row>
@@ -5920,92 +5920,84 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>student 16</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>student 15</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>student 16</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>student 13</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>student 14</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>student 11</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>student 12</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>student 02</t>
         </is>
       </c>
     </row>
@@ -6015,84 +6007,92 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>student 16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>student 15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>student 06</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>student 05</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>student 16</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>student 15</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>student 01</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>student 02</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>student 10</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>student 13</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>student 12</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>student 11</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>student 04</t>
         </is>
       </c>
     </row>
@@ -6102,84 +6102,84 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>student 14</t>
+          <t>student 15</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>student 13</t>
+          <t>student 16</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>student 15</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>student 16</t>
+          <t>student 18</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>student 07</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>student 08</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
           <t>student 09</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>student 10</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>student 17</t>
         </is>
       </c>
     </row>
@@ -6209,72 +6209,56 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>student 16</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>student 15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>student 04</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>student 03</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>student 18</t>
         </is>
       </c>
     </row>
@@ -6284,92 +6268,92 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>student 13</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>student 16</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>student 15</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>student 17</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>student 06</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>student 07</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>student 12</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>student 11</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>student 14</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>student 13</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>student 01</t>
         </is>
       </c>
     </row>
@@ -6379,94 +6363,86 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>student 16</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>student 15</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>student 13</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
           <t>student 18</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>student 09</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>student 10</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>student 11</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>student 12</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>student 14</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>student 13</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>student 15</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>student 16</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -6474,34 +6450,34 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>student 13</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>student 14</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>student 12</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>student 11</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>student 18</t>
@@ -6514,52 +6490,52 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>student 03</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
       <c r="L12" t="inlineStr">
         <is>
+          <t>student 15</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>student 16</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
           <t>student 01</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>student 06</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>student 16</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>student 15</t>
         </is>
       </c>
     </row>
@@ -6569,84 +6545,92 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>student 13</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
           <t>student 04</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>student 16</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>student 15</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>student 11</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>student 12</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>student 15</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>student 16</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>student 13</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>student 14</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>student 05</t>
         </is>
       </c>
     </row>
@@ -6656,76 +6640,92 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>student 13</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>student 15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>student 16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
           <t>student 05</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>student 11</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>student 12</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>student 14</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>student 13</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>student 15</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>student 16</t>
         </is>
       </c>
     </row>
@@ -6735,92 +6735,92 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>student 15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>student 16</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>student 14</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>student 13</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
           <t>student 01</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>student 11</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>student 12</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
         <is>
           <t>student 10</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>student 09</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>student 11</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>student 12</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>student 14</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>student 13</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>student 16</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>student 15</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>student 08</t>
         </is>
       </c>
     </row>
@@ -6846,92 +6846,92 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>student 17</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>student 18</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>student 01</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>student 02</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>student 03</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>student 04</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>student 05</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>student 06</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>student 07</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>student 08</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>student 09</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>student 10</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>student 11</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>student 12</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>student 13</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>student 14</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>student 15</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>student 16</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>student 18</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>student 01</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>student 02</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>student 03</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>student 04</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>student 05</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>student 06</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>student 07</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>student 08</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>student 09</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>student 10</t>
         </is>
       </c>
     </row>
@@ -6941,34 +6941,34 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Company 06</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Company 02</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>Company 12</t>
@@ -6981,34 +6981,34 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>Company 05</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Company 03</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>Company 07</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Company 09</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Company 11</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Company 15</t>
@@ -7019,16 +7019,8 @@
           <t>Company 17</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -7036,92 +7028,92 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Company 15</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
           <t>Company 11</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Company 03</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Company 17</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Company 15</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Company 02</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Company 07</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Company 09</t>
         </is>
       </c>
     </row>
@@ -7131,92 +7123,92 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
           <t>Company 03</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>Company 07</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Company 09</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>Company 11</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>Company 15</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>Company 17</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Company 02</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Company 01</t>
         </is>
       </c>
     </row>
@@ -7226,84 +7218,92 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Company 15</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
           <t>Company 09</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Company 07</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Company 15</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Company 17</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Company 02</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Company 03</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Company 18</t>
+          <t>Company 11</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Company 04</t>
+          <t>Company 13</t>
         </is>
       </c>
     </row>
@@ -7311,94 +7311,86 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Company 15</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Company 17</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
           <t>Company 05</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Company 03</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Company 02</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>Company 12</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>Company 01</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
+          <t>Company 11</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
           <t>Company 07</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>Company 09</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Company 11</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Company 13</t>
         </is>
       </c>
     </row>
@@ -7408,84 +7400,92 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Company 11</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
           <t>Company 17</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>Company 15</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>Company 02</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>Company 06</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Company 09</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Company 07</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Company 11</t>
         </is>
       </c>
     </row>
@@ -7493,86 +7493,86 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>Company 02</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Company 06</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Company 11</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Company 15</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>Company 10</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Company 03</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Company 07</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Company 09</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Company 15</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Company 17</t>
         </is>
       </c>
     </row>
@@ -7582,92 +7582,76 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Company 11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>Company 02</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>Company 08</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>Company 14</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>Company 16</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>Company 04</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>Company 18</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Company 03</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Company 09</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Company 07</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Company 11</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Company 17</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Company 15</t>
         </is>
       </c>
     </row>
@@ -7677,92 +7661,92 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Company 11</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>Company 13</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Company 11</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>Company 17</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>Company 15</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>Company 02</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>Company 06</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>Company 10</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>Company 16</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Company 03</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Company 09</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>Company 07</t>
         </is>
       </c>
     </row>
@@ -7772,92 +7756,84 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>Company 07</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>Company 09</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Company 11</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>Company 15</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>Company 17</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
         <is>
           <t>Company 02</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>Company 06</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>Company 10</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>Company 08</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>Company 03</t>
         </is>
       </c>
     </row>
@@ -7867,92 +7843,92 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Company 11</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Company 15</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>Company 08</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>Company 10</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>Company 06</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>Company 02</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>Company 18</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>Company 04</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Company 12</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Company 07</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Company 09</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Company 03</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Company 11</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Company 17</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Company 15</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Company 16</t>
         </is>
       </c>
     </row>
@@ -7962,84 +7938,92 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>Company 12</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>Company 11</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>Company 13</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Company 07</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Company 09</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Company 02</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Company 14</t>
+          <t>Company 03</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Company 16</t>
+          <t>Company 05</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Company 03</t>
+          <t>Company 17</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>Company 05</t>
+          <t>Company 15</t>
         </is>
       </c>
     </row>
@@ -8049,78 +8033,94 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Company 05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Company 03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Company 11</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Company 15</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Company 06</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Company 02</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
           <t>Company 10</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>Company 08</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>Company 14</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Company 03</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Company 05</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Company 09</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Company 07</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Company 11</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Company 06</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Company 02</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -8128,92 +8128,92 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Company 14</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Company 16</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Company 04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Company 18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Company 12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Company 01</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Company 10</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Company 08</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Company 07</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Company 09</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Company 11</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Company 13</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Company 15</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Company 17</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
           <t>Company 05</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>Company 03</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Company 09</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Company 07</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Company 13</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Company 11</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Company 17</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Company 15</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>Company 06</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>Company 02</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Company 10</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Company 08</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Company 16</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Company 14</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Company 04</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>Company 18</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>Company 01</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Company 12</t>
         </is>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -31,46 +31,64 @@
     <t>weight</t>
   </si>
   <si>
+    <t>Sopra Steria</t>
+  </si>
+  <si>
     <t>Hays</t>
   </si>
   <si>
-    <t>Sopra Steria</t>
+    <t>KYPERION</t>
+  </si>
+  <si>
+    <t>AMARIS</t>
+  </si>
+  <si>
+    <t>HETIKUS</t>
+  </si>
+  <si>
+    <t>Bufete de Marketing</t>
+  </si>
+  <si>
+    <t>Flat 101</t>
+  </si>
+  <si>
+    <t>Minsait</t>
+  </si>
+  <si>
+    <t>Softtek</t>
   </si>
   <si>
     <t>Coches.com</t>
   </si>
   <si>
-    <t>KYPERION</t>
+    <t>OrbitalAds</t>
   </si>
   <si>
-    <t>Minsait</t>
+    <t>Eventbrite</t>
   </si>
   <si>
-    <t>HETIKUS</t>
-  </si>
-  <si>
-    <t>Softtek</t>
-  </si>
-  <si>
-    <t>AMARIS</t>
-  </si>
-  <si>
-    <t>Bufete de Marketing</t>
+    <t xml:space="preserve">Spotlab </t>
   </si>
   <si>
     <t>Claire Joster</t>
   </si>
   <si>
-    <t>OrbitalAds</t>
+    <t>Carolina Fernández Morales</t>
   </si>
   <si>
-    <t xml:space="preserve">Spotlab </t>
+    <t>Adriana Alejos</t>
   </si>
   <si>
-    <t>Eventbrite</t>
+    <t>Enrique Torrijos Sáinz</t>
   </si>
   <si>
-    <t>Flat 101</t>
+    <t>Juan Luis Sánchez Hernánez</t>
+  </si>
+  <si>
+    <t>Carla Chueca Gormedino</t>
+  </si>
+  <si>
+    <t>Zoe Gisbert Perona</t>
   </si>
   <si>
     <t>Raquel Cerezo rebollar</t>
@@ -97,6 +115,15 @@
     <t>Jorge Polo Peragón</t>
   </si>
   <si>
+    <t>María García Luque</t>
+  </si>
+  <si>
+    <t>Paloma Plaza Domínguez</t>
+  </si>
+  <si>
+    <t>Gema Moreno San Felipe</t>
+  </si>
+  <si>
     <t>Irina Ovary Dalmau</t>
   </si>
   <si>
@@ -113,33 +140,6 @@
   </si>
   <si>
     <t xml:space="preserve">Johanna gabriela salcedo calderon </t>
-  </si>
-  <si>
-    <t>Gema Moreno San Felipe</t>
-  </si>
-  <si>
-    <t>Juan Luis Sánchez Hernánez</t>
-  </si>
-  <si>
-    <t>Carla Chueca Gormedino</t>
-  </si>
-  <si>
-    <t>Zoe Gisbert Perona</t>
-  </si>
-  <si>
-    <t>Adriana Alejos</t>
-  </si>
-  <si>
-    <t>Enrique Torrijos Sáinz</t>
-  </si>
-  <si>
-    <t>Paloma Plaza Domínguez</t>
-  </si>
-  <si>
-    <t>María García Luque</t>
-  </si>
-  <si>
-    <t>Carolina Fernández Morales</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>0.34</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -548,7 +548,7 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>0.46</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -565,7 +565,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>0.33</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -582,7 +582,7 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -616,7 +616,7 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -633,7 +633,7 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>0.24</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -650,7 +650,7 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -667,7 +667,7 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>0.31</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -684,7 +684,7 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>0.11</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -701,7 +701,7 @@
         <v>28</v>
       </c>
       <c r="E12">
-        <v>0.16</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -718,7 +718,7 @@
         <v>29</v>
       </c>
       <c r="E13">
-        <v>0.32</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -735,7 +735,7 @@
         <v>30</v>
       </c>
       <c r="E14">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -752,7 +752,7 @@
         <v>31</v>
       </c>
       <c r="E15">
-        <v>0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -760,16 +760,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E16">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -777,16 +777,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17">
-        <v>0.93</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -794,16 +794,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18">
-        <v>0.33</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -811,16 +811,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E19">
-        <v>0.18</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -828,16 +828,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E20">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -851,10 +851,10 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>0.5</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -862,16 +862,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E22">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -879,16 +879,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>0.34</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -896,16 +896,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -913,16 +913,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -930,16 +930,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E26">
-        <v>0.34</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -947,16 +947,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E27">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -970,10 +970,10 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E28">
-        <v>0.17</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -981,16 +981,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E29">
-        <v>0.18</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -998,7 +998,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -1007,7 +1007,7 @@
         <v>35</v>
       </c>
       <c r="E30">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1015,16 +1015,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E31">
-        <v>0.54</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1032,16 +1032,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E32">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1049,16 +1049,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E33">
-        <v>0.48</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1066,16 +1066,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E34">
-        <v>0.31</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1083,16 +1083,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E35">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1100,16 +1100,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E36">
-        <v>0.53</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1123,10 +1123,10 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E37">
-        <v>0.28</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1134,16 +1134,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E38">
-        <v>0.31</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1151,16 +1151,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E39">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1168,16 +1168,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E40">
-        <v>0.31</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1185,16 +1185,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E41">
-        <v>0.03</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1202,16 +1202,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E42">
-        <v>0.49</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1219,16 +1219,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E43">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1236,16 +1236,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E44">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1253,16 +1253,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E45">
-        <v>0.82</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1276,7 +1276,7 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E46">
         <v>0.33</v>
@@ -1287,7 +1287,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -1296,7 +1296,7 @@
         <v>35</v>
       </c>
       <c r="E47">
-        <v>0.53</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1304,16 +1304,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C48">
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E48">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1321,16 +1321,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E49">
-        <v>0.46</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1338,16 +1338,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E50">
-        <v>0.17</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1355,16 +1355,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C51">
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E51">
-        <v>0.28</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1372,16 +1372,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E52">
-        <v>0.16</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1389,16 +1389,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C53">
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E53">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1406,16 +1406,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C54">
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E54">
-        <v>0.31</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1423,16 +1423,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C55">
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E55">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1440,16 +1440,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C56">
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E56">
-        <v>0.46</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1457,16 +1457,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C57">
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E57">
-        <v>0.18</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1474,16 +1474,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C58">
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E58">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1491,16 +1491,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C59">
         <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E59">
-        <v>0.34</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1508,16 +1508,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C60">
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E60">
-        <v>0.33</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1525,16 +1525,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C61">
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E61">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1542,16 +1542,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C62">
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E62">
-        <v>0.53</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1559,16 +1559,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C63">
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E63">
-        <v>0.32</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1576,16 +1576,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C64">
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E64">
-        <v>0.34</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1593,16 +1593,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C65">
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E65">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1610,16 +1610,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C66">
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E66">
-        <v>0.86</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1627,16 +1627,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C67">
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E67">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1650,10 +1650,10 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E68">
-        <v>0.92</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1661,16 +1661,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C69">
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E69">
-        <v>0.21</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1678,16 +1678,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C70">
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E70">
-        <v>0.31</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1695,16 +1695,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C71">
         <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E71">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1712,16 +1712,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C72">
         <v>5</v>
       </c>
       <c r="D72" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E72">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1729,16 +1729,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C73">
         <v>5</v>
       </c>
       <c r="D73" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E73">
-        <v>0.49</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1746,13 +1746,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C74">
         <v>5</v>
       </c>
       <c r="D74" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E74">
         <v>0.48</v>
@@ -1763,16 +1763,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C75">
         <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E75">
-        <v>0.32</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1780,16 +1780,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C76">
         <v>5</v>
       </c>
       <c r="D76" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E76">
-        <v>0.34</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1797,16 +1797,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C77">
         <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E77">
-        <v>0.34</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1814,16 +1814,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C78">
         <v>5</v>
       </c>
       <c r="D78" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E78">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1831,16 +1831,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C79">
         <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E79">
-        <v>0.78</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1848,16 +1848,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C80">
         <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E80">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1871,10 +1871,10 @@
         <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E81">
-        <v>0.32</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1882,16 +1882,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C82">
         <v>5</v>
       </c>
       <c r="D82" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E82">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1899,16 +1899,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C83">
         <v>5</v>
       </c>
       <c r="D83" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E83">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1916,16 +1916,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C84">
         <v>5</v>
       </c>
       <c r="D84" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E84">
-        <v>0.82</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1933,16 +1933,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C85">
         <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E85">
-        <v>0.03</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1950,16 +1950,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C86">
         <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E86">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1967,16 +1967,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C87">
         <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E87">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1984,16 +1984,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C88">
         <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E88">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2001,16 +2001,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C89">
         <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E89">
-        <v>0.53</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2018,16 +2018,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C90">
         <v>6</v>
       </c>
       <c r="D90" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E90">
-        <v>0.8100000000000001</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2035,16 +2035,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C91">
         <v>6</v>
       </c>
       <c r="D91" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E91">
-        <v>0.55</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2052,16 +2052,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C92">
         <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E92">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2069,16 +2069,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C93">
         <v>6</v>
       </c>
       <c r="D93" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E93">
-        <v>0.52</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2086,13 +2086,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C94">
         <v>6</v>
       </c>
       <c r="D94" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E94">
         <v>0.33</v>
@@ -2103,7 +2103,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C95">
         <v>6</v>
@@ -2112,7 +2112,7 @@
         <v>32</v>
       </c>
       <c r="E95">
-        <v>0.74</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2120,16 +2120,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C96">
         <v>6</v>
       </c>
       <c r="D96" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E96">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2137,16 +2137,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C97">
         <v>6</v>
       </c>
       <c r="D97" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E97">
-        <v>0.54</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2154,16 +2154,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C98">
         <v>6</v>
       </c>
       <c r="D98" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E98">
-        <v>0.33</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2171,16 +2171,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C99">
         <v>6</v>
       </c>
       <c r="D99" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E99">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2188,16 +2188,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C100">
         <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E100">
-        <v>0.52</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2205,16 +2205,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101">
         <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E101">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2222,16 +2222,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C102">
         <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E102">
-        <v>0.78</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2239,16 +2239,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C103">
         <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E103">
-        <v>0.31</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2262,10 +2262,10 @@
         <v>7</v>
       </c>
       <c r="D104" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E104">
-        <v>0.93</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2273,16 +2273,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C105">
         <v>7</v>
       </c>
       <c r="D105" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E105">
-        <v>0.28</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2290,16 +2290,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C106">
         <v>7</v>
       </c>
       <c r="D106" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E106">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2307,16 +2307,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C107">
         <v>7</v>
       </c>
       <c r="D107" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E107">
-        <v>0.18</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2324,16 +2324,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C108">
         <v>7</v>
       </c>
       <c r="D108" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E108">
-        <v>0.33</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2341,16 +2341,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C109">
         <v>7</v>
       </c>
       <c r="D109" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E109">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2358,16 +2358,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C110">
         <v>7</v>
       </c>
       <c r="D110" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E110">
-        <v>0.29</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2375,16 +2375,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C111">
         <v>7</v>
       </c>
       <c r="D111" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E111">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2392,16 +2392,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C112">
         <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E112">
-        <v>0.05</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2409,16 +2409,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C113">
         <v>7</v>
       </c>
       <c r="D113" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E113">
-        <v>0.34</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2426,16 +2426,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C114">
         <v>8</v>
       </c>
       <c r="D114" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E114">
-        <v>0.54</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2443,16 +2443,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C115">
         <v>8</v>
       </c>
       <c r="D115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E115">
-        <v>0.55</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2460,16 +2460,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C116">
         <v>8</v>
       </c>
       <c r="D116" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E116">
-        <v>0.54</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2477,16 +2477,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C117">
         <v>8</v>
       </c>
       <c r="D117" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E117">
-        <v>0.52</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2494,16 +2494,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C118">
         <v>8</v>
       </c>
       <c r="D118" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E118">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2511,16 +2511,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C119">
         <v>8</v>
       </c>
       <c r="D119" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E119">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2528,16 +2528,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C120">
         <v>8</v>
       </c>
       <c r="D120" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E120">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2545,16 +2545,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C121">
         <v>8</v>
       </c>
       <c r="D121" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E121">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2562,16 +2562,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C122">
         <v>8</v>
       </c>
       <c r="D122" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E122">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2579,16 +2579,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C123">
         <v>8</v>
       </c>
       <c r="D123" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E123">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2596,16 +2596,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C124">
         <v>8</v>
       </c>
       <c r="D124" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E124">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2613,16 +2613,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C125">
         <v>8</v>
       </c>
       <c r="D125" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E125">
-        <v>0.33</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2630,16 +2630,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C126">
         <v>8</v>
       </c>
       <c r="D126" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E126">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2647,16 +2647,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C127">
         <v>8</v>
       </c>
       <c r="D127" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E127">
-        <v>0.3</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2664,16 +2664,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C128">
         <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E128">
-        <v>0.5</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2681,16 +2681,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C129">
         <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E129">
-        <v>0.53</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2698,7 +2698,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C130">
         <v>9</v>
@@ -2707,7 +2707,7 @@
         <v>38</v>
       </c>
       <c r="E130">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2715,16 +2715,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C131">
         <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E131">
-        <v>0.89</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2732,16 +2732,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C132">
         <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E132">
-        <v>0.46</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2755,10 +2755,10 @@
         <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E133">
-        <v>0.89</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2766,13 +2766,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C134">
         <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E134">
         <v>0.33</v>
@@ -2783,16 +2783,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C135">
         <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E135">
-        <v>0.33</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2800,16 +2800,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C136">
         <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E136">
-        <v>0.3</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2817,16 +2817,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C137">
         <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E137">
-        <v>0.5</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2834,16 +2834,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C138">
         <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E138">
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2851,16 +2851,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C139">
         <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E139">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2868,16 +2868,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C140">
         <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E140">
-        <v>0.24</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2885,16 +2885,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C141">
         <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E141">
-        <v>0.02</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2902,16 +2902,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C142">
         <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E142">
-        <v>0.9399999999999999</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2919,16 +2919,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C143">
         <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E143">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2936,16 +2936,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C144">
         <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2953,13 +2953,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C145">
         <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E145">
         <v>0.52</v>
@@ -2970,16 +2970,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C146">
         <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E146">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2987,16 +2987,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C147">
         <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E147">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3004,16 +3004,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C148">
         <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E148">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3021,13 +3021,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C149">
         <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E149">
         <v>0.34</v>
@@ -3038,16 +3038,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C150">
         <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E150">
-        <v>0.9</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3055,16 +3055,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C151">
         <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E151">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3072,16 +3072,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C152">
         <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E152">
-        <v>0.49</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3089,16 +3089,16 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C153">
         <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E153">
-        <v>0.21</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3106,16 +3106,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C154">
         <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E154">
-        <v>0.34</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3123,16 +3123,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C155">
         <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E155">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3140,16 +3140,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C156">
         <v>11</v>
       </c>
       <c r="D156" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E156">
-        <v>0.55</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3157,13 +3157,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C157">
         <v>11</v>
       </c>
       <c r="D157" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E157">
         <v>0.54</v>
@@ -3174,16 +3174,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C158">
         <v>11</v>
       </c>
       <c r="D158" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E158">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3191,16 +3191,16 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C159">
         <v>11</v>
       </c>
       <c r="D159" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E159">
-        <v>0.89</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3208,16 +3208,16 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C160">
         <v>11</v>
       </c>
       <c r="D160" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E160">
-        <v>0.89</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3225,16 +3225,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C161">
         <v>11</v>
       </c>
       <c r="D161" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E161">
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3242,16 +3242,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C162">
         <v>11</v>
       </c>
       <c r="D162" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E162">
-        <v>0.93</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3259,16 +3259,16 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163">
         <v>11</v>
       </c>
       <c r="D163" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E163">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3282,10 +3282,10 @@
         <v>11</v>
       </c>
       <c r="D164" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E164">
-        <v>0.53</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3293,16 +3293,16 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C165">
         <v>11</v>
       </c>
       <c r="D165" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E165">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3310,13 +3310,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C166">
         <v>11</v>
       </c>
       <c r="D166" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E166">
         <v>0.31</v>
@@ -3327,16 +3327,16 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C167">
         <v>11</v>
       </c>
       <c r="D167" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E167">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3344,16 +3344,16 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C168">
         <v>11</v>
       </c>
       <c r="D168" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E168">
-        <v>0.17</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3367,7 +3367,7 @@
         <v>11</v>
       </c>
       <c r="D169" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E169">
         <v>0.17</v>
@@ -3378,13 +3378,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C170">
         <v>12</v>
       </c>
       <c r="D170" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E170">
         <v>0.34</v>
@@ -3395,16 +3395,16 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C171">
         <v>12</v>
       </c>
       <c r="D171" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E171">
-        <v>0.32</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3412,16 +3412,16 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C172">
         <v>12</v>
       </c>
       <c r="D172" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E172">
-        <v>0.85</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3429,16 +3429,16 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C173">
         <v>12</v>
       </c>
       <c r="D173" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E173">
-        <v>0.49</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3446,16 +3446,16 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C174">
         <v>12</v>
       </c>
       <c r="D174" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E174">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3469,7 +3469,7 @@
         <v>12</v>
       </c>
       <c r="D175" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E175">
         <v>0.33</v>
@@ -3480,16 +3480,16 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C176">
         <v>12</v>
       </c>
       <c r="D176" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E176">
-        <v>0.33</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3497,16 +3497,16 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C177">
         <v>12</v>
       </c>
       <c r="D177" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E177">
-        <v>0.89</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3514,16 +3514,16 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C178">
         <v>12</v>
       </c>
       <c r="D178" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E178">
-        <v>0.13</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3531,7 +3531,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C179">
         <v>12</v>
@@ -3540,7 +3540,7 @@
         <v>36</v>
       </c>
       <c r="E179">
-        <v>0.41</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3548,7 +3548,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C180">
         <v>12</v>
@@ -3557,7 +3557,7 @@
         <v>37</v>
       </c>
       <c r="E180">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3565,16 +3565,16 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C181">
         <v>12</v>
       </c>
       <c r="D181" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E181">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3582,16 +3582,16 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C182">
         <v>12</v>
       </c>
       <c r="D182" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E182">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3599,16 +3599,16 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C183">
         <v>12</v>
       </c>
       <c r="D183" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E183">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3616,16 +3616,16 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C184">
         <v>13</v>
       </c>
       <c r="D184" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E184">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3633,16 +3633,16 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C185">
         <v>13</v>
       </c>
       <c r="D185" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E185">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3650,16 +3650,16 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C186">
         <v>13</v>
       </c>
       <c r="D186" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E186">
-        <v>0.48</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3667,7 +3667,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C187">
         <v>13</v>
@@ -3676,7 +3676,7 @@
         <v>23</v>
       </c>
       <c r="E187">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3684,7 +3684,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C188">
         <v>13</v>
@@ -3693,7 +3693,7 @@
         <v>24</v>
       </c>
       <c r="E188">
-        <v>0.46</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3701,7 +3701,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C189">
         <v>13</v>
@@ -3710,7 +3710,7 @@
         <v>25</v>
       </c>
       <c r="E189">
-        <v>0.55</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3718,7 +3718,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C190">
         <v>13</v>
@@ -3727,7 +3727,7 @@
         <v>26</v>
       </c>
       <c r="E190">
-        <v>0.48</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3735,7 +3735,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C191">
         <v>13</v>
@@ -3744,7 +3744,7 @@
         <v>27</v>
       </c>
       <c r="E191">
-        <v>0.54</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3752,7 +3752,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C192">
         <v>13</v>
@@ -3761,7 +3761,7 @@
         <v>28</v>
       </c>
       <c r="E192">
-        <v>0.34</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3769,7 +3769,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C193">
         <v>13</v>
@@ -3778,7 +3778,7 @@
         <v>29</v>
       </c>
       <c r="E193">
-        <v>0.51</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3786,7 +3786,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C194">
         <v>13</v>
@@ -3795,7 +3795,7 @@
         <v>30</v>
       </c>
       <c r="E194">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3803,16 +3803,16 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C195">
         <v>13</v>
       </c>
       <c r="D195" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E195">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3826,10 +3826,10 @@
         <v>13</v>
       </c>
       <c r="D196" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E196">
-        <v>0.28</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3837,16 +3837,16 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C197">
         <v>13</v>
       </c>
       <c r="D197" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E197">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3854,13 +3854,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C198">
         <v>14</v>
       </c>
       <c r="D198" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E198">
         <v>0.46</v>
@@ -3871,13 +3871,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C199">
         <v>14</v>
       </c>
       <c r="D199" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E199">
         <v>0.51</v>
@@ -3888,13 +3888,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C200">
         <v>14</v>
       </c>
       <c r="D200" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -3905,13 +3905,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C201">
         <v>14</v>
       </c>
       <c r="D201" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E201">
         <v>0.41</v>
@@ -3922,13 +3922,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C202">
         <v>14</v>
       </c>
       <c r="D202" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E202">
         <v>0.33</v>
@@ -3939,13 +3939,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C203">
         <v>14</v>
       </c>
       <c r="D203" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E203">
         <v>0.34</v>
@@ -3956,13 +3956,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C204">
         <v>14</v>
       </c>
       <c r="D204" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E204">
         <v>0.49</v>
@@ -3973,13 +3973,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C205">
         <v>14</v>
       </c>
       <c r="D205" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E205">
         <v>0.49</v>
@@ -3996,7 +3996,7 @@
         <v>14</v>
       </c>
       <c r="D206" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E206">
         <v>0.51</v>
@@ -4007,13 +4007,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C207">
         <v>14</v>
       </c>
       <c r="D207" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E207">
         <v>0.33</v>
@@ -4024,13 +4024,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C208">
         <v>14</v>
       </c>
       <c r="D208" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E208">
         <v>0.17</v>
@@ -4041,13 +4041,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C209">
         <v>14</v>
       </c>
       <c r="D209" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E209">
         <v>0.16</v>
@@ -4058,13 +4058,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C210">
         <v>14</v>
       </c>
       <c r="D210" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E210">
         <v>0.3</v>
@@ -4075,13 +4075,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C211">
         <v>14</v>
       </c>
       <c r="D211" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E211">
         <v>0.5</v>
@@ -4092,16 +4092,16 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C212">
         <v>15</v>
       </c>
       <c r="D212" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E212">
-        <v>0.31</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4109,16 +4109,16 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C213">
         <v>15</v>
       </c>
       <c r="D213" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E213">
-        <v>0.33</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4132,10 +4132,10 @@
         <v>15</v>
       </c>
       <c r="D214" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E214">
-        <v>0.31</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4143,16 +4143,16 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C215">
         <v>15</v>
       </c>
       <c r="D215" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E215">
-        <v>0.31</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4166,10 +4166,10 @@
         <v>15</v>
       </c>
       <c r="D216" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E216">
-        <v>0.3</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4177,16 +4177,16 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C217">
         <v>15</v>
       </c>
       <c r="D217" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E217">
-        <v>0.33</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4194,7 +4194,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C218">
         <v>15</v>
@@ -4203,7 +4203,7 @@
         <v>32</v>
       </c>
       <c r="E218">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4211,7 +4211,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C219">
         <v>15</v>
@@ -4220,7 +4220,7 @@
         <v>40</v>
       </c>
       <c r="E219">
-        <v>0.26</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4228,16 +4228,16 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C220">
         <v>15</v>
       </c>
       <c r="D220" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E220">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4245,16 +4245,16 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C221">
         <v>15</v>
       </c>
       <c r="D221" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E221">
-        <v>0.15</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4262,16 +4262,16 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C222">
         <v>15</v>
       </c>
       <c r="D222" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E222">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4279,16 +4279,16 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C223">
         <v>15</v>
       </c>
       <c r="D223" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E223">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4296,7 +4296,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C224">
         <v>15</v>
@@ -4305,7 +4305,7 @@
         <v>20</v>
       </c>
       <c r="E224">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4313,7 +4313,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C225">
         <v>15</v>
@@ -4322,7 +4322,7 @@
         <v>21</v>
       </c>
       <c r="E225">
-        <v>0.02</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4330,16 +4330,16 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C226">
         <v>16</v>
       </c>
       <c r="D226" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E226">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4353,10 +4353,10 @@
         <v>16</v>
       </c>
       <c r="D227" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E227">
-        <v>0.93</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4364,16 +4364,16 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C228">
         <v>16</v>
       </c>
       <c r="D228" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E228">
-        <v>0.46</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4381,16 +4381,16 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C229">
         <v>16</v>
       </c>
       <c r="D229" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E229">
-        <v>0.33</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4398,16 +4398,16 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C230">
         <v>16</v>
       </c>
       <c r="D230" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E230">
-        <v>0.33</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4415,16 +4415,16 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C231">
         <v>16</v>
       </c>
       <c r="D231" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E231">
-        <v>0.54</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4432,16 +4432,16 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C232">
         <v>16</v>
       </c>
       <c r="D232" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E232">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4449,16 +4449,16 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C233">
         <v>16</v>
       </c>
       <c r="D233" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E233">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4466,16 +4466,16 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C234">
         <v>16</v>
       </c>
       <c r="D234" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E234">
-        <v>0.48</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4483,16 +4483,16 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C235">
         <v>16</v>
       </c>
       <c r="D235" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E235">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4500,16 +4500,16 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C236">
         <v>16</v>
       </c>
       <c r="D236" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E236">
-        <v>0.33</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4517,16 +4517,16 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C237">
         <v>16</v>
       </c>
       <c r="D237" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E237">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4534,16 +4534,16 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C238">
         <v>16</v>
       </c>
       <c r="D238" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E238">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4551,16 +4551,16 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C239">
         <v>16</v>
       </c>
       <c r="D239" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4568,16 +4568,16 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C240">
         <v>17</v>
       </c>
       <c r="D240" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E240">
-        <v>0.33</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4591,10 +4591,10 @@
         <v>17</v>
       </c>
       <c r="D241" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E241">
-        <v>0.33</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4602,13 +4602,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C242">
         <v>17</v>
       </c>
       <c r="D242" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E242">
         <v>0.33</v>
@@ -4619,16 +4619,16 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C243">
         <v>17</v>
       </c>
       <c r="D243" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E243">
-        <v>0.33</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4636,16 +4636,16 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C244">
         <v>17</v>
       </c>
       <c r="D244" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E244">
-        <v>0.31</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4653,16 +4653,16 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C245">
         <v>17</v>
       </c>
       <c r="D245" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E245">
-        <v>0.29</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4670,16 +4670,16 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C246">
         <v>17</v>
       </c>
       <c r="D246" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E246">
-        <v>0.8100000000000001</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4687,16 +4687,16 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C247">
         <v>17</v>
       </c>
       <c r="D247" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E247">
-        <v>0.18</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4704,16 +4704,16 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C248">
         <v>17</v>
       </c>
       <c r="D248" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E248">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4721,16 +4721,16 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C249">
         <v>17</v>
       </c>
       <c r="D249" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E249">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4738,16 +4738,16 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C250">
         <v>17</v>
       </c>
       <c r="D250" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E250">
-        <v>0.48</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4755,16 +4755,16 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C251">
         <v>17</v>
       </c>
       <c r="D251" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E251">
-        <v>0.28</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4772,16 +4772,16 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C252">
         <v>17</v>
       </c>
       <c r="D252" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E252">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4789,16 +4789,16 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C253">
         <v>17</v>
       </c>
       <c r="D253" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E253">
-        <v>0.07000000000000001</v>
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
@@ -4916,40 +4916,40 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
       <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
       <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" t="s">
         <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4957,46 +4957,46 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
         <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -5004,46 +5004,46 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" t="s">
         <v>21</v>
       </c>
-      <c r="K5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" t="s">
-        <v>20</v>
-      </c>
       <c r="N5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" t="s">
         <v>22</v>
-      </c>
-      <c r="O5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -5051,46 +5051,46 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M6" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="O6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -5098,46 +5098,46 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>30</v>
       </c>
-      <c r="H7" t="s">
-        <v>23</v>
-      </c>
       <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" t="s">
         <v>39</v>
       </c>
-      <c r="J7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="O7" t="s">
         <v>40</v>
-      </c>
-      <c r="L7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -5145,46 +5145,46 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>31</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" t="s">
         <v>33</v>
       </c>
-      <c r="L8" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" t="s">
-        <v>32</v>
-      </c>
       <c r="O8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -5192,46 +5192,46 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" t="s">
         <v>24</v>
       </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" t="s">
-        <v>32</v>
-      </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="O9" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -5239,46 +5239,46 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="M10" t="s">
         <v>23</v>
       </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="N10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" t="s">
         <v>27</v>
-      </c>
-      <c r="J10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" t="s">
-        <v>26</v>
-      </c>
-      <c r="O10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -5286,46 +5286,46 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
         <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" t="s">
-        <v>36</v>
       </c>
       <c r="J11" t="s">
         <v>34</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" t="s">
         <v>21</v>
       </c>
-      <c r="M11" t="s">
-        <v>37</v>
-      </c>
-      <c r="N11" t="s">
-        <v>18</v>
-      </c>
       <c r="O11" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -5333,46 +5333,46 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" t="s">
-        <v>24</v>
-      </c>
       <c r="O12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -5380,46 +5380,46 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="N13" t="s">
         <v>40</v>
       </c>
-      <c r="F13" t="s">
+      <c r="O13" t="s">
         <v>37</v>
-      </c>
-      <c r="G13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N13" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -5427,46 +5427,46 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
         <v>29</v>
       </c>
-      <c r="D14" t="s">
+      <c r="G14" t="s">
         <v>35</v>
       </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>38</v>
-      </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I14" t="s">
         <v>28</v>
       </c>
       <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" t="s">
         <v>37</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" t="s">
+        <v>38</v>
+      </c>
+      <c r="O14" t="s">
         <v>36</v>
-      </c>
-      <c r="L14" t="s">
-        <v>40</v>
-      </c>
-      <c r="M14" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O14" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -5474,46 +5474,46 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
       <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" t="s">
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" t="s">
         <v>26</v>
       </c>
-      <c r="F15" t="s">
+      <c r="O15" t="s">
         <v>29</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" t="s">
-        <v>38</v>
-      </c>
-      <c r="O15" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -5521,46 +5521,46 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H16" t="s">
         <v>27</v>
       </c>
       <c r="I16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" t="s">
         <v>38</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" t="s">
         <v>32</v>
       </c>
-      <c r="L16" t="s">
-        <v>29</v>
-      </c>
-      <c r="M16" t="s">
-        <v>39</v>
-      </c>
-      <c r="N16" t="s">
-        <v>31</v>
-      </c>
       <c r="O16" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -5568,46 +5568,46 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
       <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" t="s">
         <v>39</v>
       </c>
-      <c r="E17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" t="s">
         <v>20</v>
       </c>
-      <c r="J17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="M17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" t="s">
         <v>21</v>
-      </c>
-      <c r="L17" t="s">
-        <v>32</v>
-      </c>
-      <c r="M17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N17" t="s">
-        <v>35</v>
-      </c>
-      <c r="O17" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -5615,46 +5615,46 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" t="s">
         <v>21</v>
-      </c>
-      <c r="E18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" t="s">
-        <v>35</v>
       </c>
       <c r="K18" t="s">
         <v>25</v>
       </c>
       <c r="L18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M18" t="s">
         <v>24</v>
       </c>
       <c r="N18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O18" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -5662,46 +5662,46 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="J19" t="s">
         <v>27</v>
       </c>
       <c r="K19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="L19" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" t="s">
         <v>30</v>
-      </c>
-      <c r="M19" t="s">
-        <v>32</v>
-      </c>
-      <c r="N19" t="s">
-        <v>33</v>
-      </c>
-      <c r="O19" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -5840,46 +5840,46 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="K3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" t="s">
         <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" t="s">
-        <v>7</v>
       </c>
       <c r="P3" t="s">
         <v>5</v>
       </c>
       <c r="Q3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="R3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -5887,46 +5887,46 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="S4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U4" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X4" t="s">
         <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" t="s">
-        <v>15</v>
-      </c>
-      <c r="S4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -5934,45 +5934,45 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="L5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="U5" t="s">
+        <v>13</v>
+      </c>
+      <c r="V5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O5" t="s">
-        <v>5</v>
-      </c>
-      <c r="S5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T5" t="s">
-        <v>17</v>
-      </c>
-      <c r="U5" t="s">
-        <v>4</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5980,141 +5980,141 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
       <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q6" t="s">
         <v>4</v>
       </c>
-      <c r="L6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="R6" t="s">
+        <v>10</v>
+      </c>
+      <c r="W6" t="s">
         <v>5</v>
       </c>
-      <c r="O6" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="X6" t="s">
         <v>12</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R6" t="s">
-        <v>14</v>
-      </c>
-      <c r="T6" t="s">
-        <v>16</v>
-      </c>
-      <c r="U6" t="s">
-        <v>13</v>
-      </c>
-      <c r="V6" t="s">
-        <v>10</v>
-      </c>
-      <c r="W6" t="s">
-        <v>8</v>
-      </c>
-      <c r="X6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
+      <c r="J7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" t="s">
+      <c r="N7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="O7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" t="s">
         <v>6</v>
       </c>
-      <c r="J7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="T7" t="s">
+        <v>13</v>
+      </c>
+      <c r="U7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7" t="s">
+        <v>11</v>
+      </c>
+      <c r="W7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X7" t="s">
         <v>17</v>
-      </c>
-      <c r="N7" t="s">
-        <v>9</v>
-      </c>
-      <c r="T7" t="s">
-        <v>12</v>
-      </c>
-      <c r="U7" t="s">
-        <v>16</v>
-      </c>
-      <c r="V7" t="s">
-        <v>15</v>
-      </c>
-      <c r="W7" t="s">
-        <v>11</v>
-      </c>
-      <c r="X7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="I8" t="s">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" t="s">
         <v>4</v>
       </c>
-      <c r="J8" t="s">
+      <c r="O8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>16</v>
+      </c>
+      <c r="S8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T8" t="s">
+        <v>14</v>
+      </c>
+      <c r="U8" t="s">
         <v>5</v>
       </c>
-      <c r="K8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" t="s">
-        <v>7</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="V8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" t="s">
         <v>8</v>
-      </c>
-      <c r="O8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>13</v>
-      </c>
-      <c r="T8" t="s">
-        <v>15</v>
-      </c>
-      <c r="U8" t="s">
-        <v>14</v>
-      </c>
-      <c r="V8" t="s">
-        <v>11</v>
-      </c>
-      <c r="W8" t="s">
-        <v>10</v>
-      </c>
-      <c r="X8" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -6122,46 +6122,46 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" t="s">
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" t="s">
         <v>16</v>
       </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="N9" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" t="s">
         <v>6</v>
-      </c>
-      <c r="P9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>7</v>
-      </c>
-      <c r="R9" t="s">
-        <v>15</v>
-      </c>
-      <c r="S9" t="s">
-        <v>9</v>
-      </c>
-      <c r="T9" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" t="s">
-        <v>10</v>
-      </c>
-      <c r="V9" t="s">
-        <v>8</v>
-      </c>
-      <c r="W9" t="s">
-        <v>4</v>
-      </c>
-      <c r="X9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -6169,45 +6169,45 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="P10" t="s">
+        <v>13</v>
+      </c>
+      <c r="R10" t="s">
+        <v>14</v>
+      </c>
+      <c r="T10" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" t="s">
+        <v>11</v>
+      </c>
+      <c r="W10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" t="s">
-        <v>13</v>
-      </c>
-      <c r="R10" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="X10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6216,280 +6216,280 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" t="s">
-        <v>17</v>
-      </c>
       <c r="P11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R11" t="s">
         <v>12</v>
       </c>
       <c r="S11" t="s">
-        <v>8</v>
-      </c>
-      <c r="T11" t="s">
+        <v>5</v>
+      </c>
+      <c r="U11" t="s">
+        <v>7</v>
+      </c>
+      <c r="V11" t="s">
+        <v>4</v>
+      </c>
+      <c r="W11" t="s">
+        <v>6</v>
+      </c>
+      <c r="X11" t="s">
         <v>11</v>
-      </c>
-      <c r="U11" t="s">
-        <v>15</v>
-      </c>
-      <c r="V11" t="s">
-        <v>7</v>
-      </c>
-      <c r="W11" t="s">
-        <v>5</v>
-      </c>
-      <c r="X11" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
+      <c r="L12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="S12" t="s">
         <v>15</v>
       </c>
-      <c r="H12" t="s">
+      <c r="T12" t="s">
+        <v>7</v>
+      </c>
+      <c r="U12" t="s">
         <v>16</v>
       </c>
-      <c r="P12" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>4</v>
-      </c>
-      <c r="R12" t="s">
-        <v>6</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="V12" t="s">
         <v>17</v>
-      </c>
-      <c r="T12" t="s">
-        <v>9</v>
-      </c>
-      <c r="U12" t="s">
-        <v>5</v>
-      </c>
-      <c r="X12" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" t="s">
+        <v>12</v>
+      </c>
+      <c r="S13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="T13" t="s">
+        <v>10</v>
+      </c>
+      <c r="U13" t="s">
+        <v>17</v>
+      </c>
+      <c r="V13" t="s">
+        <v>15</v>
+      </c>
+      <c r="X13" t="s">
         <v>16</v>
-      </c>
-      <c r="N13" t="s">
-        <v>4</v>
-      </c>
-      <c r="O13" t="s">
-        <v>10</v>
-      </c>
-      <c r="P13" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>12</v>
-      </c>
-      <c r="R13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S13" t="s">
-        <v>15</v>
-      </c>
-      <c r="T13" t="s">
-        <v>6</v>
-      </c>
-      <c r="U13" t="s">
-        <v>8</v>
-      </c>
-      <c r="V13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W13" t="s">
-        <v>9</v>
-      </c>
-      <c r="X13" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="H14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" t="s">
+        <v>4</v>
+      </c>
       <c r="J14" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="K14" t="s">
+        <v>6</v>
       </c>
       <c r="L14" t="s">
         <v>11</v>
       </c>
       <c r="M14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N14" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" t="s">
         <v>7</v>
       </c>
-      <c r="O14" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="S14" t="s">
+        <v>9</v>
+      </c>
+      <c r="T14" t="s">
+        <v>17</v>
+      </c>
+      <c r="U14" t="s">
+        <v>14</v>
+      </c>
+      <c r="V14" t="s">
+        <v>16</v>
+      </c>
+      <c r="W14" t="s">
+        <v>15</v>
+      </c>
+      <c r="X14" t="s">
         <v>10</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>15</v>
-      </c>
-      <c r="R14" t="s">
-        <v>16</v>
-      </c>
-      <c r="S14" t="s">
-        <v>6</v>
-      </c>
-      <c r="T14" t="s">
-        <v>13</v>
-      </c>
-      <c r="U14" t="s">
-        <v>12</v>
-      </c>
-      <c r="V14" t="s">
-        <v>9</v>
-      </c>
-      <c r="W14" t="s">
-        <v>17</v>
-      </c>
-      <c r="X14" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>14</v>
+      </c>
+      <c r="S15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V15" t="s">
+        <v>13</v>
+      </c>
+      <c r="X15" t="s">
         <v>4</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" t="s">
-        <v>10</v>
-      </c>
-      <c r="M15" t="s">
-        <v>8</v>
-      </c>
-      <c r="N15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O15" t="s">
-        <v>13</v>
-      </c>
-      <c r="V15" t="s">
-        <v>16</v>
-      </c>
-      <c r="W15" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" t="s">
-        <v>6</v>
-      </c>
       <c r="K16" t="s">
         <v>10</v>
       </c>
       <c r="L16" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q16" t="s">
         <v>9</v>
       </c>
-      <c r="M16" t="s">
+      <c r="R16" t="s">
+        <v>17</v>
+      </c>
+      <c r="S16" t="s">
+        <v>13</v>
+      </c>
+      <c r="T16" t="s">
+        <v>12</v>
+      </c>
+      <c r="U16" t="s">
+        <v>8</v>
+      </c>
+      <c r="V16" t="s">
         <v>14</v>
       </c>
-      <c r="N16" t="s">
-        <v>11</v>
-      </c>
-      <c r="O16" t="s">
-        <v>16</v>
-      </c>
-      <c r="P16" t="s">
-        <v>13</v>
-      </c>
-      <c r="V16" t="s">
-        <v>12</v>
-      </c>
       <c r="W16" t="s">
+        <v>7</v>
+      </c>
+      <c r="X16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6498,46 +6498,46 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>7</v>
+      </c>
+      <c r="R17" t="s">
         <v>15</v>
       </c>
-      <c r="D17" t="s">
+      <c r="S17" t="s">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" t="s">
+        <v>10</v>
+      </c>
+      <c r="V17" t="s">
+        <v>6</v>
+      </c>
+      <c r="W17" t="s">
         <v>11</v>
       </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" t="s">
-        <v>8</v>
-      </c>
-      <c r="N17" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" t="s">
-        <v>4</v>
-      </c>
-      <c r="P17" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q17" t="s">
+      <c r="X17" t="s">
         <v>9</v>
-      </c>
-      <c r="S17" t="s">
-        <v>16</v>
-      </c>
-      <c r="U17" t="s">
-        <v>17</v>
-      </c>
-      <c r="W17" t="s">
-        <v>6</v>
-      </c>
-      <c r="X17" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -6545,22 +6545,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
@@ -6568,70 +6568,70 @@
       <c r="I18" t="s">
         <v>13</v>
       </c>
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" t="s">
+        <v>14</v>
+      </c>
+      <c r="P18" t="s">
+        <v>4</v>
+      </c>
       <c r="Q18" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="R18" t="s">
-        <v>9</v>
-      </c>
-      <c r="S18" t="s">
-        <v>12</v>
-      </c>
-      <c r="T18" t="s">
-        <v>4</v>
-      </c>
-      <c r="U18" t="s">
-        <v>7</v>
-      </c>
-      <c r="X18" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="W18" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="D19" t="s">
-        <v>8</v>
+      <c r="E19" t="s">
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
       </c>
       <c r="I19" t="s">
         <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K19" t="s">
         <v>12</v>
       </c>
       <c r="L19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" t="s">
+        <v>14</v>
+      </c>
+      <c r="R19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s">
+        <v>15</v>
+      </c>
+      <c r="X19" t="s">
         <v>6</v>
-      </c>
-      <c r="M19" t="s">
-        <v>10</v>
-      </c>
-      <c r="N19" t="s">
-        <v>14</v>
-      </c>
-      <c r="P19" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>16</v>
-      </c>
-      <c r="R19" t="s">
-        <v>13</v>
-      </c>
-      <c r="V19" t="s">
-        <v>17</v>
-      </c>
-      <c r="W19" t="s">
-        <v>7</v>
-      </c>
-      <c r="X19" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -6649,51 +6649,51 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>0.24</v>
@@ -6740,7 +6740,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>0.02</v>
@@ -6787,7 +6787,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>0.21</v>
@@ -6834,7 +6834,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>0.11</v>
@@ -6881,7 +6881,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>0.02</v>
@@ -6928,7 +6928,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -6975,7 +6975,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <v>0.09</v>
@@ -7022,7 +7022,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B9">
         <v>0.11</v>
@@ -7069,7 +7069,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <v>0.03</v>
@@ -7116,7 +7116,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B11">
         <v>0.3</v>
@@ -7163,7 +7163,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B12">
         <v>0.11</v>
@@ -7210,7 +7210,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>0.01</v>
@@ -7257,7 +7257,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B14">
         <v>0.28</v>
@@ -7304,7 +7304,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>0.11</v>
@@ -7351,7 +7351,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16">
         <v>0.5</v>
@@ -7398,7 +7398,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0.18</v>
@@ -7445,7 +7445,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0.41</v>
@@ -7492,7 +7492,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0.21</v>
@@ -7539,7 +7539,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>0.29</v>
@@ -7586,7 +7586,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>0.07000000000000001</v>
@@ -7633,7 +7633,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>0.13</v>
@@ -7680,7 +7680,7 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>0.11</v>
@@ -7727,7 +7727,7 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>0.17</v>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E210"/>
+  <dimension ref="A1:E250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -397,7 +397,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>magiquo</t>
+          <t>Mediasmart</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -405,11 +405,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Juan Antonio Pérez Gago</t>
+          <t>Paula Filipe</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.73</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -418,7 +418,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>Blue Telecom Consulting</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -426,11 +426,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Juan Manuel Arnelas Benito</t>
+          <t>Juan Antonio Pérez Gago</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.74</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="4">
@@ -439,7 +439,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TECHEDGE ESPAÑA</t>
+          <t>HETIKUS</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -447,11 +447,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Juan Bautista Martín Navarro</t>
+          <t>Juan Manuel Arnelas Benito</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.75</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="5">
@@ -460,7 +460,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>interacso</t>
+          <t>Private-Radar</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -468,11 +468,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ernesto Gómez López</t>
+          <t>Juan Bautista Martín Navarro</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.82</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="6">
@@ -481,7 +481,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mediasmart</t>
+          <t>Di-Dy</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -489,11 +489,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cristina Vegas González</t>
+          <t>Ernesto Gómez López</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.96</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ThePowerMBA</t>
+          <t>Spotlab</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -510,11 +510,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>María Gabaldón Rico</t>
+          <t>Cristina Vegas González</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.89</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BinPar Team SL</t>
+          <t>Sopra Steria</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -531,11 +531,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Aledia Ortega Britos</t>
+          <t>María Gabaldón Rico</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.7</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="9">
@@ -544,7 +544,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Private-Radar</t>
+          <t>Mantra Internet</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -552,11 +552,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sachin Tekchandani Pursnani</t>
+          <t>Aledia Ortega Britos</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="10">
@@ -565,7 +565,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HETIKUS</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -573,11 +573,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Rubén Polo Redondo</t>
+          <t>Sachin Tekchandani Pursnani</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.57</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="11">
@@ -586,7 +586,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Blue Telecom Consulting</t>
+          <t>interacso</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -594,11 +594,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Natalia Franquet</t>
+          <t>Rubén Polo Redondo</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.45</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -607,7 +607,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Claire joster</t>
+          <t>ThePowerMBA</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -615,11 +615,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Noah Wang teng</t>
+          <t>Natalia Franquet</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.48</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="13">
@@ -628,7 +628,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Spotlab</t>
+          <t>magiquo</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -636,11 +636,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Lucía Astray</t>
+          <t>Noah Wang teng</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.64</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="14">
@@ -649,7 +649,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sopra Steria</t>
+          <t>BinPar Team SL</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -657,11 +657,11 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Benjamin Garcia</t>
+          <t>Lucía Astray</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.61</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="15">
@@ -670,7 +670,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Hays</t>
+          <t>Bring Global</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -678,11 +678,11 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Tino Gutiérrez</t>
+          <t>Benjamin Garcia</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="16">
@@ -691,7 +691,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bring Global</t>
+          <t>TECHEDGE ESPAÑA</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -699,11 +699,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jorge Luis Hernández Fernández</t>
+          <t>Tino Gutiérrez</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.28</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="17">
@@ -712,7 +712,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Di-Dy</t>
+          <t>Minsait</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -720,11 +720,11 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>José Luis Avilés Molina</t>
+          <t>Jorge Luis Hernández Fernández</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.42</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="18">
@@ -733,7 +733,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Mantra Internet</t>
+          <t>Hays</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -741,11 +741,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jorge Rodríguez Salas</t>
+          <t>José Luis Avilés Molina</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.37</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="19">
@@ -754,7 +754,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>The Key Talent</t>
+          <t>Keedio</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -762,11 +762,11 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Rafael Arrieta garcia</t>
+          <t>Jorge Rodríguez Salas</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.5</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="20">
@@ -775,7 +775,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Syntonize</t>
+          <t>Claire joster</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -783,11 +783,11 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Paula Filipe</t>
+          <t>Rafael Arrieta garcia</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.27</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="21">
@@ -796,7 +796,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Arvato Bertelsmann</t>
+          <t>STRATESYS</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="22">
@@ -817,19 +817,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Deloitte</t>
+          <t>ThePowerMBA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Alessio Marinoni</t>
+          <t>Juan Antonio Pérez Gago</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.09</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="23">
@@ -838,7 +838,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>Mediasmart</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -846,11 +846,11 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Juan Antonio Pérez Gago</t>
+          <t>Juan Manuel Arnelas Benito</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="24">
@@ -859,7 +859,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>magiquo</t>
+          <t>BinPar Team SL</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -867,11 +867,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Juan Manuel Arnelas Benito</t>
+          <t>Juan Bautista Martín Navarro</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="25">
@@ -880,7 +880,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>interacso</t>
+          <t>magiquo</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -888,11 +888,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Juan Bautista Martín Navarro</t>
+          <t>Ernesto Gómez López</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.72</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="26">
@@ -901,7 +901,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BinPar Team SL</t>
+          <t>TECHEDGE ESPAÑA</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -909,11 +909,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Ernesto Gómez López</t>
+          <t>Cristina Vegas González</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="27">
@@ -922,7 +922,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ThePowerMBA</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -930,11 +930,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Cristina Vegas González</t>
+          <t>María Gabaldón Rico</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.88</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="28">
@@ -943,7 +943,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Mediasmart</t>
+          <t>interacso</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -951,11 +951,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>María Gabaldón Rico</t>
+          <t>Aledia Ortega Britos</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="29">
@@ -972,11 +972,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Aledia Ortega Britos</t>
+          <t>Sachin Tekchandani Pursnani</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.58</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="30">
@@ -985,7 +985,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Blue Telecom Consulting</t>
+          <t>Sopra Steria</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -993,11 +993,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Sachin Tekchandani Pursnani</t>
+          <t>Rubén Polo Redondo</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="31">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TECHEDGE ESPAÑA</t>
+          <t>Private-Radar</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1014,11 +1014,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Rubén Polo Redondo</t>
+          <t>Natalia Franquet</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Di-Dy</t>
+          <t>HETIKUS</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1035,11 +1035,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Natalia Franquet</t>
+          <t>Noah Wang teng</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.41</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="33">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mantra Internet</t>
+          <t>Claire joster</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1056,11 +1056,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Noah Wang teng</t>
+          <t>Lucía Astray</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="34">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sopra Steria</t>
+          <t>Blue Telecom Consulting</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1077,11 +1077,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Lucía Astray</t>
+          <t>Benjamin Garcia</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.6</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="35">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>HETIKUS</t>
+          <t>Mantra Internet</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1098,11 +1098,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Benjamin Garcia</t>
+          <t>Tino Gutiérrez</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.6</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="36">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Private-Radar</t>
+          <t>Di-Dy</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1119,11 +1119,11 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Tino Gutiérrez</t>
+          <t>Jorge Luis Hernández Fernández</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.49</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="37">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Hays</t>
+          <t>Bring Global</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1140,11 +1140,11 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Jorge Luis Hernández Fernández</t>
+          <t>José Luis Avilés Molina</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="38">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Claire joster</t>
+          <t>Syntonize</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1161,11 +1161,11 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>José Luis Avilés Molina</t>
+          <t>Jorge Rodríguez Salas</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.43</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="39">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bring Global</t>
+          <t>Minsait</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1182,11 +1182,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Jorge Rodríguez Salas</t>
+          <t>Rafael Arrieta garcia</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.24</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="40">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Keedio</t>
+          <t>Hays</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1203,11 +1203,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Rafael Arrieta garcia</t>
+          <t>Paula Filipe</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.46</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="41">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>The Key Talent</t>
+          <t>SIVSA</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1224,11 +1224,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Paula Filipe</t>
+          <t>Anthony Michael Garcia Serra</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="42">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Syntonize</t>
+          <t>The Key Talent</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1245,11 +1245,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Anthony Michael Garcia Serra</t>
+          <t>Alessio Marinoni</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.42</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="43">
@@ -1258,19 +1258,19 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Arvato Bertelsmann</t>
+          <t>TECHEDGE ESPAÑA</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Alessio Marinoni</t>
+          <t>Juan Antonio Pérez Gago</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.17</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="44">
@@ -1287,11 +1287,11 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Juan Antonio Pérez Gago</t>
+          <t>Juan Manuel Arnelas Benito</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="45">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Spotlab</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1308,11 +1308,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Juan Manuel Arnelas Benito</t>
+          <t>Juan Bautista Martín Navarro</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.63</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="46">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>HETIKUS</t>
+          <t>Spotlab</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1329,11 +1329,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Juan Bautista Martín Navarro</t>
+          <t>Ernesto Gómez López</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.62</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="47">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TECHEDGE ESPAÑA</t>
+          <t>interacso</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1350,11 +1350,11 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Ernesto Gómez López</t>
+          <t>Cristina Vegas González</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.79</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="48">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Blue Telecom Consulting</t>
+          <t>BinPar Team SL</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1371,11 +1371,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Cristina Vegas González</t>
+          <t>María Gabaldón Rico</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.47</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="49">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Private-Radar</t>
+          <t>Mediasmart</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1392,11 +1392,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>María Gabaldón Rico</t>
+          <t>Aledia Ortega Britos</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="50">
@@ -1413,11 +1413,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Aledia Ortega Britos</t>
+          <t>Sachin Tekchandani Pursnani</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="51">
@@ -1434,11 +1434,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Sachin Tekchandani Pursnani</t>
+          <t>Rubén Polo Redondo</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="52">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Mediasmart</t>
+          <t>Claire joster</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1455,11 +1455,11 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Rubén Polo Redondo</t>
+          <t>Natalia Franquet</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.9</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="53">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>interacso</t>
+          <t>Di-Dy</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1476,11 +1476,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Natalia Franquet</t>
+          <t>Noah Wang teng</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.73</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="54">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BinPar Team SL</t>
+          <t>HETIKUS</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1497,11 +1497,11 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Noah Wang teng</t>
+          <t>Lucía Astray</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.74</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="55">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>Private-Radar</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1518,11 +1518,11 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Lucía Astray</t>
+          <t>Benjamin Garcia</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.7</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="56">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Syntonize</t>
+          <t>Bring Global</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1539,11 +1539,11 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Benjamin Garcia</t>
+          <t>Tino Gutiérrez</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="57">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Minsait</t>
+          <t>Arvato Bertelsmann</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1560,11 +1560,11 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Tino Gutiérrez</t>
+          <t>Jorge Luis Hernández Fernández</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="58">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>The Key Talent</t>
+          <t>Blue Telecom Consulting</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1581,11 +1581,11 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Jorge Luis Hernández Fernández</t>
+          <t>José Luis Avilés Molina</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.26</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="59">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Arvato Bertelsmann</t>
+          <t>Minsait</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1602,11 +1602,11 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>José Luis Avilés Molina</t>
+          <t>Jorge Rodríguez Salas</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.29</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="60">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Claire joster</t>
+          <t>Mantra Internet</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1623,11 +1623,11 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Jorge Rodríguez Salas</t>
+          <t>Rafael Arrieta garcia</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.4</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="61">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Di-Dy</t>
+          <t>Keedio</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1644,11 +1644,11 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Rafael Arrieta garcia</t>
+          <t>Paula Filipe</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.76</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="62">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Deloitte</t>
+          <t>The Key Talent</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1665,11 +1665,11 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Paula Filipe</t>
+          <t>Anthony Michael Garcia Serra</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="63">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Mantra Internet</t>
+          <t>Syntonize</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1686,11 +1686,11 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Anthony Michael Garcia Serra</t>
+          <t>Alessio Marinoni</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="64">
@@ -1699,19 +1699,19 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Hays</t>
+          <t>BinPar Team SL</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Alessio Marinoni</t>
+          <t>Juan Antonio Pérez Gago</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.28</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="65">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BinPar Team SL</t>
+          <t>interacso</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1728,11 +1728,11 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Juan Antonio Pérez Gago</t>
+          <t>Juan Manuel Arnelas Benito</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.77</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="66">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>interacso</t>
+          <t>Mediasmart</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1749,11 +1749,11 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Juan Manuel Arnelas Benito</t>
+          <t>Juan Bautista Martín Navarro</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.82</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="67">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Mediasmart</t>
+          <t>ThePowerMBA</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1770,11 +1770,11 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Juan Bautista Martín Navarro</t>
+          <t>Ernesto Gómez López</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="68">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ThePowerMBA</t>
+          <t>magiquo</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -1791,11 +1791,11 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Ernesto Gómez López</t>
+          <t>Cristina Vegas González</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.84</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="69">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>magiquo</t>
+          <t>TECHEDGE ESPAÑA</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1812,11 +1812,11 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Cristina Vegas González</t>
+          <t>María Gabaldón Rico</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="70">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TECHEDGE ESPAÑA</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1833,11 +1833,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>María Gabaldón Rico</t>
+          <t>Aledia Ortega Britos</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.7</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="71">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>HETIKUS</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1854,11 +1854,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Aledia Ortega Britos</t>
+          <t>Sachin Tekchandani Pursnani</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.63</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="72">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>HETIKUS</t>
+          <t>Private-Radar</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -1875,11 +1875,11 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Sachin Tekchandani Pursnani</t>
+          <t>Rubén Polo Redondo</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.58</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="73">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Private-Radar</t>
+          <t>Spotlab</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1896,11 +1896,11 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Rubén Polo Redondo</t>
+          <t>Natalia Franquet</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.44</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="74">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Spotlab</t>
+          <t>Sopra Steria</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1917,11 +1917,11 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Natalia Franquet</t>
+          <t>Noah Wang teng</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.66</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="75">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Sopra Steria</t>
+          <t>Di-Dy</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1938,11 +1938,11 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Noah Wang teng</t>
+          <t>Lucía Astray</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.58</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="76">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Di-Dy</t>
+          <t>Mantra Internet</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1959,11 +1959,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Lucía Astray</t>
+          <t>Benjamin Garcia</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="77">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Mantra Internet</t>
+          <t>Blue Telecom Consulting</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1980,11 +1980,11 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Benjamin Garcia</t>
+          <t>Tino Gutiérrez</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="78">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Blue Telecom Consulting</t>
+          <t>Claire joster</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -2001,11 +2001,11 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Tino Gutiérrez</t>
+          <t>Jorge Luis Hernández Fernández</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="79">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Claire joster</t>
+          <t>The Key Talent</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -2022,11 +2022,11 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Jorge Luis Hernández Fernández</t>
+          <t>José Luis Avilés Molina</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.39</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="80">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>The Key Talent</t>
+          <t>SIVSA</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -2043,11 +2043,11 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>José Luis Avilés Molina</t>
+          <t>Jorge Rodríguez Salas</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="81">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SIVSA</t>
+          <t>Syntonize</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -2064,11 +2064,11 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Jorge Rodríguez Salas</t>
+          <t>Rafael Arrieta garcia</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.24</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="82">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Syntonize</t>
+          <t>Bring Global</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -2085,11 +2085,11 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Rafael Arrieta garcia</t>
+          <t>Paula Filipe</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.55</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="83">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Bring Global</t>
+          <t>Hays</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Paula Filipe</t>
+          <t>Anthony Michael Garcia Serra</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Hays</t>
+          <t>Minsait</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -2127,11 +2127,11 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Anthony Michael Garcia Serra</t>
+          <t>Alessio Marinoni</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="85">
@@ -2140,19 +2140,19 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Minsait</t>
+          <t>Spotlab</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Alessio Marinoni</t>
+          <t>Juan Antonio Pérez Gago</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.24</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="86">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>interacso</t>
+          <t>TECHEDGE ESPAÑA</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -2169,11 +2169,11 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Juan Antonio Pérez Gago</t>
+          <t>Juan Manuel Arnelas Benito</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="87">
@@ -2182,7 +2182,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BinPar Team SL</t>
+          <t>Sopra Steria</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2190,11 +2190,11 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Juan Manuel Arnelas Benito</t>
+          <t>Juan Bautista Martín Navarro</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.76</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="88">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ThePowerMBA</t>
+          <t>Private-Radar</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -2211,11 +2211,11 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Juan Bautista Martín Navarro</t>
+          <t>Ernesto Gómez López</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.88</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="89">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Mediasmart</t>
+          <t>HETIKUS</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -2232,11 +2232,11 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Ernesto Gómez López</t>
+          <t>Cristina Vegas González</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.97</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="90">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>Blue Telecom Consulting</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -2253,11 +2253,11 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Cristina Vegas González</t>
+          <t>María Gabaldón Rico</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.68</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="91">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>magiquo</t>
+          <t>ThePowerMBA</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -2274,11 +2274,11 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>María Gabaldón Rico</t>
+          <t>Aledia Ortega Britos</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="92">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>HETIKUS</t>
+          <t>Mediasmart</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -2295,11 +2295,11 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Aledia Ortega Britos</t>
+          <t>Sachin Tekchandani Pursnani</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.59</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="93">
@@ -2308,7 +2308,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TECHEDGE ESPAÑA</t>
+          <t>magiquo</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -2316,11 +2316,11 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Sachin Tekchandani Pursnani</t>
+          <t>Rubén Polo Redondo</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="94">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Claire joster</t>
+          <t>BinPar Team SL</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -2337,11 +2337,11 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Rubén Polo Redondo</t>
+          <t>Natalia Franquet</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.44</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="95">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Sopra Steria</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -2358,11 +2358,11 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Natalia Franquet</t>
+          <t>Noah Wang teng</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.62</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="96">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Spotlab</t>
+          <t>interacso</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -2379,11 +2379,11 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Noah Wang teng</t>
+          <t>Lucía Astray</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.61</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="97">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Private-Radar</t>
+          <t>Hays</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -2400,11 +2400,11 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Lucía Astray</t>
+          <t>Benjamin Garcia</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.49</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="98">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Di-Dy</t>
+          <t>Claire joster</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -2421,11 +2421,11 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Benjamin Garcia</t>
+          <t>Tino Gutiérrez</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="99">
@@ -2442,11 +2442,11 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Tino Gutiérrez</t>
+          <t>Jorge Luis Hernández Fernández</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.37</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="100">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Blue Telecom Consulting</t>
+          <t>Keedio</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -2463,11 +2463,11 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Jorge Luis Hernández Fernández</t>
+          <t>José Luis Avilés Molina</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.59</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="101">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Mantra Internet</t>
+          <t>Di-Dy</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -2484,11 +2484,11 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>José Luis Avilés Molina</t>
+          <t>Jorge Rodríguez Salas</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="102">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>The Key Talent</t>
+          <t>SIVSA</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -2505,11 +2505,11 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Jorge Rodríguez Salas</t>
+          <t>Rafael Arrieta garcia</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="103">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Hays</t>
+          <t>Mantra Internet</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -2526,11 +2526,11 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Rafael Arrieta garcia</t>
+          <t>Paula Filipe</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="104">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Arvato Bertelsmann</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -2547,11 +2547,11 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Paula Filipe</t>
+          <t>Anthony Michael Garcia Serra</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.29</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="105">
@@ -2568,11 +2568,11 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Anthony Michael Garcia Serra</t>
+          <t>Alessio Marinoni</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.33</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="106">
@@ -2581,19 +2581,19 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>SIVSA</t>
+          <t>magiquo</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Alessio Marinoni</t>
+          <t>Juan Antonio Pérez Gago</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.21</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="107">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TECHEDGE ESPAÑA</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -2610,11 +2610,11 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Juan Antonio Pérez Gago</t>
+          <t>Juan Manuel Arnelas Benito</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="108">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Sopra Steria</t>
+          <t>TECHEDGE ESPAÑA</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -2631,11 +2631,11 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Juan Manuel Arnelas Benito</t>
+          <t>Juan Bautista Martín Navarro</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="109">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>interacso</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -2652,11 +2652,11 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Juan Bautista Martín Navarro</t>
+          <t>Ernesto Gómez López</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.72</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="110">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Spotlab</t>
+          <t>Mediasmart</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -2673,11 +2673,11 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Ernesto Gómez López</t>
+          <t>Cristina Vegas González</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.74</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="111">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>interacso</t>
+          <t>ThePowerMBA</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -2694,11 +2694,11 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Cristina Vegas González</t>
+          <t>María Gabaldón Rico</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.71</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="112">
@@ -2715,11 +2715,11 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>María Gabaldón Rico</t>
+          <t>Aledia Ortega Britos</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="113">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Mediasmart</t>
+          <t>Private-Radar</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -2736,11 +2736,11 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Aledia Ortega Britos</t>
+          <t>Sachin Tekchandani Pursnani</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.85</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="114">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>magiquo</t>
+          <t>HETIKUS</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -2757,11 +2757,11 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Sachin Tekchandani Pursnani</t>
+          <t>Rubén Polo Redondo</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.86</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="115">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ThePowerMBA</t>
+          <t>Blue Telecom Consulting</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -2778,11 +2778,11 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Rubén Polo Redondo</t>
+          <t>Natalia Franquet</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.79</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="116">
@@ -2799,11 +2799,11 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Natalia Franquet</t>
+          <t>Noah Wang teng</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.41</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="117">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Di-Dy</t>
+          <t>Spotlab</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -2820,11 +2820,11 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Noah Wang teng</t>
+          <t>Lucía Astray</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="118">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>HETIKUS</t>
+          <t>Sopra Steria</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -2841,11 +2841,11 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Lucía Astray</t>
+          <t>Benjamin Garcia</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="119">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Private-Radar</t>
+          <t>Hays</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -2862,11 +2862,11 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Benjamin Garcia</t>
+          <t>Tino Gutiérrez</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.47</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="120">
@@ -2883,11 +2883,11 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Tino Gutiérrez</t>
+          <t>Jorge Luis Hernández Fernández</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="121">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Arvato Bertelsmann</t>
+          <t>Di-Dy</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -2904,11 +2904,11 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Jorge Luis Hernández Fernández</t>
+          <t>José Luis Avilés Molina</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="122">
@@ -2917,7 +2917,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Blue Telecom Consulting</t>
+          <t>Mantra Internet</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -2925,11 +2925,11 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>José Luis Avilés Molina</t>
+          <t>Jorge Rodríguez Salas</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.48</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="123">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Minsait</t>
+          <t>The Key Talent</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -2946,11 +2946,11 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Jorge Rodríguez Salas</t>
+          <t>Rafael Arrieta garcia</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.19</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="124">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Mantra Internet</t>
+          <t>Syntonize</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -2967,11 +2967,11 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Rafael Arrieta garcia</t>
+          <t>Paula Filipe</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="125">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Keedio</t>
+          <t>Arvato Bertelsmann</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -2988,11 +2988,11 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Paula Filipe</t>
+          <t>Anthony Michael Garcia Serra</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="126">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>The Key Talent</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -3009,11 +3009,11 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Anthony Michael Garcia Serra</t>
+          <t>Alessio Marinoni</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="127">
@@ -3022,19 +3022,19 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Syntonize</t>
+          <t>HETIKUS</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Alessio Marinoni</t>
+          <t>Juan Antonio Pérez Gago</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.38</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="128">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Spotlab</t>
+          <t>Blue Telecom Consulting</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -3051,11 +3051,11 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Juan Antonio Pérez Gago</t>
+          <t>Juan Manuel Arnelas Benito</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="129">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TECHEDGE ESPAÑA</t>
+          <t>Spotlab</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Juan Manuel Arnelas Benito</t>
+          <t>Juan Bautista Martín Navarro</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -3093,11 +3093,11 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Juan Bautista Martín Navarro</t>
+          <t>Ernesto Gómez López</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.66</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="131">
@@ -3114,11 +3114,11 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Ernesto Gómez López</t>
+          <t>Cristina Vegas González</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.6</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="132">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>HETIKUS</t>
+          <t>Di-Dy</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -3135,11 +3135,11 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Cristina Vegas González</t>
+          <t>María Gabaldón Rico</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="133">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Blue Telecom Consulting</t>
+          <t>Claire joster</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -3156,11 +3156,11 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>María Gabaldón Rico</t>
+          <t>Aledia Ortega Britos</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="134">
@@ -3169,7 +3169,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ThePowerMBA</t>
+          <t>interacso</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -3177,11 +3177,11 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Aledia Ortega Britos</t>
+          <t>Sachin Tekchandani Pursnani</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="135">
@@ -3190,7 +3190,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Mediasmart</t>
+          <t>BinPar Team SL</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -3198,11 +3198,11 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Sachin Tekchandani Pursnani</t>
+          <t>Rubén Polo Redondo</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.97</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="136">
@@ -3211,7 +3211,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>magiquo</t>
+          <t>Mediasmart</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -3219,11 +3219,11 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Rubén Polo Redondo</t>
+          <t>Natalia Franquet</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.76</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="137">
@@ -3232,7 +3232,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>BinPar Team SL</t>
+          <t>ThePowerMBA</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -3240,11 +3240,11 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Natalia Franquet</t>
+          <t>Noah Wang teng</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="138">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>magiquo</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -3261,11 +3261,11 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Noah Wang teng</t>
+          <t>Lucía Astray</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="139">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>interacso</t>
+          <t>TECHEDGE ESPAÑA</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -3282,11 +3282,11 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Lucía Astray</t>
+          <t>Benjamin Garcia</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="140">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Hays</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -3303,11 +3303,11 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Benjamin Garcia</t>
+          <t>Tino Gutiérrez</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.29</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="141">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Claire joster</t>
+          <t>SIVSA</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -3324,11 +3324,11 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Tino Gutiérrez</t>
+          <t>Jorge Luis Hernández Fernández</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.41</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="142">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Syntonize</t>
+          <t>Minsait</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -3345,11 +3345,11 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Jorge Luis Hernández Fernández</t>
+          <t>José Luis Avilés Molina</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="143">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Keedio</t>
+          <t>Arvato Bertelsmann</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -3366,11 +3366,11 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>José Luis Avilés Molina</t>
+          <t>Jorge Rodríguez Salas</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="144">
@@ -3379,7 +3379,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Di-Dy</t>
+          <t>STRATESYS</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -3387,11 +3387,11 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Jorge Rodríguez Salas</t>
+          <t>Rafael Arrieta garcia</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="145">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>SIVSA</t>
+          <t>Keedio</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -3408,11 +3408,11 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Rafael Arrieta garcia</t>
+          <t>Anthony Michael Garcia Serra</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.45</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="146">
@@ -3429,11 +3429,11 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Paula Filipe</t>
+          <t>Alessio Marinoni</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="147">
@@ -3442,19 +3442,19 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Deloitte</t>
+          <t>Mediasmart</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Anthony Michael Garcia Serra</t>
+          <t>Juan Antonio Pérez Gago</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -3463,19 +3463,19 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Bring Global</t>
+          <t>ThePowerMBA</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Alessio Marinoni</t>
+          <t>Juan Manuel Arnelas Benito</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.23</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="149">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ThePowerMBA</t>
+          <t>magiquo</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -3492,11 +3492,11 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Juan Antonio Pérez Gago</t>
+          <t>Juan Bautista Martín Navarro</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.84</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="150">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Mediasmart</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -3513,11 +3513,11 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Juan Manuel Arnelas Benito</t>
+          <t>Ernesto Gómez López</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="151">
@@ -3534,11 +3534,11 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Juan Bautista Martín Navarro</t>
+          <t>Cristina Vegas González</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="152">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>magiquo</t>
+          <t>interacso</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -3555,11 +3555,11 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Ernesto Gómez López</t>
+          <t>María Gabaldón Rico</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0.98</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="153">
@@ -3576,11 +3576,11 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Cristina Vegas González</t>
+          <t>Aledia Ortega Britos</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.72</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="154">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>Sopra Steria</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -3597,11 +3597,11 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>María Gabaldón Rico</t>
+          <t>Sachin Tekchandani Pursnani</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="155">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>interacso</t>
+          <t>Spotlab</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -3618,11 +3618,11 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Aledia Ortega Britos</t>
+          <t>Rubén Polo Redondo</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.66</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="156">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Spotlab</t>
+          <t>HETIKUS</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -3639,11 +3639,11 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Sachin Tekchandani Pursnani</t>
+          <t>Natalia Franquet</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="157">
@@ -3652,7 +3652,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Sopra Steria</t>
+          <t>Private-Radar</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -3660,11 +3660,11 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Rubén Polo Redondo</t>
+          <t>Noah Wang teng</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.58</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="158">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Private-Radar</t>
+          <t>Blue Telecom Consulting</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -3681,11 +3681,11 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Natalia Franquet</t>
+          <t>Lucía Astray</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="159">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>HETIKUS</t>
+          <t>Claire joster</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -3702,11 +3702,11 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Noah Wang teng</t>
+          <t>Benjamin Garcia</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0.63</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="160">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Claire joster</t>
+          <t>Di-Dy</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -3723,11 +3723,11 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Lucía Astray</t>
+          <t>Tino Gutiérrez</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="161">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Blue Telecom Consulting</t>
+          <t>Mantra Internet</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -3744,11 +3744,11 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Benjamin Garcia</t>
+          <t>Jorge Luis Hernández Fernández</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="162">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Mantra Internet</t>
+          <t>Syntonize</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -3765,11 +3765,11 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Tino Gutiérrez</t>
+          <t>José Luis Avilés Molina</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="163">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Di-Dy</t>
+          <t>Hays</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -3786,11 +3786,11 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Jorge Luis Hernández Fernández</t>
+          <t>Jorge Rodríguez Salas</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.41</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="164">
@@ -3807,11 +3807,11 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>José Luis Avilés Molina</t>
+          <t>Rafael Arrieta garcia</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.32</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="165">
@@ -3820,7 +3820,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Syntonize</t>
+          <t>SIVSA</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -3828,11 +3828,11 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Jorge Rodríguez Salas</t>
+          <t>Paula Filipe</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="166">
@@ -3849,11 +3849,11 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Rafael Arrieta garcia</t>
+          <t>Anthony Michael Garcia Serra</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.52</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="167">
@@ -3862,7 +3862,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Hays</t>
+          <t>Keedio</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -3870,11 +3870,11 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Paula Filipe</t>
+          <t>Alessio Marinoni</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.36</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="168">
@@ -3883,19 +3883,19 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>SIVSA</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Anthony Michael Garcia Serra</t>
+          <t>Juan Antonio Pérez Gago</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.31</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="169">
@@ -3904,19 +3904,19 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>The Key Talent</t>
+          <t>magiquo</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Alessio Marinoni</t>
+          <t>Juan Manuel Arnelas Benito</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.21</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="170">
@@ -3925,7 +3925,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Mediasmart</t>
+          <t>interacso</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -3933,11 +3933,11 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Juan Antonio Pérez Gago</t>
+          <t>Juan Bautista Martín Navarro</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>1</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="171">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ThePowerMBA</t>
+          <t>BinPar Team SL</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -3954,11 +3954,11 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Juan Manuel Arnelas Benito</t>
+          <t>Ernesto Gómez López</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="172">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>magiquo</t>
+          <t>ThePowerMBA</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -3975,11 +3975,11 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Juan Bautista Martín Navarro</t>
+          <t>Cristina Vegas González</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="173">
@@ -3988,7 +3988,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>Mediasmart</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -3996,11 +3996,11 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Ernesto Gómez López</t>
+          <t>María Gabaldón Rico</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="174">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>BinPar Team SL</t>
+          <t>Spotlab</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -4017,11 +4017,11 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Cristina Vegas González</t>
+          <t>Aledia Ortega Britos</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0.77</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="175">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>interacso</t>
+          <t>Blue Telecom Consulting</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -4038,11 +4038,11 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>María Gabaldón Rico</t>
+          <t>Sachin Tekchandani Pursnani</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="176">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Aledia Ortega Britos</t>
+          <t>Rubén Polo Redondo</t>
         </is>
       </c>
       <c r="E176" t="n">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Sopra Steria</t>
+          <t>Di-Dy</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -4080,11 +4080,11 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Sachin Tekchandani Pursnani</t>
+          <t>Natalia Franquet</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0.75</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="178">
@@ -4093,7 +4093,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Spotlab</t>
+          <t>Mantra Internet</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -4101,11 +4101,11 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Rubén Polo Redondo</t>
+          <t>Noah Wang teng</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>0.58</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="179">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>HETIKUS</t>
+          <t>Sopra Steria</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -4122,11 +4122,11 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Natalia Franquet</t>
+          <t>Lucía Astray</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="180">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Private-Radar</t>
+          <t>HETIKUS</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -4143,11 +4143,11 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Noah Wang teng</t>
+          <t>Benjamin Garcia</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="181">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Blue Telecom Consulting</t>
+          <t>Private-Radar</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -4164,11 +4164,11 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Lucía Astray</t>
+          <t>Tino Gutiérrez</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="182">
@@ -4177,7 +4177,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Claire joster</t>
+          <t>Hays</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -4185,11 +4185,11 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Benjamin Garcia</t>
+          <t>Jorge Luis Hernández Fernández</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0.42</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="183">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Di-Dy</t>
+          <t>Claire joster</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -4206,11 +4206,11 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Tino Gutiérrez</t>
+          <t>José Luis Avilés Molina</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="184">
@@ -4219,7 +4219,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Mantra Internet</t>
+          <t>Bring Global</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -4227,11 +4227,11 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Jorge Luis Hernández Fernández</t>
+          <t>Jorge Rodríguez Salas</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0.38</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="185">
@@ -4240,7 +4240,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Syntonize</t>
+          <t>Keedio</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -4248,11 +4248,11 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>José Luis Avilés Molina</t>
+          <t>Rafael Arrieta garcia</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.35</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="186">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Hays</t>
+          <t>The Key Talent</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -4269,11 +4269,11 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Jorge Rodríguez Salas</t>
+          <t>Paula Filipe</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="187">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Bring Global</t>
+          <t>Syntonize</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -4290,11 +4290,11 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Rafael Arrieta garcia</t>
+          <t>Anthony Michael Garcia Serra</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>0.59</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="188">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>SIVSA</t>
+          <t>Arvato Bertelsmann</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -4311,11 +4311,11 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Paula Filipe</t>
+          <t>Alessio Marinoni</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0.31</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="189">
@@ -4324,19 +4324,19 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Minsait</t>
+          <t>Sopra Steria</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Anthony Michael Garcia Serra</t>
+          <t>Juan Antonio Pérez Gago</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>0.32</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="190">
@@ -4345,19 +4345,19 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Keedio</t>
+          <t>Spotlab</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Alessio Marinoni</t>
+          <t>Juan Manuel Arnelas Benito</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>0.24</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="191">
@@ -4374,11 +4374,11 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Juan Antonio Pérez Gago</t>
+          <t>Juan Bautista Martín Navarro</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>0.54</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="192">
@@ -4387,7 +4387,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Blue Telecom Consulting</t>
+          <t>TECHEDGE ESPAÑA</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -4395,11 +4395,11 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Juan Manuel Arnelas Benito</t>
+          <t>Ernesto Gómez López</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.6</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="193">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Spotlab</t>
+          <t>Blue Telecom Consulting</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -4416,11 +4416,11 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Juan Bautista Martín Navarro</t>
+          <t>Cristina Vegas González</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>0.71</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="194">
@@ -4429,7 +4429,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Sopra Steria</t>
+          <t>Private-Radar</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -4437,11 +4437,11 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Ernesto Gómez López</t>
+          <t>María Gabaldón Rico</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>0.74</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="195">
@@ -4450,7 +4450,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Private-Radar</t>
+          <t>magiquo</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -4458,11 +4458,11 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Cristina Vegas González</t>
+          <t>Aledia Ortega Britos</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>0.46</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="196">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Di-Dy</t>
+          <t>ThePowerMBA</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -4479,11 +4479,11 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>María Gabaldón Rico</t>
+          <t>Sachin Tekchandani Pursnani</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0.41</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="197">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Claire joster</t>
+          <t>Mediasmart</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -4500,11 +4500,11 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Aledia Ortega Britos</t>
+          <t>Rubén Polo Redondo</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0.42</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="198">
@@ -4521,11 +4521,11 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Sachin Tekchandani Pursnani</t>
+          <t>Natalia Franquet</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0.82</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="199">
@@ -4542,11 +4542,11 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Rubén Polo Redondo</t>
+          <t>Noah Wang teng</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="200">
@@ -4555,7 +4555,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Mediasmart</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -4563,11 +4563,11 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Natalia Franquet</t>
+          <t>Lucía Astray</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0.96</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="201">
@@ -4576,7 +4576,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ThePowerMBA</t>
+          <t>Syntonize</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -4584,11 +4584,11 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Noah Wang teng</t>
+          <t>Benjamin Garcia</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0.83</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="202">
@@ -4597,7 +4597,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>magiquo</t>
+          <t>Minsait</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -4605,11 +4605,11 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Lucía Astray</t>
+          <t>Tino Gutiérrez</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>0.78</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="203">
@@ -4618,7 +4618,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>TECHEDGE ESPAÑA</t>
+          <t>The Key Talent</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -4626,11 +4626,11 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Benjamin Garcia</t>
+          <t>Jorge Luis Hernández Fernández</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="204">
@@ -4639,7 +4639,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>Arvato Bertelsmann</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -4647,11 +4647,11 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Tino Gutiérrez</t>
+          <t>José Luis Avilés Molina</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>0.7</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="205">
@@ -4660,7 +4660,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>SIVSA</t>
+          <t>Claire joster</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -4668,11 +4668,11 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Jorge Luis Hernández Fernández</t>
+          <t>Jorge Rodríguez Salas</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="206">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Minsait</t>
+          <t>Di-Dy</t>
         </is>
       </c>
       <c r="C206" t="n">
@@ -4689,11 +4689,11 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>José Luis Avilés Molina</t>
+          <t>Rafael Arrieta garcia</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>0.28</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="207">
@@ -4702,7 +4702,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Arvato Bertelsmann</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -4710,11 +4710,11 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Jorge Rodríguez Salas</t>
+          <t>Paula Filipe</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>0.22</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="208">
@@ -4723,7 +4723,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>STRATESYS</t>
+          <t>Mantra Internet</t>
         </is>
       </c>
       <c r="C208" t="n">
@@ -4731,11 +4731,11 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Rafael Arrieta garcia</t>
+          <t>Anthony Michael Garcia Serra</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>0.36</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="209">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Keedio</t>
+          <t>Hays</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -4752,11 +4752,11 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Anthony Michael Garcia Serra</t>
+          <t>Alessio Marinoni</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>0.22</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="210">
@@ -4765,19 +4765,859 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
+          <t>interacso</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>10</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Juan Antonio Pérez Gago</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>BinPar Team SL</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>10</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Juan Manuel Arnelas Benito</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>ThePowerMBA</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>10</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Juan Bautista Martín Navarro</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Mediasmart</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>10</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Ernesto Gómez López</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Mantra</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>10</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Cristina Vegas González</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>magiquo</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>10</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>María Gabaldón Rico</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>HETIKUS</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>10</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Aledia Ortega Britos</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>TECHEDGE ESPAÑA</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>10</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Sachin Tekchandani Pursnani</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Claire joster</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>10</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Rubén Polo Redondo</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Sopra Steria</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>10</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Natalia Franquet</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Spotlab</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>10</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Noah Wang teng</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Private-Radar</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>10</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Lucía Astray</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Di-Dy</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>10</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Benjamin Garcia</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Syntonize</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>10</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Tino Gutiérrez</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Blue Telecom Consulting</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>10</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Jorge Luis Hernández Fernández</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
           <t>Mantra Internet</t>
         </is>
       </c>
-      <c r="C210" t="n">
-        <v>9</v>
-      </c>
-      <c r="D210" t="inlineStr">
+      <c r="C225" t="n">
+        <v>10</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>José Luis Avilés Molina</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>The Key Talent</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>10</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Jorge Rodríguez Salas</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Hays</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>10</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Rafael Arrieta garcia</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Arvato Bertelsmann</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>10</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Paula Filipe</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Bring Global</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>10</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Anthony Michael Garcia Serra</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>SIVSA</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>10</v>
+      </c>
+      <c r="D230" t="inlineStr">
         <is>
           <t>Alessio Marinoni</t>
         </is>
       </c>
-      <c r="E210" t="n">
+      <c r="E230" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>ThePowerMBA</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>11</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Paula Filipe</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Mediasmart</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>11</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Alessio Marinoni</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Private-Radar</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>11</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Juan Antonio Pérez Gago</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Di-Dy</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>11</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Juan Manuel Arnelas Benito</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Claire joster</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>11</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Juan Bautista Martín Navarro</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>HETIKUS</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>11</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Ernesto Gómez López</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Sopra Steria</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>11</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Cristina Vegas González</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Spotlab</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>11</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>María Gabaldón Rico</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Blue Telecom Consulting</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>11</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Aledia Ortega Britos</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
         <v>0.37</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>BinPar Team SL</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>11</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Sachin Tekchandani Pursnani</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Mantra</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>11</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Rubén Polo Redondo</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>magiquo</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>11</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Natalia Franquet</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>interacso</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>11</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Noah Wang teng</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>TECHEDGE ESPAÑA</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>11</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Lucía Astray</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>SIVSA</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>11</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Benjamin Garcia</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>The Key Talent</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>11</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Tino Gutiérrez</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Keedio</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>11</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Jorge Luis Hernández Fernández</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>11</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>José Luis Avilés Molina</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>STRATESYS</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>11</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Jorge Rodríguez Salas</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Arvato Bertelsmann</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>11</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Rafael Arrieta garcia</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>0.41</v>
       </c>
     </row>
   </sheetData>
@@ -4791,7 +5631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4802,127 +5642,127 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Mediasmart</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Blue Telecom Consulting</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>HETIKUS</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Private-Radar</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Di-Dy</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Spotlab</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Sopra Steria</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Mantra Internet</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Mantra</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>interacso</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ThePowerMBA</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>magiquo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Mantra</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>BinPar Team SL</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Bring Global</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>TECHEDGE ESPAÑA</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>interacso</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Mediasmart</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ThePowerMBA</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>BinPar Team SL</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Private-Radar</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>HETIKUS</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Blue Telecom Consulting</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Minsait</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Hays</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Keedio</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Claire joster</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Spotlab</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Sopra Steria</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Hays</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Bring Global</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Di-Dy</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Mantra Internet</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>STRATESYS</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Syntonize</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>SIVSA</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>The Key Talent</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Syntonize</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Arvato Bertelsmann</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Deloitte</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Keedio</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Minsait</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>SIVSA</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>STRATESYS</t>
         </is>
       </c>
     </row>
@@ -4932,109 +5772,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Paula Filipe</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Juan Antonio Pérez Gago</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Juan Manuel Arnelas Benito</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Juan Bautista Martín Navarro</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Ernesto Gómez López</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Cristina Vegas González</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>María Gabaldón Rico</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Aledia Ortega Britos</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Sachin Tekchandani Pursnani</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Rubén Polo Redondo</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>Natalia Franquet</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>Noah Wang teng</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>Lucía Astray</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Benjamin Garcia</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>Tino Gutiérrez</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>Jorge Luis Hernández Fernández</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>José Luis Avilés Molina</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>Jorge Rodríguez Salas</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>Rafael Arrieta garcia</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Paula Filipe</t>
-        </is>
-      </c>
       <c r="U2" t="inlineStr">
         <is>
           <t>Anthony Michael Garcia Serra</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Alessio Marinoni</t>
-        </is>
-      </c>
+      <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
@@ -5051,106 +5887,106 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Benjamin Garcia</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Noah Wang teng</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Natalia Franquet</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Jorge Luis Hernández Fernández</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Sachin Tekchandani Pursnani</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Rubén Polo Redondo</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Tino Gutiérrez</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>María Gabaldón Rico</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Aledia Ortega Britos</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>Juan Antonio Pérez Gago</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Rubén Polo Redondo</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Ernesto Gómez López</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>Juan Bautista Martín Navarro</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>María Gabaldón Rico</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>José Luis Avilés Molina</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>Cristina Vegas González</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Ernesto Gómez López</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Tino Gutiérrez</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Benjamin Garcia</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Sachin Tekchandani Pursnani</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>José Luis Avilés Molina</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Aledia Ortega Britos</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Rafael Arrieta garcia</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Paula Filipe</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
         <is>
           <t>Lucía Astray</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Jorge Luis Hernández Fernández</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
         <is>
           <t>Jorge Rodríguez Salas</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Natalia Franquet</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Noah Wang teng</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Paula Filipe</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>Anthony Michael Garcia Serra</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>Alessio Marinoni</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>Rafael Arrieta garcia</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
     </row>
@@ -5165,107 +6001,107 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>José Luis Avilés Molina</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Lucía Astray</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Benjamin Garcia</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noah Wang teng</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>Ernesto Gómez López</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Juan Manuel Arnelas Benito</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Rafael Arrieta garcia</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Juan Bautista Martín Navarro</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Cristina Vegas González</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Rubén Polo Redondo</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Sachin Tekchandani Pursnani</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>María Gabaldón Rico</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Tino Gutiérrez</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Juan Antonio Pérez Gago</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Jorge Rodríguez Salas</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Paula Filipe</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
         <is>
           <t>Natalia Franquet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Rubén Polo Redondo</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Sachin Tekchandani Pursnani</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Noah Wang teng</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>María Gabaldón Rico</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Juan Bautista Martín Navarro</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Cristina Vegas González</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Jorge Rodríguez Salas</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Juan Manuel Arnelas Benito</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Juan Antonio Pérez Gago</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
         <is>
           <t>Alessio Marinoni</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Rafael Arrieta garcia</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Anthony Michael Garcia Serra</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Jorge Luis Hernández Fernández</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Benjamin Garcia</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>José Luis Avilés Molina</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>Paula Filipe</t>
         </is>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Tino Gutiérrez</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr"/>
+          <t>Anthony Michael Garcia Serra</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Jorge Luis Hernández Fernández</t>
+        </is>
+      </c>
       <c r="Z4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -5274,112 +6110,112 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Juan Bautista Martín Navarro</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Tino Gutiérrez</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Sachin Tekchandani Pursnani</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Rubén Polo Redondo</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Lucía Astray</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Natalia Franquet</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Noah Wang teng</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Benjamin Garcia</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Aledia Ortega Britos</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Juan Manuel Arnelas Benito</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Ernesto Gómez López</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
           <t>Cristina Vegas González</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Aledia Ortega Britos</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Juan Antonio Pérez Gago</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Paula Filipe</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>María Gabaldón Rico</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Juan Manuel Arnelas Benito</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Juan Bautista Martín Navarro</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Ernesto Gómez López</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Juan Antonio Pérez Gago</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Rubén Polo Redondo</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Sachin Tekchandani Pursnani</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Tino Gutiérrez</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Alessio Marinoni</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Anthony Michael Garcia Serra</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
         <is>
           <t>Jorge Luis Hernández Fernández</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Natalia Franquet</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Noah Wang teng</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Anthony Michael Garcia Serra</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Paula Filipe</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Lucía Astray</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Benjamin Garcia</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Rafael Arrieta garcia</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Jorge Rodríguez Salas</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>José Luis Avilés Molina</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>Rafael Arrieta garcia</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>Alessio Marinoni</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>Jorge Rodríguez Salas</t>
-        </is>
-      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -5388,113 +6224,113 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Sachin Tekchandani Pursnani</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>María Gabaldón Rico</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Cristina Vegas González</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Sachin Tekchandani Pursnani</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Ernesto Gómez López</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Jorge Rodríguez Salas</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Juan Antonio Pérez Gago</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Ernesto Gómez López</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Juan Bautista Martín Navarro</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Paula Filipe</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Noah Wang teng</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Lucía Astray</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Aledia Ortega Britos</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Rubén Polo Redondo</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Natalia Franquet</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Alessio Marinoni</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>Juan Manuel Arnelas Benito</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Lucía Astray</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Aledia Ortega Britos</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Benjamin Garcia</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>José Luis Avilés Molina</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Tino Gutiérrez</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
         <is>
           <t>Jorge Luis Hernández Fernández</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Rubén Polo Redondo</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Noah Wang teng</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Natalia Franquet</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>Rafael Arrieta garcia</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>Anthony Michael Garcia Serra</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Benjamin Garcia</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>José Luis Avilés Molina</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Jorge Rodríguez Salas</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>Tino Gutiérrez</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>Paula Filipe</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>Alessio Marinoni</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -5502,113 +6338,113 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Cristina Vegas González</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Natalia Franquet</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Rubén Polo Redondo</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Sachin Tekchandani Pursnani</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>José Luis Avilés Molina</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Lucía Astray</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Benjamin Garcia</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Jorge Rodríguez Salas</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Juan Manuel Arnelas Benito</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Ernesto Gómez López</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>María Gabaldón Rico</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Juan Antonio Pérez Gago</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Aledia Ortega Britos</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Jorge Luis Hernández Fernández</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>Juan Bautista Martín Navarro</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Juan Antonio Pérez Gago</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Cristina Vegas González</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Aledia Ortega Britos</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Rubén Polo Redondo</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>María Gabaldón Rico</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Benjamin Garcia</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Lucía Astray</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>José Luis Avilés Molina</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Natalia Franquet</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Ernesto Gómez López</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Juan Manuel Arnelas Benito</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>Tino Gutiérrez</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
         <is>
           <t>Noah Wang teng</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Paula Filipe</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr">
         <is>
           <t>Rafael Arrieta garcia</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>Anthony Michael Garcia Serra</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>Alessio Marinoni</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>Jorge Luis Hernández Fernández</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>Paula Filipe</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>Jorge Rodríguez Salas</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -5616,110 +6452,106 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Natalia Franquet</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Juan Manuel Arnelas Benito</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Juan Antonio Pérez Gago</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Cristina Vegas González</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>María Gabaldón Rico</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Juan Bautista Martín Navarro</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ernesto Gómez López</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Alessio Marinoni</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Tino Gutiérrez</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Sachin Tekchandani Pursnani</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Noah Wang teng</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Lucía Astray</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>Rubén Polo Redondo</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Noah Wang teng</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Juan Manuel Arnelas Benito</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Lucía Astray</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sachin Tekchandani Pursnani</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Benjamin Garcia</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>José Luis Avilés Molina</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Anthony Michael Garcia Serra</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
         <is>
           <t>Aledia Ortega Britos</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Natalia Franquet</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Ernesto Gómez López</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Cristina Vegas González</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>María Gabaldón Rico</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Tino Gutiérrez</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Juan Antonio Pérez Gago</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Juan Bautista Martín Navarro</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Benjamin Garcia</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Alessio Marinoni</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Jorge Rodríguez Salas</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Paula Filipe</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr">
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Rafael Arrieta garcia</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr">
         <is>
           <t>Jorge Luis Hernández Fernández</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>Anthony Michael Garcia Serra</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>José Luis Avilés Molina</t>
         </is>
       </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>Rafael Arrieta garcia</t>
+          <t>Jorge Rodríguez Salas</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr"/>
@@ -5730,112 +6562,112 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Juan Antonio Pérez Gago</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Lucía Astray</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Natalia Franquet</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Noah Wang teng</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tino Gutiérrez</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Rubén Polo Redondo</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Sachin Tekchandani Pursnani</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Jorge Luis Hernández Fernández</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>Ernesto Gómez López</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>María Gabaldón Rico</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Juan Manuel Arnelas Benito</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Juan Bautista Martín Navarro</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>Cristina Vegas González</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Rafael Arrieta garcia</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>Aledia Ortega Britos</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Juan Manuel Arnelas Benito</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Juan Antonio Pérez Gago</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Juan Bautista Martín Navarro</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Natalia Franquet</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Noah Wang teng</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Anthony Michael Garcia Serra</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Jorge Rodríguez Salas</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Alessio Marinoni</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
         <is>
           <t>Benjamin Garcia</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Lucía Astray</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Sachin Tekchandani Pursnani</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Rubén Polo Redondo</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>José Luis Avilés Molina</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
         <is>
           <t>Paula Filipe</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>José Luis Avilés Molina</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Jorge Luis Hernández Fernández</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Tino Gutiérrez</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Alessio Marinoni</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>Jorge Rodríguez Salas</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>Rafael Arrieta garcia</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>Anthony Michael Garcia Serra</t>
-        </is>
-      </c>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -5844,110 +6676,110 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>María Gabaldón Rico</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Sachin Tekchandani Pursnani</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Benjamin Garcia</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Tino Gutiérrez</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Natalia Franquet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Aledia Ortega Britos</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Lucía Astray</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Noah Wang teng</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Juan Antonio Pérez Gago</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>Juan Bautista Martín Navarro</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Cristina Vegas González</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Juan Manuel Arnelas Benito</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>Ernesto Gómez López</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Aledia Ortega Britos</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>María Gabaldón Rico</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Juan Antonio Pérez Gago</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Juan Manuel Arnelas Benito</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Cristina Vegas González</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Noah Wang teng</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Natalia Franquet</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Lucía Astray</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Benjamin Garcia</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Jorge Rodríguez Salas</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>Rubén Polo Redondo</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Sachin Tekchandani Pursnani</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Jorge Rodríguez Salas</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Jorge Luis Hernández Fernández</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>Rafael Arrieta garcia</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Tino Gutiérrez</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Jorge Luis Hernández Fernández</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr">
         <is>
           <t>José Luis Avilés Molina</t>
         </is>
       </c>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr">
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Anthony Michael Garcia Serra</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Paula Filipe</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>Alessio Marinoni</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>Anthony Michael Garcia Serra</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>Paula Filipe</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr"/>
@@ -5958,107 +6790,335 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Rubén Polo Redondo</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Cristina Vegas González</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Juan Bautista Martín Navarro</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>María Gabaldón Rico</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Rafael Arrieta garcia</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Juan Manuel Arnelas Benito</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Juan Antonio Pérez Gago</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Anthony Michael Garcia Serra</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>Lucía Astray</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Natalia Franquet</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Sachin Tekchandani Pursnani</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Aledia Ortega Britos</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Noah Wang teng</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Ernesto Gómez López</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>Tino Gutiérrez</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Alessio Marinoni</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Jorge Rodríguez Salas</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr">
         <is>
           <t>Benjamin Garcia</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Jorge Luis Hernández Fernández</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>José Luis Avilés Molina</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>Paula Filipe</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ernesto Gómez López</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Jorge Luis Hernández Fernández</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Aledia Ortega Britos</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Lucía Astray</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Benjamin Garcia</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Noah Wang teng</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Natalia Franquet</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>José Luis Avilés Molina</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Cristina Vegas González</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Juan Antonio Pérez Gago</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Juan Bautista Martín Navarro</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>María Gabaldón Rico</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Juan Manuel Arnelas Benito</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Anthony Michael Garcia Serra</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
         <is>
           <t>Sachin Tekchandani Pursnani</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Rafael Arrieta garcia</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Rubén Polo Redondo</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Tino Gutiérrez</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Alessio Marinoni</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Jorge Rodríguez Salas</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>Paula Filipe</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Alessio Marinoni</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Aledia Ortega Britos</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Ernesto Gómez López</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Juan Antonio Pérez Gago</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Juan Manuel Arnelas Benito</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>María Gabaldón Rico</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Cristina Vegas González</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Rubén Polo Redondo</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Noah Wang teng</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Paula Filipe</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>Natalia Franquet</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Noah Wang teng</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Rubén Polo Redondo</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Cristina Vegas González</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Juan Antonio Pérez Gago</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Juan Manuel Arnelas Benito</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Aledia Ortega Britos</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Sachin Tekchandani Pursnani</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Lucía Astray</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Jorge Luis Hernández Fernández</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
         <is>
           <t>Juan Bautista Martín Navarro</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Ernesto Gómez López</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>María Gabaldón Rico</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Alessio Marinoni</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>Jorge Rodríguez Salas</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>Anthony Michael Garcia Serra</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Benjamin Garcia</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Tino Gutiérrez</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>Rafael Arrieta garcia</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
         <is>
           <t>José Luis Avilés Molina</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>Jorge Luis Hernández Fernández</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>Rafael Arrieta garcia</t>
         </is>
       </c>
     </row>
@@ -6073,7 +7133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6084,97 +7144,97 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Paula Filipe</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Juan Antonio Pérez Gago</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Juan Manuel Arnelas Benito</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Juan Bautista Martín Navarro</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Ernesto Gómez López</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Cristina Vegas González</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>María Gabaldón Rico</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Aledia Ortega Britos</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Sachin Tekchandani Pursnani</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Rubén Polo Redondo</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Natalia Franquet</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Noah Wang teng</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Lucía Astray</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Benjamin Garcia</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Tino Gutiérrez</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Jorge Luis Hernández Fernández</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>José Luis Avilés Molina</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Jorge Rodríguez Salas</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Rafael Arrieta garcia</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Paula Filipe</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
@@ -6194,109 +7254,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Mediasmart</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Blue Telecom Consulting</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HETIKUS</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Private-Radar</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Di-Dy</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Spotlab</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Sopra Steria</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Mantra Internet</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Mantra</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>interacso</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>ThePowerMBA</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
           <t>magiquo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Mantra</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>BinPar Team SL</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Bring Global</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>TECHEDGE ESPAÑA</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>interacso</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Mediasmart</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>ThePowerMBA</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>BinPar Team SL</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Private-Radar</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>HETIKUS</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Blue Telecom Consulting</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Minsait</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Hays</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Keedio</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t>Claire joster</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Spotlab</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Sopra Steria</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Hays</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Bring Global</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Di-Dy</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Mantra Internet</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>The Key Talent</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Syntonize</t>
-        </is>
-      </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Arvato Bertelsmann</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Deloitte</t>
-        </is>
-      </c>
+          <t>STRATESYS</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -6304,84 +7360,84 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Hays</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ThePowerMBA</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mediasmart</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>BinPar Team SL</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>magiquo</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>TECHEDGE ESPAÑA</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>Mantra</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>magiquo</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>interacso</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>BinPar Team SL</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>ThePowerMBA</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Mediasmart</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Spotlab</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Sopra Steria</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Private-Radar</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>HETIKUS</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Claire joster</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>Blue Telecom Consulting</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>TECHEDGE ESPAÑA</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Mantra Internet</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Di-Dy</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Mantra Internet</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Sopra Steria</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>HETIKUS</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Private-Radar</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Hays</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Claire joster</t>
-        </is>
-      </c>
       <c r="R3" t="inlineStr">
         <is>
           <t>Bring Global</t>
@@ -6389,22 +7445,22 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Keedio</t>
+          <t>Syntonize</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
+          <t>Minsait</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>SIVSA</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
           <t>The Key Talent</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Syntonize</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>Arvato Bertelsmann</t>
         </is>
       </c>
     </row>
@@ -6414,107 +7470,107 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Keedio</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>TECHEDGE ESPAÑA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Sopra Steria</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Mantra</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Spotlab</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>interacso</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>BinPar Team SL</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Mediasmart</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>magiquo</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>ThePowerMBA</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Claire joster</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Di-Dy</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>HETIKUS</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>TECHEDGE ESPAÑA</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Private-Radar</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Bring Global</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Arvato Bertelsmann</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
         <is>
           <t>Blue Telecom Consulting</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Private-Radar</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>magiquo</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>ThePowerMBA</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Mediasmart</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>interacso</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>BinPar Team SL</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Mantra</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Minsait</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Mantra Internet</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>The Key Talent</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>Syntonize</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Minsait</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>The Key Talent</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Arvato Bertelsmann</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Claire joster</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Di-Dy</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Deloitte</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Mantra Internet</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>Hays</t>
         </is>
       </c>
     </row>
@@ -6524,97 +7580,97 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Bring Global</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>BinPar Team SL</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>interacso</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Mediasmart</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>ThePowerMBA</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>magiquo</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>TECHEDGE ESPAÑA</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Mantra</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>HETIKUS</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>Private-Radar</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>Spotlab</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>Sopra Steria</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>Di-Dy</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>Mantra Internet</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>Blue Telecom Consulting</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>Claire joster</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>The Key Talent</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>SIVSA</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>Syntonize</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>Bring Global</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -6634,107 +7690,107 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Mantra Internet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Spotlab</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TECHEDGE ESPAÑA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sopra Steria</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Private-Radar</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>HETIKUS</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Blue Telecom Consulting</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>ThePowerMBA</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Mediasmart</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>magiquo</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>BinPar Team SL</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Mantra</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>interacso</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>BinPar Team SL</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ThePowerMBA</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Mediasmart</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Mantra</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>magiquo</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>HETIKUS</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>TECHEDGE ESPAÑA</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Hays</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>Claire joster</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Sopra Steria</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Spotlab</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Private-Radar</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Syntonize</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Keedio</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>Di-Dy</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Syntonize</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Blue Telecom Consulting</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Mantra Internet</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>The Key Talent</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Hays</t>
-        </is>
-      </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>Arvato Bertelsmann</t>
+          <t>SIVSA</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
           <t>Bring Global</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>SIVSA</t>
         </is>
       </c>
     </row>
@@ -6744,107 +7800,107 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Syntonize</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>magiquo</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Mantra</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>TECHEDGE ESPAÑA</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>interacso</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Mediasmart</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>ThePowerMBA</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>BinPar Team SL</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Private-Radar</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>HETIKUS</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Blue Telecom Consulting</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Claire joster</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Spotlab</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>Sopra Steria</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Mantra</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Spotlab</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>interacso</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>BinPar Team SL</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Mediasmart</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>magiquo</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>ThePowerMBA</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Claire joster</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Hays</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Bring Global</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
         <is>
           <t>Di-Dy</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>HETIKUS</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Private-Radar</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Bring Global</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Mantra Internet</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>The Key Talent</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
         <is>
           <t>Arvato Bertelsmann</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Blue Telecom Consulting</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Minsait</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Mantra Internet</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>Keedio</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>The Key Talent</t>
-        </is>
-      </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>Syntonize</t>
+          <t>Deloitte</t>
         </is>
       </c>
     </row>
@@ -6852,109 +7908,105 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>HETIKUS</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Blue Telecom Consulting</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Spotlab</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sopra Steria</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Private-Radar</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Di-Dy</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Claire joster</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>interacso</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>BinPar Team SL</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Mediasmart</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>ThePowerMBA</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>magiquo</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>TECHEDGE ESPAÑA</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Sopra Steria</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Private-Radar</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>HETIKUS</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Blue Telecom Consulting</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ThePowerMBA</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Mediasmart</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>magiquo</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>BinPar Team SL</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>Mantra</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>interacso</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Hays</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Claire joster</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Syntonize</t>
-        </is>
-      </c>
       <c r="Q8" t="inlineStr">
         <is>
+          <t>SIVSA</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Minsait</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Arvato Bertelsmann</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>STRATESYS</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
           <t>Keedio</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Di-Dy</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>SIVSA</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>Mantra Internet</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>Deloitte</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>Bring Global</t>
         </is>
       </c>
     </row>
@@ -6964,107 +8016,107 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>SIVSA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mediasmart</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>ThePowerMBA</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Mediasmart</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>magiquo</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Mantra</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>BinPar Team SL</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>magiquo</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>interacso</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>TECHEDGE ESPAÑA</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Mantra</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>interacso</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Sopra Steria</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>Spotlab</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Sopra Steria</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>HETIKUS</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>Private-Radar</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>HETIKUS</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Blue Telecom Consulting</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>Claire joster</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Blue Telecom Consulting</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Di-Dy</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>Mantra Internet</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Di-Dy</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Syntonize</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Hays</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
         <is>
           <t>Bring Global</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Syntonize</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>Minsait</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>Hays</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>SIVSA</t>
-        </is>
-      </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>The Key Talent</t>
+          <t>Keedio</t>
         </is>
       </c>
     </row>
@@ -7074,107 +8126,107 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>The Key Talent</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mantra</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>magiquo</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>interacso</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>BinPar Team SL</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>ThePowerMBA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>Mediasmart</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ThePowerMBA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>magiquo</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Mantra</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>BinPar Team SL</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>interacso</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Spotlab</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Blue Telecom Consulting</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>TECHEDGE ESPAÑA</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Di-Dy</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Mantra Internet</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>Sopra Steria</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Spotlab</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>HETIKUS</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>Private-Radar</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Blue Telecom Consulting</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Hays</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>Claire joster</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Di-Dy</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Mantra Internet</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Bring Global</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Keedio</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
         <is>
           <t>Syntonize</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Hays</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>Bring Global</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>SIVSA</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>Minsait</t>
-        </is>
-      </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>Keedio</t>
+          <t>Arvato Bertelsmann</t>
         </is>
       </c>
     </row>
@@ -7184,103 +8236,323 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Sopra Steria</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Spotlab</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>HETIKUS</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>TECHEDGE ESPAÑA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>Blue Telecom Consulting</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Private-Radar</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>magiquo</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ThePowerMBA</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Mediasmart</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>interacso</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>BinPar Team SL</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Mantra</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Syntonize</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Minsait</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>The Key Talent</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Arvato Bertelsmann</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Claire joster</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Di-Dy</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Mantra Internet</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Hays</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Arvato Bertelsmann</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>interacso</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>BinPar Team SL</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ThePowerMBA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Mediasmart</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Mantra</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>magiquo</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>HETIKUS</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>TECHEDGE ESPAÑA</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Claire joster</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Sopra Steria</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>Spotlab</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Private-Radar</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Di-Dy</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Syntonize</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Blue Telecom Consulting</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Mantra Internet</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>The Key Talent</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Hays</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Bring Global</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>SIVSA</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ThePowerMBA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Private-Radar</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Di-Dy</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Claire joster</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>HETIKUS</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>Sopra Steria</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Private-Radar</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Di-Dy</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Claire joster</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Spotlab</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Blue Telecom Consulting</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>BinPar Team SL</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Mantra</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>magiquo</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>interacso</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>BinPar Team SL</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>TECHEDGE ESPAÑA</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>SIVSA</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>The Key Talent</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Keedio</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>STRATESYS</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Arvato Bertelsmann</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
         <is>
           <t>Mediasmart</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>ThePowerMBA</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>magiquo</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>TECHEDGE ESPAÑA</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Mantra</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>SIVSA</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Minsait</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Arvato Bertelsmann</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>STRATESYS</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>Keedio</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>Mantra Internet</t>
         </is>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -397,7 +397,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mediasmart</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -405,11 +405,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Paula Filipe</t>
+          <t>Juan Antonio Pérez Gago</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="3">
@@ -418,7 +418,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Blue Telecom Consulting</t>
+          <t>magiquo</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -426,11 +426,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Juan Antonio Pérez Gago</t>
+          <t>Juan Manuel Arnelas Benito</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.49</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="4">
@@ -439,7 +439,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HETIKUS</t>
+          <t>interacso</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -447,11 +447,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Juan Manuel Arnelas Benito</t>
+          <t>Juan Bautista Martín Navarro</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.57</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="5">
@@ -460,7 +460,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Private-Radar</t>
+          <t>BinPar Team SL</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -468,11 +468,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Juan Bautista Martín Navarro</t>
+          <t>Ernesto Gómez López</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.52</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6">
@@ -481,7 +481,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Di-Dy</t>
+          <t>ThePowerMBA</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -489,11 +489,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ernesto Gómez López</t>
+          <t>Cristina Vegas González</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.58</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Spotlab</t>
+          <t>Mediasmart</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -510,11 +510,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cristina Vegas González</t>
+          <t>María Gabaldón Rico</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.63</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sopra Steria</t>
+          <t>Spotlab</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -531,11 +531,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>María Gabaldón Rico</t>
+          <t>Aledia Ortega Britos</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.62</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="9">
@@ -544,7 +544,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mantra Internet</t>
+          <t>Blue Telecom Consulting</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -552,11 +552,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Aledia Ortega Britos</t>
+          <t>Sachin Tekchandani Pursnani</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.34</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
@@ -565,7 +565,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>TECHEDGE ESPAÑA</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -573,11 +573,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sachin Tekchandani Pursnani</t>
+          <t>Rubén Polo Redondo</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.77</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="11">
@@ -586,7 +586,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>interacso</t>
+          <t>Di-Dy</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -594,11 +594,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Rubén Polo Redondo</t>
+          <t>Natalia Franquet</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="12">
@@ -607,7 +607,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ThePowerMBA</t>
+          <t>Mantra Internet</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -615,11 +615,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Natalia Franquet</t>
+          <t>Noah Wang teng</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.9</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="13">
@@ -628,7 +628,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>magiquo</t>
+          <t>Sopra Steria</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -636,11 +636,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Noah Wang teng</t>
+          <t>Lucía Astray</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.82</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14">
@@ -649,7 +649,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BinPar Team SL</t>
+          <t>HETIKUS</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -657,11 +657,11 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Lucía Astray</t>
+          <t>Benjamin Garcia</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15">
@@ -670,7 +670,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bring Global</t>
+          <t>Private-Radar</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -678,11 +678,11 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Benjamin Garcia</t>
+          <t>Tino Gutiérrez</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.24</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="16">
@@ -691,7 +691,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TECHEDGE ESPAÑA</t>
+          <t>Hays</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -699,11 +699,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Tino Gutiérrez</t>
+          <t>Jorge Luis Hernández Fernández</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.68</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17">
@@ -712,7 +712,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Minsait</t>
+          <t>Claire joster</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -720,11 +720,11 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jorge Luis Hernández Fernández</t>
+          <t>José Luis Avilés Molina</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.21</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="18">
@@ -733,7 +733,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hays</t>
+          <t>Bring Global</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -741,11 +741,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>José Luis Avilés Molina</t>
+          <t>Jorge Rodríguez Salas</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="19">
@@ -762,11 +762,11 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jorge Rodríguez Salas</t>
+          <t>Rafael Arrieta garcia</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.16</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="20">
@@ -775,7 +775,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Claire joster</t>
+          <t>The Key Talent</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -783,11 +783,11 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Rafael Arrieta garcia</t>
+          <t>Paula Filipe</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.63</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="21">
@@ -796,7 +796,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>STRATESYS</t>
+          <t>Syntonize</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.1</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="22">
@@ -817,19 +817,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ThePowerMBA</t>
+          <t>Arvato Bertelsmann</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Juan Antonio Pérez Gago</t>
+          <t>Alessio Marinoni</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.84</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="23">
@@ -846,11 +846,11 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Juan Manuel Arnelas Benito</t>
+          <t>Paula Filipe</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -859,7 +859,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BinPar Team SL</t>
+          <t>Blue Telecom Consulting</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -867,11 +867,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Juan Bautista Martín Navarro</t>
+          <t>Juan Antonio Pérez Gago</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.76</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="25">
@@ -880,7 +880,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>magiquo</t>
+          <t>HETIKUS</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -888,11 +888,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Ernesto Gómez López</t>
+          <t>Juan Manuel Arnelas Benito</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.98</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="26">
@@ -901,7 +901,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TECHEDGE ESPAÑA</t>
+          <t>Private-Radar</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -909,11 +909,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Cristina Vegas González</t>
+          <t>Juan Bautista Martín Navarro</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.72</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="27">
@@ -922,7 +922,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>Di-Dy</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -930,11 +930,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>María Gabaldón Rico</t>
+          <t>Ernesto Gómez López</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.68</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="28">
@@ -943,7 +943,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>interacso</t>
+          <t>Spotlab</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -951,11 +951,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Aledia Ortega Britos</t>
+          <t>Cristina Vegas González</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.66</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="29">
@@ -964,7 +964,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Spotlab</t>
+          <t>Sopra Steria</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -972,11 +972,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Sachin Tekchandani Pursnani</t>
+          <t>María Gabaldón Rico</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.7</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="30">
@@ -985,7 +985,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sopra Steria</t>
+          <t>Mantra Internet</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -993,11 +993,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Rubén Polo Redondo</t>
+          <t>Aledia Ortega Britos</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.58</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="31">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Private-Radar</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1014,11 +1014,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Natalia Franquet</t>
+          <t>Sachin Tekchandani Pursnani</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.5</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="32">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>HETIKUS</t>
+          <t>interacso</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1035,11 +1035,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Noah Wang teng</t>
+          <t>Rubén Polo Redondo</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.63</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Claire joster</t>
+          <t>ThePowerMBA</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1056,11 +1056,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Lucía Astray</t>
+          <t>Natalia Franquet</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.41</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="34">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Blue Telecom Consulting</t>
+          <t>magiquo</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1077,11 +1077,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Benjamin Garcia</t>
+          <t>Noah Wang teng</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.43</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="35">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Mantra Internet</t>
+          <t>BinPar Team SL</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1098,11 +1098,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Tino Gutiérrez</t>
+          <t>Lucía Astray</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.37</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="36">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Di-Dy</t>
+          <t>Bring Global</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1119,11 +1119,11 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Jorge Luis Hernández Fernández</t>
+          <t>Benjamin Garcia</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.41</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="37">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Bring Global</t>
+          <t>TECHEDGE ESPAÑA</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1140,11 +1140,11 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>José Luis Avilés Molina</t>
+          <t>Tino Gutiérrez</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.32</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="38">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Syntonize</t>
+          <t>Minsait</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1161,11 +1161,11 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Jorge Rodríguez Salas</t>
+          <t>Jorge Luis Hernández Fernández</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.28</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="39">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Minsait</t>
+          <t>Hays</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1182,11 +1182,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Rafael Arrieta garcia</t>
+          <t>José Luis Avilés Molina</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.52</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="40">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Hays</t>
+          <t>Keedio</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1203,11 +1203,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Paula Filipe</t>
+          <t>Jorge Rodríguez Salas</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.36</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="41">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SIVSA</t>
+          <t>Claire joster</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1224,11 +1224,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Anthony Michael Garcia Serra</t>
+          <t>Rafael Arrieta garcia</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.31</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="42">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>The Key Talent</t>
+          <t>STRATESYS</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1245,11 +1245,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Alessio Marinoni</t>
+          <t>Anthony Michael Garcia Serra</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="43">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TECHEDGE ESPAÑA</t>
+          <t>BinPar Team SL</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="44">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sopra Steria</t>
+          <t>interacso</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.71</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="45">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>Mediasmart</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.72</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="46">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Spotlab</t>
+          <t>ThePowerMBA</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.74</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="47">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>interacso</t>
+          <t>magiquo</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BinPar Team SL</t>
+          <t>TECHEDGE ESPAÑA</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="49">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Mediasmart</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.85</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="50">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>magiquo</t>
+          <t>HETIKUS</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.86</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="51">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ThePowerMBA</t>
+          <t>Private-Radar</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.79</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="52">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Claire joster</t>
+          <t>Spotlab</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.41</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="53">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Di-Dy</t>
+          <t>Sopra Steria</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.46</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="54">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>HETIKUS</t>
+          <t>Di-Dy</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="55">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Private-Radar</t>
+          <t>Mantra Internet</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.47</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="56">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Bring Global</t>
+          <t>Blue Telecom Consulting</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.27</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="57">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Arvato Bertelsmann</t>
+          <t>Claire joster</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.28</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="58">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Blue Telecom Consulting</t>
+          <t>The Key Talent</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.48</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="59">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Minsait</t>
+          <t>SIVSA</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="60">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Mantra Internet</t>
+          <t>Syntonize</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="61">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Keedio</t>
+          <t>Bring Global</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.21</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="62">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>The Key Talent</t>
+          <t>Hays</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="63">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Syntonize</t>
+          <t>Minsait</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.38</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="64">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BinPar Team SL</t>
+          <t>magiquo</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.77</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="65">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>interacso</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.82</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="66">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Mediasmart</t>
+          <t>TECHEDGE ESPAÑA</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="67">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ThePowerMBA</t>
+          <t>interacso</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="68">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>magiquo</t>
+          <t>Mediasmart</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -1795,7 +1795,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.71</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="69">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TECHEDGE ESPAÑA</t>
+          <t>ThePowerMBA</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.7</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="70">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>BinPar Team SL</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.63</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="71">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>HETIKUS</t>
+          <t>Private-Radar</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="72">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Private-Radar</t>
+          <t>HETIKUS</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.44</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="73">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Spotlab</t>
+          <t>Blue Telecom Consulting</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.66</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="74">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Sopra Steria</t>
+          <t>Claire joster</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.58</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="75">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Di-Dy</t>
+          <t>Spotlab</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="76">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Mantra Internet</t>
+          <t>Sopra Steria</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.35</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="77">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Blue Telecom Consulting</t>
+          <t>Hays</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.45</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="78">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Claire joster</t>
+          <t>Bring Global</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.39</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="79">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>The Key Talent</t>
+          <t>Di-Dy</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.31</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="80">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SIVSA</t>
+          <t>Mantra Internet</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.24</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="81">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Syntonize</t>
+          <t>The Key Talent</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="82">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Bring Global</t>
+          <t>Syntonize</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="83">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Hays</t>
+          <t>Arvato Bertelsmann</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="84">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Minsait</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.24</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="85">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Spotlab</t>
+          <t>ThePowerMBA</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="86">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TECHEDGE ESPAÑA</t>
+          <t>Mediasmart</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.71</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="87">
@@ -2182,7 +2182,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Sopra Steria</t>
+          <t>BinPar Team SL</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.66</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="88">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Private-Radar</t>
+          <t>magiquo</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.6</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="89">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>HETIKUS</t>
+          <t>TECHEDGE ESPAÑA</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="90">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Blue Telecom Consulting</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.44</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="91">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ThePowerMBA</t>
+          <t>interacso</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.83</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="92">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Mediasmart</t>
+          <t>Spotlab</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.97</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="93">
@@ -2308,7 +2308,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>magiquo</t>
+          <t>Sopra Steria</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.76</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="94">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>BinPar Team SL</t>
+          <t>Private-Radar</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="95">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>HETIKUS</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="96">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>interacso</t>
+          <t>Claire joster</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.72</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="97">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Hays</t>
+          <t>Blue Telecom Consulting</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.29</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="98">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Claire joster</t>
+          <t>Mantra Internet</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="99">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Syntonize</t>
+          <t>Di-Dy</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.26</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="100">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Keedio</t>
+          <t>Bring Global</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="101">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Di-Dy</t>
+          <t>Syntonize</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.41</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="102">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SIVSA</t>
+          <t>Minsait</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -2509,7 +2509,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.45</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="103">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Mantra Internet</t>
+          <t>Hays</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="104">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Deloitte</t>
+          <t>SIVSA</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.14</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="105">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Bring Global</t>
+          <t>The Key Talent</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="106">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>magiquo</t>
+          <t>HETIKUS</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.73</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="107">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>Blue Telecom Consulting</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -2614,7 +2614,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.74</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="108">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TECHEDGE ESPAÑA</t>
+          <t>Spotlab</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="109">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>interacso</t>
+          <t>Sopra Steria</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.82</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="110">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Mediasmart</t>
+          <t>Private-Radar</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.96</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="111">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ThePowerMBA</t>
+          <t>Di-Dy</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.89</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="112">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>BinPar Team SL</t>
+          <t>Claire joster</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -2719,7 +2719,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.7</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="113">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Private-Radar</t>
+          <t>interacso</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="114">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>HETIKUS</t>
+          <t>BinPar Team SL</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -2761,7 +2761,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.57</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="115">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Blue Telecom Consulting</t>
+          <t>Mediasmart</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.45</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="116">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Claire joster</t>
+          <t>ThePowerMBA</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -2803,7 +2803,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.48</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="117">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Spotlab</t>
+          <t>magiquo</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -2824,7 +2824,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.64</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="118">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Sopra Steria</t>
+          <t>TECHEDGE ESPAÑA</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.61</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="119">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Hays</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.28</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="120">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Bring Global</t>
+          <t>SIVSA</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="121">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Di-Dy</t>
+          <t>Minsait</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.42</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="122">
@@ -2917,7 +2917,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Mantra Internet</t>
+          <t>Arvato Bertelsmann</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.37</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="123">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>The Key Talent</t>
+          <t>STRATESYS</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.5</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="124">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Syntonize</t>
+          <t>Keedio</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -2967,11 +2967,11 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Paula Filipe</t>
+          <t>Anthony Michael Garcia Serra</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.27</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="125">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Arvato Bertelsmann</t>
+          <t>Mantra Internet</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -2988,11 +2988,11 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Anthony Michael Garcia Serra</t>
+          <t>Alessio Marinoni</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="126">
@@ -3001,19 +3001,19 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Deloitte</t>
+          <t>Mediasmart</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Alessio Marinoni</t>
+          <t>Juan Antonio Pérez Gago</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.09</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>HETIKUS</t>
+          <t>ThePowerMBA</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -3030,11 +3030,11 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Juan Antonio Pérez Gago</t>
+          <t>Juan Manuel Arnelas Benito</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.54</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="128">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Blue Telecom Consulting</t>
+          <t>magiquo</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -3051,11 +3051,11 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Juan Manuel Arnelas Benito</t>
+          <t>Juan Bautista Martín Navarro</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.6</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="129">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Spotlab</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -3072,11 +3072,11 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Juan Bautista Martín Navarro</t>
+          <t>Ernesto Gómez López</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.71</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="130">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Sopra Steria</t>
+          <t>BinPar Team SL</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -3093,11 +3093,11 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Ernesto Gómez López</t>
+          <t>Cristina Vegas González</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="131">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Private-Radar</t>
+          <t>interacso</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -3114,11 +3114,11 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Cristina Vegas González</t>
+          <t>María Gabaldón Rico</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.46</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="132">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Di-Dy</t>
+          <t>TECHEDGE ESPAÑA</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -3135,11 +3135,11 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>María Gabaldón Rico</t>
+          <t>Aledia Ortega Britos</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.41</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="133">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Claire joster</t>
+          <t>Sopra Steria</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -3156,11 +3156,11 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Aledia Ortega Britos</t>
+          <t>Sachin Tekchandani Pursnani</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.42</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="134">
@@ -3169,7 +3169,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>interacso</t>
+          <t>Spotlab</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -3177,11 +3177,11 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Sachin Tekchandani Pursnani</t>
+          <t>Rubén Polo Redondo</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.82</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="135">
@@ -3190,7 +3190,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>BinPar Team SL</t>
+          <t>HETIKUS</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -3198,11 +3198,11 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Rubén Polo Redondo</t>
+          <t>Natalia Franquet</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="136">
@@ -3211,7 +3211,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Mediasmart</t>
+          <t>Private-Radar</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -3219,11 +3219,11 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Natalia Franquet</t>
+          <t>Noah Wang teng</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.96</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="137">
@@ -3232,7 +3232,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ThePowerMBA</t>
+          <t>Blue Telecom Consulting</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -3240,11 +3240,11 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Noah Wang teng</t>
+          <t>Lucía Astray</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.83</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="138">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>magiquo</t>
+          <t>Claire joster</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -3261,11 +3261,11 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Lucía Astray</t>
+          <t>Benjamin Garcia</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.78</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="139">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TECHEDGE ESPAÑA</t>
+          <t>Di-Dy</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -3282,11 +3282,11 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Benjamin Garcia</t>
+          <t>Tino Gutiérrez</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="140">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>Mantra Internet</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -3303,11 +3303,11 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Tino Gutiérrez</t>
+          <t>Jorge Luis Hernández Fernández</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.7</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="141">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>SIVSA</t>
+          <t>Syntonize</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -3324,11 +3324,11 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Jorge Luis Hernández Fernández</t>
+          <t>José Luis Avilés Molina</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.24</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="142">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Minsait</t>
+          <t>Hays</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -3345,11 +3345,11 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>José Luis Avilés Molina</t>
+          <t>Jorge Rodríguez Salas</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="143">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Arvato Bertelsmann</t>
+          <t>Bring Global</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -3366,11 +3366,11 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Jorge Rodríguez Salas</t>
+          <t>Rafael Arrieta garcia</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.22</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="144">
@@ -3379,7 +3379,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>STRATESYS</t>
+          <t>SIVSA</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -3387,11 +3387,11 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Rafael Arrieta garcia</t>
+          <t>Paula Filipe</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="145">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Keedio</t>
+          <t>Minsait</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.22</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="146">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Mantra Internet</t>
+          <t>Keedio</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -3433,7 +3433,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.37</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="147">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Mediasmart</t>
+          <t>Spotlab</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>1</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="148">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ThePowerMBA</t>
+          <t>TECHEDGE ESPAÑA</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="149">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>magiquo</t>
+          <t>Sopra Steria</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.78</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="150">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>Private-Radar</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -3517,7 +3517,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0.82</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="151">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>BinPar Team SL</t>
+          <t>HETIKUS</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.77</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="152">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>interacso</t>
+          <t>Blue Telecom Consulting</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0.71</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="153">
@@ -3568,7 +3568,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TECHEDGE ESPAÑA</t>
+          <t>ThePowerMBA</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.65</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="154">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Sopra Steria</t>
+          <t>Mediasmart</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -3601,7 +3601,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="155">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Spotlab</t>
+          <t>magiquo</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.58</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="156">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>HETIKUS</t>
+          <t>BinPar Team SL</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -3643,7 +3643,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.59</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="157">
@@ -3652,7 +3652,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Private-Radar</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.61</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="158">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Blue Telecom Consulting</t>
+          <t>interacso</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.44</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="159">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Claire joster</t>
+          <t>Hays</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0.42</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="160">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Di-Dy</t>
+          <t>Claire joster</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="161">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Mantra Internet</t>
+          <t>Syntonize</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.38</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="162">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Syntonize</t>
+          <t>Keedio</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="163">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Hays</t>
+          <t>Di-Dy</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.29</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="164">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Bring Global</t>
+          <t>SIVSA</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.59</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="165">
@@ -3820,7 +3820,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>SIVSA</t>
+          <t>Mantra Internet</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.31</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="166">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Minsait</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.32</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="167">
@@ -3862,7 +3862,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Keedio</t>
+          <t>Bring Global</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -3874,7 +3874,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="168">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>interacso</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="169">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>magiquo</t>
+          <t>BinPar Team SL</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="170">
@@ -3925,7 +3925,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>interacso</t>
+          <t>ThePowerMBA</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.72</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="171">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>BinPar Team SL</t>
+          <t>Mediasmart</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -3958,7 +3958,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="172">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ThePowerMBA</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0.88</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="173">
@@ -3988,7 +3988,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Mediasmart</t>
+          <t>magiquo</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="174">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Spotlab</t>
+          <t>HETIKUS</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="175">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Blue Telecom Consulting</t>
+          <t>TECHEDGE ESPAÑA</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="176">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TECHEDGE ESPAÑA</t>
+          <t>Claire joster</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0.65</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="177">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Di-Dy</t>
+          <t>Sopra Steria</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -4084,7 +4084,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0.41</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="178">
@@ -4093,7 +4093,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Mantra Internet</t>
+          <t>Spotlab</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>0.46</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="179">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Sopra Steria</t>
+          <t>Private-Radar</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0.6</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="180">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>HETIKUS</t>
+          <t>Di-Dy</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -4147,7 +4147,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="181">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Private-Radar</t>
+          <t>Syntonize</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -4168,7 +4168,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.49</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="182">
@@ -4177,7 +4177,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Hays</t>
+          <t>Blue Telecom Consulting</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0.3</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="183">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Claire joster</t>
+          <t>Mantra Internet</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -4210,7 +4210,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="184">
@@ -4219,7 +4219,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Bring Global</t>
+          <t>The Key Talent</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -4231,7 +4231,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="185">
@@ -4240,7 +4240,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Keedio</t>
+          <t>Hays</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>The Key Talent</t>
+          <t>Arvato Bertelsmann</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -4273,7 +4273,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="187">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Syntonize</t>
+          <t>Bring Global</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="188">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Arvato Bertelsmann</t>
+          <t>SIVSA</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -4315,7 +4315,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="189">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>interacso</t>
+          <t>TECHEDGE ESPAÑA</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -4777,7 +4777,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="211">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>BinPar Team SL</t>
+          <t>Sopra Steria</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -4798,7 +4798,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>0.76</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="212">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ThePowerMBA</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -4819,7 +4819,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>0.88</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="213">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Mediasmart</t>
+          <t>Spotlab</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -4840,7 +4840,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0.97</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="214">
@@ -4849,7 +4849,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>interacso</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -4861,7 +4861,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="215">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>magiquo</t>
+          <t>BinPar Team SL</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="216">
@@ -4891,7 +4891,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>HETIKUS</t>
+          <t>Mediasmart</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -4903,7 +4903,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>0.59</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="217">
@@ -4912,7 +4912,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TECHEDGE ESPAÑA</t>
+          <t>magiquo</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="218">
@@ -4933,7 +4933,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Claire joster</t>
+          <t>ThePowerMBA</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -4945,7 +4945,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>0.44</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="219">
@@ -4954,7 +4954,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Sopra Steria</t>
+          <t>Claire joster</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -4966,7 +4966,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>0.62</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="220">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Spotlab</t>
+          <t>Di-Dy</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>0.61</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="221">
@@ -4996,7 +4996,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Private-Radar</t>
+          <t>HETIKUS</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -5008,7 +5008,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>0.49</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="222">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Di-Dy</t>
+          <t>Private-Radar</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -5029,7 +5029,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>0.4</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="223">
@@ -5038,7 +5038,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Syntonize</t>
+          <t>Bring Global</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -5050,7 +5050,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0.37</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="224">
@@ -5059,7 +5059,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Blue Telecom Consulting</t>
+          <t>Arvato Bertelsmann</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>0.59</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="225">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Mantra Internet</t>
+          <t>Blue Telecom Consulting</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="226">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>The Key Talent</t>
+          <t>Minsait</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -5113,7 +5113,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="227">
@@ -5122,7 +5122,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Hays</t>
+          <t>Mantra Internet</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -5134,7 +5134,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>0.46</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="228">
@@ -5143,7 +5143,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Arvato Bertelsmann</t>
+          <t>Keedio</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -5155,7 +5155,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="229">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Bring Global</t>
+          <t>The Key Talent</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="230">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>SIVSA</t>
+          <t>Syntonize</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -5197,7 +5197,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="231">
@@ -5642,122 +5642,122 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Mantra</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>magiquo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>interacso</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>BinPar Team SL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ThePowerMBA</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Mediasmart</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Spotlab</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Blue Telecom Consulting</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>TECHEDGE ESPAÑA</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Di-Dy</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Mantra Internet</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Sopra Steria</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>HETIKUS</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Private-Radar</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Di-Dy</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Spotlab</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Sopra Steria</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Mantra Internet</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Mantra</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>interacso</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>ThePowerMBA</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>magiquo</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>BinPar Team SL</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Hays</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Claire joster</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Bring Global</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>TECHEDGE ESPAÑA</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Keedio</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>The Key Talent</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Syntonize</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Arvato Bertelsmann</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Minsait</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Hays</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Keedio</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Claire joster</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>STRATESYS</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Syntonize</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>SIVSA</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>The Key Talent</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Arvato Bertelsmann</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
@@ -5772,105 +5772,109 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Juan Antonio Pérez Gago</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Juan Manuel Arnelas Benito</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Juan Bautista Martín Navarro</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Ernesto Gómez López</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cristina Vegas González</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>María Gabaldón Rico</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Aledia Ortega Britos</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Sachin Tekchandani Pursnani</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Rubén Polo Redondo</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Natalia Franquet</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Noah Wang teng</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Lucía Astray</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Benjamin Garcia</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Tino Gutiérrez</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Jorge Luis Hernández Fernández</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>José Luis Avilés Molina</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Jorge Rodríguez Salas</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Rafael Arrieta garcia</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
           <t>Paula Filipe</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Juan Antonio Pérez Gago</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Juan Manuel Arnelas Benito</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Juan Bautista Martín Navarro</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Ernesto Gómez López</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Cristina Vegas González</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>María Gabaldón Rico</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Aledia Ortega Britos</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Sachin Tekchandani Pursnani</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Rubén Polo Redondo</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Natalia Franquet</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Noah Wang teng</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Lucía Astray</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Benjamin Garcia</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Tino Gutiérrez</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Jorge Luis Hernández Fernández</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>José Luis Avilés Molina</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Jorge Rodríguez Salas</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Rafael Arrieta garcia</t>
-        </is>
-      </c>
       <c r="U2" t="inlineStr">
         <is>
           <t>Anthony Michael Garcia Serra</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr"/>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Alessio Marinoni</t>
+        </is>
+      </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
@@ -5882,109 +5886,105 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Sachin Tekchandani Pursnani</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Noah Wang teng</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Rubén Polo Redondo</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Lucía Astray</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Natalia Franquet</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Paula Filipe</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cristina Vegas González</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Juan Antonio Pérez Gago</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Tino Gutiérrez</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Ernesto Gómez López</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Aledia Ortega Britos</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>María Gabaldón Rico</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>Juan Manuel Arnelas Benito</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Juan Bautista Martín Navarro</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>José Luis Avilés Molina</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Rafael Arrieta garcia</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
         <is>
           <t>Benjamin Garcia</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Noah Wang teng</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Natalia Franquet</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Jorge Rodríguez Salas</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr">
         <is>
           <t>Jorge Luis Hernández Fernández</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Sachin Tekchandani Pursnani</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Rubén Polo Redondo</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Tino Gutiérrez</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>María Gabaldón Rico</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Aledia Ortega Britos</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Juan Antonio Pérez Gago</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Ernesto Gómez López</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Juan Bautista Martín Navarro</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>José Luis Avilés Molina</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Cristina Vegas González</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Rafael Arrieta garcia</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Paula Filipe</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Lucía Astray</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>Jorge Rodríguez Salas</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>Anthony Michael Garcia Serra</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>Alessio Marinoni</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr"/>
@@ -6001,105 +6001,105 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Cristina Vegas González</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Juan Manuel Arnelas Benito</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Juan Antonio Pérez Gago</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Ernesto Gómez López</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Juan Bautista Martín Navarro</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Natalia Franquet</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Tino Gutiérrez</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>María Gabaldón Rico</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Lucía Astray</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Benjamin Garcia</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Noah Wang teng</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Sachin Tekchandani Pursnani</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Rubén Polo Redondo</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Anthony Michael Garcia Serra</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Jorge Luis Hernández Fernández</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Paula Filipe</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr">
+        <is>
           <t>José Luis Avilés Molina</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Lucía Astray</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Benjamin Garcia</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Noah Wang teng</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Ernesto Gómez López</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Juan Manuel Arnelas Benito</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>Rafael Arrieta garcia</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Juan Bautista Martín Navarro</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Cristina Vegas González</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Rubén Polo Redondo</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Sachin Tekchandani Pursnani</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>María Gabaldón Rico</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Tino Gutiérrez</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Juan Antonio Pérez Gago</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Alessio Marinoni</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>Jorge Rodríguez Salas</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Paula Filipe</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Natalia Franquet</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>Alessio Marinoni</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>Anthony Michael Garcia Serra</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>Jorge Luis Hernández Fernández</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr"/>
@@ -6110,113 +6110,113 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Juan Manuel Arnelas Benito</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Juan Antonio Pérez Gago</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Ernesto Gómez López</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Aledia Ortega Britos</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>María Gabaldón Rico</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Cristina Vegas González</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Lucía Astray</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Natalia Franquet</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>Juan Bautista Martín Navarro</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>José Luis Avilés Molina</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Jorge Rodríguez Salas</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Benjamin Garcia</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Rubén Polo Redondo</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Sachin Tekchandani Pursnani</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>Tino Gutiérrez</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Sachin Tekchandani Pursnani</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Rubén Polo Redondo</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Lucía Astray</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Natalia Franquet</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>Noah Wang teng</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Benjamin Garcia</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Aledia Ortega Britos</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Juan Manuel Arnelas Benito</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Ernesto Gómez López</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Cristina Vegas González</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Juan Antonio Pérez Gago</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Paula Filipe</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>María Gabaldón Rico</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Alessio Marinoni</t>
-        </is>
-      </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Anthony Michael Garcia Serra</t>
+          <t>Jorge Luis Hernández Fernández</t>
         </is>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr">
         <is>
-          <t>Jorge Luis Hernández Fernández</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr"/>
+          <t>Rafael Arrieta garcia</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Paula Filipe</t>
+        </is>
+      </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Rafael Arrieta garcia</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>Jorge Rodríguez Salas</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>José Luis Avilés Molina</t>
-        </is>
-      </c>
+          <t>Anthony Michael Garcia Serra</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Alessio Marinoni</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -6224,113 +6224,113 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>María Gabaldón Rico</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ernesto Gómez López</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Aledia Ortega Britos</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Juan Bautista Martín Navarro</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Juan Antonio Pérez Gago</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Juan Manuel Arnelas Benito</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>Sachin Tekchandani Pursnani</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>María Gabaldón Rico</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Benjamin Garcia</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>Cristina Vegas González</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Ernesto Gómez López</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Jorge Luis Hernández Fernández</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Tino Gutiérrez</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Rubén Polo Redondo</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Noah Wang teng</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Natalia Franquet</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Paula Filipe</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Lucía Astray</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>José Luis Avilés Molina</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Alessio Marinoni</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
         <is>
           <t>Jorge Rodríguez Salas</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Juan Antonio Pérez Gago</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Juan Bautista Martín Navarro</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Paula Filipe</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Noah Wang teng</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Lucía Astray</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Aledia Ortega Britos</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Rubén Polo Redondo</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Natalia Franquet</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Alessio Marinoni</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Juan Manuel Arnelas Benito</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Benjamin Garcia</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>José Luis Avilés Molina</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>Tino Gutiérrez</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>Jorge Luis Hernández Fernández</t>
-        </is>
-      </c>
+      <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr">
         <is>
           <t>Rafael Arrieta garcia</t>
         </is>
       </c>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>Anthony Michael Garcia Serra</t>
         </is>
       </c>
+      <c r="Z6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -6338,98 +6338,98 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Tino Gutiérrez</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Lucía Astray</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Sachin Tekchandani Pursnani</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Rubén Polo Redondo</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Noah Wang teng</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Natalia Franquet</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Juan Bautista Martín Navarro</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Juan Manuel Arnelas Benito</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Benjamin Garcia</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>María Gabaldón Rico</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Alessio Marinoni</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Ernesto Gómez López</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Juan Antonio Pérez Gago</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>Cristina Vegas González</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Natalia Franquet</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Rubén Polo Redondo</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Sachin Tekchandani Pursnani</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>José Luis Avilés Molina</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Lucía Astray</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Benjamin Garcia</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Jorge Rodríguez Salas</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Juan Manuel Arnelas Benito</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Ernesto Gómez López</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>María Gabaldón Rico</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Juan Antonio Pérez Gago</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>Aledia Ortega Britos</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Jorge Luis Hernández Fernández</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Juan Bautista Martín Navarro</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Tino Gutiérrez</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>Noah Wang teng</t>
-        </is>
-      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Anthony Michael Garcia Serra</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr">
         <is>
-          <t>Paula Filipe</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr"/>
+          <t>Jorge Rodríguez Salas</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>José Luis Avilés Molina</t>
+        </is>
+      </c>
       <c r="X7" t="inlineStr">
         <is>
           <t>Rafael Arrieta garcia</t>
@@ -6437,14 +6437,10 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>Anthony Michael Garcia Serra</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>Alessio Marinoni</t>
-        </is>
-      </c>
+          <t>Jorge Luis Hernández Fernández</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -6452,106 +6448,110 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Ernesto Gómez López</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Juan Bautista Martín Navarro</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>María Gabaldón Rico</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Cristina Vegas González</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Juan Manuel Arnelas Benito</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Juan Antonio Pérez Gago</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Rubén Polo Redondo</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Lucía Astray</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Aledia Ortega Britos</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Tino Gutiérrez</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Jorge Luis Hernández Fernández</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Sachin Tekchandani Pursnani</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>Natalia Franquet</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Juan Manuel Arnelas Benito</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Juan Antonio Pérez Gago</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Cristina Vegas González</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>María Gabaldón Rico</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Juan Bautista Martín Navarro</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Ernesto Gómez López</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Noah Wang teng</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Jorge Rodríguez Salas</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Benjamin Garcia</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Rafael Arrieta garcia</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>Alessio Marinoni</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Tino Gutiérrez</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Sachin Tekchandani Pursnani</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Noah Wang teng</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Lucía Astray</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Rubén Polo Redondo</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Benjamin Garcia</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr">
         <is>
           <t>José Luis Avilés Molina</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Anthony Michael Garcia Serra</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>Aledia Ortega Britos</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>Rafael Arrieta garcia</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr">
         <is>
-          <t>Jorge Luis Hernández Fernández</t>
+          <t>Anthony Michael Garcia Serra</t>
         </is>
       </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>Jorge Rodríguez Salas</t>
+          <t>Paula Filipe</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr"/>
@@ -6562,113 +6562,113 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Noah Wang teng</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Rubén Polo Redondo</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Lucía Astray</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Natalia Franquet</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Aledia Ortega Britos</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Sachin Tekchandani Pursnani</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>Juan Antonio Pérez Gago</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Lucía Astray</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Natalia Franquet</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Noah Wang teng</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>María Gabaldón Rico</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Juan Manuel Arnelas Benito</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Jorge Rodríguez Salas</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Paula Filipe</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Juan Bautista Martín Navarro</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Cristina Vegas González</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Ernesto Gómez López</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Benjamin Garcia</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>Tino Gutiérrez</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Rubén Polo Redondo</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Sachin Tekchandani Pursnani</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Alessio Marinoni</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>José Luis Avilés Molina</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr">
         <is>
           <t>Jorge Luis Hernández Fernández</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Ernesto Gómez López</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>María Gabaldón Rico</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Juan Manuel Arnelas Benito</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Juan Bautista Martín Navarro</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Cristina Vegas González</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>Rafael Arrieta garcia</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Aledia Ortega Britos</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>Anthony Michael Garcia Serra</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Jorge Rodríguez Salas</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Alessio Marinoni</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>Benjamin Garcia</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>José Luis Avilés Molina</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>Paula Filipe</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -6676,107 +6676,107 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Cristina Vegas González</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>María Gabaldón Rico</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Juan Antonio Pérez Gago</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Juan Manuel Arnelas Benito</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juan Bautista Martín Navarro</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Ernesto Gómez López</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Noah Wang teng</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Jorge Luis Hernández Fernández</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>Sachin Tekchandani Pursnani</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>Benjamin Garcia</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>José Luis Avilés Molina</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Natalia Franquet</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Aledia Ortega Britos</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Lucía Astray</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Rafael Arrieta garcia</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Rubén Polo Redondo</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Anthony Michael Garcia Serra</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Jorge Rodríguez Salas</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
         <is>
           <t>Tino Gutiérrez</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Natalia Franquet</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Aledia Ortega Britos</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Lucía Astray</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Noah Wang teng</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Juan Antonio Pérez Gago</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Juan Bautista Martín Navarro</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Cristina Vegas González</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Juan Manuel Arnelas Benito</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Ernesto Gómez López</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Jorge Rodríguez Salas</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Rubén Polo Redondo</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Jorge Luis Hernández Fernández</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>Rafael Arrieta garcia</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>José Luis Avilés Molina</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>Anthony Michael Garcia Serra</t>
+          <t>Paula Filipe</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>Paula Filipe</t>
-        </is>
-      </c>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
           <t>Alessio Marinoni</t>
@@ -6790,108 +6790,108 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Lucía Astray</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Aledia Ortega Britos</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Natalia Franquet</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Noah Wang teng</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sachin Tekchandani Pursnani</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Rubén Polo Redondo</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Juan Manuel Arnelas Benito</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>Cristina Vegas González</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Ernesto Gómez López</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Rafael Arrieta garcia</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Anthony Michael Garcia Serra</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Juan Antonio Pérez Gago</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>Juan Bautista Martín Navarro</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>María Gabaldón Rico</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Rafael Arrieta garcia</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Juan Manuel Arnelas Benito</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Juan Antonio Pérez Gago</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Anthony Michael Garcia Serra</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Lucía Astray</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Natalia Franquet</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Sachin Tekchandani Pursnani</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Aledia Ortega Britos</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Noah Wang teng</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Ernesto Gómez López</t>
+          <t>Alessio Marinoni</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Tino Gutiérrez</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Alessio Marinoni</t>
-        </is>
-      </c>
+          <t>Jorge Rodríguez Salas</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr">
         <is>
-          <t>Jorge Rodríguez Salas</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr"/>
+          <t>Jorge Luis Hernández Fernández</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Benjamin Garcia</t>
+        </is>
+      </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>Benjamin Garcia</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>Jorge Luis Hernández Fernández</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
           <t>José Luis Avilés Molina</t>
         </is>
       </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Tino Gutiérrez</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
           <t>Paula Filipe</t>
@@ -6904,112 +6904,112 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Juan Bautista Martín Navarro</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Sachin Tekchandani Pursnani</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Cristina Vegas González</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>María Gabaldón Rico</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Rubén Polo Redondo</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Aledia Ortega Britos</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>Ernesto Gómez López</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>José Luis Avilés Molina</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Juan Antonio Pérez Gago</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Noah Wang teng</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Rafael Arrieta garcia</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Juan Manuel Arnelas Benito</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Lucía Astray</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Benjamin Garcia</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Natalia Franquet</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Tino Gutiérrez</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Paula Filipe</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Anthony Michael Garcia Serra</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Alessio Marinoni</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
         <is>
           <t>Jorge Luis Hernández Fernández</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Aledia Ortega Britos</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Lucía Astray</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Benjamin Garcia</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Noah Wang teng</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Natalia Franquet</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>José Luis Avilés Molina</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Cristina Vegas González</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Juan Antonio Pérez Gago</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Juan Bautista Martín Navarro</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>María Gabaldón Rico</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Juan Manuel Arnelas Benito</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Anthony Michael Garcia Serra</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Sachin Tekchandani Pursnani</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Rafael Arrieta garcia</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>Rubén Polo Redondo</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>Tino Gutiérrez</t>
-        </is>
-      </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>Alessio Marinoni</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
           <t>Jorge Rodríguez Salas</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>Paula Filipe</t>
-        </is>
-      </c>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -7018,72 +7018,76 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Rubén Polo Redondo</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Natalia Franquet</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Noah Wang teng</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Sachin Tekchandani Pursnani</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Paula Filipe</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Alessio Marinoni</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>María Gabaldón Rico</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>Aledia Ortega Britos</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Lucía Astray</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Juan Manuel Arnelas Benito</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Cristina Vegas González</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>Ernesto Gómez López</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>Juan Antonio Pérez Gago</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Juan Manuel Arnelas Benito</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>María Gabaldón Rico</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Cristina Vegas González</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Rubén Polo Redondo</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Noah Wang teng</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Paula Filipe</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Natalia Franquet</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Sachin Tekchandani Pursnani</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Lucía Astray</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Juan Bautista Martín Navarro</t>
+        </is>
+      </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr">
         <is>
@@ -7092,28 +7096,24 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>Juan Bautista Martín Navarro</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
+          <t>Tino Gutiérrez</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Rafael Arrieta garcia</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr">
         <is>
           <t>Jorge Rodríguez Salas</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>Benjamin Garcia</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>Tino Gutiérrez</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>Rafael Arrieta garcia</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -7144,97 +7144,97 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Juan Antonio Pérez Gago</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Juan Manuel Arnelas Benito</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Juan Bautista Martín Navarro</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Ernesto Gómez López</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Cristina Vegas González</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>María Gabaldón Rico</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Aledia Ortega Britos</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Sachin Tekchandani Pursnani</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Rubén Polo Redondo</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Natalia Franquet</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Noah Wang teng</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Lucía Astray</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Benjamin Garcia</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Tino Gutiérrez</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Jorge Luis Hernández Fernández</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>José Luis Avilés Molina</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Jorge Rodríguez Salas</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Rafael Arrieta garcia</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>Paula Filipe</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Juan Antonio Pérez Gago</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Juan Manuel Arnelas Benito</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Juan Bautista Martín Navarro</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Ernesto Gómez López</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Cristina Vegas González</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>María Gabaldón Rico</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Aledia Ortega Britos</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Sachin Tekchandani Pursnani</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Rubén Polo Redondo</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Natalia Franquet</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Noah Wang teng</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Lucía Astray</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Benjamin Garcia</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Tino Gutiérrez</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Jorge Luis Hernández Fernández</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>José Luis Avilés Molina</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Jorge Rodríguez Salas</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Rafael Arrieta garcia</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
@@ -7254,89 +7254,89 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Mantra</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>magiquo</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>interacso</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>BinPar Team SL</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>ThePowerMBA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>Mediasmart</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Spotlab</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>Blue Telecom Consulting</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>TECHEDGE ESPAÑA</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Di-Dy</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Mantra Internet</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Sopra Steria</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>HETIKUS</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Private-Radar</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Di-Dy</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Spotlab</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Sopra Steria</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Mantra Internet</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Mantra</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>interacso</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>ThePowerMBA</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>magiquo</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>BinPar Team SL</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Hays</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Claire joster</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
         <is>
           <t>Bring Global</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>TECHEDGE ESPAÑA</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Minsait</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Hays</t>
-        </is>
-      </c>
       <c r="S2" t="inlineStr">
         <is>
           <t>Keedio</t>
@@ -7344,15 +7344,19 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Claire joster</t>
+          <t>The Key Talent</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>STRATESYS</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr"/>
+          <t>Syntonize</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Arvato Bertelsmann</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -7360,109 +7364,105 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Blue Telecom Consulting</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>HETIKUS</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Private-Radar</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Di-Dy</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Spotlab</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Sopra Steria</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Mantra Internet</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Mantra</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>interacso</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>ThePowerMBA</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>magiquo</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>BinPar Team SL</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Bring Global</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>TECHEDGE ESPAÑA</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Minsait</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
           <t>Hays</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ThePowerMBA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Keedio</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Claire joster</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
         <is>
           <t>Mediasmart</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>BinPar Team SL</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>magiquo</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>TECHEDGE ESPAÑA</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Mantra</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>interacso</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Spotlab</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Sopra Steria</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Private-Radar</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>HETIKUS</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Claire joster</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Blue Telecom Consulting</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Mantra Internet</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Di-Dy</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Bring Global</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Syntonize</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Minsait</t>
-        </is>
-      </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>SIVSA</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>The Key Talent</t>
-        </is>
-      </c>
+          <t>STRATESYS</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -7470,107 +7470,107 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Keedio</t>
+          <t>BinPar Team SL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>interacso</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mediasmart</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ThePowerMBA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>magiquo</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>TECHEDGE ESPAÑA</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mantra</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>HETIKUS</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Private-Radar</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Spotlab</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>Sopra Steria</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Mantra</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Spotlab</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>interacso</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>BinPar Team SL</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Mediasmart</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>magiquo</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>ThePowerMBA</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Di-Dy</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Mantra Internet</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Blue Telecom Consulting</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>Claire joster</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Di-Dy</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>HETIKUS</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Private-Radar</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>The Key Talent</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>SIVSA</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Syntonize</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
         <is>
           <t>Bring Global</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Arvato Bertelsmann</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Blue Telecom Consulting</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Hays</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>Minsait</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Mantra Internet</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>The Key Talent</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>Syntonize</t>
         </is>
       </c>
     </row>
@@ -7580,94 +7580,94 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>magiquo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mantra</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TECHEDGE ESPAÑA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>interacso</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mediasmart</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>ThePowerMBA</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>BinPar Team SL</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Private-Radar</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>HETIKUS</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Blue Telecom Consulting</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Claire joster</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Spotlab</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Sopra Steria</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Hays</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
           <t>Bring Global</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>BinPar Team SL</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>interacso</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Mediasmart</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>ThePowerMBA</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>magiquo</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>TECHEDGE ESPAÑA</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Mantra</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>HETIKUS</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Private-Radar</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Spotlab</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Sopra Steria</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>Di-Dy</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>Mantra Internet</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Blue Telecom Consulting</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Claire joster</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>The Key Talent</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>SIVSA</t>
-        </is>
-      </c>
       <c r="T5" t="inlineStr">
         <is>
           <t>Syntonize</t>
@@ -7675,12 +7675,12 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>Hays</t>
+          <t>Arvato Bertelsmann</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Minsait</t>
+          <t>Deloitte</t>
         </is>
       </c>
     </row>
@@ -7690,107 +7690,107 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>ThePowerMBA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mediasmart</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>BinPar Team SL</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>magiquo</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>TECHEDGE ESPAÑA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Mantra</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>interacso</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Spotlab</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Sopra Steria</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Private-Radar</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>HETIKUS</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Claire joster</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Blue Telecom Consulting</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>Mantra Internet</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Spotlab</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>TECHEDGE ESPAÑA</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Sopra Steria</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Private-Radar</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>HETIKUS</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Blue Telecom Consulting</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>ThePowerMBA</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Mediasmart</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>magiquo</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>BinPar Team SL</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Mantra</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>interacso</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Di-Dy</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Bring Global</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Syntonize</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Minsait</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
         <is>
           <t>Hays</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Claire joster</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Syntonize</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Keedio</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Di-Dy</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>SIVSA</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>Deloitte</t>
-        </is>
-      </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Bring Global</t>
+          <t>The Key Talent</t>
         </is>
       </c>
     </row>
@@ -7800,107 +7800,103 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Syntonize</t>
+          <t>HETIKUS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>Blue Telecom Consulting</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Spotlab</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sopra Steria</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Private-Radar</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Di-Dy</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Claire joster</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>interacso</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>BinPar Team SL</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Mediasmart</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>ThePowerMBA</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
           <t>magiquo</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>TECHEDGE ESPAÑA</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>Mantra</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>TECHEDGE ESPAÑA</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>interacso</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Mediasmart</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ThePowerMBA</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>BinPar Team SL</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Private-Radar</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>HETIKUS</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Blue Telecom Consulting</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Claire joster</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Spotlab</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Sopra Steria</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Hays</t>
+          <t>SIVSA</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Bring Global</t>
+          <t>Minsait</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Di-Dy</t>
+          <t>Arvato Bertelsmann</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
+          <t>STRATESYS</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Keedio</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
           <t>Mantra Internet</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>The Key Talent</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>Arvato Bertelsmann</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>Deloitte</t>
         </is>
       </c>
     </row>
@@ -7908,105 +7904,109 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mediasmart</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>ThePowerMBA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>magiquo</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Mantra</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>BinPar Team SL</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>interacso</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>TECHEDGE ESPAÑA</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Sopra Steria</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Spotlab</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>HETIKUS</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Private-Radar</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>Blue Telecom Consulting</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Spotlab</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sopra Steria</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Private-Radar</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Claire joster</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>Di-Dy</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Claire joster</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>interacso</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>BinPar Team SL</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Mediasmart</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>ThePowerMBA</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>magiquo</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>TECHEDGE ESPAÑA</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>Mantra Internet</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
+          <t>Syntonize</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Hays</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Bring Global</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
           <t>SIVSA</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>Minsait</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Arvato Bertelsmann</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>STRATESYS</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>Keedio</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>Mantra Internet</t>
         </is>
       </c>
     </row>
@@ -8016,107 +8016,107 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Spotlab</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>TECHEDGE ESPAÑA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Sopra Steria</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Private-Radar</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>HETIKUS</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Blue Telecom Consulting</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>ThePowerMBA</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Mediasmart</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>magiquo</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>BinPar Team SL</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Mantra</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>interacso</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Hays</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Claire joster</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Syntonize</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Keedio</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Di-Dy</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>SIVSA</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Mediasmart</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ThePowerMBA</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>magiquo</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Mantra</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>BinPar Team SL</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>interacso</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>TECHEDGE ESPAÑA</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Sopra Steria</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Spotlab</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>HETIKUS</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Private-Radar</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Blue Telecom Consulting</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Claire joster</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Di-Dy</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>Mantra Internet</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Syntonize</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Hays</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
         <is>
           <t>Bring Global</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>Minsait</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>Keedio</t>
         </is>
       </c>
     </row>
@@ -8126,107 +8126,107 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>interacso</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>BinPar Team SL</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ThePowerMBA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Mediasmart</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Mantra</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>magiquo</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>HETIKUS</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>TECHEDGE ESPAÑA</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Claire joster</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Sopra Steria</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Spotlab</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Private-Radar</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Di-Dy</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Syntonize</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Blue Telecom Consulting</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Mantra Internet</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
           <t>The Key Talent</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Mantra</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>magiquo</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>interacso</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>BinPar Team SL</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>ThePowerMBA</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Mediasmart</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Spotlab</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Blue Telecom Consulting</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>TECHEDGE ESPAÑA</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Di-Dy</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Mantra Internet</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Sopra Steria</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>HETIKUS</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Private-Radar</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>Hays</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Claire joster</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Arvato Bertelsmann</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
         <is>
           <t>Bring Global</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>Keedio</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>Syntonize</t>
-        </is>
-      </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>Arvato Bertelsmann</t>
+          <t>SIVSA</t>
         </is>
       </c>
     </row>
@@ -8236,97 +8236,97 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Sopra Steria</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Spotlab</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>HETIKUS</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>TECHEDGE ESPAÑA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Blue Telecom Consulting</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Private-Radar</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>magiquo</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>ThePowerMBA</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Mediasmart</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>interacso</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>BinPar Team SL</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Mantra</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Syntonize</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Minsait</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>The Key Talent</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Arvato Bertelsmann</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Claire joster</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Di-Dy</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
           <t>Deloitte</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Sopra Steria</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Spotlab</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>HETIKUS</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>TECHEDGE ESPAÑA</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Blue Telecom Consulting</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Private-Radar</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>magiquo</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>ThePowerMBA</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Mediasmart</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>interacso</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>BinPar Team SL</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Mantra</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Syntonize</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Minsait</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>The Key Talent</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Arvato Bertelsmann</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>Claire joster</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>Di-Dy</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -8346,107 +8346,107 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>TECHEDGE ESPAÑA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Sopra Steria</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Mantra</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Spotlab</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>interacso</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>BinPar Team SL</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Mediasmart</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>magiquo</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ThePowerMBA</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Claire joster</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Di-Dy</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>HETIKUS</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Private-Radar</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Bring Global</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
           <t>Arvato Bertelsmann</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>interacso</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>BinPar Team SL</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ThePowerMBA</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Mediasmart</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Mantra</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>magiquo</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>HETIKUS</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>TECHEDGE ESPAÑA</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Claire joster</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Sopra Steria</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Spotlab</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Private-Radar</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Di-Dy</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Blue Telecom Consulting</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Minsait</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Mantra Internet</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Keedio</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>The Key Talent</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
         <is>
           <t>Syntonize</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Blue Telecom Consulting</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Mantra Internet</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>The Key Talent</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>Hays</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>Bring Global</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>SIVSA</t>
         </is>
       </c>
     </row>
@@ -8456,97 +8456,97 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Private-Radar</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Di-Dy</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Claire joster</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>HETIKUS</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sopra Steria</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Spotlab</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Blue Telecom Consulting</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>BinPar Team SL</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Mantra</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>magiquo</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>interacso</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>TECHEDGE ESPAÑA</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>SIVSA</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>The Key Talent</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Keedio</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>STRATESYS</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Arvato Bertelsmann</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
           <t>ThePowerMBA</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Private-Radar</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Di-Dy</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Claire joster</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>HETIKUS</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Sopra Steria</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Spotlab</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Blue Telecom Consulting</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>BinPar Team SL</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Mantra</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>magiquo</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>interacso</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>TECHEDGE ESPAÑA</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>SIVSA</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>The Key Talent</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>Keedio</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>Deloitte</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>STRATESYS</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>Arvato Bertelsmann</t>
         </is>
       </c>
       <c r="U13" t="inlineStr"/>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -397,7 +397,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>magiquo</t>
+          <t>ThePowerMBA</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -409,7 +409,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.73</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="3">
@@ -418,7 +418,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>Mediasmart</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -430,7 +430,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.74</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="4">
@@ -439,7 +439,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TECHEDGE ESPAÑA</t>
+          <t>BinPar Team SL</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="5">
@@ -460,7 +460,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>interacso</t>
+          <t>magiquo</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.82</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="6">
@@ -481,7 +481,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mediasmart</t>
+          <t>TECHEDGE ESPAÑA</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.96</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ThePowerMBA</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.89</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BinPar Team SL</t>
+          <t>interacso</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="9">
@@ -544,7 +544,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Private-Radar</t>
+          <t>Spotlab</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="10">
@@ -565,7 +565,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HETIKUS</t>
+          <t>Sopra Steria</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="11">
@@ -586,7 +586,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Blue Telecom Consulting</t>
+          <t>Private-Radar</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
@@ -607,7 +607,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Claire joster</t>
+          <t>HETIKUS</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.48</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="13">
@@ -628,7 +628,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Spotlab</t>
+          <t>Claire joster</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.64</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="14">
@@ -649,7 +649,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sopra Steria</t>
+          <t>Blue Telecom Consulting</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.61</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="15">
@@ -670,7 +670,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Hays</t>
+          <t>Mantra Internet</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.28</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="16">
@@ -691,7 +691,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bring Global</t>
+          <t>Di-Dy</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.28</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="17">
@@ -712,7 +712,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Di-Dy</t>
+          <t>Bring Global</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.42</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="18">
@@ -733,7 +733,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Mantra Internet</t>
+          <t>Syntonize</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.37</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="19">
@@ -754,7 +754,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>The Key Talent</t>
+          <t>Minsait</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="20">
@@ -775,7 +775,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Syntonize</t>
+          <t>Hays</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.27</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="21">
@@ -796,7 +796,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Arvato Bertelsmann</t>
+          <t>SIVSA</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="22">
@@ -817,7 +817,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Deloitte</t>
+          <t>The Key Talent</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.09</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="23">
@@ -838,7 +838,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>Sopra Steria</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.72</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="24">
@@ -859,7 +859,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>magiquo</t>
+          <t>Spotlab</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.72</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="25">
@@ -880,7 +880,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>interacso</t>
+          <t>HETIKUS</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.72</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="26">
@@ -901,7 +901,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BinPar Team SL</t>
+          <t>TECHEDGE ESPAÑA</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="27">
@@ -922,7 +922,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ThePowerMBA</t>
+          <t>Blue Telecom Consulting</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.88</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="28">
@@ -943,7 +943,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Mediasmart</t>
+          <t>Private-Radar</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29">
@@ -964,7 +964,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Spotlab</t>
+          <t>magiquo</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.58</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="30">
@@ -985,7 +985,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Blue Telecom Consulting</t>
+          <t>ThePowerMBA</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="31">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TECHEDGE ESPAÑA</t>
+          <t>Mediasmart</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="32">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Di-Dy</t>
+          <t>interacso</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.41</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="33">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mantra Internet</t>
+          <t>BinPar Team SL</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.46</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="34">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sopra Steria</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="35">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>HETIKUS</t>
+          <t>Syntonize</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.6</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="36">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Private-Radar</t>
+          <t>Minsait</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.49</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="37">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Hays</t>
+          <t>The Key Talent</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="38">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Claire joster</t>
+          <t>Arvato Bertelsmann</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.43</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="39">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bring Global</t>
+          <t>Claire joster</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="40">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Keedio</t>
+          <t>Di-Dy</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.46</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="41">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>The Key Talent</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="42">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Syntonize</t>
+          <t>Mantra Internet</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.42</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="43">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Arvato Bertelsmann</t>
+          <t>Hays</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.17</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="44">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sopra Steria</t>
+          <t>Spotlab</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Spotlab</t>
+          <t>TECHEDGE ESPAÑA</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="46">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>HETIKUS</t>
+          <t>Sopra Steria</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.62</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="47">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TECHEDGE ESPAÑA</t>
+          <t>Private-Radar</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.79</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="48">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Blue Telecom Consulting</t>
+          <t>HETIKUS</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="49">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Private-Radar</t>
+          <t>Blue Telecom Consulting</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="50">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>magiquo</t>
+          <t>ThePowerMBA</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.72</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="51">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ThePowerMBA</t>
+          <t>Mediasmart</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="52">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Mediasmart</t>
+          <t>magiquo</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.9</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="53">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>interacso</t>
+          <t>BinPar Team SL</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="54">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BinPar Team SL</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="55">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>interacso</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="56">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Syntonize</t>
+          <t>Hays</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1543,7 +1543,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="57">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Minsait</t>
+          <t>Claire joster</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.26</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="58">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>The Key Talent</t>
+          <t>Syntonize</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Arvato Bertelsmann</t>
+          <t>Keedio</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="60">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Claire joster</t>
+          <t>Di-Dy</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="61">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Di-Dy</t>
+          <t>SIVSA</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.76</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="62">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Deloitte</t>
+          <t>Mantra Internet</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.13</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="63">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Mantra Internet</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.47</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="64">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Hays</t>
+          <t>Bring Global</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.28</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="65">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BinPar Team SL</t>
+          <t>HETIKUS</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.77</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="66">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>interacso</t>
+          <t>Blue Telecom Consulting</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.82</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="67">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Mediasmart</t>
+          <t>Spotlab</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.96</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="68">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ThePowerMBA</t>
+          <t>Sopra Steria</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -1795,7 +1795,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="69">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>magiquo</t>
+          <t>Private-Radar</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.71</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="70">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TECHEDGE ESPAÑA</t>
+          <t>Di-Dy</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.7</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="71">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>Claire joster</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.63</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="72">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>HETIKUS</t>
+          <t>interacso</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.58</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="73">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Private-Radar</t>
+          <t>BinPar Team SL</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="74">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Spotlab</t>
+          <t>Mediasmart</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.66</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="75">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Sopra Steria</t>
+          <t>ThePowerMBA</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.58</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="76">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Di-Dy</t>
+          <t>magiquo</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.4</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="77">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Mantra Internet</t>
+          <t>TECHEDGE ESPAÑA</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.35</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="78">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Blue Telecom Consulting</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="79">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Claire joster</t>
+          <t>SIVSA</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.39</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="80">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>The Key Talent</t>
+          <t>Minsait</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="81">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SIVSA</t>
+          <t>Arvato Bertelsmann</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="82">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Syntonize</t>
+          <t>STRATESYS</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.55</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="83">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Bring Global</t>
+          <t>Keedio</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -2106,11 +2106,11 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Paula Filipe</t>
+          <t>Anthony Michael Garcia Serra</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.32</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="84">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Hays</t>
+          <t>Mantra Internet</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -2127,11 +2127,11 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Anthony Michael Garcia Serra</t>
+          <t>Alessio Marinoni</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="85">
@@ -2140,19 +2140,19 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Minsait</t>
+          <t>BinPar Team SL</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Alessio Marinoni</t>
+          <t>Juan Antonio Pérez Gago</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.24</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="86">
@@ -2169,11 +2169,11 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Juan Antonio Pérez Gago</t>
+          <t>Juan Manuel Arnelas Benito</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.74</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="87">
@@ -2182,7 +2182,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BinPar Team SL</t>
+          <t>Mediasmart</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2190,11 +2190,11 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Juan Manuel Arnelas Benito</t>
+          <t>Juan Bautista Martín Navarro</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.76</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="88">
@@ -2211,11 +2211,11 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Juan Bautista Martín Navarro</t>
+          <t>Ernesto Gómez López</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="89">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Mediasmart</t>
+          <t>magiquo</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -2232,11 +2232,11 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Ernesto Gómez López</t>
+          <t>Cristina Vegas González</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.97</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="90">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>TECHEDGE ESPAÑA</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -2253,11 +2253,11 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Cristina Vegas González</t>
+          <t>María Gabaldón Rico</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="91">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>magiquo</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -2274,11 +2274,11 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>María Gabaldón Rico</t>
+          <t>Aledia Ortega Britos</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.78</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="92">
@@ -2295,11 +2295,11 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Aledia Ortega Britos</t>
+          <t>Sachin Tekchandani Pursnani</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="93">
@@ -2308,7 +2308,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TECHEDGE ESPAÑA</t>
+          <t>Private-Radar</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -2316,11 +2316,11 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Sachin Tekchandani Pursnani</t>
+          <t>Rubén Polo Redondo</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.75</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="94">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Claire joster</t>
+          <t>Spotlab</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -2337,11 +2337,11 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Rubén Polo Redondo</t>
+          <t>Natalia Franquet</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.44</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="95">
@@ -2358,11 +2358,11 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Natalia Franquet</t>
+          <t>Noah Wang teng</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.62</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="96">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Spotlab</t>
+          <t>Di-Dy</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -2379,11 +2379,11 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Noah Wang teng</t>
+          <t>Lucía Astray</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.61</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="97">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Private-Radar</t>
+          <t>Mantra Internet</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -2400,11 +2400,11 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Lucía Astray</t>
+          <t>Benjamin Garcia</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.49</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="98">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Di-Dy</t>
+          <t>Blue Telecom Consulting</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -2421,11 +2421,11 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Benjamin Garcia</t>
+          <t>Tino Gutiérrez</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="99">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Syntonize</t>
+          <t>Claire joster</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -2442,11 +2442,11 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Tino Gutiérrez</t>
+          <t>Jorge Luis Hernández Fernández</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="100">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Blue Telecom Consulting</t>
+          <t>The Key Talent</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -2463,11 +2463,11 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Jorge Luis Hernández Fernández</t>
+          <t>José Luis Avilés Molina</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.59</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="101">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Mantra Internet</t>
+          <t>SIVSA</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -2484,11 +2484,11 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>José Luis Avilés Molina</t>
+          <t>Jorge Rodríguez Salas</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.42</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="102">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>The Key Talent</t>
+          <t>Syntonize</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -2505,11 +2505,11 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Jorge Rodríguez Salas</t>
+          <t>Rafael Arrieta garcia</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.25</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="103">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Hays</t>
+          <t>Bring Global</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -2526,11 +2526,11 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Rafael Arrieta garcia</t>
+          <t>Paula Filipe</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.46</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="104">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Arvato Bertelsmann</t>
+          <t>Hays</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -2547,11 +2547,11 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Paula Filipe</t>
+          <t>Anthony Michael Garcia Serra</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="105">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Bring Global</t>
+          <t>Minsait</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -2568,11 +2568,11 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Anthony Michael Garcia Serra</t>
+          <t>Alessio Marinoni</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.33</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="106">
@@ -2581,19 +2581,19 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>SIVSA</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Alessio Marinoni</t>
+          <t>Juan Antonio Pérez Gago</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.21</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="107">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TECHEDGE ESPAÑA</t>
+          <t>magiquo</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Juan Antonio Pérez Gago</t>
+          <t>Juan Manuel Arnelas Benito</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Sopra Steria</t>
+          <t>interacso</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -2631,11 +2631,11 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Juan Manuel Arnelas Benito</t>
+          <t>Juan Bautista Martín Navarro</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="109">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>BinPar Team SL</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -2652,11 +2652,11 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Juan Bautista Martín Navarro</t>
+          <t>Ernesto Gómez López</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="110">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Spotlab</t>
+          <t>ThePowerMBA</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -2673,11 +2673,11 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Ernesto Gómez López</t>
+          <t>Cristina Vegas González</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.74</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="111">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>interacso</t>
+          <t>Mediasmart</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -2694,11 +2694,11 @@
       </c>
       <c r="D111" t="inli